--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,23 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD3EA6C-9D5B-49FA-A0AF-6E97A2CFA652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0BEC1-6EC6-4740-BCF5-F2BBD58C06E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="T-codes" sheetId="7" r:id="rId1"/>
-    <sheet name="Tables" sheetId="2" r:id="rId2"/>
-    <sheet name="HANA vs ECC" sheetId="1" r:id="rId3"/>
-    <sheet name="Idoc structure" sheetId="3" r:id="rId4"/>
-    <sheet name="Determinations" sheetId="4" r:id="rId5"/>
-    <sheet name="EDI " sheetId="5" r:id="rId6"/>
-    <sheet name="3rd drop-ship" sheetId="6" r:id="rId7"/>
-    <sheet name="Cross-company" sheetId="8" r:id="rId8"/>
-    <sheet name="STO" sheetId="9" r:id="rId9"/>
-    <sheet name="ALE" sheetId="10" r:id="rId10"/>
-    <sheet name="MTS &amp; MTO" sheetId="11" r:id="rId11"/>
-    <sheet name="Issues!." sheetId="12" r:id="rId12"/>
+    <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
+    <sheet name="Interview" sheetId="15" r:id="rId2"/>
+    <sheet name="T-codes" sheetId="7" r:id="rId3"/>
+    <sheet name="Tables" sheetId="2" r:id="rId4"/>
+    <sheet name="Fields" sheetId="13" r:id="rId5"/>
+    <sheet name="HANA vs ECC" sheetId="1" r:id="rId6"/>
+    <sheet name="Idoc structure" sheetId="3" r:id="rId7"/>
+    <sheet name="Determinations" sheetId="4" r:id="rId8"/>
+    <sheet name="EDI " sheetId="5" r:id="rId9"/>
+    <sheet name="3rd drop-ship" sheetId="6" r:id="rId10"/>
+    <sheet name="Cross-company" sheetId="8" r:id="rId11"/>
+    <sheet name="STO" sheetId="9" r:id="rId12"/>
+    <sheet name="ALE" sheetId="10" r:id="rId13"/>
+    <sheet name="MTS &amp; MTO" sheetId="11" r:id="rId14"/>
+    <sheet name="Issues!." sheetId="12" r:id="rId15"/>
+    <sheet name="Custom Fiori Application" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="652">
   <si>
     <t>Module</t>
   </si>
@@ -1324,12 +1328,6 @@
     </r>
   </si>
   <si>
-    <t>STO is not a customer-facing transaction.
-Scenario: STO
-Consider two plants with a company(UK01).
-Plant A receives an order from a customer and has the parts of goods available for the same. To fulfill the complete order, plant A needs the remaining parts of goods which it will receive from Plant B. This goods fulfillment from plant B to Plant A is called Stock Transfer Order.A1:M3A1:V2A5A1:V3A1:V3A1:V4A1:V5A5A1:V3</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2321,12 +2319,1727 @@
   <si>
     <t>Fix</t>
   </si>
+  <si>
+    <t>EDI partner profiles</t>
+  </si>
+  <si>
+    <t>EDP13</t>
+  </si>
+  <si>
+    <t>Outbound</t>
+  </si>
+  <si>
+    <t>EDP21</t>
+  </si>
+  <si>
+    <t>Inbound</t>
+  </si>
+  <si>
+    <t>MMD</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>Masterial master</t>
+  </si>
+  <si>
+    <t>MAKT</t>
+  </si>
+  <si>
+    <t>mat. Text</t>
+  </si>
+  <si>
+    <t>MARC</t>
+  </si>
+  <si>
+    <t>material per plant/stock</t>
+  </si>
+  <si>
+    <t>MVKE</t>
+  </si>
+  <si>
+    <t>MM, sales data</t>
+  </si>
+  <si>
+    <t>MARD</t>
+  </si>
+  <si>
+    <t>MSKA</t>
+  </si>
+  <si>
+    <t>LIKP</t>
+  </si>
+  <si>
+    <t>SD delivery header data</t>
+  </si>
+  <si>
+    <t>LIPS</t>
+  </si>
+  <si>
+    <t>SD delivery item data</t>
+  </si>
+  <si>
+    <t>Shipment</t>
+  </si>
+  <si>
+    <t>VTTK</t>
+  </si>
+  <si>
+    <t>Shipment header</t>
+  </si>
+  <si>
+    <t>VTTP</t>
+  </si>
+  <si>
+    <t>Shipment item</t>
+  </si>
+  <si>
+    <t>VTTS</t>
+  </si>
+  <si>
+    <t>Stage in a transport</t>
+  </si>
+  <si>
+    <t>VTSP</t>
+  </si>
+  <si>
+    <t>Stage in transport per shipment item</t>
+  </si>
+  <si>
+    <t>VTPA</t>
+  </si>
+  <si>
+    <t>Shipping partners</t>
+  </si>
+  <si>
+    <t>Material &amp;
+Accounting</t>
+  </si>
+  <si>
+    <t>Material document Header data</t>
+  </si>
+  <si>
+    <t>Material document Item data</t>
+  </si>
+  <si>
+    <t>BKPF</t>
+  </si>
+  <si>
+    <t>Accounting document: Header</t>
+  </si>
+  <si>
+    <t>BSEG</t>
+  </si>
+  <si>
+    <t>Accounting document: Item data</t>
+  </si>
+  <si>
+    <t>Enterprise Structure</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Company, company name, Name of company 2
+Street, PO Box, Postal code, City, Country, Language, Currency</t>
+  </si>
+  <si>
+    <t>Company code</t>
+  </si>
+  <si>
+    <t>Sales Organization</t>
+  </si>
+  <si>
+    <t>Sales organization(4 digit), Description, Currency, P. Org, P. group, Plant, Storage location, Order type
+Title, Name, Street/House number, Postal code, Country, PO box, postal code, language.</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Distribution channel , Name</t>
+  </si>
+  <si>
+    <t>Division name</t>
+  </si>
+  <si>
+    <t>Division, Name</t>
+  </si>
+  <si>
+    <t>sales Area</t>
+  </si>
+  <si>
+    <t>Sales org+Distribution channel+Division</t>
+  </si>
+  <si>
+    <t>sales office</t>
+  </si>
+  <si>
+    <t>Sales group</t>
+  </si>
+  <si>
+    <t>Sales group, description</t>
+  </si>
+  <si>
+    <t>Shipping point</t>
+  </si>
+  <si>
+    <t>Shipping point, Description, Factory calendar, Determine load time, Determine pick/pack time, text header, Text footer, Output type, Message language, Number of Messages
+Adress, House/Street number, Postal code, Country, Language</t>
+  </si>
+  <si>
+    <t>General data</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>Refer to FI team</t>
+  </si>
+  <si>
+    <t>Material Master data</t>
+  </si>
+  <si>
+    <t>Basic data</t>
+  </si>
+  <si>
+    <t>Sales org 1</t>
+  </si>
+  <si>
+    <t>sales org 2</t>
+  </si>
+  <si>
+    <t>Material stats group, Item category group, General Item category group</t>
+  </si>
+  <si>
+    <t>sales/plant</t>
+  </si>
+  <si>
+    <t>MRP1</t>
+  </si>
+  <si>
+    <t>MRP2</t>
+  </si>
+  <si>
+    <t>Planned delivery time, GR processing time, Safety stock</t>
+  </si>
+  <si>
+    <t>MRP3</t>
+  </si>
+  <si>
+    <t>MRP4</t>
+  </si>
+  <si>
+    <t>Repetitive Manufacture[]</t>
+  </si>
+  <si>
+    <t>Accounting1</t>
+  </si>
+  <si>
+    <t>Costing1</t>
+  </si>
+  <si>
+    <t>Valuation class (done by FI)</t>
+  </si>
+  <si>
+    <t>Sales Document(VOV8)</t>
+  </si>
+  <si>
+    <t>Number Ranges</t>
+  </si>
+  <si>
+    <t>Internal &amp; external number range, Number increment</t>
+  </si>
+  <si>
+    <t>Check division[], check credit limit, credit group, read info record, Check PO number(A), Item division[], Ref mandatory</t>
+  </si>
+  <si>
+    <t>Transaction flow</t>
+  </si>
+  <si>
+    <t>Document pricing procedure, status profile, quotation msgs, Incomplete msgs, O/P application</t>
+  </si>
+  <si>
+    <t>Item categories(VOV7)</t>
+  </si>
+  <si>
+    <t>Business data</t>
+  </si>
+  <si>
+    <t>Item category for Delivery</t>
+  </si>
+  <si>
+    <t>Warehouse Control</t>
+  </si>
+  <si>
+    <t>Relevant for Pricing[], Storage location req[], Determine storage location[], Auto patch determination[]</t>
+  </si>
+  <si>
+    <t>Schedule line categories(VOV6)</t>
+  </si>
+  <si>
+    <t>Transaction Flow</t>
+  </si>
+  <si>
+    <t>Availability[], Req/Assembly(MRP), Production Allocation[]</t>
+  </si>
+  <si>
+    <t>Billing Type(VOFA)</t>
+  </si>
+  <si>
+    <t>Number System</t>
+  </si>
+  <si>
+    <t>Number range Internal assignment</t>
+  </si>
+  <si>
+    <t>General control</t>
+  </si>
+  <si>
+    <t>Cancellation</t>
+  </si>
+  <si>
+    <t>Cancel Billing Type(S1)</t>
+  </si>
+  <si>
+    <t>Acc Assignment/Pricing</t>
+  </si>
+  <si>
+    <t>Output Partners</t>
+  </si>
+  <si>
+    <t>Delivery Type(OVLK)</t>
+  </si>
+  <si>
+    <t>Number Int Assignment, Number range external, Item number increment</t>
+  </si>
+  <si>
+    <t>Order Reference</t>
+  </si>
+  <si>
+    <t>Order req[X], Item Request[], Default order type[DL}</t>
+  </si>
+  <si>
+    <t>Document content</t>
+  </si>
+  <si>
+    <t>O/P Det.Procedure(V10000), Txt Det. Procedure(02), Route Determination, Partner Det. Procedure(ODCD), O/p Type(LD00), Sto. Location rule(MARE), Application(V2)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Company code, company name, city, Currency, Language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Title, Name, street, postcal code, country, PO box, postal code, Language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Telephone, Fax, Email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sales office, Description
+Assignment(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sales org+ Distribution channel+ Division&lt;--sales office</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name, Address, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transporation zone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>CPP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Price list, Cust. Statistical group, Currency</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delivery priority, Shipping conditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Delivering plant, Order combination[]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rebate[], Inco terms, Payment terms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Invoice dates, Invoice date lists, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Account Assignment Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>,Tax code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gross weight, Net weight, Volume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, UOM, Material group</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Basic UOM, material anme</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Sales unit, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Material group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, tax classifucation, Min order qunatity, Max order quantity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Trans grp, Loading grp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>,Availaabilty group[]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reorder Point, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>MRP type, Lot size</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Strategy group, TRT(GR processing+ Planning deleivery time)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, consumption Based Planning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valuation class, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Moving Price</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delivery Type, Delivery Block, Shipping conditions,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Immediate Delivery[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Ship cost infro Profile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delivery relevant Billing type, Order relevant billing type, Intercompany billing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Billing block, Billing plan type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Checking group</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Business Item[], Schedule line allowed[], Item rel for Delivery[], Returns[], Weight/volume relevant[], Credit Active[], Determine cost[], 
+Pricing,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Special stock, Billing block, Billing plan, Statistical value, Billing relevance(A), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Completion rule</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delivery block, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Movement Type, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Order Type, Item category</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Item rel for delivery[], P. req del schedule[]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acct Assignment group</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>SD Doc category(M), Posting block[], Invoice List Type[LR]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Relevant for Rebate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acc. Determination Procedure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Document Pricing procedure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>O/p Determination Procedure, O/p type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, Header partner(FK), Item Partner(FP), Text Del Procedure(03), TDP items(03), </t>
+    </r>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Answers that can  be provided</t>
+  </si>
+  <si>
+    <t>Tell me about yourself?</t>
+  </si>
+  <si>
+    <t>Why are you
+leaving your organization?</t>
+  </si>
+  <si>
+    <t>Why did you drop paper 
+without having an offer?</t>
+  </si>
+  <si>
+    <t>Yes, I dropped paper in my organization without having an offer 
+because I would like to look out for new learnings &amp; opportunities in
+my domain.</t>
+  </si>
+  <si>
+    <t>What to do when you don't know the answer/concept?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell the interviewer that you don't have practical exposure to that concept 
+whereas you have exposure to some concepts.
+</t>
+  </si>
+  <si>
+    <t>Why Deloitte?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firstly, it is a part of big 4 accounting organizations.The Organization works in 4 areas- Audit, Financial advisory, tax and consulting.
+It provides audit, consulting, tax, and advisory services to 90 percent of the Fortune 500 companies. I have read and heard of the amazing talents that your company has recruited over time, and most of them are inspired by the challenging tasks that gives them a better work knowledge. I definitely i think it would be a privilege for me to learn.
+Deloitte is an SAP global services partner that is delivering since 1989 award-winning levels of service to help global organizations achieve business success, reconfirmed this year by winning two SAP Pinnacle Awards: 2016 SAP S/4HANA Adoption Partner of the Year and 2016 SAP Pinnacle Award for Workforce Partner of the Year.
+Fortune and Business week has consistently rank your organization among the best places to work.
+</t>
+  </si>
+  <si>
+    <t>Notice period story</t>
+  </si>
+  <si>
+    <t>My official notice period is 90 days.
+I have sent my resignation mail last week to HR but it is yet to be approved.
+So, I have reachd out to my senior manager and HR.
+they said few reasons for delay:
+My team lost our best resource i.e our teamlead  to covid on Vinayagar Chathurthi's night! he is also my mentor in my career.
+Since the project would be ramping down by the end of december, they could not hire &amp; train a new resource within 3 months.
+So, i think it is my moral responsibility and a token of respect to my mentor to take up his work and complete it on his behalf.
+Hope you would understand !</t>
+  </si>
+  <si>
+    <t>To begin with, I'm grateful to my team for showering me with their implementation knowledge.
+I have been working with this great team in the company for almost past 2 years.
+They have helped me a lot in learning the basics since I had joined the team.
+However, I have reached the optimum point of learning here &amp; would like to step ahead to learn the intracacies and more aspects of Sales &amp; Distribution. Also, the project which i am being a part of, is getting ramped down by the end of this year. The resources are being pulled into other domain, i tried my best to look for internal opportunities, when i couldn't grab one, i thought i would look out for opportunities in other organizations.
+I have read and heard of the amazing talents that your company has recruited over time, and it would be a privilege for me to learn. It would help me to push my limits and learn about new technologies &amp; explore them.</t>
+  </si>
+  <si>
+    <t>Answered/Not</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>Month/Year</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Fields in Sales Organization</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>VKORG, Sales org description, currency, address text, letter header text,
+sales org. calendar, P. Org, P. group, Plant, St. location, Address, Language</t>
+  </si>
+  <si>
+    <t>Lorhan
+IT Solutions</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Use of Customer Account group</t>
+  </si>
+  <si>
+    <r>
+      <t>Customer account groups in SAP are used </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to classify customers into business partner functions that fit best the nature of the business transaction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Functionalities:
+1. Classifies customers to use for various functions
+2. Links the partner functions
+3. Controls the field of customer master</t>
+    </r>
+  </si>
+  <si>
+    <t>Where can I find Customer Acc group in Customer Master data</t>
+  </si>
+  <si>
+    <t>In XD02 - change mode, Choose Extras --&gt; Administrative data --&gt; it will display the Account Group that customer belongs</t>
+  </si>
+  <si>
+    <t>Copy controls that we use</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>VTAA, VTLA, VTFA, VTAF, VTFF, VTFL</t>
+  </si>
+  <si>
+    <t>Shipping Point determination</t>
+  </si>
+  <si>
+    <t>Shipping conditions(CMD--&gt; Sales--&gt; Shipping)+ 
+Loading group(MMD--&gt;Sales/Plant) + delivering plant</t>
+  </si>
+  <si>
+    <t>Pricing Procedure determination</t>
+  </si>
+  <si>
+    <t>Sales Area data+CPP(CMD--&gt;Sales Area--&gt;billing)+ 
+DPP(Sales document--&gt;Transaction Flow)+ Pricing procedure+Condition Type</t>
+  </si>
+  <si>
+    <t>How will the system determing if it PGI / PGR?</t>
+  </si>
+  <si>
+    <t>Based on Movement Type through Schedule line</t>
+  </si>
+  <si>
+    <t>Automatic Credit control?</t>
+  </si>
+  <si>
+    <t>Credit group+ Risk Category+ Credit control area</t>
+  </si>
+  <si>
+    <t>Item category determination</t>
+  </si>
+  <si>
+    <t>Item category group+ Sales document type+ Usage+ Higher level item
+(makes the functionality how item should behave with Material type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splitters in billing in SAP </t>
+  </si>
+  <si>
+    <t>Splitters in Deliveries in SAP</t>
+  </si>
+  <si>
+    <t>Explain Pricing using condition technique</t>
+  </si>
+  <si>
+    <t>Table to check for output control</t>
+  </si>
+  <si>
+    <t>TNARP/NAST</t>
+  </si>
+  <si>
+    <t>Where will you find Material Document and account document?</t>
+  </si>
+  <si>
+    <t>MB03 and FB03</t>
+  </si>
+  <si>
+    <t>What are documents that are generated after PGI?</t>
+  </si>
+  <si>
+    <t>Material document and Financial document</t>
+  </si>
+  <si>
+    <t>What are the documents that are generated after Invoice?</t>
+  </si>
+  <si>
+    <t>Accounting document (with customer debit and Sales Credit )</t>
+  </si>
+  <si>
+    <t>How to correct if accounting document is not generated after invoice?</t>
+  </si>
+  <si>
+    <r>
+      <t>Accounting document will be generated automatically if you have not selected the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Posting Block"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> in your billing type (VOFA).
+If this field is selected, then each and every time, you have to release it to accounting manaully by going to VF02 and select the green flag on top.</t>
+    </r>
+  </si>
+  <si>
+    <t>How can we block a customer ?</t>
+  </si>
+  <si>
+    <t>XD05</t>
+  </si>
+  <si>
+    <t>Collective billing processing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done when bill to party, </t>
+  </si>
+  <si>
+    <t>How to restrict an order from billing after delivery and PGI?</t>
+  </si>
+  <si>
+    <t>Goto delivery change(VL02N) mode-&gt; Goto (from tool bar)-&gt; header level-&gt;Financial processing-&gt; billing block.
+Go to VA02, go to Order header and enable billing block using the drop down list.</t>
+  </si>
+  <si>
+    <t>How to see who made changes in MM?</t>
+  </si>
+  <si>
+    <t>Goto MM02-&gt; Environment-&gt; Display changes
+(to see who made what change in the fields on MM)</t>
+  </si>
+  <si>
+    <t>2nd Interview</t>
+  </si>
+  <si>
+    <t>Give the table for Sales order header, sales order item, sales document flow</t>
+  </si>
+  <si>
+    <t>VBAK, VBAP,VBFA</t>
+  </si>
+  <si>
+    <t>HCL</t>
+  </si>
+  <si>
+    <t>September 10th,
+2021</t>
+  </si>
+  <si>
+    <t>Cleared
+ 1st round</t>
+  </si>
+  <si>
+    <t>Give the table for Delivery header and item</t>
+  </si>
+  <si>
+    <t>LIKP,LIPS</t>
+  </si>
+  <si>
+    <t>Schedule line category determination</t>
+  </si>
+  <si>
+    <t>What is schedule line control?</t>
+  </si>
+  <si>
+    <t>Controls movement type, relevance for delivery, TOR</t>
+  </si>
+  <si>
+    <t>Where does Usage come from in Item category determination</t>
+  </si>
+  <si>
+    <t>Controls the system response when you process a Sales document in a certain context.
+Controls which other item categories are to be found in certain environment(text items/pack items)
+Controls which are to be billed in a service quotation &amp; corresponding sales order, which are there only for statistical reasons.
+Batch split, Text item, Service relevant for billing &amp; service not relevant for billing.
+Item category detail screen(Go to--&gt; usage)</t>
+  </si>
+  <si>
+    <t>Pricing determination</t>
+  </si>
+  <si>
+    <t>Sales Area data+CPP(CMD--&gt;Sales Area--&gt;sales)+ DPP(Sales document--&gt;Transaction Flow)+ Pricing procedure+Condition Type</t>
+  </si>
+  <si>
+    <t>Access sequence. Explain</t>
+  </si>
+  <si>
+    <t>Access sequence are the sequence used to search a relevant condition records</t>
+  </si>
+  <si>
+    <t>Where does Document pricing procedure come from?</t>
+  </si>
+  <si>
+    <t>Sales Document-&gt; Transaction Flow</t>
+  </si>
+  <si>
+    <t>What is a routine?</t>
+  </si>
+  <si>
+    <t>Routines are short sub-programs that carry out various checks during document processing.
+In the SD module, you can create and process routines for copying requirements, data transfer, requirements and formulas using transaction VOFM. 
+Besides the routines delivered to you with the system, you can create your own individual routines.</t>
+  </si>
+  <si>
+    <t>The 16 fields that are used in Pricing procedure?</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Step, counter, Condition type, Description, From, To, Manual, Required,
+Statistical, Print, Subtotal, Requirement, Alt condition type, Alt condition base value, Account key, Accruals</t>
+  </si>
+  <si>
+    <t>Will document pricing procedure come from billing documents?</t>
+  </si>
+  <si>
+    <t>Yes for Intercompany billing</t>
+  </si>
+  <si>
+    <t>What is Intercompany invoice? Why &amp; when it is used?</t>
+  </si>
+  <si>
+    <t>Not sure</t>
+  </si>
+  <si>
+    <t>Explain</t>
+  </si>
+  <si>
+    <t>What is the use of Account key?</t>
+  </si>
+  <si>
+    <t>The account key enables the system to post amounts to certain types of revenue account</t>
+  </si>
+  <si>
+    <t>Have you worked with any batch jobs?</t>
+  </si>
+  <si>
+    <t>How will you check and analyse if an order cannot be delivered?</t>
+  </si>
+  <si>
+    <t>Go To VA02/sales document/schedule line category for delivery block</t>
+  </si>
+  <si>
+    <t>How will you move an return item to quality check without moving it to unrestricted use?</t>
+  </si>
+  <si>
+    <t>Movement type-655(quality inspection)
+651- non valuated/ blocked stock
+653- unrestricted use
+657- blocked stock</t>
+  </si>
+  <si>
+    <t>what is the use of Sub total?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to club the discounts amount from condition types and sums it and stores it </t>
+  </si>
+  <si>
+    <t>3rd Interview</t>
+  </si>
+  <si>
+    <t>How does Subtotal work if I place it in different lines in pricing procedure?</t>
+  </si>
+  <si>
+    <t>It is used to specify the table and fields to capture the value of conditions.
+If multiple conditions are stored in same field, the system sums and stores the individual amounts.
+Which can be used as base for any further calculations.</t>
+  </si>
+  <si>
+    <t>ITC Infotech</t>
+  </si>
+  <si>
+    <t>Sep 13th, 
+2021</t>
+  </si>
+  <si>
+    <t>What is the Plant to Company code relation?</t>
+  </si>
+  <si>
+    <t>Many to one</t>
+  </si>
+  <si>
+    <t>what is the Sales organization to company code relation?</t>
+  </si>
+  <si>
+    <t>Many to One</t>
+  </si>
+  <si>
+    <t>Configurations for Intercompany billing?</t>
+  </si>
+  <si>
+    <t>Explain enterprise structure of Sales and Distribution</t>
+  </si>
+  <si>
+    <t>explained in detail</t>
+  </si>
+  <si>
+    <t>What is the use of Price routine?</t>
+  </si>
+  <si>
+    <t>Price routines are written by abap consultants and are used in pricing to restrict the access of the condition type if not satisfied.
+For rebates, to activate BO01 to BO05, 24 is used(only in billing document), 22(only in case of intercompany sales)
+VOFM, Requirements-&gt; Pricing and assign the application type as ''V'</t>
+  </si>
+  <si>
+    <t>What is the use of sales area?</t>
+  </si>
+  <si>
+    <t>You can assign materials, customers to sales area. Also, sales area influences the Pricing of the commodity.
+Combination of sales org+Distribution channel+Division</t>
+  </si>
+  <si>
+    <t>Have you worked with any reports/ debugging activities?</t>
+  </si>
+  <si>
+    <t>What is the use of From and To fields in Pricing procedure?</t>
+  </si>
+  <si>
+    <t>This can be used as a base for the condition type for further value calculation.
+The system deducts/adds the value of the condition types within the range depend upon the condition type from a specific common source.</t>
+  </si>
+  <si>
+    <t>Have you worked with output determination?</t>
+  </si>
+  <si>
+    <t>what is Product hierarchy?</t>
+  </si>
+  <si>
+    <r>
+      <t>A product hierarchy is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a modeling of the hierarchical relationships between products in a tree structure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+A product hierarchy enables the grouping of products and defines the relationship between products
+and groups at different hierarchy levels (for example, food – frozen food – pizza).</t>
+    </r>
+  </si>
+  <si>
+    <t>what are the Outline agreements in SAP?</t>
+  </si>
+  <si>
+    <t>It is a long term purchase agreement between Vendor and Customer. 
+Two types: Contracts(without delivery dates) &amp; Scheduling agreement(with del. Dates)</t>
+  </si>
+  <si>
+    <t>Cognizant</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>What is called as Release orders?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release orders are purchase orders that are created with reference to a contract.
+Release order documentation (eg. Quantity released until now &amp; open quantity) is automatically updated when you create a contract release order.
+</t>
+  </si>
+  <si>
+    <t>Explain Consignment processing in SAP.</t>
+  </si>
+  <si>
+    <t>Consignment Processing are special stock that belong to company but are stored in retailer location</t>
+  </si>
+  <si>
+    <t>Explain Pricing routine in Pricing Procedure in SAP SD</t>
+  </si>
+  <si>
+    <t>Explain Intercompany Billing.</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>Third Party Drop-ship in SAP?</t>
+  </si>
+  <si>
+    <t>Why is Document Pricing Procedure important?</t>
+  </si>
+  <si>
+    <t>It contributes to the pricing of a material</t>
+  </si>
+  <si>
+    <t>Deloitte</t>
+  </si>
+  <si>
+    <t>October 14th,
+2021/19th,2021/</t>
+  </si>
+  <si>
+    <t>Success/
+Pending</t>
+  </si>
+  <si>
+    <t>What are the fields which we use in Billing Type?</t>
+  </si>
+  <si>
+    <t>What is an invoice list?</t>
+  </si>
+  <si>
+    <t>Explain the Enterprise structure in SD perspective.</t>
+  </si>
+  <si>
+    <t>Why are we configuring the Account and how a company is related to the configuration?</t>
+  </si>
+  <si>
+    <t>Ernst &amp;
+ Young</t>
+  </si>
+  <si>
+    <t>October 19th
+,2021</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>How to extract the list of open sales orders for a particular user without using report?</t>
+  </si>
+  <si>
+    <t>Significance of statistical field in Pricing procedure?</t>
+  </si>
+  <si>
+    <t>Explain Intercompany billing/STO/Transfer posting.</t>
+  </si>
+  <si>
+    <t>The Significance of price routine in Pricing determination?</t>
+  </si>
+  <si>
+    <t>Nov 8th,
+2021</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Movement type for order and return order?</t>
+  </si>
+  <si>
+    <t>601 and 651</t>
+  </si>
+  <si>
+    <t>Tables in which payment terms will be recorded?</t>
+  </si>
+  <si>
+    <t>KNA1,KNB1,KNVV,BSEG,BKPF</t>
+  </si>
+  <si>
+    <t>Will the ownership of the goods from Mfgr to Retailer during CF and CP?</t>
+  </si>
+  <si>
+    <t>The goods will be stored as Customer consignment in the retailer location under Mftr ownership</t>
+  </si>
+  <si>
+    <t>Movement type types used for CF, CP, CI, CONR</t>
+  </si>
+  <si>
+    <t>631, 632, 633, 634</t>
+  </si>
+  <si>
+    <t>Have you worked with billing plans?</t>
+  </si>
+  <si>
+    <t>Payment terms, Incoterms, Payer, Sold to Party, Billing date, Billing due date, Actual GI.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ship to party, Inco terms, Shipping point, Shipping condition, Confirmed quantity date,  Plant, Route, Shipping point, Shipping conditions, Stor. location, contact person, Bill-to, Currency.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sales text &amp; billing info text(header), ZBV should not split, Enhancements at Item category(VOFM--&gt; Data transfer)</t>
+    </r>
+  </si>
+  <si>
+    <t>Explain Pricing Procedure in SAP MM module (stechies.com)</t>
+  </si>
+  <si>
+    <t>KOMP-KZW1I</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hello,
+I'm Thamizharasu, Working as SAP SD Functional consultant in Cognizant Technology Solutions Pvt Ltd.
+I have a total work experience of 4+ years with 2 years of experience as JDE Manufacturing consultant and 2+ years of experience as SAP SD consultant.
+As a part of JDE support engineer, i worked &amp; resolved many issues related to Mfg operations, scp &amp; Direct procurement.
+As a part of SAP SD, i handled &amp; guided the users in resolving the issues related to Business processes like sales order creation, delivery &amp; invoice creation. I worked predominantly with EDI mapping which involved inbound &amp; outbound messages for 72 EDI partners. This includes messages like ORDERS, ORDRSP, INVOIC, CREHDR &amp; DELHDR, DESADV
+I have also worked with other business processes like Consignment processing, Market restrictions, Stock restrictions, delivery restrictions, Intercompany sales and billing, Third party drop-ship etc..
+I have exposure to configurations involved in sales document, item category determination, scheline line category determination, pricing determination.
+In addition to this, i resolved 250 - 300  L2 tickets last year which won me the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Client Comforter award </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">consecutively twice in the year 2020 from my project.
+I'm also monitoring the master data flow from  to SAP through EIH interface.
+That's the brief summary about me!!
+</t>
+    </r>
+  </si>
+  <si>
+    <t>STO is not a customer-facing transaction.
+Scenario: STO
+Consider two plants with a company(UK01).
+Plant A receives an order from a customer and has the parts of goods available for the same. To fulfill the complete order, plant A needs the remaining parts of goods which it will receive from Plant B. This goods fulfillment from plant B to Plant A is called Stock Transfer Order.</t>
+  </si>
+  <si>
+    <t>Tables used</t>
+  </si>
+  <si>
+    <t>ZOTC_PRO_SALES</t>
+  </si>
+  <si>
+    <t>ZOTC_PRO_PAYER</t>
+  </si>
+  <si>
+    <t>ZOTC_MAT_PROFILE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>MANDT</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>SALES_UUID</t>
+  </si>
+  <si>
+    <t>PROFILE_UUID</t>
+  </si>
+  <si>
+    <t>EPM: Generic Node Key</t>
+  </si>
+  <si>
+    <t>ZZ_PROFILE</t>
+  </si>
+  <si>
+    <t>BZIRK</t>
+  </si>
+  <si>
+    <t>ZRESTRICTION_FLAG</t>
+  </si>
+  <si>
+    <t>BU_PARTNER</t>
+  </si>
+  <si>
+    <t>LIFSP</t>
+  </si>
+  <si>
+    <t>WERKS_D</t>
+  </si>
+  <si>
+    <t>LGORT_D</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Sales District</t>
+  </si>
+  <si>
+    <t>Restriction flag</t>
+  </si>
+  <si>
+    <t>Business Partner Number</t>
+  </si>
+  <si>
+    <t>Default Delivery Block</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Storage location</t>
+  </si>
+  <si>
+    <t>SNWD_NODE_KEY</t>
+  </si>
+  <si>
+    <t>PAYER</t>
+  </si>
+  <si>
+    <t>Payer_UUID</t>
+  </si>
+  <si>
+    <t>MAT_UUID</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>MATNR</t>
+  </si>
+  <si>
+    <t>SALES_ORG</t>
+  </si>
+  <si>
+    <t>VKORG</t>
+  </si>
+  <si>
+    <t>VALID_TO</t>
+  </si>
+  <si>
+    <t>VALID_FROM</t>
+  </si>
+  <si>
+    <t>ZCOMMENT</t>
+  </si>
+  <si>
+    <t>KODATBI</t>
+  </si>
+  <si>
+    <t>KODATAB</t>
+  </si>
+  <si>
+    <t>ZDESCRIPTION</t>
+  </si>
+  <si>
+    <t>Enhancement User logic</t>
+  </si>
+  <si>
+    <t>MV45AFZZ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERPPROJECT-359:-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> There is a business requirement to determine storage location in sales order.
+Below is the process flow for UK(sales org UK01) :
+1.	Check Stock Restriction for the material - Apply Storage Location as specified in stock restriction else check the material type and apply storage location as below
+2.	Check WERB Material Type(MTART) - If yes apply storage location as 1080
+3.	Anything else apply storage location as 1010
+Find the flow as below for reference.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Show Storage Location at Sales Order Level
+Determine Rules to which SL to apply
+2a – Stock Restrictions – apply relevant SL
+2b – Promotional Product based on Material Type PROM(MTART) – apply storage location as 0001
+2c – Sales Org &amp; Subject 1 (MVKE -MVGR1)– US01 and MUS - 1020
+2d – Everything Else – 1000
+Also it should allow user to edit and change the storage location manually as well in sales order and save it for unrestricted scenarios.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERPPROJECT-1576</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For US06 plant only, the default storage location to be determined in sales order is to be 0001.
+For US06 only, 
+-as per stock restriction
+-PROM material -0001
+-Sales org and subject1- US01 and MUS-1020
+-everything else-0001</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2357,19 +4070,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -2412,8 +4112,114 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2438,8 +4244,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF45E65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2525,11 +4343,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2537,18 +4544,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2559,31 +4554,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -2603,7 +4575,242 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2618,8 +4825,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3792,6 +6004,1969 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E573222-E512-4703-B9F5-B22A7717D7C9}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.453125" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7265625" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="253" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
+        <v>446</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="161" x14ac:dyDescent="0.25">
+      <c r="A6" s="68" t="s">
+        <v>451</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="126.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>454</v>
+      </c>
+      <c r="C7" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CAAF14-6D8F-425D-9DFC-A6859D0C7F1E}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="96.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:I8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62021A-965A-4299-8854-C66D43EE8F34}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="138.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="203" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3859DFB-17B5-474D-869D-DAD91F3CD285}">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="111" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+    </row>
+    <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="112" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+    </row>
+    <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="113" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+    </row>
+    <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="112" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+    </row>
+    <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="113" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
+      <c r="O5" s="114"/>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A3:V3"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="A5:V5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8599D4-DE0E-4BD2-843B-7435980E71AE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="114.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A341B7-644B-4D77-B5EC-8E37D7458E3E}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="96.90625" customWidth="1"/>
+    <col min="2" max="2" width="69.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="155" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E189C3C3-EEB1-493B-8ABF-EFAFC403CD7F}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="85">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B651BB52-6CE9-469E-B50D-672679C49F78}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" s="115" t="s">
+        <v>613</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="J1" s="115" t="s">
+        <v>613</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="116" t="s">
+        <v>610</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="H3" t="s">
+        <v>636</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="L3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D4" t="s">
+        <v>618</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="H4" t="s">
+        <v>618</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="C14" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.36328125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="255.54296875" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2" s="99">
+        <v>44436</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="65" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="72" t="s">
+        <v>467</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>468</v>
+      </c>
+      <c r="D4" s="90"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="90"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+    </row>
+    <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="90"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+    </row>
+    <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" s="90"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>477</v>
+      </c>
+      <c r="D8" s="90"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="D9" s="90"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+    </row>
+    <row r="10" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="D10" s="90"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="72" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="D11" s="90"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+    </row>
+    <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.3">
+      <c r="A12" s="72" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="D12" s="90"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="72" t="s">
+        <v>485</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="D14" s="90"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" s="90"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="D16" s="90"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="D17" s="90"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+    </row>
+    <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A18" s="72" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18" s="90"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="72" t="s">
+        <v>495</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="D20" s="90"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+    </row>
+    <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A21" s="72" t="s">
+        <v>499</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>500</v>
+      </c>
+      <c r="D21" s="90"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+    </row>
+    <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A22" s="72" t="s">
+        <v>501</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>461</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="D22" s="90"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="76"/>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="77" t="s">
+        <v>503</v>
+      </c>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>505</v>
+      </c>
+      <c r="D25" s="90" t="s">
+        <v>506</v>
+      </c>
+      <c r="E25" s="91" t="s">
+        <v>507</v>
+      </c>
+      <c r="F25" s="91" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>510</v>
+      </c>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="91"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="79" t="s">
+        <v>511</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="91"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="D28" s="90"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="91"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="79" t="s">
+        <v>480</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
+    </row>
+    <row r="30" spans="1:6" ht="65" x14ac:dyDescent="0.3">
+      <c r="A30" s="79" t="s">
+        <v>514</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>515</v>
+      </c>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="91"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="79" t="s">
+        <v>516</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>519</v>
+      </c>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="91"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>521</v>
+      </c>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91"/>
+    </row>
+    <row r="34" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+      <c r="A34" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>523</v>
+      </c>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="91"/>
+    </row>
+    <row r="35" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="72" t="s">
+        <v>524</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>526</v>
+      </c>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="86" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="32" t="s">
+        <v>527</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>528</v>
+      </c>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>529</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="C37" s="78" t="s">
+        <v>531</v>
+      </c>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="91"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="72" t="s">
+        <v>532</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C38" s="78" t="s">
+        <v>533</v>
+      </c>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="91"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C39" s="78"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="91"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C40" s="78" t="s">
+        <v>536</v>
+      </c>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="91"/>
+    </row>
+    <row r="41" spans="1:7" ht="52" x14ac:dyDescent="0.3">
+      <c r="A41" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C41" s="81" t="s">
+        <v>538</v>
+      </c>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="91"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="C42" s="78" t="s">
+        <v>541</v>
+      </c>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="91"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="77" t="s">
+        <v>542</v>
+      </c>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+    </row>
+    <row r="45" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45" s="82" t="s">
+        <v>544</v>
+      </c>
+      <c r="D45" s="95" t="s">
+        <v>545</v>
+      </c>
+      <c r="E45" s="92" t="s">
+        <v>546</v>
+      </c>
+      <c r="F45" s="95" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C46" s="75" t="s">
+        <v>548</v>
+      </c>
+      <c r="D46" s="96"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="96"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>550</v>
+      </c>
+      <c r="D47" s="96"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="96"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="C48" s="75"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="96"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>553</v>
+      </c>
+      <c r="D49" s="96"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="96"/>
+    </row>
+    <row r="50" spans="1:6" ht="39" x14ac:dyDescent="0.3">
+      <c r="A50" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="C50" s="82" t="s">
+        <v>555</v>
+      </c>
+      <c r="D50" s="96"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="96"/>
+    </row>
+    <row r="51" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A51" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>557</v>
+      </c>
+      <c r="D51" s="96"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="96"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="B52" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C52" s="75"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="96"/>
+    </row>
+    <row r="53" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A53" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C53" s="82" t="s">
+        <v>560</v>
+      </c>
+      <c r="D53" s="96"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="96"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="B54" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C54" s="75"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="96"/>
+    </row>
+    <row r="55" spans="1:6" ht="38.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="32" t="s">
+        <v>562</v>
+      </c>
+      <c r="B55" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C55" s="83" t="s">
+        <v>563</v>
+      </c>
+      <c r="D55" s="97"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="97"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="77"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+    </row>
+    <row r="57" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A57" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C57" s="81" t="s">
+        <v>565</v>
+      </c>
+      <c r="D57" s="90" t="s">
+        <v>566</v>
+      </c>
+      <c r="E57" s="98"/>
+      <c r="F57" s="95" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="52" x14ac:dyDescent="0.3">
+      <c r="A58" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="D58" s="90"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="96"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="D59" s="90"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="96"/>
+    </row>
+    <row r="60" spans="1:6" ht="39" x14ac:dyDescent="0.3">
+      <c r="A60" s="79" t="s">
+        <v>572</v>
+      </c>
+      <c r="B60" s="79" t="s">
+        <v>470</v>
+      </c>
+      <c r="C60" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="D60" s="90"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="96"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="D61" s="90"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="96"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="D62" s="90"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="97"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="77"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="D64" s="90" t="s">
+        <v>578</v>
+      </c>
+      <c r="E64" s="91" t="s">
+        <v>579</v>
+      </c>
+      <c r="F64" s="91" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="39" x14ac:dyDescent="0.3">
+      <c r="A65" s="79" t="s">
+        <v>572</v>
+      </c>
+      <c r="B65" s="79" t="s">
+        <v>470</v>
+      </c>
+      <c r="C65" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="D66" s="90"/>
+      <c r="E66" s="90"/>
+      <c r="F66" s="90"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="77"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="92" t="s">
+        <v>585</v>
+      </c>
+      <c r="E70" s="92" t="s">
+        <v>586</v>
+      </c>
+      <c r="F70" s="95" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="96"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="96"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="97"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="87"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="88"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="89"/>
+    </row>
+    <row r="75" spans="1:6" ht="39" x14ac:dyDescent="0.3">
+      <c r="A75" s="79" t="s">
+        <v>591</v>
+      </c>
+      <c r="B75" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C75" s="84" t="s">
+        <v>555</v>
+      </c>
+      <c r="D75" s="90"/>
+      <c r="E75" s="91" t="s">
+        <v>592</v>
+      </c>
+      <c r="F75" s="90" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="B76" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="D76" s="90"/>
+      <c r="E76" s="90"/>
+      <c r="F76" s="90"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="D77" s="90"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="90"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="D78" s="90"/>
+      <c r="E78" s="90"/>
+      <c r="F78" s="90"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="59"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="30" t="s">
+        <v>602</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="D2:D22"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="F25:F42"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="F45:F55"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5703F574-C88B-4291-BBA6-05D5382680CC}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -3948,16 +8123,16 @@
         <v>243</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="J7" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -3968,10 +8143,10 @@
         <v>227</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>170</v>
@@ -3990,10 +8165,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -4068,36 +8243,426 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8599D4-DE0E-4BD2-843B-7435980E71AE}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A2292-F8D8-430C-931B-01C5D23F2DCF}">
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="20"/>
+    <col min="4" max="4" width="8.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="20"/>
+    <col min="7" max="7" width="16.7265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="20"/>
+    <col min="10" max="10" width="8.453125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="20"/>
+    <col min="13" max="13" width="5.6328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>267</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="D1" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="G1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="J1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="24"/>
+      <c r="M1" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="J3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="J4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="J5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="25" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="J6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J7" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="G8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="D13" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="G13" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="J13" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" ht="25" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="J18" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -4106,589 +8671,689 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A341B7-644B-4D77-B5EC-8E37D7458E3E}">
-  <dimension ref="A1:B5"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0181675-3379-485E-B27D-5445AC0B1EDD}">
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="96.90625" customWidth="1"/>
-    <col min="2" max="2" width="69.90625" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.36328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="62" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="29"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-    </row>
-    <row r="4" spans="1:2" ht="62" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="155" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="B5" s="29"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="34"/>
+      <c r="B1" s="103" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="104"/>
+    </row>
+    <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35"/>
+      <c r="B11" s="43"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="106"/>
+      <c r="B13" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+      <c r="B14" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="106"/>
+      <c r="B15" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="107"/>
+      <c r="B16" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="35"/>
+      <c r="B17" s="43"/>
+    </row>
+    <row r="18" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35"/>
+      <c r="B18" s="43"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="100" t="s">
+        <v>381</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="101"/>
+      <c r="B20" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="101"/>
+      <c r="B21" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="108"/>
+      <c r="B22" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="108"/>
+      <c r="B23" s="52" t="s">
+        <v>387</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="101"/>
+      <c r="B24" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="101"/>
+      <c r="B25" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="101"/>
+      <c r="B26" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="108"/>
+      <c r="B27" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="109"/>
+      <c r="B28" s="54" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="43"/>
+    </row>
+    <row r="30" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35"/>
+      <c r="B30" s="43"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="100" t="s">
+        <v>396</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="108"/>
+      <c r="B32" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="108"/>
+      <c r="B33" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="101"/>
+      <c r="B34" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="102"/>
+      <c r="B35" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="43"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="35"/>
+      <c r="B37" s="43"/>
+    </row>
+    <row r="38" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A38" s="56" t="s">
+        <v>402</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="56" t="s">
+        <v>404</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="35"/>
+      <c r="B40" s="43"/>
+    </row>
+    <row r="41" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35"/>
+      <c r="B41" s="43"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="100" t="s">
+        <v>407</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="102"/>
+      <c r="B43" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="35"/>
+      <c r="B44" s="43"/>
+    </row>
+    <row r="45" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="35"/>
+      <c r="B45" s="43"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="100" t="s">
+        <v>410</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="101"/>
+      <c r="B47" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="101"/>
+      <c r="B48" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="101"/>
+      <c r="B49" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="102"/>
+      <c r="B50" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="35"/>
+      <c r="B51" s="43"/>
+    </row>
+    <row r="52" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="35"/>
+      <c r="B52" s="43"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="100" t="s">
+        <v>418</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="101"/>
+      <c r="B54" s="36" t="s">
+        <v>420</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="102"/>
+      <c r="B55" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>423</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E189C3C3-EEB1-493B-8ABF-EFAFC403CD7F}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A46:A50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A2292-F8D8-430C-931B-01C5D23F2DCF}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="15"/>
-    <col min="4" max="4" width="8.90625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="15"/>
-    <col min="7" max="7" width="17.6328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="15"/>
-    <col min="10" max="10" width="7.36328125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="15"/>
-    <col min="13" max="13" width="5.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="D1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="17"/>
-      <c r="G1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="17"/>
-      <c r="J1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="M1" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="J3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="J4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="J5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="28" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="J6" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J7" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="D8" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="G8" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="D13" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" ht="42" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D15" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C21"/>
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="50" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="50" style="20"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-    </row>
-    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+    </row>
+    <row r="9" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+      <c r="C13" s="22"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="61" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="22" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4701,33 +9366,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8E8FD8-CC4D-41B5-9F85-742D913B8828}">
   <dimension ref="A1:AD120"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="15:30" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="5" t="s">
         <v>130</v>
       </c>
       <c r="P1" t="s">
         <v>131</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="5" t="s">
         <v>130</v>
       </c>
       <c r="X1" t="s">
         <v>132</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="5" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4779,12 +9444,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B8CFFE-3E3D-4E09-98C4-C8D8A671FA1F}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4793,71 +9458,71 @@
     <col min="2" max="2" width="137.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="57" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="58" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="22" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="22" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4867,12 +9532,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F52F2DA-E96D-40AD-9194-D5EC3C19A9AE}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E36"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4903,16 +9568,16 @@
       <c r="B2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>154</v>
       </c>
     </row>
@@ -5000,7 +9665,7 @@
         <v>131</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>132</v>
@@ -5008,11 +9673,11 @@
       <c r="E10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>159</v>
@@ -5020,7 +9685,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>138</v>
@@ -5028,7 +9693,7 @@
     </row>
     <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>139</v>
@@ -5044,7 +9709,7 @@
       <c r="E14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
@@ -5066,160 +9731,160 @@
       <c r="B17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="11"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>300</v>
+        <v>274</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B38" s="26" t="s">
+    <row r="39" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="10" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B39" s="26" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5227,336 +9892,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CAAF14-6D8F-425D-9DFC-A6859D0C7F1E}">
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="96.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.54296875" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:I8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62021A-965A-4299-8854-C66D43EE8F34}">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="138.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="203" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3859DFB-17B5-474D-869D-DAD91F3CD285}">
-  <dimension ref="A1:V5"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-    </row>
-    <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-    </row>
-    <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-    </row>
-    <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-    </row>
-    <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A3:V3"/>
-    <mergeCell ref="A4:V4"/>
-    <mergeCell ref="A5:V5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0BEC1-6EC6-4740-BCF5-F2BBD58C06E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360EAD68-7312-4DD5-B733-E72A1DFF2E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="653">
   <si>
     <t>Module</t>
   </si>
@@ -4033,6 +4033,16 @@
 -Sales org and subject1- US01 and MUS-1020
 -everything else-0001</t>
     </r>
+  </si>
+  <si>
+    <t>I work on the EDI mapping of the messages like ORDERS, ORDRSP, INVOIC, DESADV, CREHDR &amp; DELHDR. I own the above mentioned interface objects and we use B2B Sterling system as EDI middleware system. I have worked on the defects that come with respect to the mapping of these partners. I have worked on few enhancements that are done with respect to this interfaces which includes Amazon as an EDI partner(KNA1-KDKG3).
+ORDERS--&gt; E1EDP01/E1EDP02 044
+ORDRSP--&gt; PRT, FULL &amp; NOT
+DESADV--&gt; Custom segment to hold PO number from SO
+INVOIC--&gt; Batch users
+DELHDR--&gt; Segment to sum the details with respect to Commodity code
+I also worked on Restrictions that are done with respect to Sales district &amp; Payers.
+Currently, I'm guiding the business users on the testing of EDI functionality as UAT is going on at present in my project.</t>
   </si>
 </sst>
 </file>
@@ -4741,20 +4751,27 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4765,20 +4782,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4825,10 +4839,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6007,15 +6017,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E573222-E512-4703-B9F5-B22A7717D7C9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.453125" style="64" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="65.7265625" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="64"/>
+    <col min="3" max="3" width="61.7265625" style="64" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6032,6 +6043,9 @@
       </c>
       <c r="B2" s="65" t="s">
         <v>607</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="138" x14ac:dyDescent="0.25">
@@ -6139,17 +6153,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="113" t="s">
         <v>244</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -6271,134 +6285,134 @@
   <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>608</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
     </row>
     <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="114" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
     </row>
     <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="115" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="113"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
     </row>
     <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="114"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
     </row>
     <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6573,11 +6587,11 @@
     <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="87" t="s">
         <v>613</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -6586,7 +6600,7 @@
       <c r="E1" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="87" t="s">
         <v>613</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -6595,7 +6609,7 @@
       <c r="I1" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="J1" s="115" t="s">
+      <c r="J1" s="87" t="s">
         <v>613</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -6603,7 +6617,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="88" t="s">
         <v>610</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -6834,8 +6848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -6880,13 +6894,13 @@
       <c r="C2" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="89" t="s">
         <v>463</v>
       </c>
-      <c r="E2" s="99">
+      <c r="E2" s="91">
         <v>44436</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="94" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6901,8 +6915,8 @@
         <v>466</v>
       </c>
       <c r="D3" s="90"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="72" t="s">
@@ -6915,8 +6929,8 @@
         <v>468</v>
       </c>
       <c r="D4" s="90"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
@@ -6929,8 +6943,8 @@
         <v>471</v>
       </c>
       <c r="D5" s="90"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
     </row>
     <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
@@ -6943,8 +6957,8 @@
         <v>473</v>
       </c>
       <c r="D6" s="90"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
     </row>
     <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
@@ -6957,8 +6971,8 @@
         <v>475</v>
       </c>
       <c r="D7" s="90"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
@@ -6971,8 +6985,8 @@
         <v>477</v>
       </c>
       <c r="D8" s="90"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
@@ -6985,8 +6999,8 @@
         <v>479</v>
       </c>
       <c r="D9" s="90"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
     </row>
     <row r="10" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
@@ -6997,8 +7011,8 @@
         <v>481</v>
       </c>
       <c r="D10" s="90"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="72" t="s">
@@ -7011,8 +7025,8 @@
         <v>603</v>
       </c>
       <c r="D11" s="90"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A12" s="72" t="s">
@@ -7025,8 +7039,8 @@
         <v>604</v>
       </c>
       <c r="D12" s="90"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
@@ -7037,8 +7051,8 @@
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="72" t="s">
@@ -7051,8 +7065,8 @@
         <v>486</v>
       </c>
       <c r="D14" s="90"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -7065,8 +7079,8 @@
         <v>488</v>
       </c>
       <c r="D15" s="90"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
@@ -7079,8 +7093,8 @@
         <v>490</v>
       </c>
       <c r="D16" s="90"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -7093,8 +7107,8 @@
         <v>492</v>
       </c>
       <c r="D17" s="90"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
     </row>
     <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="72" t="s">
@@ -7107,8 +7121,8 @@
         <v>494</v>
       </c>
       <c r="D18" s="90"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="72" t="s">
@@ -7121,8 +7135,8 @@
         <v>496</v>
       </c>
       <c r="D19" s="90"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
@@ -7135,8 +7149,8 @@
         <v>498</v>
       </c>
       <c r="D20" s="90"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
     </row>
     <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A21" s="72" t="s">
@@ -7149,8 +7163,8 @@
         <v>500</v>
       </c>
       <c r="D21" s="90"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
     </row>
     <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="72" t="s">
@@ -7163,8 +7177,8 @@
         <v>502</v>
       </c>
       <c r="D22" s="90"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" s="76"/>
@@ -7193,10 +7207,10 @@
       <c r="D25" s="90" t="s">
         <v>506</v>
       </c>
-      <c r="E25" s="91" t="s">
+      <c r="E25" s="89" t="s">
         <v>507</v>
       </c>
-      <c r="F25" s="91" t="s">
+      <c r="F25" s="89" t="s">
         <v>508</v>
       </c>
     </row>
@@ -7212,7 +7226,7 @@
       </c>
       <c r="D26" s="90"/>
       <c r="E26" s="90"/>
-      <c r="F26" s="91"/>
+      <c r="F26" s="89"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="79" t="s">
@@ -7226,7 +7240,7 @@
       </c>
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
-      <c r="F27" s="91"/>
+      <c r="F27" s="89"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
@@ -7240,7 +7254,7 @@
       </c>
       <c r="D28" s="90"/>
       <c r="E28" s="90"/>
-      <c r="F28" s="91"/>
+      <c r="F28" s="89"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="79" t="s">
@@ -7254,7 +7268,7 @@
       </c>
       <c r="D29" s="90"/>
       <c r="E29" s="90"/>
-      <c r="F29" s="91"/>
+      <c r="F29" s="89"/>
     </row>
     <row r="30" spans="1:6" ht="65" x14ac:dyDescent="0.3">
       <c r="A30" s="79" t="s">
@@ -7268,7 +7282,7 @@
       </c>
       <c r="D30" s="90"/>
       <c r="E30" s="90"/>
-      <c r="F30" s="91"/>
+      <c r="F30" s="89"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="79" t="s">
@@ -7282,7 +7296,7 @@
       </c>
       <c r="D31" s="90"/>
       <c r="E31" s="90"/>
-      <c r="F31" s="91"/>
+      <c r="F31" s="89"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
@@ -7296,7 +7310,7 @@
       </c>
       <c r="D32" s="90"/>
       <c r="E32" s="90"/>
-      <c r="F32" s="91"/>
+      <c r="F32" s="89"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
@@ -7310,7 +7324,7 @@
       </c>
       <c r="D33" s="90"/>
       <c r="E33" s="90"/>
-      <c r="F33" s="91"/>
+      <c r="F33" s="89"/>
     </row>
     <row r="34" spans="1:7" ht="39" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
@@ -7324,7 +7338,7 @@
       </c>
       <c r="D34" s="90"/>
       <c r="E34" s="90"/>
-      <c r="F34" s="91"/>
+      <c r="F34" s="89"/>
     </row>
     <row r="35" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A35" s="72" t="s">
@@ -7338,7 +7352,7 @@
       </c>
       <c r="D35" s="90"/>
       <c r="E35" s="90"/>
-      <c r="F35" s="91"/>
+      <c r="F35" s="89"/>
       <c r="G35" s="86" t="s">
         <v>605</v>
       </c>
@@ -7355,7 +7369,7 @@
       </c>
       <c r="D36" s="90"/>
       <c r="E36" s="90"/>
-      <c r="F36" s="91"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="30" t="s">
         <v>606</v>
       </c>
@@ -7372,7 +7386,7 @@
       </c>
       <c r="D37" s="90"/>
       <c r="E37" s="90"/>
-      <c r="F37" s="91"/>
+      <c r="F37" s="89"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="72" t="s">
@@ -7386,7 +7400,7 @@
       </c>
       <c r="D38" s="90"/>
       <c r="E38" s="90"/>
-      <c r="F38" s="91"/>
+      <c r="F38" s="89"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
@@ -7398,7 +7412,7 @@
       <c r="C39" s="78"/>
       <c r="D39" s="90"/>
       <c r="E39" s="90"/>
-      <c r="F39" s="91"/>
+      <c r="F39" s="89"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
@@ -7412,7 +7426,7 @@
       </c>
       <c r="D40" s="90"/>
       <c r="E40" s="90"/>
-      <c r="F40" s="91"/>
+      <c r="F40" s="89"/>
     </row>
     <row r="41" spans="1:7" ht="52" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
@@ -7426,7 +7440,7 @@
       </c>
       <c r="D41" s="90"/>
       <c r="E41" s="90"/>
-      <c r="F41" s="91"/>
+      <c r="F41" s="89"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
@@ -7440,7 +7454,7 @@
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
-      <c r="F42" s="91"/>
+      <c r="F42" s="89"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="77" t="s">
@@ -7462,13 +7476,13 @@
       <c r="C45" s="82" t="s">
         <v>544</v>
       </c>
-      <c r="D45" s="95" t="s">
+      <c r="D45" s="94" t="s">
         <v>545</v>
       </c>
-      <c r="E45" s="92" t="s">
+      <c r="E45" s="95" t="s">
         <v>546</v>
       </c>
-      <c r="F45" s="95" t="s">
+      <c r="F45" s="94" t="s">
         <v>464</v>
       </c>
     </row>
@@ -7482,9 +7496,9 @@
       <c r="C46" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="D46" s="96"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="96"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="92"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
@@ -7496,9 +7510,9 @@
       <c r="C47" s="75" t="s">
         <v>550</v>
       </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="96"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="92"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
@@ -7508,9 +7522,9 @@
         <v>540</v>
       </c>
       <c r="C48" s="75"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="96"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="92"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
@@ -7522,9 +7536,9 @@
       <c r="C49" s="75" t="s">
         <v>553</v>
       </c>
-      <c r="D49" s="96"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="96"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="92"/>
     </row>
     <row r="50" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
@@ -7536,9 +7550,9 @@
       <c r="C50" s="82" t="s">
         <v>555</v>
       </c>
-      <c r="D50" s="96"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="96"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="92"/>
     </row>
     <row r="51" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
@@ -7550,9 +7564,9 @@
       <c r="C51" s="82" t="s">
         <v>557</v>
       </c>
-      <c r="D51" s="96"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="96"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="92"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
@@ -7562,9 +7576,9 @@
         <v>461</v>
       </c>
       <c r="C52" s="75"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="96"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="92"/>
     </row>
     <row r="53" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
@@ -7576,9 +7590,9 @@
       <c r="C53" s="82" t="s">
         <v>560</v>
       </c>
-      <c r="D53" s="96"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="96"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="92"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
@@ -7588,9 +7602,9 @@
         <v>461</v>
       </c>
       <c r="C54" s="75"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="96"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="92"/>
     </row>
     <row r="55" spans="1:6" ht="38.5" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
@@ -7602,9 +7616,9 @@
       <c r="C55" s="83" t="s">
         <v>563</v>
       </c>
-      <c r="D55" s="97"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="97"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="93"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="77"/>
@@ -7628,7 +7642,7 @@
         <v>566</v>
       </c>
       <c r="E57" s="98"/>
-      <c r="F57" s="95" t="s">
+      <c r="F57" s="94" t="s">
         <v>567</v>
       </c>
     </row>
@@ -7644,7 +7658,7 @@
       </c>
       <c r="D58" s="90"/>
       <c r="E58" s="98"/>
-      <c r="F58" s="96"/>
+      <c r="F58" s="92"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
@@ -7658,7 +7672,7 @@
       </c>
       <c r="D59" s="90"/>
       <c r="E59" s="98"/>
-      <c r="F59" s="96"/>
+      <c r="F59" s="92"/>
     </row>
     <row r="60" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A60" s="79" t="s">
@@ -7672,7 +7686,7 @@
       </c>
       <c r="D60" s="90"/>
       <c r="E60" s="98"/>
-      <c r="F60" s="96"/>
+      <c r="F60" s="92"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
@@ -7686,7 +7700,7 @@
       </c>
       <c r="D61" s="90"/>
       <c r="E61" s="98"/>
-      <c r="F61" s="96"/>
+      <c r="F61" s="92"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
@@ -7700,7 +7714,7 @@
       </c>
       <c r="D62" s="90"/>
       <c r="E62" s="98"/>
-      <c r="F62" s="97"/>
+      <c r="F62" s="93"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="77"/>
@@ -7723,10 +7737,10 @@
       <c r="D64" s="90" t="s">
         <v>578</v>
       </c>
-      <c r="E64" s="91" t="s">
+      <c r="E64" s="89" t="s">
         <v>579</v>
       </c>
-      <c r="F64" s="91" t="s">
+      <c r="F64" s="89" t="s">
         <v>580</v>
       </c>
     </row>
@@ -7798,13 +7812,13 @@
       </c>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
-      <c r="D70" s="92" t="s">
+      <c r="D70" s="95" t="s">
         <v>585</v>
       </c>
-      <c r="E70" s="92" t="s">
+      <c r="E70" s="95" t="s">
         <v>586</v>
       </c>
-      <c r="F70" s="95" t="s">
+      <c r="F70" s="94" t="s">
         <v>587</v>
       </c>
     </row>
@@ -7814,9 +7828,9 @@
       </c>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="96"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="92"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
@@ -7824,9 +7838,9 @@
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="96"/>
+      <c r="D72" s="96"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="92"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
@@ -7834,17 +7848,17 @@
       </c>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="97"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="93"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="87"/>
-      <c r="B74" s="88"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
-      <c r="F74" s="89"/>
+      <c r="A74" s="99"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="100"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="100"/>
+      <c r="F74" s="101"/>
     </row>
     <row r="75" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A75" s="79" t="s">
@@ -7857,7 +7871,7 @@
         <v>555</v>
       </c>
       <c r="D75" s="90"/>
-      <c r="E75" s="91" t="s">
+      <c r="E75" s="89" t="s">
         <v>592</v>
       </c>
       <c r="F75" s="90" t="s">
@@ -7935,18 +7949,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D2:D22"/>
-    <mergeCell ref="E2:E22"/>
-    <mergeCell ref="F2:F22"/>
-    <mergeCell ref="D25:D42"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="F25:F42"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="F45:F55"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="D75:D79"/>
     <mergeCell ref="E75:E79"/>
@@ -7957,6 +7959,18 @@
     <mergeCell ref="D70:D73"/>
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="F70:F73"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="F45:F55"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="D2:D22"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="F25:F42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
@@ -8689,10 +8703,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="105" t="s">
         <v>359</v>
       </c>
-      <c r="C1" s="104"/>
+      <c r="C1" s="106"/>
     </row>
     <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -8780,7 +8794,7 @@
       <c r="B11" s="43"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="107" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="44" t="s">
@@ -8791,7 +8805,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="46" t="s">
         <v>377</v>
       </c>
@@ -8800,7 +8814,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
+      <c r="A14" s="108"/>
       <c r="B14" s="48" t="s">
         <v>378</v>
       </c>
@@ -8809,7 +8823,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="108"/>
       <c r="B15" s="48" t="s">
         <v>379</v>
       </c>
@@ -8818,7 +8832,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="49" t="s">
         <v>362</v>
       </c>
@@ -8835,7 +8849,7 @@
       <c r="B18" s="43"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="102" t="s">
         <v>381</v>
       </c>
       <c r="B19" s="51" t="s">
@@ -8846,7 +8860,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
+      <c r="A20" s="103"/>
       <c r="B20" s="52" t="s">
         <v>383</v>
       </c>
@@ -8855,7 +8869,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="52" t="s">
         <v>384</v>
       </c>
@@ -8864,7 +8878,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="52" t="s">
         <v>386</v>
       </c>
@@ -8873,7 +8887,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="108"/>
+      <c r="A23" s="110"/>
       <c r="B23" s="52" t="s">
         <v>387</v>
       </c>
@@ -8882,7 +8896,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="101"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="52" t="s">
         <v>388</v>
       </c>
@@ -8891,7 +8905,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="101"/>
+      <c r="A25" s="103"/>
       <c r="B25" s="52" t="s">
         <v>390</v>
       </c>
@@ -8900,7 +8914,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="101"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="52" t="s">
         <v>391</v>
       </c>
@@ -8909,7 +8923,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="52" t="s">
         <v>393</v>
       </c>
@@ -8918,7 +8932,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="109"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="54" t="s">
         <v>394</v>
       </c>
@@ -8935,7 +8949,7 @@
       <c r="B30" s="43"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="102" t="s">
         <v>396</v>
       </c>
       <c r="B31" s="52" t="s">
@@ -8946,7 +8960,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
+      <c r="A32" s="110"/>
       <c r="B32" s="52" t="s">
         <v>376</v>
       </c>
@@ -8955,7 +8969,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="52" t="s">
         <v>400</v>
       </c>
@@ -8964,7 +8978,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
+      <c r="A34" s="103"/>
       <c r="B34" s="52" t="s">
         <v>378</v>
       </c>
@@ -8973,7 +8987,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="102"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="52" t="s">
         <v>379</v>
       </c>
@@ -9020,7 +9034,7 @@
       <c r="B41" s="43"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="102" t="s">
         <v>407</v>
       </c>
       <c r="B42" s="36" t="s">
@@ -9031,7 +9045,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="102"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="36" t="s">
         <v>408</v>
       </c>
@@ -9048,7 +9062,7 @@
       <c r="B45" s="43"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="100" t="s">
+      <c r="A46" s="102" t="s">
         <v>410</v>
       </c>
       <c r="B46" s="36" t="s">
@@ -9059,7 +9073,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="101"/>
+      <c r="A47" s="103"/>
       <c r="B47" s="36" t="s">
         <v>413</v>
       </c>
@@ -9068,7 +9082,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="101"/>
+      <c r="A48" s="103"/>
       <c r="B48" s="36" t="s">
         <v>414</v>
       </c>
@@ -9077,7 +9091,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="101"/>
+      <c r="A49" s="103"/>
       <c r="B49" s="36" t="s">
         <v>416</v>
       </c>
@@ -9086,7 +9100,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="102"/>
+      <c r="A50" s="104"/>
       <c r="B50" s="36" t="s">
         <v>417</v>
       </c>
@@ -9103,7 +9117,7 @@
       <c r="B52" s="43"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="100" t="s">
+      <c r="A53" s="102" t="s">
         <v>418</v>
       </c>
       <c r="B53" s="36" t="s">
@@ -9114,7 +9128,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="101"/>
+      <c r="A54" s="103"/>
       <c r="B54" s="36" t="s">
         <v>420</v>
       </c>
@@ -9123,7 +9137,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="102"/>
+      <c r="A55" s="104"/>
       <c r="B55" s="36" t="s">
         <v>422</v>
       </c>
@@ -9225,11 +9239,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="112" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
     </row>
     <row r="9" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
@@ -9285,11 +9299,11 @@
       <c r="C13" s="22"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
@@ -9536,7 +9550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F52F2DA-E96D-40AD-9194-D5EC3C19A9AE}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360EAD68-7312-4DD5-B733-E72A1DFF2E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74715C38-D891-4ADC-9CB3-344C3B39DA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="671">
   <si>
     <t>Module</t>
   </si>
@@ -4044,12 +4044,67 @@
 I also worked on Restrictions that are done with respect to Sales district &amp; Payers.
 Currently, I'm guiding the business users on the testing of EDI functionality as UAT is going on at present in my project.</t>
   </si>
+  <si>
+    <t>2nd Switch</t>
+  </si>
+  <si>
+    <t>What is the process code and output type used for ORDRSP &amp; INVOIC</t>
+  </si>
+  <si>
+    <t>ORDE</t>
+  </si>
+  <si>
+    <t>BA00-SD10(ORDRSP) &amp; RD00-SD09(INVOIC)</t>
+  </si>
+  <si>
+    <t>What is the process code and output type used for DESADV</t>
+  </si>
+  <si>
+    <t>ZOA0-DELV(DESADV)</t>
+  </si>
+  <si>
+    <t>Difference between Intercompany STO &amp; Intracompany STO</t>
+  </si>
+  <si>
+    <t>Movement types for STO for PGI &amp; PGR</t>
+  </si>
+  <si>
+    <t>one-step STO---&gt; PGI(647) &amp; PGR(101)</t>
+  </si>
+  <si>
+    <t>Movement types for Intercompany STO</t>
+  </si>
+  <si>
+    <t>Intracompany means inside the company transactions with in the branches with same legal entity. Inter comapny means transactions between company and one of its separate legal entity.</t>
+  </si>
+  <si>
+    <t>643(Intercompany STO)
+645(one step- intercompany STO)</t>
+  </si>
+  <si>
+    <t>What would you do to keep an order from using same PO values?</t>
+  </si>
+  <si>
+    <t>In VOV8(SD definition), maintain 'Check customer Ref' as 'A'</t>
+  </si>
+  <si>
+    <t>How will you configure SAP to understand it is a order related billing?</t>
+  </si>
+  <si>
+    <t>In VOV4(IC definition), maintain 'Billing relevance' as 'B'</t>
+  </si>
+  <si>
+    <t>How will you create proforma invoice for a delivery?</t>
+  </si>
+  <si>
+    <t>September 11, 2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4227,6 +4282,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Stencil"/>
+      <family val="5"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4546,7 +4607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4755,23 +4816,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4782,17 +4840,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4838,6 +4899,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6017,7 +6086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E573222-E512-4703-B9F5-B22A7717D7C9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6072,7 +6141,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="161" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="149.5" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
         <v>451</v>
       </c>
@@ -6278,8 +6347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3859DFB-17B5-474D-869D-DAD91F3CD285}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V2"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6846,19 +6915,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="115.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.81640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6328125" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.36328125" style="30" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="255.54296875" style="30"/>
@@ -6894,13 +6963,13 @@
       <c r="C2" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="93" t="s">
         <v>463</v>
       </c>
-      <c r="E2" s="91">
+      <c r="E2" s="101">
         <v>44436</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="97" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6914,9 +6983,9 @@
       <c r="C3" s="71" t="s">
         <v>466</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="72" t="s">
@@ -6928,9 +6997,9 @@
       <c r="C4" s="74" t="s">
         <v>468</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
@@ -6942,9 +7011,9 @@
       <c r="C5" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
@@ -6956,9 +7025,9 @@
       <c r="C6" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="7" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
@@ -6970,9 +7039,9 @@
       <c r="C7" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
@@ -6984,9 +7053,9 @@
       <c r="C8" s="73" t="s">
         <v>477</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
@@ -6998,9 +7067,9 @@
       <c r="C9" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
     </row>
     <row r="10" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
@@ -7010,9 +7079,9 @@
       <c r="C10" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="72" t="s">
@@ -7024,9 +7093,9 @@
       <c r="C11" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="D11" s="90"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
     </row>
     <row r="12" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A12" s="72" t="s">
@@ -7038,9 +7107,9 @@
       <c r="C12" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
@@ -7050,9 +7119,9 @@
         <v>470</v>
       </c>
       <c r="C13" s="32"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="72" t="s">
@@ -7064,9 +7133,9 @@
       <c r="C14" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
@@ -7078,9 +7147,9 @@
       <c r="C15" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
@@ -7092,9 +7161,9 @@
       <c r="C16" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
@@ -7106,9 +7175,9 @@
       <c r="C17" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
     </row>
     <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A18" s="72" t="s">
@@ -7120,9 +7189,9 @@
       <c r="C18" s="62" t="s">
         <v>494</v>
       </c>
-      <c r="D18" s="90"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="72" t="s">
@@ -7134,9 +7203,9 @@
       <c r="C19" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="D19" s="90"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
@@ -7148,9 +7217,9 @@
       <c r="C20" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="D20" s="90"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
     </row>
     <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A21" s="72" t="s">
@@ -7162,9 +7231,9 @@
       <c r="C21" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
     </row>
     <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A22" s="72" t="s">
@@ -7176,13 +7245,16 @@
       <c r="C22" s="33" t="s">
         <v>502</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="76"/>
       <c r="D23" s="31"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="77" t="s">
@@ -7204,13 +7276,13 @@
       <c r="C25" s="78" t="s">
         <v>505</v>
       </c>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="92" t="s">
         <v>506</v>
       </c>
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="93" t="s">
         <v>507</v>
       </c>
-      <c r="F25" s="89" t="s">
+      <c r="F25" s="93" t="s">
         <v>508</v>
       </c>
     </row>
@@ -7224,9 +7296,9 @@
       <c r="C26" s="78" t="s">
         <v>510</v>
       </c>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="89"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="93"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="79" t="s">
@@ -7238,9 +7310,9 @@
       <c r="C27" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="89"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
@@ -7252,9 +7324,9 @@
       <c r="C28" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="89"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="79" t="s">
@@ -7266,9 +7338,9 @@
       <c r="C29" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="89"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="93"/>
     </row>
     <row r="30" spans="1:6" ht="65" x14ac:dyDescent="0.3">
       <c r="A30" s="79" t="s">
@@ -7280,9 +7352,9 @@
       <c r="C30" s="81" t="s">
         <v>515</v>
       </c>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="89"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="93"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="79" t="s">
@@ -7294,9 +7366,9 @@
       <c r="C31" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="89"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="93"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
@@ -7308,9 +7380,9 @@
       <c r="C32" s="78" t="s">
         <v>519</v>
       </c>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="89"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="93"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
@@ -7322,9 +7394,9 @@
       <c r="C33" s="78" t="s">
         <v>521</v>
       </c>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="89"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="93"/>
     </row>
     <row r="34" spans="1:7" ht="39" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="s">
@@ -7336,9 +7408,9 @@
       <c r="C34" s="81" t="s">
         <v>523</v>
       </c>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="89"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="93"/>
     </row>
     <row r="35" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A35" s="72" t="s">
@@ -7350,9 +7422,9 @@
       <c r="C35" s="81" t="s">
         <v>526</v>
       </c>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="89"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="93"/>
       <c r="G35" s="86" t="s">
         <v>605</v>
       </c>
@@ -7367,9 +7439,9 @@
       <c r="C36" s="78" t="s">
         <v>528</v>
       </c>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="89"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="93"/>
       <c r="G36" s="30" t="s">
         <v>606</v>
       </c>
@@ -7384,9 +7456,9 @@
       <c r="C37" s="78" t="s">
         <v>531</v>
       </c>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="89"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="93"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="72" t="s">
@@ -7398,9 +7470,9 @@
       <c r="C38" s="78" t="s">
         <v>533</v>
       </c>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="89"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="93"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
@@ -7410,9 +7482,9 @@
         <v>470</v>
       </c>
       <c r="C39" s="78"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="89"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="93"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
@@ -7424,9 +7496,9 @@
       <c r="C40" s="78" t="s">
         <v>536</v>
       </c>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="89"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="93"/>
     </row>
     <row r="41" spans="1:7" ht="52" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
@@ -7438,9 +7510,9 @@
       <c r="C41" s="81" t="s">
         <v>538</v>
       </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="89"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="93"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
@@ -7452,9 +7524,16 @@
       <c r="C42" s="78" t="s">
         <v>541</v>
       </c>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="89"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="93"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="77" t="s">
@@ -7476,13 +7555,13 @@
       <c r="C45" s="82" t="s">
         <v>544</v>
       </c>
-      <c r="D45" s="94" t="s">
+      <c r="D45" s="97" t="s">
         <v>545</v>
       </c>
-      <c r="E45" s="95" t="s">
+      <c r="E45" s="94" t="s">
         <v>546</v>
       </c>
-      <c r="F45" s="94" t="s">
+      <c r="F45" s="97" t="s">
         <v>464</v>
       </c>
     </row>
@@ -7496,9 +7575,9 @@
       <c r="C46" s="75" t="s">
         <v>548</v>
       </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="92"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="98"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="32" t="s">
@@ -7510,9 +7589,9 @@
       <c r="C47" s="75" t="s">
         <v>550</v>
       </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="92"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="98"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="32" t="s">
@@ -7522,9 +7601,9 @@
         <v>540</v>
       </c>
       <c r="C48" s="75"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="92"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="98"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="32" t="s">
@@ -7536,9 +7615,9 @@
       <c r="C49" s="75" t="s">
         <v>553</v>
       </c>
-      <c r="D49" s="92"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="92"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="98"/>
     </row>
     <row r="50" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A50" s="32" t="s">
@@ -7550,9 +7629,9 @@
       <c r="C50" s="82" t="s">
         <v>555</v>
       </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="92"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="98"/>
     </row>
     <row r="51" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
@@ -7564,9 +7643,9 @@
       <c r="C51" s="82" t="s">
         <v>557</v>
       </c>
-      <c r="D51" s="92"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="92"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="98"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="32" t="s">
@@ -7576,9 +7655,9 @@
         <v>461</v>
       </c>
       <c r="C52" s="75"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="96"/>
-      <c r="F52" s="92"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="98"/>
     </row>
     <row r="53" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
@@ -7590,9 +7669,9 @@
       <c r="C53" s="82" t="s">
         <v>560</v>
       </c>
-      <c r="D53" s="92"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="92"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="98"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="32" t="s">
@@ -7602,9 +7681,9 @@
         <v>461</v>
       </c>
       <c r="C54" s="75"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="92"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="98"/>
     </row>
     <row r="55" spans="1:6" ht="38.5" x14ac:dyDescent="0.3">
       <c r="A55" s="32" t="s">
@@ -7616,9 +7695,9 @@
       <c r="C55" s="83" t="s">
         <v>563</v>
       </c>
-      <c r="D55" s="93"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="93"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="99"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="77"/>
@@ -7638,15 +7717,15 @@
       <c r="C57" s="81" t="s">
         <v>565</v>
       </c>
-      <c r="D57" s="90" t="s">
+      <c r="D57" s="92" t="s">
         <v>566</v>
       </c>
-      <c r="E57" s="98"/>
-      <c r="F57" s="94" t="s">
+      <c r="E57" s="100"/>
+      <c r="F57" s="97" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="52" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A58" s="32" t="s">
         <v>568</v>
       </c>
@@ -7656,9 +7735,9 @@
       <c r="C58" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="D58" s="90"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="98"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
@@ -7670,9 +7749,9 @@
       <c r="C59" s="32" t="s">
         <v>571</v>
       </c>
-      <c r="D59" s="90"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="98"/>
     </row>
     <row r="60" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A60" s="79" t="s">
@@ -7684,9 +7763,9 @@
       <c r="C60" s="84" t="s">
         <v>555</v>
       </c>
-      <c r="D60" s="90"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="92"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="98"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
@@ -7698,9 +7777,9 @@
       <c r="C61" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="D61" s="90"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="100"/>
+      <c r="F61" s="98"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
@@ -7712,9 +7791,9 @@
       <c r="C62" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="D62" s="90"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="93"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="99"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="77"/>
@@ -7734,13 +7813,13 @@
       <c r="C64" s="32" t="s">
         <v>577</v>
       </c>
-      <c r="D64" s="90" t="s">
+      <c r="D64" s="92" t="s">
         <v>578</v>
       </c>
-      <c r="E64" s="89" t="s">
+      <c r="E64" s="93" t="s">
         <v>579</v>
       </c>
-      <c r="F64" s="89" t="s">
+      <c r="F64" s="93" t="s">
         <v>580</v>
       </c>
     </row>
@@ -7754,9 +7833,9 @@
       <c r="C65" s="84" t="s">
         <v>555</v>
       </c>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="32" t="s">
@@ -7768,9 +7847,9 @@
       <c r="C66" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="D66" s="90"/>
-      <c r="E66" s="90"/>
-      <c r="F66" s="90"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="32" t="s">
@@ -7780,9 +7859,9 @@
         <v>461</v>
       </c>
       <c r="C67" s="32"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="32" t="s">
@@ -7794,9 +7873,9 @@
       <c r="C68" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="92"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="77"/>
@@ -7812,13 +7891,13 @@
       </c>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
-      <c r="D70" s="95" t="s">
+      <c r="D70" s="94" t="s">
         <v>585</v>
       </c>
-      <c r="E70" s="95" t="s">
+      <c r="E70" s="94" t="s">
         <v>586</v>
       </c>
-      <c r="F70" s="94" t="s">
+      <c r="F70" s="97" t="s">
         <v>587</v>
       </c>
     </row>
@@ -7828,9 +7907,9 @@
       </c>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="92"/>
+      <c r="D71" s="95"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="98"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="32" t="s">
@@ -7838,9 +7917,9 @@
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
-      <c r="D72" s="96"/>
-      <c r="E72" s="96"/>
-      <c r="F72" s="92"/>
+      <c r="D72" s="95"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="98"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="32" t="s">
@@ -7848,17 +7927,17 @@
       </c>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
-      <c r="D73" s="97"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="93"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="99"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="99"/>
-      <c r="B74" s="100"/>
-      <c r="C74" s="100"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="101"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="91"/>
     </row>
     <row r="75" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A75" s="79" t="s">
@@ -7870,11 +7949,11 @@
       <c r="C75" s="84" t="s">
         <v>555</v>
       </c>
-      <c r="D75" s="90"/>
-      <c r="E75" s="89" t="s">
+      <c r="D75" s="92"/>
+      <c r="E75" s="93" t="s">
         <v>592</v>
       </c>
-      <c r="F75" s="90" t="s">
+      <c r="F75" s="92" t="s">
         <v>593</v>
       </c>
     </row>
@@ -7888,9 +7967,9 @@
       <c r="C76" s="32" t="s">
         <v>595</v>
       </c>
-      <c r="D76" s="90"/>
-      <c r="E76" s="90"/>
-      <c r="F76" s="90"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
@@ -7902,9 +7981,9 @@
       <c r="C77" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="D77" s="90"/>
-      <c r="E77" s="90"/>
-      <c r="F77" s="90"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="32" t="s">
@@ -7916,9 +7995,9 @@
       <c r="C78" s="32" t="s">
         <v>599</v>
       </c>
-      <c r="D78" s="90"/>
-      <c r="E78" s="90"/>
-      <c r="F78" s="90"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
@@ -7930,9 +8009,9 @@
       <c r="C79" s="32" t="s">
         <v>601</v>
       </c>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="59"/>
@@ -7942,13 +8021,171 @@
       <c r="E80" s="77"/>
       <c r="F80" s="77"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="30" t="s">
         <v>602</v>
       </c>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="30"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+    </row>
+    <row r="84" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="117" t="s">
+        <v>653</v>
+      </c>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>656</v>
+      </c>
+      <c r="D85" s="120" t="s">
+        <v>578</v>
+      </c>
+      <c r="E85" s="119" t="s">
+        <v>670</v>
+      </c>
+      <c r="F85" s="92" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="D86" s="120"/>
+      <c r="E86" s="119"/>
+      <c r="F86" s="92"/>
+    </row>
+    <row r="87" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>663</v>
+      </c>
+      <c r="D87" s="120"/>
+      <c r="E87" s="119"/>
+      <c r="F87" s="92"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>661</v>
+      </c>
+      <c r="D88" s="120"/>
+      <c r="E88" s="119"/>
+      <c r="F88" s="92"/>
+    </row>
+    <row r="89" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="22" t="s">
+        <v>662</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="D89" s="120"/>
+      <c r="E89" s="119"/>
+      <c r="F89" s="92"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="22" t="s">
+        <v>665</v>
+      </c>
+      <c r="B90" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="D90" s="120"/>
+      <c r="E90" s="119"/>
+      <c r="F90" s="92"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="22" t="s">
+        <v>667</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="D91" s="120"/>
+      <c r="E91" s="119"/>
+      <c r="F91" s="92"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="22" t="s">
+        <v>669</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="C92" s="22"/>
+      <c r="D92" s="120"/>
+      <c r="E92" s="119"/>
+      <c r="F92" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
+    <mergeCell ref="D85:D92"/>
+    <mergeCell ref="E85:E92"/>
+    <mergeCell ref="F85:F92"/>
+    <mergeCell ref="D2:D22"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="F25:F42"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="F45:F55"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="D75:D79"/>
     <mergeCell ref="E75:E79"/>
@@ -7959,18 +8196,6 @@
     <mergeCell ref="D70:D73"/>
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="F70:F73"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="F45:F55"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="D2:D22"/>
-    <mergeCell ref="E2:E22"/>
-    <mergeCell ref="F2:F22"/>
-    <mergeCell ref="D25:D42"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="F25:F42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
@@ -9550,8 +9775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F52F2DA-E96D-40AD-9194-D5EC3C19A9AE}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9674,6 +9899,18 @@
         <v>153</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D8" s="1"/>
+      <c r="E8" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="118" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="118" t="s">
+        <v>655</v>
+      </c>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>131</v>

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F43E29-D038-44AD-9E80-201C60801246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F97A112-412A-43C3-9C9C-B33B4FB3CE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="828">
   <si>
     <t>Module</t>
   </si>
@@ -740,113 +740,6 @@
     <t>Configurations</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Schedule line category(CS):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Order type: NB(purchase requistion std)
-Item category: 5(3rd-party)
-Acct Assgt category: 1(3rd-party)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> VOV4: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sales document(OR)+ Item category group(BANS): Item category(TAS)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Item category group</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> should be BANS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Item category(TAS)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Billing relevance should be 'F'( order related billing-status according to invoice(po invoice))</t>
-    </r>
-  </si>
-  <si>
     <t>Condition records</t>
   </si>
   <si>
@@ -3936,12 +3829,6 @@
   <si>
     <t xml:space="preserve">In VOV4(IC definition), maintain 'Billing relevance' as 'B' / 'C' for Credit memo
 </t>
-  </si>
-  <si>
-    <t>2nd Switch- 1st iNterview</t>
-  </si>
-  <si>
-    <t>2nd INTERView</t>
   </si>
   <si>
     <t>1. Define condition table</t>
@@ -4593,12 +4480,674 @@
 I also with other business processes like Consignment processing, Intercompany sales and billing, Third party drop-ship etc..
 I have exposure to configurations involved in sales document, item category determination, scheline line category determination, pricing determination. </t>
   </si>
+  <si>
+    <t>2nd INTERVIEW</t>
+  </si>
+  <si>
+    <t>2nd Switch- 1st INTERVIEW</t>
+  </si>
+  <si>
+    <t>Tell me about the enhancements you have done with respect to EDI?</t>
+  </si>
+  <si>
+    <t>Why do you have to change EDI Idoc message when you could have done with Delivery block in order?</t>
+  </si>
+  <si>
+    <t>Explain 3rd-party drop-ship process</t>
+  </si>
+  <si>
+    <t>Explain the configurations for the 3rd-party drop-ship process</t>
+  </si>
+  <si>
+    <t>What is the difference you observe in ECC vs HANA?</t>
+  </si>
+  <si>
+    <t>Explain the consignment processing.</t>
+  </si>
+  <si>
+    <t>When Consignment Return is used &amp; When Consignment Pick-up is used?</t>
+  </si>
+  <si>
+    <t>Are the tables like KNA1, KNB1, KNVV, KONV removed in S4HANA?</t>
+  </si>
+  <si>
+    <t>Explain Item category determination for 3rd party drop-ship</t>
+  </si>
+  <si>
+    <t>Explain Schedule line category determination for 3rd party drop-ship</t>
+  </si>
+  <si>
+    <t>Explain schedule line category of 3rd part drop-ship.</t>
+  </si>
+  <si>
+    <t>What is the difference between Alt condition type &amp; Alt condition base value</t>
+  </si>
+  <si>
+    <t>What is the use of sub-total in pricing procedure?</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young</t>
+  </si>
+  <si>
+    <t>Sep 21, 2023</t>
+  </si>
+  <si>
+    <t>Have you worked with Availability check and its configuration?</t>
+  </si>
+  <si>
+    <t>What is the role of Account keys in Pricing procedure?</t>
+  </si>
+  <si>
+    <t>Cleared</t>
+  </si>
+  <si>
+    <t>SPRO-&gt;IMG-&gt;SD-&gt;Basic Functions-&gt;AC&amp;TOR-&gt; TOR-&gt;Configure Availability check Reaction to Delivery blocks</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Item category(TAS):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Billing relevance should be 'F'( order related billing-status according to invoice(po invoice))
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Item category group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should be BANS
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VOV4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sales document(OR)+ Item category group(BANS): Item category(TAS)
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Schedule line category(CS):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Order type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(purchase requistion std)
+Item category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(3rd-party)
+Acct Assgt category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(3rd-party)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Item category(TAS): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Billing relevance should be 'F'( order related billing-status according to invoice(po invoice))
+2. Item category group should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>BANS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>VOV4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Sales document(OR)+ Item category group(BANS): Item category(TAS)
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Schedule line category(CS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Order type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>NB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(purchase requistion std)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Item category:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(3rd-party)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acct Assgt category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3rd-party)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VOV4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sales document(OR)+ Item category group(BANS): Item category(TAS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>VOV5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Item category(TAS)+ MRP Type: Schedule line Category(CS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Schedule line category(CS):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Order type: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NB(purchase requistion std)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Item category:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5(3rd-party)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Acct Assgt category:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1(3rd-party)</t>
+    </r>
+  </si>
+  <si>
+    <t>Consignment Process is where product are stored at the customer location but the owner of this product is still company. Customer stores the consignment stock at their own a warehouse. Customer can consume product from warehouse at any time and customer billed for product for actually quantity consumes.
+1. Consignment fill-up(KB-KBN-E1) Fill-up will move the goods from plant- stcok to customer consignment
+2. Consignment Issue(KE-KEN-C0 or C1) issue will move ownership from customer consignment to customer
+3. Consignment return(KR-KRN-D0) Return will move ownership from customer to customer consignment
+4. Consignment fill-up(KA-KAN-F0 or F1) Pick-up will move the goods from customer consignment to plant-stock</t>
+  </si>
+  <si>
+    <t>What the are the movement types used for CF, CP, CI &amp; CR</t>
+  </si>
+  <si>
+    <t>Difference between CF(MT-631) &amp; CI(633)</t>
+  </si>
+  <si>
+    <t>631 - Transfer posting unrestricted use - customer consignment stock.
+633 -  issuing goods from your warehouse to customer at which point of only, actual sales will be made</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Consignment Return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">– If the order is returned back to Consignee by the retail buyer, this leads to a situation where you would want to raise a credit memo against the Consignment Issue invoice. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consignment PickUp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> – This is the case where the manufacturer recalls the products or the distributor sends it back</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> In ECC, to support master and transaction tables, status and index tables are used to maintain load balancing, faster fetching of data, etc.
+In S4, these status and index tables are entirely removed, and many master and transaction tables are combined to few. They use in-memory columnar architecture, where the fetching of data is very fast and the calculations are done on the fly, making the need for status and index tables to a nil.
+Now coming to the removal of the status and the index tables. These will affect a lot of custom programs present. Adjusting all custom programs with a new set of tables will take years to migrate. SAP approached this by providing a lot of CDS views as a replacement to the old ECC tables reducing the migration period drastically.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Alternative Condition Base value :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Means, This is routine written by ABAPer to use some other base value to calculate the conditions. Eg. For discount conditions, we might apply the percentage to base price of the material to arrive at a value. Here, base price of the material is used as condition base value. Whereas, for freight conditions, we do not rely on base price condition value but we depend either on Gross/Net weight of the material which will not be available on the PP, so a routine is written to make use of either Gross weight(12)/Net weight(13) as the base value to calculate the Freight conditions. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Alternative Calculation Type:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Alternative condition type is basically a routine that can give an alternate calculation that can modify the final value.
+For example, imagine you have a condition type ZZ01, with a condition record maintained (master data) for $100.  Now, condition ZZ02 also exists lower in the schema, but with a rate of 10%.  The standard calculation would result in a final value of $110. 
+The alternate base value could say, "don't use $100 as the basis -- use the original price PR00 only, which was $90."  Then, the final value would be $100 + (10% of $90) = $109. 
+The alternate calculation routine says, "ignore the 10% altogether. Instead, use an externally calculated 20%."  Then, you end up with a final value of $100 + (20% of $100) = $120. 
+Put them both together, and you could end up with $100 + (20% of $90) = $118. </t>
+    </r>
+  </si>
+  <si>
+    <t>The value of this field states where the values of subtotals must be captured i.e. in which table and which field.
+Controls which fields condition amounts or subtotals (for instance, a customer discount or the cost of a material) are saved. 
+If the same fields are being utilized for storing the various condition amounts, the system adds the individual amounts.
+These condition amounts or subtotals are utilized as a starting point for performing further calculations. User may require a subtotal of all the discounts which are encompassed in the pricing of a sales order.</t>
+  </si>
+  <si>
+    <t>The values of the Sales Deductions, Tax Revenues,  Sales Revenues, Freight Revenues and Rebate Accruals etc. are going to be posted in the respective G/L accounts in Fi Module.
+For doing this user assigns the account keys/ accruals to the various types of condition based on their classification. The classification shown below.
+ERF Freight revenue(KF00); ERS Sales deductions(K004, K005); ERU Rebate accruals; ERB Rebate sales deducts(BO01 to BO05); ERL Revenue(PR00)
+This account keys and accruals are assigned to respective G/L accounts. Therefore, the system posts respective values in respective G/L accounts in Fi-Co Module.
+This also one of the areas of SD - Fi Integration. SD consultants are responsible for assigning the account keys and Fi Consultants have to assign the respective G/L accounts in T.Code: VKOA.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4779,6 +5328,25 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Stencil"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF040C28"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF040C28"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -5100,7 +5668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5324,25 +5892,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5352,6 +5905,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5409,6 +5977,23 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6637,7 +7222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E573222-E512-4703-B9F5-B22A7717D7C9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6651,61 +7236,61 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B1" s="56" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="195.5" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="149.5" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="126.5" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C7" s="60"/>
     </row>
@@ -6730,7 +7315,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -6745,32 +7330,32 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -6780,7 +7365,7 @@
     </row>
     <row r="11" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -6801,7 +7386,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="119" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -6827,7 +7412,7 @@
     </row>
     <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="120" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B2" s="120"/>
       <c r="C2" s="120"/>
@@ -6853,7 +7438,7 @@
     </row>
     <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="121" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B3" s="121"/>
       <c r="C3" s="121"/>
@@ -6879,7 +7464,7 @@
     </row>
     <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="120" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B4" s="122"/>
       <c r="C4" s="122"/>
@@ -6905,7 +7490,7 @@
     </row>
     <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="121" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B5" s="122"/>
       <c r="C5" s="122"/>
@@ -6959,176 +7544,176 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
       <c r="B3" s="49" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="22" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="81" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
       <c r="B6" s="79" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="49" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="49" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="67" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="78" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="C17" s="20"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="B18" s="22" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
       <c r="B19" s="81" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="C19" s="20"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="22" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C20" s="20"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="22" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="C21" s="20"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="20"/>
     </row>
     <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>112</v>
@@ -7137,7 +7722,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="22" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="20"/>
@@ -7149,46 +7734,46 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="67" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="22" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="22" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A32" s="22" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>122</v>
@@ -7215,15 +7800,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B2" s="13"/>
     </row>
@@ -7233,15 +7818,15 @@
     </row>
     <row r="4" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="155" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B5" s="13"/>
     </row>
@@ -7268,49 +7853,49 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="C3" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -7335,18 +7920,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -7391,253 +7976,253 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>602</v>
       </c>
-      <c r="B1" s="65" t="s">
-        <v>606</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="F1" s="65" t="s">
         <v>602</v>
       </c>
-      <c r="F1" s="65" t="s">
-        <v>606</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="J1" s="65" t="s">
         <v>602</v>
       </c>
-      <c r="J1" s="65" t="s">
-        <v>606</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="66" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>609</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="L3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="275.5" x14ac:dyDescent="0.35">
       <c r="C14" s="4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -7651,7 +8236,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7961,20 +8546,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -7985,10 +8570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109:C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8005,319 +8590,319 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>457</v>
+      </c>
+      <c r="E2" s="104">
+        <v>44436</v>
+      </c>
+      <c r="F2" s="100" t="s">
         <v>458</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>461</v>
-      </c>
-      <c r="E2" s="98">
-        <v>44436</v>
-      </c>
-      <c r="F2" s="101" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>781</v>
-      </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
+        <v>775</v>
+      </c>
+      <c r="D3" s="95"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>465</v>
-      </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
+        <v>461</v>
+      </c>
+      <c r="D4" s="95"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
+        <v>464</v>
+      </c>
+      <c r="D5" s="95"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
     </row>
     <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>470</v>
-      </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
+        <v>466</v>
+      </c>
+      <c r="D6" s="95"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>472</v>
-      </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
+        <v>468</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>474</v>
-      </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
+        <v>470</v>
+      </c>
+      <c r="D8" s="95"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
+        <v>472</v>
+      </c>
+      <c r="D9" s="95"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
+        <v>474</v>
+      </c>
+      <c r="D10" s="95"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="84" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>598</v>
-      </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
+        <v>594</v>
+      </c>
+      <c r="D11" s="95"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="84" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>782</v>
-      </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
+        <v>776</v>
+      </c>
+      <c r="D12" s="95"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="84" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
+        <v>479</v>
+      </c>
+      <c r="D14" s="95"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
+        <v>481</v>
+      </c>
+      <c r="D15" s="95"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
+        <v>483</v>
+      </c>
+      <c r="D16" s="95"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>489</v>
-      </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
+        <v>485</v>
+      </c>
+      <c r="D17" s="95"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
     </row>
     <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="84" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C18" s="87" t="s">
-        <v>783</v>
-      </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
+        <v>777</v>
+      </c>
+      <c r="D18" s="95"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="84" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
+        <v>488</v>
+      </c>
+      <c r="D19" s="95"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
+        <v>490</v>
+      </c>
+      <c r="D20" s="95"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
     </row>
     <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="84" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+        <v>492</v>
+      </c>
+      <c r="D21" s="95"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
     </row>
     <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="84" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>498</v>
-      </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
+        <v>494</v>
+      </c>
+      <c r="D22" s="95"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="81"/>
@@ -8325,7 +8910,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -8335,269 +8920,269 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>497</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>498</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>499</v>
+      </c>
+      <c r="F25" s="96" t="s">
         <v>500</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="C25" s="88" t="s">
-        <v>501</v>
-      </c>
-      <c r="D25" s="97" t="s">
-        <v>502</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>503</v>
-      </c>
-      <c r="F25" s="96" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>506</v>
-      </c>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
+        <v>502</v>
+      </c>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
       <c r="F26" s="96"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="89" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
       <c r="F27" s="96"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C28" s="90" t="s">
-        <v>509</v>
-      </c>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
+        <v>505</v>
+      </c>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
       <c r="F28" s="96"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="89" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
       <c r="F29" s="96"/>
     </row>
     <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A30" s="89" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>511</v>
-      </c>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
+        <v>507</v>
+      </c>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
       <c r="F30" s="96"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="89" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
+        <v>509</v>
+      </c>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
       <c r="F31" s="96"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C32" s="88" t="s">
-        <v>515</v>
-      </c>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
+        <v>511</v>
+      </c>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
       <c r="F32" s="96"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>517</v>
-      </c>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
+        <v>513</v>
+      </c>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
       <c r="F33" s="96"/>
     </row>
     <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C34" s="72" t="s">
-        <v>519</v>
-      </c>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
+        <v>515</v>
+      </c>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="96"/>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="84" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C35" s="72" t="s">
-        <v>522</v>
-      </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
+        <v>518</v>
+      </c>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
       <c r="F35" s="96"/>
       <c r="G35" s="91" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C36" s="88" t="s">
-        <v>524</v>
-      </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
+        <v>520</v>
+      </c>
+      <c r="D36" s="95"/>
+      <c r="E36" s="95"/>
       <c r="F36" s="96"/>
       <c r="G36" s="20" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>527</v>
-      </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
+        <v>523</v>
+      </c>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
       <c r="F37" s="96"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="84" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>529</v>
-      </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
+        <v>525</v>
+      </c>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
       <c r="F38" s="96"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C39" s="88"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
       <c r="F39" s="96"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>532</v>
-      </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
+        <v>528</v>
+      </c>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
       <c r="F40" s="96"/>
     </row>
     <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C41" s="72" t="s">
-        <v>534</v>
-      </c>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
+        <v>530</v>
+      </c>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
       <c r="F41" s="96"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>537</v>
-      </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
+        <v>533</v>
+      </c>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
       <c r="F42" s="96"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
@@ -8607,157 +9192,157 @@
     </row>
     <row r="45" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C45" s="92" t="s">
-        <v>540</v>
-      </c>
-      <c r="D45" s="101" t="s">
-        <v>541</v>
-      </c>
-      <c r="E45" s="102" t="s">
-        <v>542</v>
-      </c>
-      <c r="F45" s="101" t="s">
-        <v>462</v>
+        <v>536</v>
+      </c>
+      <c r="D45" s="100" t="s">
+        <v>537</v>
+      </c>
+      <c r="E45" s="97" t="s">
+        <v>538</v>
+      </c>
+      <c r="F45" s="100" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C46" s="78" t="s">
-        <v>544</v>
-      </c>
-      <c r="D46" s="99"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="99"/>
+        <v>540</v>
+      </c>
+      <c r="D46" s="101"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="101"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C47" s="78" t="s">
-        <v>546</v>
-      </c>
-      <c r="D47" s="99"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="99"/>
+        <v>542</v>
+      </c>
+      <c r="D47" s="101"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="101"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C48" s="78"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="99"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="101"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C49" s="78" t="s">
-        <v>549</v>
-      </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="99"/>
+        <v>545</v>
+      </c>
+      <c r="D49" s="101"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="101"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>551</v>
-      </c>
-      <c r="D50" s="99"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="99"/>
+        <v>547</v>
+      </c>
+      <c r="D50" s="101"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="101"/>
     </row>
     <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C51" s="92" t="s">
-        <v>553</v>
-      </c>
-      <c r="D51" s="99"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="99"/>
+        <v>549</v>
+      </c>
+      <c r="D51" s="101"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="101"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C52" s="78"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="99"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="101"/>
     </row>
     <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C53" s="92" t="s">
-        <v>556</v>
-      </c>
-      <c r="D53" s="99"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="99"/>
+        <v>552</v>
+      </c>
+      <c r="D53" s="101"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="101"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C54" s="78"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="99"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="101"/>
     </row>
     <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C55" s="93" t="s">
-        <v>784</v>
-      </c>
-      <c r="D55" s="100"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="100"/>
+        <v>778</v>
+      </c>
+      <c r="D55" s="102"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="102"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
@@ -8769,91 +9354,91 @@
     </row>
     <row r="57" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C57" s="72" t="s">
-        <v>560</v>
-      </c>
-      <c r="D57" s="97" t="s">
-        <v>561</v>
+        <v>556</v>
+      </c>
+      <c r="D57" s="95" t="s">
+        <v>557</v>
       </c>
       <c r="E57" s="105"/>
-      <c r="F57" s="101" t="s">
-        <v>562</v>
+      <c r="F57" s="100" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>564</v>
-      </c>
-      <c r="D58" s="97"/>
+        <v>560</v>
+      </c>
+      <c r="D58" s="95"/>
       <c r="E58" s="105"/>
-      <c r="F58" s="99"/>
+      <c r="F58" s="101"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="D59" s="97"/>
+        <v>562</v>
+      </c>
+      <c r="D59" s="95"/>
       <c r="E59" s="105"/>
-      <c r="F59" s="99"/>
+      <c r="F59" s="101"/>
     </row>
     <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="89" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B60" s="89" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C60" s="94" t="s">
-        <v>551</v>
-      </c>
-      <c r="D60" s="97"/>
+        <v>547</v>
+      </c>
+      <c r="D60" s="95"/>
       <c r="E60" s="105"/>
-      <c r="F60" s="99"/>
+      <c r="F60" s="101"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>569</v>
-      </c>
-      <c r="D61" s="97"/>
+        <v>565</v>
+      </c>
+      <c r="D61" s="95"/>
       <c r="E61" s="105"/>
-      <c r="F61" s="99"/>
+      <c r="F61" s="101"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>569</v>
-      </c>
-      <c r="D62" s="97"/>
+        <v>565</v>
+      </c>
+      <c r="D62" s="95"/>
       <c r="E62" s="105"/>
-      <c r="F62" s="100"/>
+      <c r="F62" s="102"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
@@ -8865,79 +9450,79 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="D64" s="95" t="s">
+        <v>569</v>
+      </c>
+      <c r="E64" s="96" t="s">
+        <v>570</v>
+      </c>
+      <c r="F64" s="96" t="s">
         <v>571</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="D64" s="97" t="s">
-        <v>573</v>
-      </c>
-      <c r="E64" s="96" t="s">
-        <v>574</v>
-      </c>
-      <c r="F64" s="96" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A65" s="89" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B65" s="89" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>551</v>
-      </c>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
+        <v>547</v>
+      </c>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
+        <v>523</v>
+      </c>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
     </row>
     <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>785</v>
-      </c>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
+        <v>779</v>
+      </c>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="D68" s="97"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="97"/>
+        <v>523</v>
+      </c>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
@@ -8949,49 +9534,49 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
-      <c r="D70" s="102" t="s">
-        <v>580</v>
-      </c>
-      <c r="E70" s="102" t="s">
-        <v>581</v>
-      </c>
-      <c r="F70" s="101" t="s">
-        <v>582</v>
+      <c r="D70" s="97" t="s">
+        <v>576</v>
+      </c>
+      <c r="E70" s="97" t="s">
+        <v>577</v>
+      </c>
+      <c r="F70" s="100" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="99"/>
+      <c r="D71" s="98"/>
+      <c r="E71" s="98"/>
+      <c r="F71" s="101"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="99"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="101"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="104"/>
-      <c r="F73" s="100"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="102"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="106"/>
@@ -9003,87 +9588,87 @@
     </row>
     <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="89" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C75" s="94" t="s">
-        <v>551</v>
-      </c>
-      <c r="D75" s="97"/>
+        <v>547</v>
+      </c>
+      <c r="D75" s="95"/>
       <c r="E75" s="96" t="s">
-        <v>587</v>
-      </c>
-      <c r="F75" s="97" t="s">
-        <v>588</v>
+        <v>583</v>
+      </c>
+      <c r="F75" s="95" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>590</v>
-      </c>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
+        <v>586</v>
+      </c>
+      <c r="D76" s="95"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="95"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>592</v>
-      </c>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
+        <v>588</v>
+      </c>
+      <c r="D77" s="95"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="95"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
+        <v>590</v>
+      </c>
+      <c r="D78" s="95"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="95"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
-        <v>595</v>
+      <c r="A79" s="89" t="s">
+        <v>591</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>459</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
+        <v>455</v>
+      </c>
+      <c r="C79" s="94" t="s">
+        <v>592</v>
+      </c>
+      <c r="D79" s="95"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="95"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
@@ -9099,148 +9684,380 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
-        <v>666</v>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="124" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="D86" s="95" t="s">
-        <v>573</v>
+        <v>643</v>
+      </c>
+      <c r="D86" s="103" t="s">
+        <v>569</v>
       </c>
       <c r="E86" s="96" t="s">
-        <v>656</v>
-      </c>
-      <c r="F86" s="95" t="s">
-        <v>462</v>
+        <v>652</v>
+      </c>
+      <c r="F86" s="103" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>649</v>
-      </c>
-      <c r="D87" s="95"/>
+        <v>645</v>
+      </c>
+      <c r="D87" s="103"/>
       <c r="E87" s="96"/>
-      <c r="F87" s="95"/>
+      <c r="F87" s="103"/>
     </row>
     <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="D88" s="95"/>
+        <v>657</v>
+      </c>
+      <c r="D88" s="103"/>
       <c r="E88" s="96"/>
-      <c r="F88" s="95"/>
+      <c r="F88" s="103"/>
     </row>
     <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>663</v>
-      </c>
-      <c r="D89" s="95"/>
+        <v>659</v>
+      </c>
+      <c r="D89" s="103"/>
       <c r="E89" s="96"/>
-      <c r="F89" s="95"/>
+      <c r="F89" s="103"/>
     </row>
     <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>664</v>
-      </c>
-      <c r="D90" s="95"/>
+        <v>660</v>
+      </c>
+      <c r="D90" s="103"/>
       <c r="E90" s="96"/>
-      <c r="F90" s="95"/>
+      <c r="F90" s="103"/>
     </row>
     <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="D91" s="95"/>
+        <v>656</v>
+      </c>
+      <c r="D91" s="103"/>
       <c r="E91" s="96"/>
-      <c r="F91" s="95"/>
+      <c r="F91" s="103"/>
     </row>
     <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>665</v>
-      </c>
-      <c r="D92" s="95"/>
+        <v>661</v>
+      </c>
+      <c r="D92" s="103"/>
       <c r="E92" s="96"/>
-      <c r="F92" s="95"/>
+      <c r="F92" s="103"/>
     </row>
     <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>662</v>
-      </c>
-      <c r="D93" s="95"/>
+        <v>658</v>
+      </c>
+      <c r="D93" s="103"/>
       <c r="E93" s="96"/>
-      <c r="F93" s="95"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
-        <v>667</v>
-      </c>
+      <c r="F93" s="103"/>
+    </row>
+    <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="124" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="B96" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C96" s="22"/>
+      <c r="D96" s="103" t="s">
+        <v>808</v>
+      </c>
+      <c r="E96" s="103" t="s">
+        <v>809</v>
+      </c>
+      <c r="F96" s="103" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A97" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="D97" s="103"/>
+      <c r="E97" s="103"/>
+      <c r="F97" s="103"/>
+    </row>
+    <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="B98" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="D98" s="103"/>
+      <c r="E98" s="103"/>
+      <c r="F98" s="103"/>
+    </row>
+    <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="D99" s="103"/>
+      <c r="E99" s="103"/>
+      <c r="F99" s="103"/>
+    </row>
+    <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>803</v>
+      </c>
+      <c r="B100" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="D100" s="103"/>
+      <c r="E100" s="103"/>
+      <c r="F100" s="103"/>
+    </row>
+    <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>817</v>
+      </c>
+      <c r="D101" s="103"/>
+      <c r="E101" s="103"/>
+      <c r="F101" s="103"/>
+    </row>
+    <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+      <c r="A102" s="22" t="s">
+        <v>805</v>
+      </c>
+      <c r="B102" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C102" s="87" t="s">
+        <v>818</v>
+      </c>
+      <c r="D102" s="103"/>
+      <c r="E102" s="103"/>
+      <c r="F102" s="103"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="22" t="s">
+        <v>799</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C103" s="22"/>
+      <c r="D103" s="103"/>
+      <c r="E103" s="103"/>
+      <c r="F103" s="103"/>
+    </row>
+    <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="22" t="s">
+        <v>800</v>
+      </c>
+      <c r="B104" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="D104" s="103"/>
+      <c r="E104" s="103"/>
+      <c r="F104" s="103"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="22" t="s">
+        <v>820</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="D105" s="103"/>
+      <c r="E105" s="103"/>
+      <c r="F105" s="103"/>
+    </row>
+    <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A106" s="22" t="s">
+        <v>821</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>822</v>
+      </c>
+      <c r="D106" s="103"/>
+      <c r="E106" s="103"/>
+      <c r="F106" s="103"/>
+    </row>
+    <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="C107" s="129" t="s">
+        <v>823</v>
+      </c>
+      <c r="D107" s="103"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="103"/>
+    </row>
+    <row r="108" spans="1:6" ht="125" x14ac:dyDescent="0.25">
+      <c r="A108" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="D108" s="103"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="103"/>
+    </row>
+    <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="22" t="s">
+        <v>806</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="D109" s="103"/>
+      <c r="E109" s="103"/>
+      <c r="F109" s="103"/>
+    </row>
+    <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="C110" s="130" t="s">
+        <v>826</v>
+      </c>
+      <c r="D110" s="103"/>
+      <c r="E110" s="103"/>
+      <c r="F110" s="103"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="B111" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="C111" s="22"/>
+      <c r="D111" s="103"/>
+      <c r="E111" s="103"/>
+      <c r="F111" s="103"/>
+    </row>
+    <row r="112" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C112" s="130" t="s">
+        <v>827</v>
+      </c>
+      <c r="D112" s="103"/>
+      <c r="E112" s="103"/>
+      <c r="F112" s="103"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
+  <mergeCells count="28">
+    <mergeCell ref="D96:D112"/>
+    <mergeCell ref="E96:E112"/>
+    <mergeCell ref="F96:F112"/>
     <mergeCell ref="D86:D93"/>
     <mergeCell ref="E86:E93"/>
     <mergeCell ref="F86:F93"/>
@@ -9257,6 +10074,15 @@
     <mergeCell ref="E57:E62"/>
     <mergeCell ref="F57:F62"/>
     <mergeCell ref="A74:F74"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
@@ -9270,8 +10096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9EA002-3826-45E0-AB6A-307795449AA6}">
   <dimension ref="A1:D409"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="74.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9283,31 +10109,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="74" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>114</v>
@@ -9315,38 +10141,38 @@
     </row>
     <row r="5" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="88.5" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C6" s="55"/>
     </row>
     <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>112</v>
@@ -9354,90 +10180,90 @@
     </row>
     <row r="9" spans="1:4" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="101" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="76" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="101" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A18" s="27" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -11036,16 +11862,16 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>192</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M1" s="25" t="s">
         <v>20</v>
@@ -11065,10 +11891,10 @@
         <v>194</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J2" s="22" t="s">
         <v>161</v>
@@ -11077,10 +11903,10 @@
         <v>162</v>
       </c>
       <c r="M2" s="22" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -11091,16 +11917,16 @@
         <v>187</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J3" s="22" t="s">
         <v>163</v>
@@ -11109,18 +11935,18 @@
         <v>164</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>195</v>
@@ -11135,13 +11961,13 @@
         <v>166</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="25" x14ac:dyDescent="0.25">
@@ -11187,59 +12013,59 @@
         <v>169</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" s="22" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D8" s="22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -11252,10 +12078,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J10" s="76" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="25" x14ac:dyDescent="0.25">
@@ -11263,103 +12089,103 @@
         <v>9</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J11" s="22" t="s">
         <v>170</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B12" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>216</v>
-      </c>
       <c r="E12" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>221</v>
-      </c>
       <c r="H12" s="22" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B13" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>218</v>
-      </c>
       <c r="E13" s="22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" s="22" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G15" s="22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -11370,44 +12196,44 @@
         <v>22</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -11583,7 +12409,7 @@
         <v>36</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="N6" s="24"/>
     </row>
@@ -11595,10 +12421,10 @@
         <v>38</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -11623,10 +12449,10 @@
         <v>40</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -11655,10 +12481,10 @@
         <v>42</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -11681,10 +12507,10 @@
         <v>73</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -11695,114 +12521,114 @@
         <v>74</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B13" s="22"/>
       <c r="D13" s="21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E13" s="22"/>
       <c r="G13" s="21" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H13" s="22"/>
       <c r="J13" s="18" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="25" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="19" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D17" s="19" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K17" s="28" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B18" s="24"/>
       <c r="J18" s="19" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -11810,7 +12636,7 @@
         <v>70</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -11818,23 +12644,23 @@
         <v>71</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -11862,89 +12688,89 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="112" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C1" s="113"/>
     </row>
     <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="32" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="34" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="35"/>
       <c r="B6" s="36" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="37" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="32" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="32" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
@@ -11956,46 +12782,46 @@
         <v>26</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="115"/>
       <c r="B13" s="42" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="115"/>
       <c r="B14" s="44" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="115"/>
       <c r="B15" s="44" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="116"/>
       <c r="B16" s="45" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -12008,94 +12834,94 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="109" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="48" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="117"/>
       <c r="B22" s="48" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="117"/>
       <c r="B23" s="48" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="110"/>
       <c r="B24" s="48" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="48" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="110"/>
       <c r="B26" s="48" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="117"/>
       <c r="B27" s="48" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="118"/>
       <c r="B28" s="50" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -12108,49 +12934,49 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="109" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="117"/>
       <c r="B32" s="48" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="117"/>
       <c r="B33" s="48" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="110"/>
       <c r="B34" s="48" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="111"/>
       <c r="B35" s="48" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -12163,24 +12989,24 @@
     </row>
     <row r="38" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -12193,22 +13019,22 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="109" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="111"/>
       <c r="B43" s="32" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -12221,49 +13047,49 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="109" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
       <c r="B47" s="32" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="110"/>
       <c r="B48" s="32" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="110"/>
       <c r="B49" s="32" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="111"/>
       <c r="B50" s="32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -12276,31 +13102,31 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="109" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="110"/>
       <c r="B54" s="32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="111"/>
       <c r="B55" s="32" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -12401,10 +13227,10 @@
     </row>
     <row r="10" spans="1:2" ht="70.5" x14ac:dyDescent="0.35">
       <c r="A10" s="69" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -12550,26 +13376,26 @@
         <v>146</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -12578,7 +13404,7 @@
         <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>132</v>
@@ -12590,7 +13416,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>159</v>
@@ -12598,7 +13424,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>138</v>
@@ -12606,7 +13432,7 @@
     </row>
     <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>139</v>
@@ -12648,7 +13474,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -12656,148 +13482,148 @@
         <v>109</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B41" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -12809,10 +13635,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CAAF14-6D8F-425D-9DFC-A6859D0C7F1E}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12866,7 +13692,7 @@
     </row>
     <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="119" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B8" s="119"/>
       <c r="C8" s="119"/>
@@ -12883,28 +13709,30 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="A11" s="127" t="s">
+        <v>814</v>
+      </c>
+      <c r="B11" s="125"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="A12" s="128"/>
+      <c r="B12" s="125"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>202</v>
-      </c>
+      <c r="A13" s="128"/>
+      <c r="B13" s="125"/>
+    </row>
+    <row r="14" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="128"/>
+      <c r="B14" s="126"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="125"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F97A112-412A-43C3-9C9C-B33B4FB3CE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0406380-8756-47FF-8357-BEE8562CAD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="Cross-company" sheetId="8" r:id="rId10"/>
     <sheet name="STO" sheetId="9" r:id="rId11"/>
     <sheet name="OPD" sheetId="19" r:id="rId12"/>
-    <sheet name="MTS &amp; MTO" sheetId="11" r:id="rId13"/>
-    <sheet name="Others" sheetId="21" r:id="rId14"/>
-    <sheet name="Issues!." sheetId="12" r:id="rId15"/>
-    <sheet name="Custom Fiori Application" sheetId="18" r:id="rId16"/>
-    <sheet name="HANA vs ECC" sheetId="1" r:id="rId17"/>
-    <sheet name="Idoc structure" sheetId="3" r:id="rId18"/>
-    <sheet name="ALE" sheetId="10" r:id="rId19"/>
+    <sheet name="ATP" sheetId="22" r:id="rId13"/>
+    <sheet name="MTS &amp; MTO" sheetId="11" r:id="rId14"/>
+    <sheet name="Others" sheetId="21" r:id="rId15"/>
+    <sheet name="Issues!." sheetId="12" r:id="rId16"/>
+    <sheet name="Custom Fiori Application" sheetId="18" r:id="rId17"/>
+    <sheet name="HANA vs ECC" sheetId="1" r:id="rId18"/>
+    <sheet name="Idoc structure" sheetId="3" r:id="rId19"/>
+    <sheet name="ALE" sheetId="10" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="894">
   <si>
     <t>Module</t>
   </si>
@@ -5142,12 +5143,298 @@
 This account keys and accruals are assigned to respective G/L accounts. Therefore, the system posts respective values in respective G/L accounts in Fi-Co Module.
 This also one of the areas of SD - Fi Integration. SD consultants are responsible for assigning the account keys and Fi Consultants have to assign the respective G/L accounts in T.Code: VKOA.</t>
   </si>
+  <si>
+    <t>Have you worked with Workflows, Forms &amp; Outputs?</t>
+  </si>
+  <si>
+    <t>Have you worked with BPD?</t>
+  </si>
+  <si>
+    <t>BASICS</t>
+  </si>
+  <si>
+    <t>ATP= Current stock + Inward Movement(Purc. Order &amp; Plan. order)+ Outward Movement(SO+Deliveries)</t>
+  </si>
+  <si>
+    <t>ATP= Current stock + Planned Receipts + Planned Issues</t>
+  </si>
+  <si>
+    <t>On a day, where a order on Jan10 is placed for 10 Qty , Stock(100) will not go down but the ATP(will go down to 90 qty) with respect to the order on Jan10. Stock will go down to the ATP level(90 qty) only based on the PGI done for the delivery created for the order on Jan11.
+When PO is created for 10-Qty to on Jan11 which is to be received on Jan15, ATP will raise to 100 Qty for Jan15 on Jan11 itself whereas stock level will move to 100Qty only aftr the goods received on Jan15.</t>
+  </si>
+  <si>
+    <t>For Production, RLT= Current date + Prod. Time + G/R Proc. Time</t>
+  </si>
+  <si>
+    <t>For Procurement, RLT= Purc. Lead time(SPRO--&gt;MM-&gt;Purchasing-&gt;PR-&gt;Proc. time) + G/R Proc. Time(P. view of MM) + Planned Delivery time
+Purc. Lead time is the time taken by Purc. officer to convert PR to PO</t>
+  </si>
+  <si>
+    <t>Replenishment lead time(Master data for ATP) defines how long it takes to make the material available. When you can't break the RLT into different comp like Prod. Time &amp; Proc. Time, then make use of Total RLT(used if it is Internal procurement) in MRP3 view.</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Avaialabilty check Timing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> During Order creation/change; delivery; PGI</t>
+    </r>
+  </si>
+  <si>
+    <t>01- Individual requirements(requirements shared straightaway w.r.t order)- For high value products
+02- Daily requirements(requirements are collected and shared at the end of the day) - For small materials like spares etc..,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving parts behind 
+1. AC- Checking group(Sales General/plant view)
+</t>
+  </si>
+  <si>
+    <t>2. Checking rule(defines how AC needs to be done)-</t>
+  </si>
+  <si>
+    <t>SPRO-&gt;SD-&gt;BF-&gt; AC &amp; TOR -&gt;AC-&gt; AC with ATP Logic-&gt; Define Checking Group
+* defines how the system takes into account diffe. Stock types while doing Availability check
+* can be defined at order level or delivery level</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SPRO-&gt;SD-&gt;BF-&gt; AC &amp; TOR -&gt;AC-&gt; AC with ATP Logic-&gt; Define Checking Rule
+* Specifies how stock is calculated, meaning what type of inward movement/outward movement is included
+* It is in-built and cannot be created newly
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Stocks:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1. Include Safety stock--&gt; if 1000 stock is there, 500 will be added as safety stock for urgent requirements.
+2. Include Transfer--&gt; if Stock transfer needs to be included in ATP
+3. Include Qual. Ins stock--&gt; 
+4. Include blocked stock--&gt; 
+* By default, the above will not be included except for unrestricted stock
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Inward/outward movements:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>I. Include Purchase orders; Include PR; Include Sales req; Include Deliveries</t>
+    </r>
+  </si>
+  <si>
+    <t>3. SCL</t>
+  </si>
+  <si>
+    <t>5. RV03VFZZ/MV45AFZF, etc(for customization)</t>
+  </si>
+  <si>
+    <t>4. Delivery Item category</t>
+  </si>
+  <si>
+    <t>Enabling Availability check box in SCL(order level availability is controlled by SCL)</t>
+  </si>
+  <si>
+    <t>Enabling Availability check box in Delivery Item category(Delivery level availability is controlled by this)</t>
+  </si>
+  <si>
+    <t>Checking group</t>
+  </si>
+  <si>
+    <t>Also done configurations:</t>
+  </si>
+  <si>
+    <t>1. Define Maerial block for customers</t>
+  </si>
+  <si>
+    <t>2. Define check. Group default values: Mat. Type + Plant: CG</t>
+  </si>
+  <si>
+    <t>Under AC with ATP logic</t>
+  </si>
+  <si>
+    <t>3. Define procedure for each SLC: SL: AC[]+ TOR[] + ALL[]</t>
+  </si>
+  <si>
+    <t>5. Define Default values for AC for Sales Area</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>Req. class</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>A or I</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>AC/Requirement Type Determination</t>
+  </si>
+  <si>
+    <t>Ex: If we maintain MRP type in MRP1 view as "NP-No planning", then it means it it not relevant for Procurement, then requirement type is acquired by "Item cat + MRP type=011", ie TAN + MD= 011
+If we maintain MRP type in MRP1 view as "PD-MRP", it is relevant for procurement, then RT is determined by "TAN+PD=041"</t>
+  </si>
+  <si>
+    <t>Strategy group(MRP3 view), MRP group(MRP1 view), Mat.type(FERT, HAWA), SCL, Item category(IC+MRP Type)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOR </t>
+  </si>
+  <si>
+    <t>Path: SPRO--&gt; IMG--&gt; SD--&gt; BF --&gt; AC &amp; TOR--&gt; TOR</t>
+  </si>
+  <si>
+    <t>Define Requirement classes</t>
+  </si>
+  <si>
+    <t>Define Requirement types</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Delivery requirement:011--&gt; AC[y] + Req[y]</t>
+  </si>
+  <si>
+    <t>Order &amp; Delivery requirement:041--&gt; AC[y] + Req[y] + PA[y]</t>
+  </si>
+  <si>
+    <t>Will assigned to Requirement classes</t>
+  </si>
+  <si>
+    <t>Determination of Req. Types using Transaction</t>
+  </si>
+  <si>
+    <t>IC+MRP</t>
+  </si>
+  <si>
+    <t>TAN+PD=041</t>
+  </si>
+  <si>
+    <t>TAN+NP=011</t>
+  </si>
+  <si>
+    <t>Define procedure for each SLC: SL: AC[]+ TOR[] + ALL[]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Define Procedure for Delivery Item category: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>If this is blank, it is relevant for Availability check</t>
+    </r>
+  </si>
+  <si>
+    <t>Delivery scheduling</t>
+  </si>
+  <si>
+    <t>3. TRLT--&gt; MRP3 view</t>
+  </si>
+  <si>
+    <t>2. Loading time- [A]-Route dependent --&gt; Shipping point(definition)</t>
+  </si>
+  <si>
+    <t>SPRO-&gt;IMG-&gt;SD-&gt;BF-&gt;Routes-&gt; Define Routes &amp; stages</t>
+  </si>
+  <si>
+    <t>For internal production</t>
+  </si>
+  <si>
+    <t>4.  Transit Time--&gt; count of days</t>
+  </si>
+  <si>
+    <t>5.  Transportation time--&gt; count of days</t>
+  </si>
+  <si>
+    <t>SPRO-&gt;IMG-&gt;SD-&gt;BF-&gt;Delivery scheduling--&gt; DS by Sales Document Type(OR: DS[x] &amp; Trans. Scheduling [y]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Pick/Pack time[A] Route dependent --&gt; Shipping point(definition) </t>
+  </si>
+  <si>
+    <t>SPRO-&gt;IMG-&gt;SD-&gt;BF-&gt;Delivery scheduling--&gt; DS by Shipping point(SP: Pick/pack time[A] ; Load time[A]; Rounding time[2]</t>
+  </si>
+  <si>
+    <t>Backward if MAD is same as the order date</t>
+  </si>
+  <si>
+    <t>Forward if MAD is not same as order date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5339,12 +5626,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF040C28"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF040C28"/>
       <name val="Tahoma"/>
@@ -5668,7 +5949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5891,11 +6172,33 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5905,21 +6208,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5966,6 +6254,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5978,22 +6272,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6159,6 +6443,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>90715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6059714</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E641E12-0358-F4A4-CE92-700D37895AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7048501"/>
+          <a:ext cx="6059714" cy="1959428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -6204,7 +6537,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7385,134 +7718,134 @@
   <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="122" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
     </row>
     <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
     </row>
     <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
     </row>
     <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
     </row>
     <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7785,6 +8118,327 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F62B76-A999-4491-9487-4664B67861D8}">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.6328125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="91.36328125" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" style="87" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>830</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>864</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+      <c r="A10" s="129"/>
+      <c r="B10" s="80" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
+        <v>882</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="67" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>840</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>857</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>841</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>847</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>862</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>846</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>863</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>845</v>
+      </c>
+      <c r="B18" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="B22" s="130" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="130" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="74" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="27" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="95" t="s">
+        <v>867</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>868</v>
+      </c>
+      <c r="B38" s="131" t="s">
+        <v>869</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>873</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C39" s="80" t="s">
+        <v>874</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="B40" s="27" t="s">
+        <v>870</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="74" t="s">
+        <v>876</v>
+      </c>
+      <c r="C41" s="92" t="s">
+        <v>877</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>878</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="22" t="s">
+        <v>879</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="27" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>884</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>883</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>888</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>885</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A341B7-644B-4D77-B5EC-8E37D7458E3E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -7836,7 +8490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E11BB8B-6D1A-426B-A94E-2E5CF457241F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -7904,7 +8558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E189C3C3-EEB1-493B-8ABF-EFAFC403CD7F}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -7950,7 +8604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B651BB52-6CE9-469E-B50D-672679C49F78}">
   <dimension ref="A1:L14"/>
   <sheetViews>
@@ -8231,7 +8885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -8311,11 +8965,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
     </row>
     <row r="9" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
@@ -8371,11 +9025,11 @@
       <c r="C13" s="22"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
@@ -8452,7 +9106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8E8FD8-CC4D-41B5-9F85-742D913B8828}">
   <dimension ref="A1:AD120"/>
   <sheetViews>
@@ -8530,50 +9184,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8599D4-DE0E-4BD2-843B-7435980E71AE}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="114.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109:C109"/>
+    <sheetView topLeftCell="A110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8618,13 +9234,13 @@
       <c r="C2" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="99" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="104">
+      <c r="E2" s="101">
         <v>44436</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="104" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8638,9 +9254,9 @@
       <c r="C3" s="83" t="s">
         <v>775</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
@@ -8652,9 +9268,9 @@
       <c r="C4" s="86" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
@@ -8666,9 +9282,9 @@
       <c r="C5" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
     </row>
     <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
@@ -8680,9 +9296,9 @@
       <c r="C6" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
@@ -8694,9 +9310,9 @@
       <c r="C7" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -8708,9 +9324,9 @@
       <c r="C8" s="85" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="95"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -8722,9 +9338,9 @@
       <c r="C9" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -8734,9 +9350,9 @@
       <c r="C10" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="84" t="s">
@@ -8748,9 +9364,9 @@
       <c r="C11" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="84" t="s">
@@ -8762,9 +9378,9 @@
       <c r="C12" s="27" t="s">
         <v>776</v>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -8774,9 +9390,9 @@
         <v>463</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="84" t="s">
@@ -8788,9 +9404,9 @@
       <c r="C14" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -8802,9 +9418,9 @@
       <c r="C15" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
@@ -8816,9 +9432,9 @@
       <c r="C16" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
@@ -8830,9 +9446,9 @@
       <c r="C17" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
     </row>
     <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="84" t="s">
@@ -8844,9 +9460,9 @@
       <c r="C18" s="87" t="s">
         <v>777</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="84" t="s">
@@ -8858,9 +9474,9 @@
       <c r="C19" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -8872,9 +9488,9 @@
       <c r="C20" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
     </row>
     <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="84" t="s">
@@ -8886,9 +9502,9 @@
       <c r="C21" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="95"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
     </row>
     <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="84" t="s">
@@ -8900,9 +9516,9 @@
       <c r="C22" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="81"/>
@@ -8928,13 +9544,13 @@
       <c r="C25" s="88" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="95" t="s">
+      <c r="D25" s="100" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="96" t="s">
+      <c r="E25" s="99" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="96" t="s">
+      <c r="F25" s="99" t="s">
         <v>500</v>
       </c>
     </row>
@@ -8948,9 +9564,9 @@
       <c r="C26" s="88" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="99"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="89" t="s">
@@ -8962,9 +9578,9 @@
       <c r="C27" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="99"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
@@ -8976,9 +9592,9 @@
       <c r="C28" s="90" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="96"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="99"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="89" t="s">
@@ -8990,9 +9606,9 @@
       <c r="C29" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="96"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="99"/>
     </row>
     <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A30" s="89" t="s">
@@ -9004,9 +9620,9 @@
       <c r="C30" s="72" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="96"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="99"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="89" t="s">
@@ -9018,9 +9634,9 @@
       <c r="C31" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="99"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -9032,9 +9648,9 @@
       <c r="C32" s="88" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="99"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
@@ -9046,9 +9662,9 @@
       <c r="C33" s="88" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="96"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="99"/>
     </row>
     <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
@@ -9060,9 +9676,9 @@
       <c r="C34" s="72" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="96"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="99"/>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="84" t="s">
@@ -9074,9 +9690,9 @@
       <c r="C35" s="72" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="99"/>
       <c r="G35" s="91" t="s">
         <v>595</v>
       </c>
@@ -9091,9 +9707,9 @@
       <c r="C36" s="88" t="s">
         <v>520</v>
       </c>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="96"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="99"/>
       <c r="G36" s="20" t="s">
         <v>596</v>
       </c>
@@ -9108,9 +9724,9 @@
       <c r="C37" s="88" t="s">
         <v>523</v>
       </c>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="96"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="99"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="84" t="s">
@@ -9122,9 +9738,9 @@
       <c r="C38" s="88" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="96"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="99"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
@@ -9134,9 +9750,9 @@
         <v>463</v>
       </c>
       <c r="C39" s="88"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="96"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="99"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
@@ -9148,9 +9764,9 @@
       <c r="C40" s="88" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="96"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="99"/>
     </row>
     <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
@@ -9162,9 +9778,9 @@
       <c r="C41" s="72" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="96"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="99"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
@@ -9176,9 +9792,9 @@
       <c r="C42" s="88" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="96"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="99"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
@@ -9200,13 +9816,13 @@
       <c r="C45" s="92" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="100" t="s">
+      <c r="D45" s="104" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="97" t="s">
+      <c r="E45" s="105" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="100" t="s">
+      <c r="F45" s="104" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9220,9 +9836,9 @@
       <c r="C46" s="78" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="98"/>
-      <c r="F46" s="101"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="102"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
@@ -9234,9 +9850,9 @@
       <c r="C47" s="78" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="101"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="101"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="102"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -9246,9 +9862,9 @@
         <v>532</v>
       </c>
       <c r="C48" s="78"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="101"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="102"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
@@ -9260,9 +9876,9 @@
       <c r="C49" s="78" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="101"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="101"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="102"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
@@ -9274,9 +9890,9 @@
       <c r="C50" s="92" t="s">
         <v>547</v>
       </c>
-      <c r="D50" s="101"/>
-      <c r="E50" s="98"/>
-      <c r="F50" s="101"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="102"/>
     </row>
     <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
@@ -9288,9 +9904,9 @@
       <c r="C51" s="92" t="s">
         <v>549</v>
       </c>
-      <c r="D51" s="101"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="101"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="102"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
@@ -9300,9 +9916,9 @@
         <v>455</v>
       </c>
       <c r="C52" s="78"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="101"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="102"/>
     </row>
     <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
@@ -9314,9 +9930,9 @@
       <c r="C53" s="92" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="101"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="101"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="102"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
@@ -9326,9 +9942,9 @@
         <v>455</v>
       </c>
       <c r="C54" s="78"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="98"/>
-      <c r="F54" s="101"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="102"/>
     </row>
     <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
@@ -9340,9 +9956,9 @@
       <c r="C55" s="93" t="s">
         <v>778</v>
       </c>
-      <c r="D55" s="102"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="102"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="103"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
@@ -9362,11 +9978,11 @@
       <c r="C57" s="72" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="95" t="s">
+      <c r="D57" s="100" t="s">
         <v>557</v>
       </c>
-      <c r="E57" s="105"/>
-      <c r="F57" s="100" t="s">
+      <c r="E57" s="108"/>
+      <c r="F57" s="104" t="s">
         <v>558</v>
       </c>
     </row>
@@ -9380,9 +9996,9 @@
       <c r="C58" s="27" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="95"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="101"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="102"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
@@ -9394,9 +10010,9 @@
       <c r="C59" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="95"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="101"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="102"/>
     </row>
     <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="89" t="s">
@@ -9408,9 +10024,9 @@
       <c r="C60" s="94" t="s">
         <v>547</v>
       </c>
-      <c r="D60" s="95"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="101"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="108"/>
+      <c r="F60" s="102"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
@@ -9422,9 +10038,9 @@
       <c r="C61" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="D61" s="95"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="101"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="102"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
@@ -9436,9 +10052,9 @@
       <c r="C62" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="95"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="102"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="103"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
@@ -9458,13 +10074,13 @@
       <c r="C64" s="22" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="95" t="s">
+      <c r="D64" s="100" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="96" t="s">
+      <c r="E64" s="99" t="s">
         <v>570</v>
       </c>
-      <c r="F64" s="96" t="s">
+      <c r="F64" s="99" t="s">
         <v>571</v>
       </c>
     </row>
@@ -9478,9 +10094,9 @@
       <c r="C65" s="94" t="s">
         <v>547</v>
       </c>
-      <c r="D65" s="95"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="100"/>
+      <c r="F65" s="100"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
@@ -9492,9 +10108,9 @@
       <c r="C66" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="100"/>
+      <c r="F66" s="100"/>
     </row>
     <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -9506,9 +10122,9 @@
       <c r="C67" s="27" t="s">
         <v>779</v>
       </c>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="100"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
@@ -9520,9 +10136,9 @@
       <c r="C68" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="95"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="100"/>
+      <c r="F68" s="100"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
@@ -9538,13 +10154,13 @@
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
-      <c r="D70" s="97" t="s">
+      <c r="D70" s="105" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="97" t="s">
+      <c r="E70" s="105" t="s">
         <v>577</v>
       </c>
-      <c r="F70" s="100" t="s">
+      <c r="F70" s="104" t="s">
         <v>578</v>
       </c>
     </row>
@@ -9554,9 +10170,9 @@
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
-      <c r="D71" s="98"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="101"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="106"/>
+      <c r="F71" s="102"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
@@ -9564,9 +10180,9 @@
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
-      <c r="D72" s="98"/>
-      <c r="E72" s="98"/>
-      <c r="F72" s="101"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="106"/>
+      <c r="F72" s="102"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
@@ -9574,17 +10190,17 @@
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="102"/>
+      <c r="D73" s="107"/>
+      <c r="E73" s="107"/>
+      <c r="F73" s="103"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="106"/>
-      <c r="B74" s="107"/>
-      <c r="C74" s="107"/>
-      <c r="D74" s="107"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="108"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="110"/>
+      <c r="E74" s="110"/>
+      <c r="F74" s="111"/>
     </row>
     <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="89" t="s">
@@ -9596,11 +10212,11 @@
       <c r="C75" s="94" t="s">
         <v>547</v>
       </c>
-      <c r="D75" s="95"/>
-      <c r="E75" s="96" t="s">
+      <c r="D75" s="100"/>
+      <c r="E75" s="99" t="s">
         <v>583</v>
       </c>
-      <c r="F75" s="95" t="s">
+      <c r="F75" s="100" t="s">
         <v>584</v>
       </c>
     </row>
@@ -9614,9 +10230,9 @@
       <c r="C76" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="95"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
@@ -9628,9 +10244,9 @@
       <c r="C77" s="22" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="95"/>
-      <c r="E77" s="95"/>
-      <c r="F77" s="95"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="100"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
@@ -9642,9 +10258,9 @@
       <c r="C78" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="100"/>
+      <c r="F78" s="100"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="89" t="s">
@@ -9656,9 +10272,9 @@
       <c r="C79" s="94" t="s">
         <v>592</v>
       </c>
-      <c r="D79" s="95"/>
-      <c r="E79" s="95"/>
-      <c r="F79" s="95"/>
+      <c r="D79" s="100"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="100"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
@@ -9688,7 +10304,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="124" t="s">
+      <c r="A85" s="95" t="s">
         <v>794</v>
       </c>
     </row>
@@ -9702,13 +10318,13 @@
       <c r="C86" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="103" t="s">
+      <c r="D86" s="98" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="96" t="s">
+      <c r="E86" s="99" t="s">
         <v>652</v>
       </c>
-      <c r="F86" s="103" t="s">
+      <c r="F86" s="98" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9722,9 +10338,9 @@
       <c r="C87" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="D87" s="103"/>
-      <c r="E87" s="96"/>
-      <c r="F87" s="103"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="98"/>
     </row>
     <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
@@ -9736,9 +10352,9 @@
       <c r="C88" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="D88" s="103"/>
-      <c r="E88" s="96"/>
-      <c r="F88" s="103"/>
+      <c r="D88" s="98"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="98"/>
     </row>
     <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
@@ -9750,9 +10366,9 @@
       <c r="C89" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="D89" s="103"/>
-      <c r="E89" s="96"/>
-      <c r="F89" s="103"/>
+      <c r="D89" s="98"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="98"/>
     </row>
     <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
@@ -9764,9 +10380,9 @@
       <c r="C90" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="D90" s="103"/>
-      <c r="E90" s="96"/>
-      <c r="F90" s="103"/>
+      <c r="D90" s="98"/>
+      <c r="E90" s="99"/>
+      <c r="F90" s="98"/>
     </row>
     <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
@@ -9778,9 +10394,9 @@
       <c r="C91" s="27" t="s">
         <v>656</v>
       </c>
-      <c r="D91" s="103"/>
-      <c r="E91" s="96"/>
-      <c r="F91" s="103"/>
+      <c r="D91" s="98"/>
+      <c r="E91" s="99"/>
+      <c r="F91" s="98"/>
     </row>
     <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
@@ -9792,9 +10408,9 @@
       <c r="C92" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="D92" s="103"/>
-      <c r="E92" s="96"/>
-      <c r="F92" s="103"/>
+      <c r="D92" s="98"/>
+      <c r="E92" s="99"/>
+      <c r="F92" s="98"/>
     </row>
     <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
@@ -9806,12 +10422,12 @@
       <c r="C93" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="D93" s="103"/>
-      <c r="E93" s="96"/>
-      <c r="F93" s="103"/>
+      <c r="D93" s="98"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="98"/>
     </row>
     <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="124" t="s">
+      <c r="A95" s="95" t="s">
         <v>793</v>
       </c>
     </row>
@@ -9823,13 +10439,13 @@
         <v>463</v>
       </c>
       <c r="C96" s="22"/>
-      <c r="D96" s="103" t="s">
+      <c r="D96" s="98" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="103" t="s">
+      <c r="E96" s="98" t="s">
         <v>809</v>
       </c>
-      <c r="F96" s="103" t="s">
+      <c r="F96" s="98" t="s">
         <v>812</v>
       </c>
     </row>
@@ -9843,9 +10459,9 @@
       <c r="C97" s="22" t="s">
         <v>813</v>
       </c>
-      <c r="D97" s="103"/>
-      <c r="E97" s="103"/>
-      <c r="F97" s="103"/>
+      <c r="D97" s="98"/>
+      <c r="E97" s="98"/>
+      <c r="F97" s="98"/>
     </row>
     <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
@@ -9857,9 +10473,9 @@
       <c r="C98" s="27" t="s">
         <v>706</v>
       </c>
-      <c r="D98" s="103"/>
-      <c r="E98" s="103"/>
-      <c r="F98" s="103"/>
+      <c r="D98" s="98"/>
+      <c r="E98" s="98"/>
+      <c r="F98" s="98"/>
     </row>
     <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
@@ -9871,9 +10487,9 @@
       <c r="C99" s="27" t="s">
         <v>815</v>
       </c>
-      <c r="D99" s="103"/>
-      <c r="E99" s="103"/>
-      <c r="F99" s="103"/>
+      <c r="D99" s="98"/>
+      <c r="E99" s="98"/>
+      <c r="F99" s="98"/>
     </row>
     <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
@@ -9885,9 +10501,9 @@
       <c r="C100" s="22" t="s">
         <v>816</v>
       </c>
-      <c r="D100" s="103"/>
-      <c r="E100" s="103"/>
-      <c r="F100" s="103"/>
+      <c r="D100" s="98"/>
+      <c r="E100" s="98"/>
+      <c r="F100" s="98"/>
     </row>
     <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
@@ -9899,9 +10515,9 @@
       <c r="C101" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="D101" s="103"/>
-      <c r="E101" s="103"/>
-      <c r="F101" s="103"/>
+      <c r="D101" s="98"/>
+      <c r="E101" s="98"/>
+      <c r="F101" s="98"/>
     </row>
     <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
@@ -9913,9 +10529,9 @@
       <c r="C102" s="87" t="s">
         <v>818</v>
       </c>
-      <c r="D102" s="103"/>
-      <c r="E102" s="103"/>
-      <c r="F102" s="103"/>
+      <c r="D102" s="98"/>
+      <c r="E102" s="98"/>
+      <c r="F102" s="98"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
@@ -9925,9 +10541,9 @@
         <v>463</v>
       </c>
       <c r="C103" s="22"/>
-      <c r="D103" s="103"/>
-      <c r="E103" s="103"/>
-      <c r="F103" s="103"/>
+      <c r="D103" s="98"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="98"/>
     </row>
     <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
@@ -9939,9 +10555,9 @@
       <c r="C104" s="27" t="s">
         <v>819</v>
       </c>
-      <c r="D104" s="103"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="103"/>
+      <c r="D104" s="98"/>
+      <c r="E104" s="98"/>
+      <c r="F104" s="98"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
@@ -9953,9 +10569,9 @@
       <c r="C105" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="D105" s="103"/>
-      <c r="E105" s="103"/>
-      <c r="F105" s="103"/>
+      <c r="D105" s="98"/>
+      <c r="E105" s="98"/>
+      <c r="F105" s="98"/>
     </row>
     <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
@@ -9967,9 +10583,9 @@
       <c r="C106" s="27" t="s">
         <v>822</v>
       </c>
-      <c r="D106" s="103"/>
-      <c r="E106" s="103"/>
-      <c r="F106" s="103"/>
+      <c r="D106" s="98"/>
+      <c r="E106" s="98"/>
+      <c r="F106" s="98"/>
     </row>
     <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
@@ -9978,14 +10594,14 @@
       <c r="B107" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="C107" s="129" t="s">
+      <c r="C107" s="96" t="s">
         <v>823</v>
       </c>
-      <c r="D107" s="103"/>
-      <c r="E107" s="103"/>
-      <c r="F107" s="103"/>
-    </row>
-    <row r="108" spans="1:6" ht="125" x14ac:dyDescent="0.25">
+      <c r="D107" s="98"/>
+      <c r="E107" s="98"/>
+      <c r="F107" s="98"/>
+    </row>
+    <row r="108" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
         <v>802</v>
       </c>
@@ -9995,9 +10611,9 @@
       <c r="C108" s="27" t="s">
         <v>824</v>
       </c>
-      <c r="D108" s="103"/>
-      <c r="E108" s="103"/>
-      <c r="F108" s="103"/>
+      <c r="D108" s="98"/>
+      <c r="E108" s="98"/>
+      <c r="F108" s="98"/>
     </row>
     <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
@@ -10009,9 +10625,9 @@
       <c r="C109" s="27" t="s">
         <v>825</v>
       </c>
-      <c r="D109" s="103"/>
-      <c r="E109" s="103"/>
-      <c r="F109" s="103"/>
+      <c r="D109" s="98"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="98"/>
     </row>
     <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
@@ -10020,12 +10636,12 @@
       <c r="B110" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="C110" s="130" t="s">
+      <c r="C110" s="97" t="s">
         <v>826</v>
       </c>
-      <c r="D110" s="103"/>
-      <c r="E110" s="103"/>
-      <c r="F110" s="103"/>
+      <c r="D110" s="98"/>
+      <c r="E110" s="98"/>
+      <c r="F110" s="98"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
@@ -10035,44 +10651,50 @@
         <v>455</v>
       </c>
       <c r="C111" s="22"/>
-      <c r="D111" s="103"/>
-      <c r="E111" s="103"/>
-      <c r="F111" s="103"/>
-    </row>
-    <row r="112" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D111" s="98"/>
+      <c r="E111" s="98"/>
+      <c r="F111" s="98"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="C112" s="22"/>
+      <c r="D112" s="98"/>
+      <c r="E112" s="98"/>
+      <c r="F112" s="98"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="C113" s="22"/>
+      <c r="D113" s="98"/>
+      <c r="E113" s="98"/>
+      <c r="F113" s="98"/>
+    </row>
+    <row r="114" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
         <v>811</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B114" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="C112" s="130" t="s">
+      <c r="C114" s="97" t="s">
         <v>827</v>
       </c>
-      <c r="D112" s="103"/>
-      <c r="E112" s="103"/>
-      <c r="F112" s="103"/>
+      <c r="D114" s="98"/>
+      <c r="E114" s="98"/>
+      <c r="F114" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D96:D112"/>
-    <mergeCell ref="E96:E112"/>
-    <mergeCell ref="F96:F112"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="D2:D22"/>
-    <mergeCell ref="E2:E22"/>
-    <mergeCell ref="F2:F22"/>
-    <mergeCell ref="D25:D42"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="F25:F42"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="F45:F55"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="D75:D79"/>
     <mergeCell ref="E75:E79"/>
@@ -10083,12 +10705,68 @@
     <mergeCell ref="D70:D73"/>
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="F70:F73"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="F45:F55"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="D2:D22"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="F25:F42"/>
+    <mergeCell ref="D96:D114"/>
+    <mergeCell ref="E96:E114"/>
+    <mergeCell ref="F96:F114"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8599D4-DE0E-4BD2-843B-7435980E71AE}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="114.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12687,10 +13365,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="115" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="113"/>
+      <c r="C1" s="116"/>
     </row>
     <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
@@ -12778,7 +13456,7 @@
       <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="114" t="s">
+      <c r="A12" s="117" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="40" t="s">
@@ -12789,7 +13467,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="115"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="42" t="s">
         <v>371</v>
       </c>
@@ -12798,7 +13476,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="115"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="44" t="s">
         <v>372</v>
       </c>
@@ -12807,7 +13485,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="115"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="44" t="s">
         <v>373</v>
       </c>
@@ -12816,7 +13494,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="116"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="45" t="s">
         <v>356</v>
       </c>
@@ -12833,7 +13511,7 @@
       <c r="B18" s="39"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="112" t="s">
         <v>375</v>
       </c>
       <c r="B19" s="47" t="s">
@@ -12844,7 +13522,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
+      <c r="A20" s="113"/>
       <c r="B20" s="48" t="s">
         <v>377</v>
       </c>
@@ -12853,7 +13531,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
+      <c r="A21" s="113"/>
       <c r="B21" s="48" t="s">
         <v>378</v>
       </c>
@@ -12862,7 +13540,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="117"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="48" t="s">
         <v>380</v>
       </c>
@@ -12871,7 +13549,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="48" t="s">
         <v>381</v>
       </c>
@@ -12880,7 +13558,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
+      <c r="A24" s="113"/>
       <c r="B24" s="48" t="s">
         <v>382</v>
       </c>
@@ -12889,7 +13567,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="110"/>
+      <c r="A25" s="113"/>
       <c r="B25" s="48" t="s">
         <v>384</v>
       </c>
@@ -12898,7 +13576,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="48" t="s">
         <v>385</v>
       </c>
@@ -12907,7 +13585,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="117"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="48" t="s">
         <v>387</v>
       </c>
@@ -12916,7 +13594,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="118"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="50" t="s">
         <v>388</v>
       </c>
@@ -12933,7 +13611,7 @@
       <c r="B30" s="39"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="112" t="s">
         <v>390</v>
       </c>
       <c r="B31" s="48" t="s">
@@ -12944,7 +13622,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="117"/>
+      <c r="A32" s="120"/>
       <c r="B32" s="48" t="s">
         <v>370</v>
       </c>
@@ -12953,7 +13631,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="117"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="48" t="s">
         <v>394</v>
       </c>
@@ -12962,7 +13640,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="110"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="48" t="s">
         <v>372</v>
       </c>
@@ -12971,7 +13649,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="111"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="48" t="s">
         <v>373</v>
       </c>
@@ -13018,7 +13696,7 @@
       <c r="B41" s="39"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="109" t="s">
+      <c r="A42" s="112" t="s">
         <v>401</v>
       </c>
       <c r="B42" s="32" t="s">
@@ -13029,7 +13707,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="111"/>
+      <c r="A43" s="114"/>
       <c r="B43" s="32" t="s">
         <v>402</v>
       </c>
@@ -13046,7 +13724,7 @@
       <c r="B45" s="39"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="109" t="s">
+      <c r="A46" s="112" t="s">
         <v>404</v>
       </c>
       <c r="B46" s="32" t="s">
@@ -13057,7 +13735,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="110"/>
+      <c r="A47" s="113"/>
       <c r="B47" s="32" t="s">
         <v>407</v>
       </c>
@@ -13066,7 +13744,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="110"/>
+      <c r="A48" s="113"/>
       <c r="B48" s="32" t="s">
         <v>408</v>
       </c>
@@ -13075,7 +13753,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="110"/>
+      <c r="A49" s="113"/>
       <c r="B49" s="32" t="s">
         <v>410</v>
       </c>
@@ -13084,7 +13762,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="111"/>
+      <c r="A50" s="114"/>
       <c r="B50" s="32" t="s">
         <v>411</v>
       </c>
@@ -13101,7 +13779,7 @@
       <c r="B52" s="39"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="109" t="s">
+      <c r="A53" s="112" t="s">
         <v>412</v>
       </c>
       <c r="B53" s="32" t="s">
@@ -13112,7 +13790,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="110"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="32" t="s">
         <v>414</v>
       </c>
@@ -13121,7 +13799,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="111"/>
+      <c r="A55" s="114"/>
       <c r="B55" s="32" t="s">
         <v>416</v>
       </c>
@@ -13635,7 +14313,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CAAF14-6D8F-425D-9DFC-A6859D0C7F1E}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:A14"/>
@@ -13691,17 +14369,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="122" t="s">
         <v>707</v>
       </c>
-      <c r="B8" s="119"/>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -13709,25 +14387,19 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="123" t="s">
         <v>814</v>
       </c>
-      <c r="B11" s="125"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="128"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="124"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="128"/>
-      <c r="B13" s="125"/>
+      <c r="A13" s="124"/>
     </row>
     <row r="14" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="128"/>
-      <c r="B14" s="126"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B15" s="125"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0406380-8756-47FF-8357-BEE8562CAD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0F1F3E-A46C-4135-ABFA-9FF2F616309C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="899">
   <si>
     <t>Module</t>
   </si>
@@ -4913,7 +4913,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">VOV4: </t>
+      <t>VOV5:</t>
     </r>
     <r>
       <rPr>
@@ -4922,10 +4922,14 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>Sales document(OR)+ Item category group(BANS): Item category(TAS)</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> Item category(TAS)+ MRP Type: Schedule line Category(CS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Schedule line category(CS):
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -4934,7 +4938,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>VOV5:</t>
+      <t xml:space="preserve">Order type: </t>
     </r>
     <r>
       <rPr>
@@ -4943,12 +4947,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Item category(TAS)+ MRP Type: Schedule line Category(CS)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Schedule line category(CS):
+      <t xml:space="preserve">NB(purchase requistion std)
 </t>
     </r>
     <r>
@@ -4959,7 +4958,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Order type: </t>
+      <t>Item category:</t>
     </r>
     <r>
       <rPr>
@@ -4968,7 +4967,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">NB(purchase requistion std)
+      <t xml:space="preserve"> 5(3rd-party)
 </t>
     </r>
     <r>
@@ -4979,7 +4978,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>Item category:</t>
+      <t>Acct Assgt category:</t>
     </r>
     <r>
       <rPr>
@@ -4988,35 +4987,8 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 5(3rd-party)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Acct Assgt category:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve"> 1(3rd-party)</t>
     </r>
-  </si>
-  <si>
-    <t>Consignment Process is where product are stored at the customer location but the owner of this product is still company. Customer stores the consignment stock at their own a warehouse. Customer can consume product from warehouse at any time and customer billed for product for actually quantity consumes.
-1. Consignment fill-up(KB-KBN-E1) Fill-up will move the goods from plant- stcok to customer consignment
-2. Consignment Issue(KE-KEN-C0 or C1) issue will move ownership from customer consignment to customer
-3. Consignment return(KR-KRN-D0) Return will move ownership from customer to customer consignment
-4. Consignment fill-up(KA-KAN-F0 or F1) Pick-up will move the goods from customer consignment to plant-stock</t>
   </si>
   <si>
     <t>What the are the movement types used for CF, CP, CI &amp; CR</t>
@@ -5343,12 +5315,6 @@
     <t>Path: SPRO--&gt; IMG--&gt; SD--&gt; BF --&gt; AC &amp; TOR--&gt; TOR</t>
   </si>
   <si>
-    <t>Define Requirement classes</t>
-  </si>
-  <si>
-    <t>Define Requirement types</t>
-  </si>
-  <si>
     <t>CP</t>
   </si>
   <si>
@@ -5364,9 +5330,6 @@
     <t>Will assigned to Requirement classes</t>
   </si>
   <si>
-    <t>Determination of Req. Types using Transaction</t>
-  </si>
-  <si>
     <t>IC+MRP</t>
   </si>
   <si>
@@ -5374,9 +5337,6 @@
   </si>
   <si>
     <t>TAN+NP=011</t>
-  </si>
-  <si>
-    <t>Define procedure for each SLC: SL: AC[]+ TOR[] + ALL[]</t>
   </si>
   <si>
     <r>
@@ -5428,6 +5388,61 @@
   </si>
   <si>
     <t>Forward if MAD is not same as order date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">VOV4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sales document(OR)+ Item category group(BANS)(MM--&gt; Sales org 2): Item category(TAS)</t>
+    </r>
+  </si>
+  <si>
+    <t>Consignment Process is where product are stored at the customer location but the owner of this product is still company. Customer stores the consignment stock at their own a warehouse. Customer can consume product from warehouse at any time and customer billed for product for actually quantity consumes.
+1. Consignment fill-up(KB-KBN-E1(631)) Fill-up will move the goods from plant- stcok to customer consignment
+2. Consignment Issue(KE-KEN-C0 or C1(633)) issue will move ownership from customer consignment to customer
+3. Consignment return(KR-KRN-D0(634)) Return will move ownership from customer to customer consignment
+4. Consignment pick-up(KA-KAN-F0 or F1(632)) Pick-up will move the goods from customer consignment to plant-stock</t>
+  </si>
+  <si>
+    <t>MAST</t>
+  </si>
+  <si>
+    <t>Mixed pack- BOM</t>
+  </si>
+  <si>
+    <t>FERT+UK01: 01</t>
+  </si>
+  <si>
+    <t>6. Define Procedure by Requirement class</t>
+  </si>
+  <si>
+    <t>1.Define Requirement classes</t>
+  </si>
+  <si>
+    <t>2. Define Requirement types</t>
+  </si>
+  <si>
+    <t>4. Define procedure for each SLC: SL: AC[]+ TOR[] + ALL[]</t>
+  </si>
+  <si>
+    <t>5. Configure ACR to Delivery block</t>
+  </si>
+  <si>
+    <t>3. Determination of Req. Types by IC+MRP</t>
   </si>
 </sst>
 </file>
@@ -5949,7 +5964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6179,26 +6194,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6209,17 +6225,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6272,11 +6294,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7555,7 +7573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E573222-E512-4703-B9F5-B22A7717D7C9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -7637,7 +7655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62021A-965A-4299-8854-C66D43EE8F34}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -7711,141 +7729,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3859DFB-17B5-474D-869D-DAD91F3CD285}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="125" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
     </row>
     <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="128" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
     </row>
     <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="129" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
     </row>
     <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
     </row>
     <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="129" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8119,10 +8137,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F62B76-A999-4491-9487-4664B67861D8}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8136,289 +8154,289 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>829</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>831</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
+        <v>862</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>864</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>866</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="50" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="80" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="67" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>840</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>842</v>
       </c>
       <c r="C14" s="87" t="s">
         <v>174</v>
       </c>
       <c r="D14" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>856</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>857</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
+        <v>839</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>841</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>843</v>
-      </c>
       <c r="D15" s="22" t="s">
+        <v>857</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>858</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>859</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>860</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
+        <v>844</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>848</v>
-      </c>
       <c r="D17" s="22" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B18" s="27"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>849</v>
-      </c>
-      <c r="B22" s="130" t="s">
-        <v>850</v>
+        <v>847</v>
+      </c>
+      <c r="B22" s="99" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="130" t="s">
-        <v>853</v>
+      <c r="B23" s="99" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
-        <v>852</v>
+      <c r="B25" s="74" t="s">
+        <v>850</v>
+      </c>
+      <c r="C25" s="87" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="74" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="27" t="s">
-        <v>855</v>
+      <c r="B28" s="74" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A37" s="95" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
+        <v>866</v>
+      </c>
+      <c r="B38" s="100" t="s">
+        <v>894</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>869</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>868</v>
-      </c>
-      <c r="B38" s="131" t="s">
-        <v>869</v>
-      </c>
-      <c r="C38" s="27" t="s">
-        <v>873</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C39" s="80" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="B40" s="27" t="s">
-        <v>870</v>
+        <v>895</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="74" t="s">
-        <v>876</v>
+        <v>898</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" s="22" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="27" t="s">
-        <v>880</v>
+      <c r="B43" s="74" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="132" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>890</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="B45" s="132"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
         <v>884</v>
       </c>
-      <c r="B47" s="27" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="B48" s="27" t="s">
         <v>883</v>
       </c>
-      <c r="B48" s="27" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" ht="25" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>885</v>
@@ -8426,10 +8444,26 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>885</v>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>881</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>882</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -8443,7 +8477,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8965,11 +8999,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
     </row>
     <row r="9" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
@@ -9025,11 +9059,11 @@
       <c r="C13" s="22"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
@@ -9188,8 +9222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9234,13 +9268,13 @@
       <c r="C2" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="105" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="101">
+      <c r="E2" s="113">
         <v>44436</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="109" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9254,9 +9288,9 @@
       <c r="C3" s="83" t="s">
         <v>775</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
@@ -9268,9 +9302,9 @@
       <c r="C4" s="86" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
@@ -9282,9 +9316,9 @@
       <c r="C5" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
     </row>
     <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
@@ -9296,9 +9330,9 @@
       <c r="C6" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
@@ -9310,9 +9344,9 @@
       <c r="C7" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -9324,9 +9358,9 @@
       <c r="C8" s="85" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -9338,9 +9372,9 @@
       <c r="C9" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -9350,9 +9384,9 @@
       <c r="C10" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="84" t="s">
@@ -9364,9 +9398,9 @@
       <c r="C11" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="84" t="s">
@@ -9378,9 +9412,9 @@
       <c r="C12" s="27" t="s">
         <v>776</v>
       </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -9390,9 +9424,9 @@
         <v>463</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="84" t="s">
@@ -9404,9 +9438,9 @@
       <c r="C14" s="22" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
@@ -9418,9 +9452,9 @@
       <c r="C15" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
@@ -9432,9 +9466,9 @@
       <c r="C16" s="22" t="s">
         <v>483</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
@@ -9446,9 +9480,9 @@
       <c r="C17" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
     </row>
     <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="84" t="s">
@@ -9460,9 +9494,9 @@
       <c r="C18" s="87" t="s">
         <v>777</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="84" t="s">
@@ -9474,9 +9508,9 @@
       <c r="C19" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
@@ -9488,9 +9522,9 @@
       <c r="C20" s="22" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
     </row>
     <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="84" t="s">
@@ -9502,9 +9536,9 @@
       <c r="C21" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
     </row>
     <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="84" t="s">
@@ -9516,9 +9550,9 @@
       <c r="C22" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="81"/>
@@ -9544,13 +9578,13 @@
       <c r="C25" s="88" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="100" t="s">
+      <c r="D25" s="104" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="99" t="s">
+      <c r="E25" s="105" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="99" t="s">
+      <c r="F25" s="105" t="s">
         <v>500</v>
       </c>
     </row>
@@ -9564,9 +9598,9 @@
       <c r="C26" s="88" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="99"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="89" t="s">
@@ -9578,9 +9612,9 @@
       <c r="C27" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="99"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
@@ -9592,9 +9626,9 @@
       <c r="C28" s="90" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="99"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="89" t="s">
@@ -9606,9 +9640,9 @@
       <c r="C29" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="99"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A30" s="89" t="s">
@@ -9620,9 +9654,9 @@
       <c r="C30" s="72" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="99"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="89" t="s">
@@ -9634,9 +9668,9 @@
       <c r="C31" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="99"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -9648,9 +9682,9 @@
       <c r="C32" s="88" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="99"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="105"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
@@ -9662,9 +9696,9 @@
       <c r="C33" s="88" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="99"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
     </row>
     <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
@@ -9676,9 +9710,9 @@
       <c r="C34" s="72" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="99"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="105"/>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="84" t="s">
@@ -9690,9 +9724,9 @@
       <c r="C35" s="72" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="99"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="105"/>
       <c r="G35" s="91" t="s">
         <v>595</v>
       </c>
@@ -9707,9 +9741,9 @@
       <c r="C36" s="88" t="s">
         <v>520</v>
       </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="99"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="105"/>
       <c r="G36" s="20" t="s">
         <v>596</v>
       </c>
@@ -9724,9 +9758,9 @@
       <c r="C37" s="88" t="s">
         <v>523</v>
       </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="99"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="105"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="84" t="s">
@@ -9738,9 +9772,9 @@
       <c r="C38" s="88" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="99"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="105"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
@@ -9750,9 +9784,9 @@
         <v>463</v>
       </c>
       <c r="C39" s="88"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="99"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
@@ -9764,9 +9798,9 @@
       <c r="C40" s="88" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="99"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="105"/>
     </row>
     <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
@@ -9778,9 +9812,9 @@
       <c r="C41" s="72" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="99"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="105"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
@@ -9792,9 +9826,9 @@
       <c r="C42" s="88" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="99"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="105"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
@@ -9816,13 +9850,13 @@
       <c r="C45" s="92" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="104" t="s">
+      <c r="D45" s="109" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="105" t="s">
+      <c r="E45" s="106" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="104" t="s">
+      <c r="F45" s="109" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9836,9 +9870,9 @@
       <c r="C46" s="78" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="102"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="110"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
@@ -9850,9 +9884,9 @@
       <c r="C47" s="78" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="102"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="102"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="110"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
@@ -9862,9 +9896,9 @@
         <v>532</v>
       </c>
       <c r="C48" s="78"/>
-      <c r="D48" s="102"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="102"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="110"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
@@ -9876,9 +9910,9 @@
       <c r="C49" s="78" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="102"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="102"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="110"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
@@ -9890,9 +9924,9 @@
       <c r="C50" s="92" t="s">
         <v>547</v>
       </c>
-      <c r="D50" s="102"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="102"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="110"/>
     </row>
     <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
@@ -9904,9 +9938,9 @@
       <c r="C51" s="92" t="s">
         <v>549</v>
       </c>
-      <c r="D51" s="102"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="102"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="110"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
@@ -9916,9 +9950,9 @@
         <v>455</v>
       </c>
       <c r="C52" s="78"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="106"/>
-      <c r="F52" s="102"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="110"/>
     </row>
     <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
@@ -9930,9 +9964,9 @@
       <c r="C53" s="92" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="102"/>
-      <c r="E53" s="106"/>
-      <c r="F53" s="102"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="110"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
@@ -9942,9 +9976,9 @@
         <v>455</v>
       </c>
       <c r="C54" s="78"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="102"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="110"/>
     </row>
     <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
@@ -9956,9 +9990,9 @@
       <c r="C55" s="93" t="s">
         <v>778</v>
       </c>
-      <c r="D55" s="103"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="103"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="111"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="25"/>
@@ -9978,11 +10012,11 @@
       <c r="C57" s="72" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="100" t="s">
+      <c r="D57" s="104" t="s">
         <v>557</v>
       </c>
-      <c r="E57" s="108"/>
-      <c r="F57" s="104" t="s">
+      <c r="E57" s="112"/>
+      <c r="F57" s="109" t="s">
         <v>558</v>
       </c>
     </row>
@@ -9996,9 +10030,9 @@
       <c r="C58" s="27" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="100"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="102"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="110"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
@@ -10010,9 +10044,9 @@
       <c r="C59" s="22" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="100"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="102"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="110"/>
     </row>
     <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="89" t="s">
@@ -10024,9 +10058,9 @@
       <c r="C60" s="94" t="s">
         <v>547</v>
       </c>
-      <c r="D60" s="100"/>
-      <c r="E60" s="108"/>
-      <c r="F60" s="102"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="110"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
@@ -10038,9 +10072,9 @@
       <c r="C61" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="D61" s="100"/>
-      <c r="E61" s="108"/>
-      <c r="F61" s="102"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="110"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
@@ -10052,9 +10086,9 @@
       <c r="C62" s="22" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="100"/>
-      <c r="E62" s="108"/>
-      <c r="F62" s="103"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="111"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="25"/>
@@ -10074,13 +10108,13 @@
       <c r="C64" s="22" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="100" t="s">
+      <c r="D64" s="104" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="99" t="s">
+      <c r="E64" s="105" t="s">
         <v>570</v>
       </c>
-      <c r="F64" s="99" t="s">
+      <c r="F64" s="105" t="s">
         <v>571</v>
       </c>
     </row>
@@ -10094,9 +10128,9 @@
       <c r="C65" s="94" t="s">
         <v>547</v>
       </c>
-      <c r="D65" s="100"/>
-      <c r="E65" s="100"/>
-      <c r="F65" s="100"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
@@ -10108,9 +10142,9 @@
       <c r="C66" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="D66" s="100"/>
-      <c r="E66" s="100"/>
-      <c r="F66" s="100"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="104"/>
     </row>
     <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
@@ -10122,9 +10156,9 @@
       <c r="C67" s="27" t="s">
         <v>779</v>
       </c>
-      <c r="D67" s="100"/>
-      <c r="E67" s="100"/>
-      <c r="F67" s="100"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
@@ -10136,9 +10170,9 @@
       <c r="C68" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="100"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="100"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
@@ -10154,13 +10188,13 @@
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
-      <c r="D70" s="105" t="s">
+      <c r="D70" s="106" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="105" t="s">
+      <c r="E70" s="106" t="s">
         <v>577</v>
       </c>
-      <c r="F70" s="104" t="s">
+      <c r="F70" s="109" t="s">
         <v>578</v>
       </c>
     </row>
@@ -10170,9 +10204,9 @@
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
-      <c r="D71" s="106"/>
-      <c r="E71" s="106"/>
-      <c r="F71" s="102"/>
+      <c r="D71" s="107"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="110"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
@@ -10180,9 +10214,9 @@
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
-      <c r="D72" s="106"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="102"/>
+      <c r="D72" s="107"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="110"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
@@ -10190,17 +10224,17 @@
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
-      <c r="D73" s="107"/>
-      <c r="E73" s="107"/>
-      <c r="F73" s="103"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="111"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="109"/>
-      <c r="B74" s="110"/>
-      <c r="C74" s="110"/>
-      <c r="D74" s="110"/>
-      <c r="E74" s="110"/>
-      <c r="F74" s="111"/>
+      <c r="A74" s="101"/>
+      <c r="B74" s="102"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="103"/>
     </row>
     <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="89" t="s">
@@ -10212,11 +10246,11 @@
       <c r="C75" s="94" t="s">
         <v>547</v>
       </c>
-      <c r="D75" s="100"/>
-      <c r="E75" s="99" t="s">
+      <c r="D75" s="104"/>
+      <c r="E75" s="105" t="s">
         <v>583</v>
       </c>
-      <c r="F75" s="100" t="s">
+      <c r="F75" s="104" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10230,9 +10264,9 @@
       <c r="C76" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="100"/>
-      <c r="E76" s="100"/>
-      <c r="F76" s="100"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
@@ -10244,9 +10278,9 @@
       <c r="C77" s="22" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="100"/>
-      <c r="E77" s="100"/>
-      <c r="F77" s="100"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
@@ -10258,9 +10292,9 @@
       <c r="C78" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="100"/>
-      <c r="E78" s="100"/>
-      <c r="F78" s="100"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="104"/>
+      <c r="F78" s="104"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="89" t="s">
@@ -10272,9 +10306,9 @@
       <c r="C79" s="94" t="s">
         <v>592</v>
       </c>
-      <c r="D79" s="100"/>
-      <c r="E79" s="100"/>
-      <c r="F79" s="100"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="104"/>
+      <c r="F79" s="104"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
@@ -10318,13 +10352,13 @@
       <c r="C86" s="22" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="98" t="s">
+      <c r="D86" s="114" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="99" t="s">
+      <c r="E86" s="105" t="s">
         <v>652</v>
       </c>
-      <c r="F86" s="98" t="s">
+      <c r="F86" s="114" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10338,9 +10372,9 @@
       <c r="C87" s="22" t="s">
         <v>645</v>
       </c>
-      <c r="D87" s="98"/>
-      <c r="E87" s="99"/>
-      <c r="F87" s="98"/>
+      <c r="D87" s="114"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="114"/>
     </row>
     <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
@@ -10352,9 +10386,9 @@
       <c r="C88" s="27" t="s">
         <v>657</v>
       </c>
-      <c r="D88" s="98"/>
-      <c r="E88" s="99"/>
-      <c r="F88" s="98"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="105"/>
+      <c r="F88" s="114"/>
     </row>
     <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
@@ -10366,9 +10400,9 @@
       <c r="C89" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="D89" s="98"/>
-      <c r="E89" s="99"/>
-      <c r="F89" s="98"/>
+      <c r="D89" s="114"/>
+      <c r="E89" s="105"/>
+      <c r="F89" s="114"/>
     </row>
     <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
@@ -10380,9 +10414,9 @@
       <c r="C90" s="27" t="s">
         <v>660</v>
       </c>
-      <c r="D90" s="98"/>
-      <c r="E90" s="99"/>
-      <c r="F90" s="98"/>
+      <c r="D90" s="114"/>
+      <c r="E90" s="105"/>
+      <c r="F90" s="114"/>
     </row>
     <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
@@ -10394,9 +10428,9 @@
       <c r="C91" s="27" t="s">
         <v>656</v>
       </c>
-      <c r="D91" s="98"/>
-      <c r="E91" s="99"/>
-      <c r="F91" s="98"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
@@ -10408,9 +10442,9 @@
       <c r="C92" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="D92" s="98"/>
-      <c r="E92" s="99"/>
-      <c r="F92" s="98"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="105"/>
+      <c r="F92" s="114"/>
     </row>
     <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
@@ -10422,9 +10456,9 @@
       <c r="C93" s="27" t="s">
         <v>658</v>
       </c>
-      <c r="D93" s="98"/>
-      <c r="E93" s="99"/>
-      <c r="F93" s="98"/>
+      <c r="D93" s="114"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="114"/>
     </row>
     <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A95" s="95" t="s">
@@ -10439,13 +10473,13 @@
         <v>463</v>
       </c>
       <c r="C96" s="22"/>
-      <c r="D96" s="98" t="s">
+      <c r="D96" s="114" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="98" t="s">
+      <c r="E96" s="114" t="s">
         <v>809</v>
       </c>
-      <c r="F96" s="98" t="s">
+      <c r="F96" s="114" t="s">
         <v>812</v>
       </c>
     </row>
@@ -10459,9 +10493,9 @@
       <c r="C97" s="22" t="s">
         <v>813</v>
       </c>
-      <c r="D97" s="98"/>
-      <c r="E97" s="98"/>
-      <c r="F97" s="98"/>
+      <c r="D97" s="114"/>
+      <c r="E97" s="114"/>
+      <c r="F97" s="114"/>
     </row>
     <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
@@ -10473,9 +10507,9 @@
       <c r="C98" s="27" t="s">
         <v>706</v>
       </c>
-      <c r="D98" s="98"/>
-      <c r="E98" s="98"/>
-      <c r="F98" s="98"/>
+      <c r="D98" s="114"/>
+      <c r="E98" s="114"/>
+      <c r="F98" s="114"/>
     </row>
     <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
@@ -10487,9 +10521,9 @@
       <c r="C99" s="27" t="s">
         <v>815</v>
       </c>
-      <c r="D99" s="98"/>
-      <c r="E99" s="98"/>
-      <c r="F99" s="98"/>
+      <c r="D99" s="114"/>
+      <c r="E99" s="114"/>
+      <c r="F99" s="114"/>
     </row>
     <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
@@ -10499,11 +10533,11 @@
         <v>463</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>816</v>
-      </c>
-      <c r="D100" s="98"/>
-      <c r="E100" s="98"/>
-      <c r="F100" s="98"/>
+        <v>888</v>
+      </c>
+      <c r="D100" s="114"/>
+      <c r="E100" s="114"/>
+      <c r="F100" s="114"/>
     </row>
     <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
@@ -10513,11 +10547,11 @@
         <v>463</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>817</v>
-      </c>
-      <c r="D101" s="98"/>
-      <c r="E101" s="98"/>
-      <c r="F101" s="98"/>
+        <v>816</v>
+      </c>
+      <c r="D101" s="114"/>
+      <c r="E101" s="114"/>
+      <c r="F101" s="114"/>
     </row>
     <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
@@ -10527,11 +10561,11 @@
         <v>463</v>
       </c>
       <c r="C102" s="87" t="s">
-        <v>818</v>
-      </c>
-      <c r="D102" s="98"/>
-      <c r="E102" s="98"/>
-      <c r="F102" s="98"/>
+        <v>817</v>
+      </c>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
@@ -10541,9 +10575,9 @@
         <v>463</v>
       </c>
       <c r="C103" s="22"/>
-      <c r="D103" s="98"/>
-      <c r="E103" s="98"/>
-      <c r="F103" s="98"/>
+      <c r="D103" s="114"/>
+      <c r="E103" s="114"/>
+      <c r="F103" s="114"/>
     </row>
     <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
@@ -10553,15 +10587,15 @@
         <v>463</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>819</v>
-      </c>
-      <c r="D104" s="98"/>
-      <c r="E104" s="98"/>
-      <c r="F104" s="98"/>
+        <v>889</v>
+      </c>
+      <c r="D104" s="114"/>
+      <c r="E104" s="114"/>
+      <c r="F104" s="114"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B105" s="22" t="s">
         <v>463</v>
@@ -10569,23 +10603,23 @@
       <c r="C105" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="D105" s="98"/>
-      <c r="E105" s="98"/>
-      <c r="F105" s="98"/>
+      <c r="D105" s="114"/>
+      <c r="E105" s="114"/>
+      <c r="F105" s="114"/>
     </row>
     <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B106" s="22" t="s">
         <v>517</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>822</v>
-      </c>
-      <c r="D106" s="98"/>
-      <c r="E106" s="98"/>
-      <c r="F106" s="98"/>
+        <v>820</v>
+      </c>
+      <c r="D106" s="114"/>
+      <c r="E106" s="114"/>
+      <c r="F106" s="114"/>
     </row>
     <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
@@ -10595,11 +10629,11 @@
         <v>517</v>
       </c>
       <c r="C107" s="96" t="s">
-        <v>823</v>
-      </c>
-      <c r="D107" s="98"/>
-      <c r="E107" s="98"/>
-      <c r="F107" s="98"/>
+        <v>821</v>
+      </c>
+      <c r="D107" s="114"/>
+      <c r="E107" s="114"/>
+      <c r="F107" s="114"/>
     </row>
     <row r="108" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
@@ -10609,11 +10643,11 @@
         <v>455</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>824</v>
-      </c>
-      <c r="D108" s="98"/>
-      <c r="E108" s="98"/>
-      <c r="F108" s="98"/>
+        <v>822</v>
+      </c>
+      <c r="D108" s="114"/>
+      <c r="E108" s="114"/>
+      <c r="F108" s="114"/>
     </row>
     <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
@@ -10623,11 +10657,11 @@
         <v>517</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>825</v>
-      </c>
-      <c r="D109" s="98"/>
-      <c r="E109" s="98"/>
-      <c r="F109" s="98"/>
+        <v>823</v>
+      </c>
+      <c r="D109" s="114"/>
+      <c r="E109" s="114"/>
+      <c r="F109" s="114"/>
     </row>
     <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
@@ -10637,11 +10671,11 @@
         <v>517</v>
       </c>
       <c r="C110" s="97" t="s">
-        <v>826</v>
-      </c>
-      <c r="D110" s="98"/>
-      <c r="E110" s="98"/>
-      <c r="F110" s="98"/>
+        <v>824</v>
+      </c>
+      <c r="D110" s="114"/>
+      <c r="E110" s="114"/>
+      <c r="F110" s="114"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
@@ -10651,33 +10685,33 @@
         <v>455</v>
       </c>
       <c r="C111" s="22"/>
-      <c r="D111" s="98"/>
-      <c r="E111" s="98"/>
-      <c r="F111" s="98"/>
+      <c r="D111" s="114"/>
+      <c r="E111" s="114"/>
+      <c r="F111" s="114"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B112" s="22" t="s">
         <v>455</v>
       </c>
       <c r="C112" s="22"/>
-      <c r="D112" s="98"/>
-      <c r="E112" s="98"/>
-      <c r="F112" s="98"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="114"/>
+      <c r="F112" s="114"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B113" s="22" t="s">
         <v>455</v>
       </c>
       <c r="C113" s="22"/>
-      <c r="D113" s="98"/>
-      <c r="E113" s="98"/>
-      <c r="F113" s="98"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
     </row>
     <row r="114" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
@@ -10687,14 +10721,32 @@
         <v>463</v>
       </c>
       <c r="C114" s="97" t="s">
-        <v>827</v>
-      </c>
-      <c r="D114" s="98"/>
-      <c r="E114" s="98"/>
-      <c r="F114" s="98"/>
+        <v>825</v>
+      </c>
+      <c r="D114" s="114"/>
+      <c r="E114" s="114"/>
+      <c r="F114" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="D96:D114"/>
+    <mergeCell ref="E96:E114"/>
+    <mergeCell ref="F96:F114"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="D2:D22"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="F25:F42"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="F45:F55"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="D75:D79"/>
     <mergeCell ref="E75:E79"/>
@@ -10705,24 +10757,6 @@
     <mergeCell ref="D70:D73"/>
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="F70:F73"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="F45:F55"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="D2:D22"/>
-    <mergeCell ref="E2:E22"/>
-    <mergeCell ref="F2:F22"/>
-    <mergeCell ref="D25:D42"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="F25:F42"/>
-    <mergeCell ref="D96:D114"/>
-    <mergeCell ref="E96:E114"/>
-    <mergeCell ref="F96:F114"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
@@ -10774,7 +10808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9EA002-3826-45E0-AB6A-307795449AA6}">
   <dimension ref="A1:D409"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -12923,8 +12957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A2292-F8D8-430C-931B-01C5D23F2DCF}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13205,6 +13239,14 @@
         <v>330</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="22" t="s">
+        <v>890</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>891</v>
+      </c>
+    </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>218</v>
@@ -13351,7 +13393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0181675-3379-485E-B27D-5445AC0B1EDD}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -13365,10 +13407,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="118" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="116"/>
+      <c r="C1" s="119"/>
     </row>
     <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
@@ -13456,7 +13498,7 @@
       <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="120" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="40" t="s">
@@ -13467,7 +13509,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="118"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="42" t="s">
         <v>371</v>
       </c>
@@ -13476,7 +13518,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="118"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="44" t="s">
         <v>372</v>
       </c>
@@ -13485,7 +13527,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="118"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="44" t="s">
         <v>373</v>
       </c>
@@ -13494,7 +13536,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="119"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="45" t="s">
         <v>356</v>
       </c>
@@ -13511,7 +13553,7 @@
       <c r="B18" s="39"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="115" t="s">
         <v>375</v>
       </c>
       <c r="B19" s="47" t="s">
@@ -13522,7 +13564,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="113"/>
+      <c r="A20" s="116"/>
       <c r="B20" s="48" t="s">
         <v>377</v>
       </c>
@@ -13531,7 +13573,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="113"/>
+      <c r="A21" s="116"/>
       <c r="B21" s="48" t="s">
         <v>378</v>
       </c>
@@ -13540,7 +13582,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="120"/>
+      <c r="A22" s="123"/>
       <c r="B22" s="48" t="s">
         <v>380</v>
       </c>
@@ -13549,7 +13591,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="120"/>
+      <c r="A23" s="123"/>
       <c r="B23" s="48" t="s">
         <v>381</v>
       </c>
@@ -13558,7 +13600,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="113"/>
+      <c r="A24" s="116"/>
       <c r="B24" s="48" t="s">
         <v>382</v>
       </c>
@@ -13567,7 +13609,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="113"/>
+      <c r="A25" s="116"/>
       <c r="B25" s="48" t="s">
         <v>384</v>
       </c>
@@ -13576,7 +13618,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="113"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="48" t="s">
         <v>385</v>
       </c>
@@ -13585,7 +13627,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="120"/>
+      <c r="A27" s="123"/>
       <c r="B27" s="48" t="s">
         <v>387</v>
       </c>
@@ -13594,7 +13636,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="121"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="50" t="s">
         <v>388</v>
       </c>
@@ -13611,7 +13653,7 @@
       <c r="B30" s="39"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="112" t="s">
+      <c r="A31" s="115" t="s">
         <v>390</v>
       </c>
       <c r="B31" s="48" t="s">
@@ -13622,7 +13664,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="48" t="s">
         <v>370</v>
       </c>
@@ -13631,7 +13673,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="120"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="48" t="s">
         <v>394</v>
       </c>
@@ -13640,7 +13682,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="113"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="48" t="s">
         <v>372</v>
       </c>
@@ -13649,7 +13691,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="114"/>
+      <c r="A35" s="117"/>
       <c r="B35" s="48" t="s">
         <v>373</v>
       </c>
@@ -13696,7 +13738,7 @@
       <c r="B41" s="39"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="112" t="s">
+      <c r="A42" s="115" t="s">
         <v>401</v>
       </c>
       <c r="B42" s="32" t="s">
@@ -13707,7 +13749,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="114"/>
+      <c r="A43" s="117"/>
       <c r="B43" s="32" t="s">
         <v>402</v>
       </c>
@@ -13724,7 +13766,7 @@
       <c r="B45" s="39"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="112" t="s">
+      <c r="A46" s="115" t="s">
         <v>404</v>
       </c>
       <c r="B46" s="32" t="s">
@@ -13735,7 +13777,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="113"/>
+      <c r="A47" s="116"/>
       <c r="B47" s="32" t="s">
         <v>407</v>
       </c>
@@ -13744,7 +13786,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="113"/>
+      <c r="A48" s="116"/>
       <c r="B48" s="32" t="s">
         <v>408</v>
       </c>
@@ -13753,7 +13795,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="113"/>
+      <c r="A49" s="116"/>
       <c r="B49" s="32" t="s">
         <v>410</v>
       </c>
@@ -13762,7 +13804,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="114"/>
+      <c r="A50" s="117"/>
       <c r="B50" s="32" t="s">
         <v>411</v>
       </c>
@@ -13779,7 +13821,7 @@
       <c r="B52" s="39"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="115" t="s">
         <v>412</v>
       </c>
       <c r="B53" s="32" t="s">
@@ -13790,7 +13832,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="113"/>
+      <c r="A54" s="116"/>
       <c r="B54" s="32" t="s">
         <v>414</v>
       </c>
@@ -13799,7 +13841,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="114"/>
+      <c r="A55" s="117"/>
       <c r="B55" s="32" t="s">
         <v>416</v>
       </c>
@@ -14369,17 +14411,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="125" t="s">
         <v>707</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -14387,18 +14429,18 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="126" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="124"/>
+      <c r="A12" s="127"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="124"/>
+      <c r="A13" s="127"/>
     </row>
     <row r="14" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="124"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="5"/>
     </row>
   </sheetData>

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0F1F3E-A46C-4135-ABFA-9FF2F616309C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEEE053-E68D-4183-9EB5-A192D7A770B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="914">
   <si>
     <t>Module</t>
   </si>
@@ -5443,6 +5443,69 @@
   </si>
   <si>
     <t>3. Determination of Req. Types by IC+MRP</t>
+  </si>
+  <si>
+    <t>2nd INTERVIEW- Round 2</t>
+  </si>
+  <si>
+    <t>What is the difference b/w Alt. calculation Type &amp; Alt. condition Base value</t>
+  </si>
+  <si>
+    <t>Explain Consignment processing</t>
+  </si>
+  <si>
+    <t>Explain Third-party drop-ship processing</t>
+  </si>
+  <si>
+    <t>Refer above</t>
+  </si>
+  <si>
+    <t>How system will know what pricing to copy?</t>
+  </si>
+  <si>
+    <t>1. Billing Relevance for TAS is "F"
+2. in VTFA, b/w F2 &amp; OR, copy requirements should be '028' &amp; Billing Qty 'F'; Pricing Type 'G' for Itm. Category 'TAS'</t>
+  </si>
+  <si>
+    <t>Explain Intercompany Billing</t>
+  </si>
+  <si>
+    <t>Consider two company codes of same company France and Germany, French customer places an order for item which is not available in France but available in Germany.
+1. Order placed by French customer to France for a material
+2. French company asks German company's plant for the material
+3. G-company delivers the material to the French customer.
+4. F-company invoices the F-customer
+5. G-company invoices F-company for the goods shared(only after the Invoice is done)
+6. F pays the G-company for the invoice made.</t>
+  </si>
+  <si>
+    <t>Explain Intercompany Sales- Configuration</t>
+  </si>
+  <si>
+    <t>1. Assign Sales org &amp; DC to Plant i.e F-org+ F-DC to G-plant (t-code: SPRO)
+2. Add condition type(PI01) in the standard pricing procedure(RVAA01) with check-in for Statistical and Requirement: 22(activate only if order is cross-company- if plant belongs to other company code). This is done to view the profit margin, use as reference for actual I/C.
+3. Maintain the condition record for PI01 for all Sales org and plant combination.
+4. Define Intercompany customer using SPRO--&gt; SD --&gt; Billing--&gt; Intercompany billing --&gt; Define Internal number by Sales-org( Germany-vendor; France- customer)
+Also, we can use different sales org/spl. dc/spl. division that are very much internal instead of going for actual sales org/dc(optional)
+5. Doc. pricing procedure of B.type(IV) can be 'N' (This is the key)
+also, should maintain Pricing procedure determination for ICAA01 using OVKK
+6. Maintain condition type IV01 with:
+* Access sequence as PI01
+* Condition cat-I (price for intercompany billing)
+* Ref. condition type: PI01
+7. Maintain output type for Intercompany invoice</t>
+  </si>
+  <si>
+    <t>How will you map some random BP values from EDI orders with the Bp values in S4 System</t>
+  </si>
+  <si>
+    <t>What are the cut-over activities?</t>
+  </si>
+  <si>
+    <t>Cut-over planning, System setup, Config move, Workbench requests move, Master data migration, Transactional Data migration, Switch over to SAP</t>
+  </si>
+  <si>
+    <t>How will you migrate S4 HANA values as same as ECC values?</t>
   </si>
 </sst>
 </file>
@@ -5964,7 +6027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5982,7 +6045,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6033,9 +6095,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6047,9 +6106,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6089,9 +6145,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6147,9 +6200,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6162,7 +6213,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6188,9 +6238,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6201,20 +6248,32 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6225,32 +6284,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6258,29 +6302,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6294,7 +6320,74 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6304,6 +6397,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7573,77 +7671,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E573222-E512-4703-B9F5-B22A7717D7C9}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.7265625" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.7265625" style="57" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="57"/>
+    <col min="1" max="1" width="20.453125" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.7265625" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="52" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="195.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="54" t="s">
         <v>792</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="58" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="55" t="s">
         <v>440</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="55" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="55" t="s">
         <v>441</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="55" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="55" t="s">
         <v>443</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="55" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="149.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="57" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="58" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="126.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="52" t="s">
         <v>447</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7653,15 +7751,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62021A-965A-4299-8854-C66D43EE8F34}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="138.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="138.26953125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7680,17 +7778,17 @@
       <c r="K1" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7700,17 +7798,17 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="61" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7718,6 +7816,51 @@
       <c r="A11" s="4" t="s">
         <v>244</v>
       </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D117" t="s">
+        <v>808</v>
+      </c>
+      <c r="E117" s="139">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="4"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="121" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C125" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7736,134 +7879,134 @@
   <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="111" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="113" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
     </row>
     <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="114" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
     </row>
     <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="115"/>
+      <c r="V4" s="115"/>
     </row>
     <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="114" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7894,228 +8037,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="73" t="s">
         <v>671</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="74" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="46" t="s">
         <v>676</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="22" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="21" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="81" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="75" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="73" t="s">
         <v>677</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="75" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>665</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>668</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="46" t="s">
         <v>681</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="46" t="s">
         <v>679</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="63" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="72" t="s">
         <v>662</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="21" t="s">
         <v>758</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="81" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="75" t="s">
         <v>759</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>760</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>763</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>761</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.35">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>765</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>766</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="63" t="s">
         <v>767</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>768</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>769</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>770</v>
       </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>771</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>773</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -8123,10 +8266,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>122</v>
       </c>
     </row>
@@ -8145,324 +8288,321 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.6328125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="91.36328125" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" style="87" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="20"/>
+    <col min="1" max="1" width="88.6328125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="91.36328125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>828</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>829</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>834</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>836</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="46" t="s">
         <v>862</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="50" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="80" t="s">
+      <c r="A10" s="90"/>
+      <c r="B10" s="74" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="46" t="s">
         <v>876</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="63" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>838</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>840</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>854</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>855</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="137.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>841</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>857</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>842</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>845</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>860</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="21" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>844</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>846</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>861</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>843</v>
       </c>
-      <c r="B18" s="27"/>
+      <c r="B18" s="26"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>847</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="91" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="91" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="70" t="s">
         <v>850</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="80" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="70" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="26" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="70" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="26" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="95" t="s">
+      <c r="A37" s="88" t="s">
         <v>865</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>866</v>
       </c>
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="92" t="s">
         <v>894</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>869</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="74" t="s">
         <v>870</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="26" t="s">
         <v>895</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="26" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="70" t="s">
         <v>898</v>
       </c>
-      <c r="C41" s="92" t="s">
+      <c r="C41" s="85" t="s">
         <v>872</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="21" t="s">
         <v>873</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="21" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="70" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="132" t="s">
+      <c r="B44" s="80" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="132"/>
-    </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>884</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="25" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="21" t="s">
         <v>878</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="26" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="21" t="s">
         <v>877</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="26" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="21" t="s">
         <v>881</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="26" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="21" t="s">
         <v>882</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="26" t="s">
         <v>879</v>
       </c>
     </row>
@@ -8487,36 +8627,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="62" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:2" ht="62" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="155" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8540,7 +8680,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>780</v>
       </c>
     </row>
@@ -8623,7 +8763,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="63">
+      <c r="A3" s="59">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
@@ -8666,7 +8806,7 @@
       <c r="A1" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="61" t="s">
         <v>602</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -8675,7 +8815,7 @@
       <c r="E1" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="61" t="s">
         <v>602</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -8684,7 +8824,7 @@
       <c r="I1" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="61" t="s">
         <v>602</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -8692,7 +8832,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>599</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -8929,205 +9069,205 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="50" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="50" style="20"/>
+    <col min="1" max="16384" width="50" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="125" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
     </row>
     <row r="9" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="50" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="116"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="50" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>108</v>
       </c>
     </row>
@@ -9220,1533 +9360,1649 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="115.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="255.54296875" style="20"/>
+    <col min="1" max="1" width="70.26953125" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.36328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="255.54296875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="70" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="76" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>452</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D2" s="105" t="s">
+      <c r="D2" s="96" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="113">
+      <c r="E2" s="98">
         <v>44436</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="101" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>459</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="77" t="s">
         <v>775</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="117" t="s">
         <v>460</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="78" t="s">
         <v>455</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="79" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
     </row>
     <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="26" t="s">
         <v>469</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="78" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="27" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="117" t="s">
         <v>475</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="117" t="s">
         <v>476</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="117" t="s">
         <v>478</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
     </row>
     <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
+      <c r="A18" s="117" t="s">
         <v>486</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="80" t="s">
         <v>777</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
+      <c r="A19" s="117" t="s">
         <v>487</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="72" t="s">
         <v>463</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="72" t="s">
         <v>455</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
     </row>
     <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="117" t="s">
         <v>491</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="72" t="s">
         <v>455</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
     </row>
     <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A22" s="84" t="s">
+      <c r="A22" s="117" t="s">
         <v>493</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="72" t="s">
         <v>455</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="81"/>
-      <c r="D23" s="31"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="91" t="s">
         <v>495</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="26" t="s">
         <v>496</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="81" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="D25" s="97" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="96" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="105" t="s">
+      <c r="F25" s="96" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C26" s="88" t="s">
+      <c r="C26" s="81" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="105"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="96"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="122" t="s">
         <v>503</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="105"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="96"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="83" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="105"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="96"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="122" t="s">
         <v>473</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="105"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="96"/>
     </row>
     <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="122" t="s">
         <v>506</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="68" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="105"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="96"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="122" t="s">
         <v>508</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="105"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="96"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="105"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="96"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="81" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="105"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="96"/>
     </row>
     <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="68" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="105"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="96"/>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="117" t="s">
         <v>516</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="68" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="91" t="s">
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="84" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="26" t="s">
         <v>519</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="81" t="s">
         <v>520</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="20" t="s">
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="19" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="81" t="s">
         <v>523</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="105"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="96"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="117" t="s">
         <v>524</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="81" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="105"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="96"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C39" s="88"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="105"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="96"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C40" s="88" t="s">
+      <c r="C40" s="81" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="105"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="96"/>
     </row>
     <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="68" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="105"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="96"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="81" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="105"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="96"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="91" t="s">
         <v>534</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="C45" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="109" t="s">
+      <c r="D45" s="101" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="106" t="s">
+      <c r="E45" s="102" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="109" t="s">
+      <c r="F45" s="101" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="72" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="110"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="99"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="110"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="110"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="99"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="110"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="99"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="110"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="110"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="99"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="26" t="s">
         <v>546</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C50" s="92" t="s">
+      <c r="C50" s="85" t="s">
         <v>547</v>
       </c>
-      <c r="D50" s="110"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="110"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="99"/>
     </row>
     <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="26" t="s">
         <v>548</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C51" s="92" t="s">
+      <c r="C51" s="85" t="s">
         <v>549</v>
       </c>
-      <c r="D51" s="110"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="110"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="99"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="26" t="s">
         <v>550</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C52" s="78"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="110"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="99"/>
     </row>
     <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="26" t="s">
         <v>551</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C53" s="92" t="s">
+      <c r="C53" s="85" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="110"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="110"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="99"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="26" t="s">
         <v>553</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="110"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="110"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="99"/>
     </row>
     <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="26" t="s">
         <v>554</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C55" s="93" t="s">
+      <c r="C55" s="86" t="s">
         <v>778</v>
       </c>
-      <c r="D55" s="111"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="111"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="100"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="26" t="s">
         <v>555</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C57" s="72" t="s">
+      <c r="C57" s="68" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="104" t="s">
+      <c r="D57" s="97" t="s">
         <v>557</v>
       </c>
-      <c r="E57" s="112"/>
-      <c r="F57" s="109" t="s">
+      <c r="E57" s="105"/>
+      <c r="F57" s="101" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="50" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="104"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="110"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="99"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="104"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="110"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="99"/>
     </row>
     <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="89" t="s">
+      <c r="A60" s="122" t="s">
         <v>563</v>
       </c>
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="82" t="s">
         <v>463</v>
       </c>
-      <c r="C60" s="94" t="s">
+      <c r="C60" s="87" t="s">
         <v>547</v>
       </c>
-      <c r="D60" s="104"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="110"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="99"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D61" s="104"/>
-      <c r="E61" s="112"/>
-      <c r="F61" s="110"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="99"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="104"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="111"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="100"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
+      <c r="A63" s="91"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="104" t="s">
+      <c r="D64" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="105" t="s">
+      <c r="E64" s="96" t="s">
         <v>570</v>
       </c>
-      <c r="F64" s="105" t="s">
+      <c r="F64" s="96" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="89" t="s">
+      <c r="A65" s="122" t="s">
         <v>563</v>
       </c>
-      <c r="B65" s="89" t="s">
+      <c r="B65" s="82" t="s">
         <v>463</v>
       </c>
-      <c r="C65" s="94" t="s">
+      <c r="C65" s="87" t="s">
         <v>547</v>
       </c>
-      <c r="D65" s="104"/>
-      <c r="E65" s="104"/>
-      <c r="F65" s="104"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D66" s="104"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="104"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
     </row>
     <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="D67" s="104"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="97"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="26" t="s">
         <v>574</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="104"/>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+      <c r="A69" s="91"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+    </row>
+    <row r="70" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="106" t="s">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="102" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="106" t="s">
+      <c r="E70" s="102" t="s">
         <v>577</v>
       </c>
-      <c r="F70" s="109" t="s">
+      <c r="F70" s="101" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+    <row r="71" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A71" s="26" t="s">
         <v>579</v>
       </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="107"/>
-      <c r="E71" s="107"/>
-      <c r="F71" s="110"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="99"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="107"/>
-      <c r="E72" s="107"/>
-      <c r="F72" s="110"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="103"/>
+      <c r="F72" s="99"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="108"/>
-      <c r="E73" s="108"/>
-      <c r="F73" s="111"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="104"/>
+      <c r="E73" s="104"/>
+      <c r="F73" s="100"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="101"/>
-      <c r="B74" s="102"/>
-      <c r="C74" s="102"/>
-      <c r="D74" s="102"/>
-      <c r="E74" s="102"/>
-      <c r="F74" s="103"/>
+      <c r="A74" s="106"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="107"/>
+      <c r="D74" s="107"/>
+      <c r="E74" s="107"/>
+      <c r="F74" s="108"/>
     </row>
     <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="89" t="s">
+      <c r="A75" s="122" t="s">
         <v>582</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C75" s="94" t="s">
+      <c r="C75" s="87" t="s">
         <v>547</v>
       </c>
-      <c r="D75" s="104"/>
-      <c r="E75" s="105" t="s">
+      <c r="D75" s="97"/>
+      <c r="E75" s="96" t="s">
         <v>583</v>
       </c>
-      <c r="F75" s="104" t="s">
+      <c r="F75" s="97" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="104"/>
-      <c r="E76" s="104"/>
-      <c r="F76" s="104"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="104"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="104"/>
-      <c r="E78" s="104"/>
-      <c r="F78" s="104"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="89" t="s">
+      <c r="A79" s="122" t="s">
         <v>591</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C79" s="94" t="s">
+      <c r="C79" s="87" t="s">
         <v>592</v>
       </c>
-      <c r="D79" s="104"/>
-      <c r="E79" s="104"/>
-      <c r="F79" s="104"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="26" t="s">
         <v>709</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
+      <c r="A81" s="70"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="80" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="95" t="s">
+      <c r="A85" s="123" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="26" t="s">
         <v>641</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="114" t="s">
+      <c r="D86" s="95" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="105" t="s">
+      <c r="E86" s="96" t="s">
         <v>652</v>
       </c>
-      <c r="F86" s="114" t="s">
+      <c r="F86" s="95" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="D87" s="114"/>
-      <c r="E87" s="105"/>
-      <c r="F87" s="114"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="95"/>
     </row>
     <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="26" t="s">
         <v>646</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="D88" s="114"/>
-      <c r="E88" s="105"/>
-      <c r="F88" s="114"/>
+      <c r="D88" s="95"/>
+      <c r="E88" s="96"/>
+      <c r="F88" s="95"/>
     </row>
     <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="D89" s="114"/>
-      <c r="E89" s="105"/>
-      <c r="F89" s="114"/>
+      <c r="D89" s="95"/>
+      <c r="E89" s="96"/>
+      <c r="F89" s="95"/>
     </row>
     <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="26" t="s">
         <v>648</v>
       </c>
-      <c r="B90" s="22" t="s">
+      <c r="B90" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="D90" s="114"/>
-      <c r="E90" s="105"/>
-      <c r="F90" s="114"/>
+      <c r="D90" s="95"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="95"/>
     </row>
     <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="26" t="s">
         <v>649</v>
       </c>
-      <c r="B91" s="22" t="s">
+      <c r="B91" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C91" s="27" t="s">
+      <c r="C91" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="D91" s="114"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="114"/>
+      <c r="D91" s="95"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="95"/>
     </row>
     <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="D92" s="114"/>
-      <c r="E92" s="105"/>
-      <c r="F92" s="114"/>
+      <c r="D92" s="95"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="95"/>
     </row>
     <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="26" t="s">
         <v>651</v>
       </c>
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="D93" s="114"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="114"/>
+      <c r="D93" s="95"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="95"/>
     </row>
     <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="95" t="s">
+      <c r="A95" s="123" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="26" t="s">
         <v>795</v>
       </c>
-      <c r="B96" s="22" t="s">
+      <c r="B96" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="114" t="s">
+      <c r="C96" s="21"/>
+      <c r="D96" s="95" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="114" t="s">
+      <c r="E96" s="95" t="s">
         <v>809</v>
       </c>
-      <c r="F96" s="114" t="s">
+      <c r="F96" s="95" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A97" s="27" t="s">
+      <c r="A97" s="26" t="s">
         <v>796</v>
       </c>
-      <c r="B97" s="22" t="s">
+      <c r="B97" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C97" s="22" t="s">
+      <c r="C97" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="D97" s="114"/>
-      <c r="E97" s="114"/>
-      <c r="F97" s="114"/>
+      <c r="D97" s="95"/>
+      <c r="E97" s="95"/>
+      <c r="F97" s="95"/>
     </row>
     <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="87" t="s">
         <v>797</v>
       </c>
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="87" t="s">
         <v>463</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="87" t="s">
         <v>706</v>
       </c>
-      <c r="D98" s="114"/>
-      <c r="E98" s="114"/>
-      <c r="F98" s="114"/>
+      <c r="D98" s="95"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="95"/>
     </row>
     <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="26" t="s">
         <v>798</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="D99" s="114"/>
-      <c r="E99" s="114"/>
-      <c r="F99" s="114"/>
+      <c r="D99" s="95"/>
+      <c r="E99" s="95"/>
+      <c r="F99" s="95"/>
     </row>
     <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="26" t="s">
         <v>803</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C100" s="22" t="s">
+      <c r="C100" s="21" t="s">
         <v>888</v>
       </c>
-      <c r="D100" s="114"/>
-      <c r="E100" s="114"/>
-      <c r="F100" s="114"/>
+      <c r="D100" s="95"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="95"/>
     </row>
     <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="26" t="s">
         <v>804</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C101" s="22" t="s">
+      <c r="C101" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="D101" s="114"/>
-      <c r="E101" s="114"/>
-      <c r="F101" s="114"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="95"/>
     </row>
     <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="26" t="s">
         <v>805</v>
       </c>
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C102" s="87" t="s">
+      <c r="C102" s="80" t="s">
         <v>817</v>
       </c>
-      <c r="D102" s="114"/>
-      <c r="E102" s="114"/>
-      <c r="F102" s="114"/>
+      <c r="D102" s="95"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="95"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="26" t="s">
         <v>799</v>
       </c>
-      <c r="B103" s="22" t="s">
+      <c r="B103" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="114"/>
-      <c r="E103" s="114"/>
-      <c r="F103" s="114"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="95"/>
     </row>
     <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="87" t="s">
         <v>800</v>
       </c>
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="87" t="s">
         <v>463</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="C104" s="87" t="s">
         <v>889</v>
       </c>
-      <c r="D104" s="114"/>
-      <c r="E104" s="114"/>
-      <c r="F104" s="114"/>
+      <c r="D104" s="95"/>
+      <c r="E104" s="95"/>
+      <c r="F104" s="95"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="26" t="s">
         <v>818</v>
       </c>
-      <c r="B105" s="22" t="s">
+      <c r="B105" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C105" s="22" t="s">
+      <c r="C105" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D105" s="114"/>
-      <c r="E105" s="114"/>
-      <c r="F105" s="114"/>
+      <c r="D105" s="95"/>
+      <c r="E105" s="95"/>
+      <c r="F105" s="95"/>
     </row>
     <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="26" t="s">
         <v>819</v>
       </c>
-      <c r="B106" s="22" t="s">
+      <c r="B106" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C106" s="27" t="s">
+      <c r="C106" s="26" t="s">
         <v>820</v>
       </c>
-      <c r="D106" s="114"/>
-      <c r="E106" s="114"/>
-      <c r="F106" s="114"/>
+      <c r="D106" s="95"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="95"/>
     </row>
     <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="87" t="s">
         <v>801</v>
       </c>
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="87" t="s">
         <v>517</v>
       </c>
-      <c r="C107" s="96" t="s">
+      <c r="C107" s="87" t="s">
         <v>821</v>
       </c>
-      <c r="D107" s="114"/>
-      <c r="E107" s="114"/>
-      <c r="F107" s="114"/>
+      <c r="D107" s="95"/>
+      <c r="E107" s="95"/>
+      <c r="F107" s="95"/>
     </row>
     <row r="108" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C108" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="D108" s="114"/>
-      <c r="E108" s="114"/>
-      <c r="F108" s="114"/>
+      <c r="D108" s="95"/>
+      <c r="E108" s="95"/>
+      <c r="F108" s="95"/>
     </row>
     <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="87" t="s">
         <v>806</v>
       </c>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="87" t="s">
         <v>517</v>
       </c>
-      <c r="C109" s="27" t="s">
+      <c r="C109" s="87" t="s">
         <v>823</v>
       </c>
-      <c r="D109" s="114"/>
-      <c r="E109" s="114"/>
-      <c r="F109" s="114"/>
+      <c r="D109" s="95"/>
+      <c r="E109" s="95"/>
+      <c r="F109" s="95"/>
     </row>
     <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="26" t="s">
         <v>807</v>
       </c>
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C110" s="97" t="s">
+      <c r="C110" s="89" t="s">
         <v>824</v>
       </c>
-      <c r="D110" s="114"/>
-      <c r="E110" s="114"/>
-      <c r="F110" s="114"/>
+      <c r="D110" s="95"/>
+      <c r="E110" s="95"/>
+      <c r="F110" s="95"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="26" t="s">
         <v>810</v>
       </c>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="114"/>
-      <c r="E111" s="114"/>
-      <c r="F111" s="114"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="95"/>
+      <c r="E111" s="95"/>
+      <c r="F111" s="95"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="26" t="s">
         <v>826</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C112" s="22"/>
-      <c r="D112" s="114"/>
-      <c r="E112" s="114"/>
-      <c r="F112" s="114"/>
+      <c r="C112" s="21"/>
+      <c r="D112" s="95"/>
+      <c r="E112" s="95"/>
+      <c r="F112" s="95"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="26" t="s">
         <v>827</v>
       </c>
-      <c r="B113" s="22" t="s">
+      <c r="B113" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="114"/>
-      <c r="E113" s="114"/>
-      <c r="F113" s="114"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="95"/>
+      <c r="E113" s="95"/>
+      <c r="F113" s="95"/>
     </row>
     <row r="114" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="26" t="s">
         <v>811</v>
       </c>
-      <c r="B114" s="22" t="s">
+      <c r="B114" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C114" s="97" t="s">
+      <c r="C114" s="89" t="s">
         <v>825</v>
       </c>
-      <c r="D114" s="114"/>
-      <c r="E114" s="114"/>
-      <c r="F114" s="114"/>
+      <c r="D114" s="95"/>
+      <c r="E114" s="95"/>
+      <c r="F114" s="95"/>
+    </row>
+    <row r="116" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="123" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="26" t="s">
+        <v>900</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C117" s="118" t="s">
+        <v>903</v>
+      </c>
+      <c r="D117" s="95" t="s">
+        <v>808</v>
+      </c>
+      <c r="E117" s="138">
+        <v>45194</v>
+      </c>
+      <c r="F117" s="95"/>
+    </row>
+    <row r="118" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="26" t="s">
+        <v>901</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C118" s="118" t="s">
+        <v>903</v>
+      </c>
+      <c r="D118" s="95"/>
+      <c r="E118" s="95"/>
+      <c r="F118" s="95"/>
+    </row>
+    <row r="119" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="26" t="s">
+        <v>902</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C119" s="118" t="s">
+        <v>903</v>
+      </c>
+      <c r="D119" s="95"/>
+      <c r="E119" s="95"/>
+      <c r="F119" s="95"/>
+    </row>
+    <row r="120" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A120" s="26" t="s">
+        <v>904</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>905</v>
+      </c>
+      <c r="D120" s="95"/>
+      <c r="E120" s="95"/>
+      <c r="F120" s="95"/>
+    </row>
+    <row r="121" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="74" t="s">
+        <v>906</v>
+      </c>
+      <c r="B121" s="75" t="s">
+        <v>463</v>
+      </c>
+      <c r="C121" s="74" t="s">
+        <v>907</v>
+      </c>
+      <c r="D121" s="95"/>
+      <c r="E121" s="95"/>
+      <c r="F121" s="95"/>
+    </row>
+    <row r="122" spans="1:6" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26" t="s">
+        <v>908</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C122" s="89" t="s">
+        <v>909</v>
+      </c>
+      <c r="D122" s="95"/>
+      <c r="E122" s="95"/>
+      <c r="F122" s="95"/>
+    </row>
+    <row r="123" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A123" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C123" s="21"/>
+      <c r="D123" s="95"/>
+      <c r="E123" s="95"/>
+      <c r="F123" s="95"/>
+    </row>
+    <row r="124" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A124" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>912</v>
+      </c>
+      <c r="D124" s="95"/>
+      <c r="E124" s="95"/>
+      <c r="F124" s="95"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="26" t="s">
+        <v>913</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C125" s="21"/>
+      <c r="D125" s="95"/>
+      <c r="E125" s="95"/>
+      <c r="F125" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D96:D114"/>
-    <mergeCell ref="E96:E114"/>
-    <mergeCell ref="F96:F114"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="D2:D22"/>
-    <mergeCell ref="E2:E22"/>
-    <mergeCell ref="F2:F22"/>
-    <mergeCell ref="D25:D42"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="F25:F42"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="F45:F55"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
+  <mergeCells count="31">
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="F117:F125"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="D75:D79"/>
     <mergeCell ref="E75:E79"/>
@@ -10757,9 +11013,30 @@
     <mergeCell ref="D70:D73"/>
     <mergeCell ref="E70:E73"/>
     <mergeCell ref="F70:F73"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="F45:F55"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="D2:D22"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="F25:F42"/>
+    <mergeCell ref="D96:D114"/>
+    <mergeCell ref="E96:E114"/>
+    <mergeCell ref="F96:F114"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
+    <hyperlink ref="C117" location="Interview!A109" display="Refer above" xr:uid="{66F9D0BD-70E7-44F4-A074-958B1AA69ABA}"/>
+    <hyperlink ref="C118" location="Interview!A104" display="Refer above" xr:uid="{0C6E1074-4B32-47E3-81C3-31545AA39C47}"/>
+    <hyperlink ref="C119" location="Interview!A98" display="Refer above" xr:uid="{E69E5EE7-49BE-4707-857A-AF7EA954CBAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -10784,7 +11061,7 @@
       <c r="A1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10806,10 +11083,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9EA002-3826-45E0-AB6A-307795449AA6}">
-  <dimension ref="A1:D409"/>
+  <dimension ref="A1:E409"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="74.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10820,62 +11097,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="70" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="70" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="63.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>689</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>690</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>692</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="68" t="s">
         <v>518</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="60" t="s">
         <v>595</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="51" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="88.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>693</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="69" t="s">
         <v>694</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="51"/>
     </row>
     <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>695</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -10883,1660 +11160,1686 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="26" t="s">
         <v>696</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="113.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>697</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="101" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>699</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="76" x14ac:dyDescent="0.35">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="101" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>704</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.35">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>705</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.35">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>708</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>712</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="63.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>731</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>734</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="26" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="26" t="s">
         <v>737</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
+      <c r="A100" s="26"/>
+      <c r="B100" s="26"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="26"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="27"/>
-      <c r="B109" s="27"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="27"/>
-      <c r="B111" s="27"/>
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="27"/>
-      <c r="B112" s="27"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="27"/>
-      <c r="B113" s="27"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="27"/>
-      <c r="B114" s="27"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="27"/>
-      <c r="B115" s="27"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="27"/>
-      <c r="B116" s="27"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="27"/>
-      <c r="B117" s="27"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="27"/>
-      <c r="B118" s="27"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="27"/>
-      <c r="B119" s="27"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="27"/>
-      <c r="B122" s="27"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="27"/>
-      <c r="B124" s="27"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="27"/>
-      <c r="B125" s="27"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="27"/>
-      <c r="B126" s="27"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="27"/>
-      <c r="B127" s="27"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="27"/>
-      <c r="B128" s="27"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="D117" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E117" s="141">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="26"/>
+      <c r="B119" s="26"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="26"/>
+      <c r="B120" s="26"/>
+    </row>
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="74"/>
+      <c r="B121" s="74"/>
+    </row>
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="26"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="121" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A123" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="B123" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A124" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="26" t="s">
+        <v>913</v>
+      </c>
+      <c r="B125" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="120"/>
+      <c r="B126" s="120"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="26"/>
+      <c r="B127" s="26"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="27"/>
-      <c r="B129" s="27"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="27"/>
-      <c r="B130" s="27"/>
+      <c r="A130" s="26"/>
+      <c r="B130" s="26"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="27"/>
-      <c r="B131" s="27"/>
+      <c r="A131" s="26"/>
+      <c r="B131" s="26"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="27"/>
-      <c r="B132" s="27"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="26"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="27"/>
-      <c r="B133" s="27"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="26"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="27"/>
-      <c r="B134" s="27"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="26"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="27"/>
-      <c r="B135" s="27"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="26"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="27"/>
-      <c r="B136" s="27"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="26"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="27"/>
-      <c r="B137" s="27"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="27"/>
-      <c r="B138" s="27"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="27"/>
-      <c r="B139" s="27"/>
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="27"/>
-      <c r="B140" s="27"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="26"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="27"/>
-      <c r="B141" s="27"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="27"/>
-      <c r="B142" s="27"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="26"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="27"/>
-      <c r="B143" s="27"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="27"/>
-      <c r="B144" s="27"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="27"/>
-      <c r="B145" s="27"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="27"/>
-      <c r="B146" s="27"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="27"/>
-      <c r="B147" s="27"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="27"/>
-      <c r="B148" s="27"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="27"/>
-      <c r="B149" s="27"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="27"/>
-      <c r="B150" s="27"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="27"/>
-      <c r="B151" s="27"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="27"/>
-      <c r="B152" s="27"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="27"/>
-      <c r="B153" s="27"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="27"/>
-      <c r="B154" s="27"/>
+      <c r="A154" s="26"/>
+      <c r="B154" s="26"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="27"/>
-      <c r="B155" s="27"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="26"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="27"/>
-      <c r="B156" s="27"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="27"/>
-      <c r="B157" s="27"/>
+      <c r="A157" s="26"/>
+      <c r="B157" s="26"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="27"/>
-      <c r="B158" s="27"/>
+      <c r="A158" s="26"/>
+      <c r="B158" s="26"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="27"/>
-      <c r="B159" s="27"/>
+      <c r="A159" s="26"/>
+      <c r="B159" s="26"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="27"/>
-      <c r="B160" s="27"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="27"/>
-      <c r="B161" s="27"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="27"/>
-      <c r="B162" s="27"/>
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="27"/>
-      <c r="B163" s="27"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="26"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="27"/>
-      <c r="B164" s="27"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="26"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="27"/>
-      <c r="B165" s="27"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="27"/>
-      <c r="B166" s="27"/>
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="27"/>
-      <c r="B167" s="27"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="27"/>
-      <c r="B168" s="27"/>
+      <c r="A168" s="26"/>
+      <c r="B168" s="26"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="27"/>
-      <c r="B169" s="27"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="26"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="27"/>
-      <c r="B170" s="27"/>
+      <c r="A170" s="26"/>
+      <c r="B170" s="26"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="27"/>
-      <c r="B171" s="27"/>
+      <c r="A171" s="26"/>
+      <c r="B171" s="26"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="27"/>
-      <c r="B172" s="27"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="27"/>
-      <c r="B173" s="27"/>
+      <c r="A173" s="26"/>
+      <c r="B173" s="26"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="27"/>
-      <c r="B174" s="27"/>
+      <c r="A174" s="26"/>
+      <c r="B174" s="26"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="27"/>
-      <c r="B175" s="27"/>
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="27"/>
-      <c r="B176" s="27"/>
+      <c r="A176" s="26"/>
+      <c r="B176" s="26"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="27"/>
-      <c r="B177" s="27"/>
+      <c r="A177" s="26"/>
+      <c r="B177" s="26"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="27"/>
-      <c r="B178" s="27"/>
+      <c r="A178" s="26"/>
+      <c r="B178" s="26"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="27"/>
-      <c r="B179" s="27"/>
+      <c r="A179" s="26"/>
+      <c r="B179" s="26"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="27"/>
-      <c r="B180" s="27"/>
+      <c r="A180" s="26"/>
+      <c r="B180" s="26"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="27"/>
-      <c r="B181" s="27"/>
+      <c r="A181" s="26"/>
+      <c r="B181" s="26"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="27"/>
-      <c r="B182" s="27"/>
+      <c r="A182" s="26"/>
+      <c r="B182" s="26"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="27"/>
-      <c r="B183" s="27"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="26"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="27"/>
-      <c r="B184" s="27"/>
+      <c r="A184" s="26"/>
+      <c r="B184" s="26"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="27"/>
-      <c r="B185" s="27"/>
+      <c r="A185" s="26"/>
+      <c r="B185" s="26"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="27"/>
-      <c r="B186" s="27"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="26"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="27"/>
-      <c r="B187" s="27"/>
+      <c r="A187" s="26"/>
+      <c r="B187" s="26"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="27"/>
-      <c r="B188" s="27"/>
+      <c r="A188" s="26"/>
+      <c r="B188" s="26"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="27"/>
-      <c r="B189" s="27"/>
+      <c r="A189" s="26"/>
+      <c r="B189" s="26"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="27"/>
-      <c r="B190" s="27"/>
+      <c r="A190" s="26"/>
+      <c r="B190" s="26"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="27"/>
-      <c r="B191" s="27"/>
+      <c r="A191" s="26"/>
+      <c r="B191" s="26"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="27"/>
-      <c r="B192" s="27"/>
+      <c r="A192" s="26"/>
+      <c r="B192" s="26"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="27"/>
-      <c r="B193" s="27"/>
+      <c r="A193" s="26"/>
+      <c r="B193" s="26"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="27"/>
-      <c r="B194" s="27"/>
+      <c r="A194" s="26"/>
+      <c r="B194" s="26"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="27"/>
-      <c r="B195" s="27"/>
+      <c r="A195" s="26"/>
+      <c r="B195" s="26"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="27"/>
-      <c r="B196" s="27"/>
+      <c r="A196" s="26"/>
+      <c r="B196" s="26"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="27"/>
-      <c r="B197" s="27"/>
+      <c r="A197" s="26"/>
+      <c r="B197" s="26"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="27"/>
-      <c r="B198" s="27"/>
+      <c r="A198" s="26"/>
+      <c r="B198" s="26"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="27"/>
-      <c r="B199" s="27"/>
+      <c r="A199" s="26"/>
+      <c r="B199" s="26"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="27"/>
-      <c r="B200" s="27"/>
+      <c r="A200" s="26"/>
+      <c r="B200" s="26"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="27"/>
-      <c r="B201" s="27"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="26"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="27"/>
-      <c r="B202" s="27"/>
+      <c r="A202" s="26"/>
+      <c r="B202" s="26"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="27"/>
-      <c r="B203" s="27"/>
+      <c r="A203" s="26"/>
+      <c r="B203" s="26"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="27"/>
-      <c r="B204" s="27"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="26"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="27"/>
-      <c r="B205" s="27"/>
+      <c r="A205" s="26"/>
+      <c r="B205" s="26"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="27"/>
-      <c r="B206" s="27"/>
+      <c r="A206" s="26"/>
+      <c r="B206" s="26"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="27"/>
-      <c r="B207" s="27"/>
+      <c r="A207" s="26"/>
+      <c r="B207" s="26"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="27"/>
-      <c r="B208" s="27"/>
+      <c r="A208" s="26"/>
+      <c r="B208" s="26"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="27"/>
-      <c r="B209" s="27"/>
+      <c r="A209" s="26"/>
+      <c r="B209" s="26"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="27"/>
-      <c r="B210" s="27"/>
+      <c r="A210" s="26"/>
+      <c r="B210" s="26"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="27"/>
-      <c r="B211" s="27"/>
+      <c r="A211" s="26"/>
+      <c r="B211" s="26"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="27"/>
-      <c r="B212" s="27"/>
+      <c r="A212" s="26"/>
+      <c r="B212" s="26"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="27"/>
-      <c r="B213" s="27"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="26"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="27"/>
-      <c r="B214" s="27"/>
+      <c r="A214" s="26"/>
+      <c r="B214" s="26"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="27"/>
-      <c r="B215" s="27"/>
+      <c r="A215" s="26"/>
+      <c r="B215" s="26"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="27"/>
-      <c r="B216" s="27"/>
+      <c r="A216" s="26"/>
+      <c r="B216" s="26"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="27"/>
-      <c r="B217" s="27"/>
+      <c r="A217" s="26"/>
+      <c r="B217" s="26"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="27"/>
-      <c r="B218" s="27"/>
+      <c r="A218" s="26"/>
+      <c r="B218" s="26"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="27"/>
-      <c r="B219" s="27"/>
+      <c r="A219" s="26"/>
+      <c r="B219" s="26"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="27"/>
-      <c r="B220" s="27"/>
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="27"/>
-      <c r="B221" s="27"/>
+      <c r="A221" s="26"/>
+      <c r="B221" s="26"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="27"/>
-      <c r="B222" s="27"/>
+      <c r="A222" s="26"/>
+      <c r="B222" s="26"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="27"/>
-      <c r="B223" s="27"/>
+      <c r="A223" s="26"/>
+      <c r="B223" s="26"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="27"/>
-      <c r="B224" s="27"/>
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="27"/>
-      <c r="B225" s="27"/>
+      <c r="A225" s="26"/>
+      <c r="B225" s="26"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="27"/>
-      <c r="B226" s="27"/>
+      <c r="A226" s="26"/>
+      <c r="B226" s="26"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="27"/>
-      <c r="B227" s="27"/>
+      <c r="A227" s="26"/>
+      <c r="B227" s="26"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="27"/>
-      <c r="B228" s="27"/>
+      <c r="A228" s="26"/>
+      <c r="B228" s="26"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="27"/>
-      <c r="B229" s="27"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="26"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="27"/>
-      <c r="B230" s="27"/>
+      <c r="A230" s="26"/>
+      <c r="B230" s="26"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="27"/>
-      <c r="B231" s="27"/>
+      <c r="A231" s="26"/>
+      <c r="B231" s="26"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="27"/>
-      <c r="B232" s="27"/>
+      <c r="A232" s="26"/>
+      <c r="B232" s="26"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="27"/>
-      <c r="B233" s="27"/>
+      <c r="A233" s="26"/>
+      <c r="B233" s="26"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="27"/>
-      <c r="B234" s="27"/>
+      <c r="A234" s="26"/>
+      <c r="B234" s="26"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="27"/>
-      <c r="B235" s="27"/>
+      <c r="A235" s="26"/>
+      <c r="B235" s="26"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="27"/>
-      <c r="B236" s="27"/>
+      <c r="A236" s="26"/>
+      <c r="B236" s="26"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="27"/>
-      <c r="B237" s="27"/>
+      <c r="A237" s="26"/>
+      <c r="B237" s="26"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="27"/>
-      <c r="B238" s="27"/>
+      <c r="A238" s="26"/>
+      <c r="B238" s="26"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="27"/>
-      <c r="B239" s="27"/>
+      <c r="A239" s="26"/>
+      <c r="B239" s="26"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="27"/>
-      <c r="B240" s="27"/>
+      <c r="A240" s="26"/>
+      <c r="B240" s="26"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="27"/>
-      <c r="B241" s="27"/>
+      <c r="A241" s="26"/>
+      <c r="B241" s="26"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="27"/>
-      <c r="B242" s="27"/>
+      <c r="A242" s="26"/>
+      <c r="B242" s="26"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="27"/>
-      <c r="B243" s="27"/>
+      <c r="A243" s="26"/>
+      <c r="B243" s="26"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="27"/>
-      <c r="B244" s="27"/>
+      <c r="A244" s="26"/>
+      <c r="B244" s="26"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="27"/>
-      <c r="B245" s="27"/>
+      <c r="A245" s="26"/>
+      <c r="B245" s="26"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="27"/>
-      <c r="B246" s="27"/>
+      <c r="A246" s="26"/>
+      <c r="B246" s="26"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="27"/>
-      <c r="B247" s="27"/>
+      <c r="A247" s="26"/>
+      <c r="B247" s="26"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="27"/>
-      <c r="B248" s="27"/>
+      <c r="A248" s="26"/>
+      <c r="B248" s="26"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" s="27"/>
-      <c r="B249" s="27"/>
+      <c r="A249" s="26"/>
+      <c r="B249" s="26"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="27"/>
-      <c r="B250" s="27"/>
+      <c r="A250" s="26"/>
+      <c r="B250" s="26"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" s="27"/>
-      <c r="B251" s="27"/>
+      <c r="A251" s="26"/>
+      <c r="B251" s="26"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" s="27"/>
-      <c r="B252" s="27"/>
+      <c r="A252" s="26"/>
+      <c r="B252" s="26"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" s="27"/>
-      <c r="B253" s="27"/>
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" s="27"/>
-      <c r="B254" s="27"/>
+      <c r="A254" s="26"/>
+      <c r="B254" s="26"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" s="27"/>
-      <c r="B255" s="27"/>
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" s="27"/>
-      <c r="B256" s="27"/>
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="27"/>
-      <c r="B257" s="27"/>
+      <c r="A257" s="26"/>
+      <c r="B257" s="26"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="27"/>
-      <c r="B258" s="27"/>
+      <c r="A258" s="26"/>
+      <c r="B258" s="26"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="27"/>
-      <c r="B259" s="27"/>
+      <c r="A259" s="26"/>
+      <c r="B259" s="26"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="27"/>
-      <c r="B260" s="27"/>
+      <c r="A260" s="26"/>
+      <c r="B260" s="26"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="27"/>
-      <c r="B261" s="27"/>
+      <c r="A261" s="26"/>
+      <c r="B261" s="26"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="27"/>
-      <c r="B262" s="27"/>
+      <c r="A262" s="26"/>
+      <c r="B262" s="26"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="27"/>
-      <c r="B263" s="27"/>
+      <c r="A263" s="26"/>
+      <c r="B263" s="26"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="27"/>
-      <c r="B264" s="27"/>
+      <c r="A264" s="26"/>
+      <c r="B264" s="26"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="27"/>
-      <c r="B265" s="27"/>
+      <c r="A265" s="26"/>
+      <c r="B265" s="26"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="27"/>
-      <c r="B266" s="27"/>
+      <c r="A266" s="26"/>
+      <c r="B266" s="26"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" s="27"/>
-      <c r="B267" s="27"/>
+      <c r="A267" s="26"/>
+      <c r="B267" s="26"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="27"/>
-      <c r="B268" s="27"/>
+      <c r="A268" s="26"/>
+      <c r="B268" s="26"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="27"/>
-      <c r="B269" s="27"/>
+      <c r="A269" s="26"/>
+      <c r="B269" s="26"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" s="27"/>
-      <c r="B270" s="27"/>
+      <c r="A270" s="26"/>
+      <c r="B270" s="26"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="27"/>
-      <c r="B271" s="27"/>
+      <c r="A271" s="26"/>
+      <c r="B271" s="26"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" s="27"/>
-      <c r="B272" s="27"/>
+      <c r="A272" s="26"/>
+      <c r="B272" s="26"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" s="27"/>
-      <c r="B273" s="27"/>
+      <c r="A273" s="26"/>
+      <c r="B273" s="26"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" s="27"/>
-      <c r="B274" s="27"/>
+      <c r="A274" s="26"/>
+      <c r="B274" s="26"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" s="27"/>
-      <c r="B275" s="27"/>
+      <c r="A275" s="26"/>
+      <c r="B275" s="26"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" s="27"/>
-      <c r="B276" s="27"/>
+      <c r="A276" s="26"/>
+      <c r="B276" s="26"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" s="27"/>
-      <c r="B277" s="27"/>
+      <c r="A277" s="26"/>
+      <c r="B277" s="26"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" s="27"/>
-      <c r="B278" s="27"/>
+      <c r="A278" s="26"/>
+      <c r="B278" s="26"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" s="27"/>
-      <c r="B279" s="27"/>
+      <c r="A279" s="26"/>
+      <c r="B279" s="26"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" s="27"/>
-      <c r="B280" s="27"/>
+      <c r="A280" s="26"/>
+      <c r="B280" s="26"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" s="27"/>
-      <c r="B281" s="27"/>
+      <c r="A281" s="26"/>
+      <c r="B281" s="26"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" s="27"/>
-      <c r="B282" s="27"/>
+      <c r="A282" s="26"/>
+      <c r="B282" s="26"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" s="27"/>
-      <c r="B283" s="27"/>
+      <c r="A283" s="26"/>
+      <c r="B283" s="26"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" s="27"/>
-      <c r="B284" s="27"/>
+      <c r="A284" s="26"/>
+      <c r="B284" s="26"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" s="27"/>
-      <c r="B285" s="27"/>
+      <c r="A285" s="26"/>
+      <c r="B285" s="26"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" s="27"/>
-      <c r="B286" s="27"/>
+      <c r="A286" s="26"/>
+      <c r="B286" s="26"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" s="27"/>
-      <c r="B287" s="27"/>
+      <c r="A287" s="26"/>
+      <c r="B287" s="26"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" s="27"/>
-      <c r="B288" s="27"/>
+      <c r="A288" s="26"/>
+      <c r="B288" s="26"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" s="27"/>
-      <c r="B289" s="27"/>
+      <c r="A289" s="26"/>
+      <c r="B289" s="26"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" s="27"/>
-      <c r="B290" s="27"/>
+      <c r="A290" s="26"/>
+      <c r="B290" s="26"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" s="27"/>
-      <c r="B291" s="27"/>
+      <c r="A291" s="26"/>
+      <c r="B291" s="26"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" s="27"/>
-      <c r="B292" s="27"/>
+      <c r="A292" s="26"/>
+      <c r="B292" s="26"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="27"/>
-      <c r="B293" s="27"/>
+      <c r="A293" s="26"/>
+      <c r="B293" s="26"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="27"/>
-      <c r="B294" s="27"/>
+      <c r="A294" s="26"/>
+      <c r="B294" s="26"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" s="27"/>
-      <c r="B295" s="27"/>
+      <c r="A295" s="26"/>
+      <c r="B295" s="26"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" s="27"/>
-      <c r="B296" s="27"/>
+      <c r="A296" s="26"/>
+      <c r="B296" s="26"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" s="27"/>
-      <c r="B297" s="27"/>
+      <c r="A297" s="26"/>
+      <c r="B297" s="26"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" s="27"/>
-      <c r="B298" s="27"/>
+      <c r="A298" s="26"/>
+      <c r="B298" s="26"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" s="27"/>
-      <c r="B299" s="27"/>
+      <c r="A299" s="26"/>
+      <c r="B299" s="26"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" s="27"/>
-      <c r="B300" s="27"/>
+      <c r="A300" s="26"/>
+      <c r="B300" s="26"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" s="27"/>
-      <c r="B301" s="27"/>
+      <c r="A301" s="26"/>
+      <c r="B301" s="26"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A302" s="27"/>
-      <c r="B302" s="27"/>
+      <c r="A302" s="26"/>
+      <c r="B302" s="26"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A303" s="27"/>
-      <c r="B303" s="27"/>
+      <c r="A303" s="26"/>
+      <c r="B303" s="26"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" s="27"/>
-      <c r="B304" s="27"/>
+      <c r="A304" s="26"/>
+      <c r="B304" s="26"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" s="27"/>
-      <c r="B305" s="27"/>
+      <c r="A305" s="26"/>
+      <c r="B305" s="26"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" s="27"/>
-      <c r="B306" s="27"/>
+      <c r="A306" s="26"/>
+      <c r="B306" s="26"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="27"/>
-      <c r="B307" s="27"/>
+      <c r="A307" s="26"/>
+      <c r="B307" s="26"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="27"/>
-      <c r="B308" s="27"/>
+      <c r="A308" s="26"/>
+      <c r="B308" s="26"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" s="27"/>
-      <c r="B309" s="27"/>
+      <c r="A309" s="26"/>
+      <c r="B309" s="26"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" s="27"/>
-      <c r="B310" s="27"/>
+      <c r="A310" s="26"/>
+      <c r="B310" s="26"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" s="27"/>
-      <c r="B311" s="27"/>
+      <c r="A311" s="26"/>
+      <c r="B311" s="26"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" s="27"/>
-      <c r="B312" s="27"/>
+      <c r="A312" s="26"/>
+      <c r="B312" s="26"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" s="27"/>
-      <c r="B313" s="27"/>
+      <c r="A313" s="26"/>
+      <c r="B313" s="26"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" s="27"/>
-      <c r="B314" s="27"/>
+      <c r="A314" s="26"/>
+      <c r="B314" s="26"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" s="27"/>
-      <c r="B315" s="27"/>
+      <c r="A315" s="26"/>
+      <c r="B315" s="26"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="27"/>
-      <c r="B316" s="27"/>
+      <c r="A316" s="26"/>
+      <c r="B316" s="26"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="27"/>
-      <c r="B317" s="27"/>
+      <c r="A317" s="26"/>
+      <c r="B317" s="26"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" s="27"/>
-      <c r="B318" s="27"/>
+      <c r="A318" s="26"/>
+      <c r="B318" s="26"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" s="27"/>
-      <c r="B319" s="27"/>
+      <c r="A319" s="26"/>
+      <c r="B319" s="26"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" s="27"/>
-      <c r="B320" s="27"/>
+      <c r="A320" s="26"/>
+      <c r="B320" s="26"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321" s="27"/>
-      <c r="B321" s="27"/>
+      <c r="A321" s="26"/>
+      <c r="B321" s="26"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" s="27"/>
-      <c r="B322" s="27"/>
+      <c r="A322" s="26"/>
+      <c r="B322" s="26"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323" s="27"/>
-      <c r="B323" s="27"/>
+      <c r="A323" s="26"/>
+      <c r="B323" s="26"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324" s="27"/>
-      <c r="B324" s="27"/>
+      <c r="A324" s="26"/>
+      <c r="B324" s="26"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325" s="27"/>
-      <c r="B325" s="27"/>
+      <c r="A325" s="26"/>
+      <c r="B325" s="26"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A326" s="27"/>
-      <c r="B326" s="27"/>
+      <c r="A326" s="26"/>
+      <c r="B326" s="26"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A327" s="27"/>
-      <c r="B327" s="27"/>
+      <c r="A327" s="26"/>
+      <c r="B327" s="26"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328" s="27"/>
-      <c r="B328" s="27"/>
+      <c r="A328" s="26"/>
+      <c r="B328" s="26"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A329" s="27"/>
-      <c r="B329" s="27"/>
+      <c r="A329" s="26"/>
+      <c r="B329" s="26"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A330" s="27"/>
-      <c r="B330" s="27"/>
+      <c r="A330" s="26"/>
+      <c r="B330" s="26"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331" s="27"/>
-      <c r="B331" s="27"/>
+      <c r="A331" s="26"/>
+      <c r="B331" s="26"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A332" s="27"/>
-      <c r="B332" s="27"/>
+      <c r="A332" s="26"/>
+      <c r="B332" s="26"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A333" s="27"/>
-      <c r="B333" s="27"/>
+      <c r="A333" s="26"/>
+      <c r="B333" s="26"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A334" s="27"/>
-      <c r="B334" s="27"/>
+      <c r="A334" s="26"/>
+      <c r="B334" s="26"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A335" s="27"/>
-      <c r="B335" s="27"/>
+      <c r="A335" s="26"/>
+      <c r="B335" s="26"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336" s="27"/>
-      <c r="B336" s="27"/>
+      <c r="A336" s="26"/>
+      <c r="B336" s="26"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A337" s="27"/>
-      <c r="B337" s="27"/>
+      <c r="A337" s="26"/>
+      <c r="B337" s="26"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338" s="27"/>
-      <c r="B338" s="27"/>
+      <c r="A338" s="26"/>
+      <c r="B338" s="26"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A339" s="27"/>
-      <c r="B339" s="27"/>
+      <c r="A339" s="26"/>
+      <c r="B339" s="26"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340" s="27"/>
-      <c r="B340" s="27"/>
+      <c r="A340" s="26"/>
+      <c r="B340" s="26"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A341" s="27"/>
-      <c r="B341" s="27"/>
+      <c r="A341" s="26"/>
+      <c r="B341" s="26"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A342" s="27"/>
-      <c r="B342" s="27"/>
+      <c r="A342" s="26"/>
+      <c r="B342" s="26"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A343" s="27"/>
-      <c r="B343" s="27"/>
+      <c r="A343" s="26"/>
+      <c r="B343" s="26"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A344" s="27"/>
-      <c r="B344" s="27"/>
+      <c r="A344" s="26"/>
+      <c r="B344" s="26"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A345" s="27"/>
-      <c r="B345" s="27"/>
+      <c r="A345" s="26"/>
+      <c r="B345" s="26"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A346" s="27"/>
-      <c r="B346" s="27"/>
+      <c r="A346" s="26"/>
+      <c r="B346" s="26"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A347" s="27"/>
-      <c r="B347" s="27"/>
+      <c r="A347" s="26"/>
+      <c r="B347" s="26"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A348" s="27"/>
-      <c r="B348" s="27"/>
+      <c r="A348" s="26"/>
+      <c r="B348" s="26"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A349" s="27"/>
-      <c r="B349" s="27"/>
+      <c r="A349" s="26"/>
+      <c r="B349" s="26"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A350" s="27"/>
-      <c r="B350" s="27"/>
+      <c r="A350" s="26"/>
+      <c r="B350" s="26"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A351" s="27"/>
-      <c r="B351" s="27"/>
+      <c r="A351" s="26"/>
+      <c r="B351" s="26"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A352" s="27"/>
-      <c r="B352" s="27"/>
+      <c r="A352" s="26"/>
+      <c r="B352" s="26"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A353" s="27"/>
-      <c r="B353" s="27"/>
+      <c r="A353" s="26"/>
+      <c r="B353" s="26"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A354" s="27"/>
-      <c r="B354" s="27"/>
+      <c r="A354" s="26"/>
+      <c r="B354" s="26"/>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A355" s="27"/>
-      <c r="B355" s="27"/>
+      <c r="A355" s="26"/>
+      <c r="B355" s="26"/>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A356" s="27"/>
-      <c r="B356" s="27"/>
+      <c r="A356" s="26"/>
+      <c r="B356" s="26"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A357" s="27"/>
-      <c r="B357" s="27"/>
+      <c r="A357" s="26"/>
+      <c r="B357" s="26"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A358" s="27"/>
-      <c r="B358" s="27"/>
+      <c r="A358" s="26"/>
+      <c r="B358" s="26"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A359" s="27"/>
-      <c r="B359" s="27"/>
+      <c r="A359" s="26"/>
+      <c r="B359" s="26"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A360" s="27"/>
-      <c r="B360" s="27"/>
+      <c r="A360" s="26"/>
+      <c r="B360" s="26"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A361" s="27"/>
-      <c r="B361" s="27"/>
+      <c r="A361" s="26"/>
+      <c r="B361" s="26"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A362" s="27"/>
-      <c r="B362" s="27"/>
+      <c r="A362" s="26"/>
+      <c r="B362" s="26"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A363" s="27"/>
-      <c r="B363" s="27"/>
+      <c r="A363" s="26"/>
+      <c r="B363" s="26"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A364" s="27"/>
-      <c r="B364" s="27"/>
+      <c r="A364" s="26"/>
+      <c r="B364" s="26"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A365" s="27"/>
-      <c r="B365" s="27"/>
+      <c r="A365" s="26"/>
+      <c r="B365" s="26"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A366" s="27"/>
-      <c r="B366" s="27"/>
+      <c r="A366" s="26"/>
+      <c r="B366" s="26"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A367" s="27"/>
-      <c r="B367" s="27"/>
+      <c r="A367" s="26"/>
+      <c r="B367" s="26"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A368" s="27"/>
-      <c r="B368" s="27"/>
+      <c r="A368" s="26"/>
+      <c r="B368" s="26"/>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A369" s="27"/>
-      <c r="B369" s="27"/>
+      <c r="A369" s="26"/>
+      <c r="B369" s="26"/>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A370" s="27"/>
-      <c r="B370" s="27"/>
+      <c r="A370" s="26"/>
+      <c r="B370" s="26"/>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A371" s="27"/>
-      <c r="B371" s="27"/>
+      <c r="A371" s="26"/>
+      <c r="B371" s="26"/>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A372" s="27"/>
-      <c r="B372" s="27"/>
+      <c r="A372" s="26"/>
+      <c r="B372" s="26"/>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A373" s="27"/>
-      <c r="B373" s="27"/>
+      <c r="A373" s="26"/>
+      <c r="B373" s="26"/>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A374" s="27"/>
-      <c r="B374" s="27"/>
+      <c r="A374" s="26"/>
+      <c r="B374" s="26"/>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A375" s="27"/>
-      <c r="B375" s="27"/>
+      <c r="A375" s="26"/>
+      <c r="B375" s="26"/>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A376" s="27"/>
-      <c r="B376" s="27"/>
+      <c r="A376" s="26"/>
+      <c r="B376" s="26"/>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A377" s="27"/>
-      <c r="B377" s="27"/>
+      <c r="A377" s="26"/>
+      <c r="B377" s="26"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A378" s="27"/>
-      <c r="B378" s="27"/>
+      <c r="A378" s="26"/>
+      <c r="B378" s="26"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A379" s="27"/>
-      <c r="B379" s="27"/>
+      <c r="A379" s="26"/>
+      <c r="B379" s="26"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A380" s="27"/>
-      <c r="B380" s="27"/>
+      <c r="A380" s="26"/>
+      <c r="B380" s="26"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A381" s="27"/>
-      <c r="B381" s="27"/>
+      <c r="A381" s="26"/>
+      <c r="B381" s="26"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A382" s="27"/>
-      <c r="B382" s="27"/>
+      <c r="A382" s="26"/>
+      <c r="B382" s="26"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A383" s="27"/>
-      <c r="B383" s="27"/>
+      <c r="A383" s="26"/>
+      <c r="B383" s="26"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A384" s="27"/>
-      <c r="B384" s="27"/>
+      <c r="A384" s="26"/>
+      <c r="B384" s="26"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A385" s="27"/>
-      <c r="B385" s="27"/>
+      <c r="A385" s="26"/>
+      <c r="B385" s="26"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A386" s="27"/>
-      <c r="B386" s="27"/>
+      <c r="A386" s="26"/>
+      <c r="B386" s="26"/>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A387" s="27"/>
-      <c r="B387" s="27"/>
+      <c r="A387" s="26"/>
+      <c r="B387" s="26"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A388" s="27"/>
-      <c r="B388" s="27"/>
+      <c r="A388" s="26"/>
+      <c r="B388" s="26"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A389" s="27"/>
-      <c r="B389" s="27"/>
+      <c r="A389" s="26"/>
+      <c r="B389" s="26"/>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A390" s="27"/>
-      <c r="B390" s="27"/>
+      <c r="A390" s="26"/>
+      <c r="B390" s="26"/>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A391" s="27"/>
-      <c r="B391" s="27"/>
+      <c r="A391" s="26"/>
+      <c r="B391" s="26"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A392" s="27"/>
-      <c r="B392" s="27"/>
+      <c r="A392" s="26"/>
+      <c r="B392" s="26"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A393" s="27"/>
-      <c r="B393" s="27"/>
+      <c r="A393" s="26"/>
+      <c r="B393" s="26"/>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A394" s="27"/>
-      <c r="B394" s="27"/>
+      <c r="A394" s="26"/>
+      <c r="B394" s="26"/>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A395" s="27"/>
-      <c r="B395" s="27"/>
+      <c r="A395" s="26"/>
+      <c r="B395" s="26"/>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A396" s="27"/>
-      <c r="B396" s="27"/>
+      <c r="A396" s="26"/>
+      <c r="B396" s="26"/>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A397" s="27"/>
-      <c r="B397" s="27"/>
+      <c r="A397" s="26"/>
+      <c r="B397" s="26"/>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A398" s="27"/>
-      <c r="B398" s="27"/>
+      <c r="A398" s="26"/>
+      <c r="B398" s="26"/>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A399" s="27"/>
-      <c r="B399" s="27"/>
+      <c r="A399" s="26"/>
+      <c r="B399" s="26"/>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A400" s="27"/>
-      <c r="B400" s="27"/>
+      <c r="A400" s="26"/>
+      <c r="B400" s="26"/>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A401" s="27"/>
-      <c r="B401" s="27"/>
+      <c r="A401" s="26"/>
+      <c r="B401" s="26"/>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A402" s="27"/>
-      <c r="B402" s="27"/>
+      <c r="A402" s="26"/>
+      <c r="B402" s="26"/>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A403" s="27"/>
-      <c r="B403" s="27"/>
+      <c r="A403" s="26"/>
+      <c r="B403" s="26"/>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A404" s="27"/>
-      <c r="B404" s="27"/>
+      <c r="A404" s="26"/>
+      <c r="B404" s="26"/>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A405" s="27"/>
-      <c r="B405" s="27"/>
+      <c r="A405" s="26"/>
+      <c r="B405" s="26"/>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A406" s="27"/>
-      <c r="B406" s="27"/>
+      <c r="A406" s="26"/>
+      <c r="B406" s="26"/>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A407" s="27"/>
-      <c r="B407" s="27"/>
+      <c r="A407" s="26"/>
+      <c r="B407" s="26"/>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A408" s="27"/>
-      <c r="B408" s="27"/>
+      <c r="A408" s="26"/>
+      <c r="B408" s="26"/>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A409" s="27"/>
-      <c r="B409" s="27"/>
+      <c r="A409" s="26"/>
+      <c r="B409" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12548,395 +12851,395 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5703F574-C88B-4291-BBA6-05D5382680CC}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O125"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="20"/>
-    <col min="4" max="4" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="20"/>
-    <col min="7" max="7" width="15.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="20"/>
-    <col min="10" max="10" width="5.90625" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.90625" style="20" customWidth="1"/>
-    <col min="12" max="13" width="8.7265625" style="20"/>
-    <col min="14" max="14" width="23.81640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="20"/>
+    <col min="1" max="1" width="18.08984375" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="19"/>
+    <col min="4" max="4" width="15" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="19"/>
+    <col min="7" max="7" width="15.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="19"/>
+    <col min="10" max="10" width="5.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.90625" style="19" customWidth="1"/>
+    <col min="12" max="13" width="8.7265625" style="19"/>
+    <col min="14" max="14" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="91" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>714</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="21" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="21" t="s">
         <v>715</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="21" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="21" t="s">
         <v>719</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="21" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="25" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="26" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="24" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="21" t="s">
         <v>747</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="21" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="21" t="s">
         <v>749</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="21" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="21" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="71" t="s">
         <v>653</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="71" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="25" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="21" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="21" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="21" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="91" t="s">
         <v>721</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>722</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="20" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="26" t="s">
         <v>727</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>730</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>723</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>724</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>751</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>726</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>752</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="137" t="s">
         <v>745</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>743</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>729</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="H20" s="21" t="s">
         <v>756</v>
       </c>
     </row>
@@ -12944,9 +13247,54 @@
       <c r="A21" s="77" t="s">
         <v>638</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>744</v>
       </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D117" s="19" t="s">
+        <v>808</v>
+      </c>
+      <c r="E117" s="140">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="89" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C123" s="21"/>
+    </row>
+    <row r="124" spans="1:5" ht="250" x14ac:dyDescent="0.25">
+      <c r="A124" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+      <c r="A125" s="26" t="s">
+        <v>913</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C125" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12955,433 +13303,478 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A2292-F8D8-430C-931B-01C5D23F2DCF}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="20"/>
-    <col min="4" max="4" width="8.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="20"/>
-    <col min="7" max="7" width="16.7265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="20"/>
-    <col min="10" max="10" width="8.453125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="20"/>
-    <col min="13" max="13" width="5.6328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.26953125" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="20"/>
+    <col min="1" max="1" width="26.7265625" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="19"/>
+    <col min="4" max="4" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.08984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="19"/>
+    <col min="7" max="7" width="16.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="19"/>
+    <col min="10" max="10" width="8.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="19"/>
+    <col min="13" max="13" width="5.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="18"/>
+      <c r="D1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="21"/>
+      <c r="G1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="J1" s="23" t="s">
+      <c r="H1" s="21"/>
+      <c r="J1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="M1" s="25" t="s">
+      <c r="K1" s="23"/>
+      <c r="M1" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="J3" s="19" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="J3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="J4" s="19" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="J4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="J5" s="19" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="J5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="25" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="J6" s="19" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="J6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="N6" s="24"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="D8" s="21" t="s">
+      <c r="B8" s="20"/>
+      <c r="D8" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="G8" s="21" t="s">
+      <c r="E8" s="21"/>
+      <c r="G8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="18" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="18" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="18" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="19" t="s">
+      <c r="M11" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="18" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="21" t="s">
         <v>890</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="21" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="136" t="s">
         <v>218</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="D13" s="21" t="s">
+      <c r="B13" s="21"/>
+      <c r="D13" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="G13" s="21" t="s">
+      <c r="E13" s="21"/>
+      <c r="G13" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="J13" s="18" t="s">
+      <c r="H13" s="21"/>
+      <c r="J13" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="K13" s="24"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:14" ht="25" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="18" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="18" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="18" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="27" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="J18" s="19" t="s">
+      <c r="B18" s="23"/>
+      <c r="J18" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="18" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="25" t="s">
         <v>349</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>352</v>
       </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D117" s="19" t="s">
+        <v>808</v>
+      </c>
+      <c r="E117" s="140">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="89" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+      <c r="A123" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C123" s="21"/>
+    </row>
+    <row r="124" spans="1:5" ht="250" x14ac:dyDescent="0.25">
+      <c r="A124" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A125" s="26" t="s">
+        <v>913</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C125" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13391,463 +13784,508 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0181675-3379-485E-B27D-5445AC0B1EDD}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.08984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="142.36328125" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="20"/>
+    <col min="1" max="1" width="27.08984375" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.36328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="118" t="s">
+      <c r="A1" s="94"/>
+      <c r="B1" s="109" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="119"/>
+      <c r="C1" s="110"/>
     </row>
     <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="31" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="119"/>
+      <c r="B3" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="31" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="119"/>
+      <c r="B5" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="31" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36" t="s">
+      <c r="A6" s="93"/>
+      <c r="B6" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="31" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="119"/>
+      <c r="B7" s="34" t="s">
         <v>363</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="119"/>
+      <c r="B8" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="119"/>
+      <c r="B9" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="119"/>
+      <c r="B10" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="35" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="36"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="38" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="128"/>
+      <c r="B13" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="40" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="128"/>
+      <c r="B14" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="40" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
-      <c r="B15" s="44" t="s">
+      <c r="A15" s="128"/>
+      <c r="B15" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="40" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="129"/>
+      <c r="B16" s="42" t="s">
         <v>356</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="43" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="36"/>
     </row>
     <row r="18" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="36"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="130" t="s">
         <v>375</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="48" t="s">
+      <c r="A20" s="131"/>
+      <c r="B20" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="131"/>
+      <c r="B21" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="46" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="132"/>
+      <c r="B22" s="45" t="s">
         <v>380</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="123"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="132"/>
+      <c r="B23" s="45" t="s">
         <v>381</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="48" t="s">
+      <c r="A24" s="131"/>
+      <c r="B24" s="45" t="s">
         <v>382</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="46" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="131"/>
+      <c r="B25" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="48" t="s">
+      <c r="A26" s="131"/>
+      <c r="B26" s="45" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="123"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="132"/>
+      <c r="B27" s="45" t="s">
         <v>387</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="124"/>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="133"/>
+      <c r="B28" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="36"/>
     </row>
     <row r="30" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="39"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="36"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="130" t="s">
         <v>390</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="123"/>
-      <c r="B32" s="48" t="s">
+      <c r="A32" s="132"/>
+      <c r="B32" s="45" t="s">
         <v>370</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="48" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="123"/>
-      <c r="B33" s="48" t="s">
+      <c r="A33" s="132"/>
+      <c r="B33" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="48" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
-      <c r="B34" s="48" t="s">
+      <c r="A34" s="131"/>
+      <c r="B34" s="45" t="s">
         <v>372</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="117"/>
-      <c r="B35" s="48" t="s">
+      <c r="A35" s="134"/>
+      <c r="B35" s="45" t="s">
         <v>373</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="39"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="36"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="39"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="36"/>
     </row>
     <row r="38" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="135" t="s">
         <v>396</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="26" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="135" t="s">
         <v>398</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="48" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="36"/>
     </row>
     <row r="41" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31"/>
-      <c r="B41" s="39"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="36"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="115" t="s">
+      <c r="A42" s="130" t="s">
         <v>401</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="117"/>
-      <c r="B43" s="32" t="s">
+      <c r="A43" s="134"/>
+      <c r="B43" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="48" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="39"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="36"/>
     </row>
     <row r="45" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="39"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="36"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="115" t="s">
+      <c r="A46" s="130" t="s">
         <v>404</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="116"/>
-      <c r="B47" s="32" t="s">
+      <c r="A47" s="131"/>
+      <c r="B47" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="21" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="116"/>
-      <c r="B48" s="32" t="s">
+      <c r="A48" s="131"/>
+      <c r="B48" s="30" t="s">
         <v>408</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="21" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="116"/>
-      <c r="B49" s="32" t="s">
+      <c r="A49" s="131"/>
+      <c r="B49" s="30" t="s">
         <v>410</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="117"/>
-      <c r="B50" s="32" t="s">
+      <c r="A50" s="134"/>
+      <c r="B50" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="21" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="39"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="36"/>
     </row>
     <row r="52" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="36"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="115" t="s">
+      <c r="A53" s="130" t="s">
         <v>412</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="21" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="116"/>
-      <c r="B54" s="32" t="s">
+      <c r="A54" s="131"/>
+      <c r="B54" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="48" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="117"/>
-      <c r="B55" s="32" t="s">
+      <c r="A55" s="134"/>
+      <c r="B55" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="48" t="s">
         <v>417</v>
       </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D117" s="19" t="s">
+        <v>808</v>
+      </c>
+      <c r="E117" s="140">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="89" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+      <c r="A123" s="26" t="s">
+        <v>910</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C123" s="21"/>
+    </row>
+    <row r="124" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A124" s="26" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+      <c r="A125" s="26" t="s">
+        <v>913</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C125" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13865,93 +14303,138 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B8CFFE-3E3D-4E09-98C4-C8D8A671FA1F}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="137.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="65" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="65" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="65" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="65" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="66" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="69"/>
-      <c r="B6" s="68"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="67" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="65" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="65" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="70.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="64" t="s">
         <v>685</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="64" t="s">
         <v>688</v>
       </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D117" t="s">
+        <v>808</v>
+      </c>
+      <c r="E117" s="139">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="4"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="121" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C125" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13961,15 +14444,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F52F2DA-E96D-40AD-9194-D5EC3C19A9AE}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" style="5" customWidth="1"/>
     <col min="2" max="2" width="73.453125" customWidth="1"/>
     <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="67.7265625" customWidth="1"/>
@@ -13984,12 +14467,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -14051,7 +14534,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>157</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -14068,7 +14551,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -14120,7 +14603,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="61" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -14132,7 +14615,7 @@
       <c r="E12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
@@ -14198,7 +14681,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="124" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -14263,7 +14746,7 @@
       <c r="B30" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>293</v>
       </c>
     </row>
@@ -14332,19 +14815,64 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>284</v>
       </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D117" t="s">
+        <v>808</v>
+      </c>
+      <c r="E117" s="139">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="4"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="121" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C125" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14355,15 +14883,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CAAF14-6D8F-425D-9DFC-A6859D0C7F1E}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A14"/>
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="96.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.54296875" customWidth="1"/>
@@ -14411,37 +14939,82 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="111" t="s">
         <v>707</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="61" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="112" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="127"/>
+      <c r="A12" s="112"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="127"/>
+      <c r="A13" s="112"/>
     </row>
     <row r="14" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="127"/>
+      <c r="A14" s="112"/>
       <c r="B14" s="5"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D117" t="s">
+        <v>808</v>
+      </c>
+      <c r="E117" s="139">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="4"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="121" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C125" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEEE053-E68D-4183-9EB5-A192D7A770B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A122807E-1324-4A2D-85B5-3477064EA3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="922">
   <si>
     <t>Module</t>
   </si>
@@ -5506,6 +5506,30 @@
   </si>
   <si>
     <t>How will you migrate S4 HANA values as same as ECC values?</t>
+  </si>
+  <si>
+    <t>Trans. Req</t>
+  </si>
+  <si>
+    <t>E070</t>
+  </si>
+  <si>
+    <t>To view if TR are moved to system</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>SWIA</t>
+  </si>
+  <si>
+    <t>Release Sales order</t>
+  </si>
+  <si>
+    <t>SWUS_WITH_REFERENCE</t>
+  </si>
+  <si>
+    <t>Re-run the errored process item in the background</t>
   </si>
 </sst>
 </file>
@@ -6027,7 +6051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6254,8 +6278,48 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6287,6 +6351,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6296,11 +6366,35 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -6320,76 +6414,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7821,7 +7846,7 @@
       <c r="D117" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="139">
+      <c r="E117" s="108">
         <v>45194</v>
       </c>
     </row>
@@ -7829,7 +7854,7 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="121" t="s">
+      <c r="C122" s="99" t="s">
         <v>909</v>
       </c>
     </row>
@@ -7879,134 +7904,134 @@
   <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="136" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
     </row>
     <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
     </row>
     <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="139" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
     </row>
     <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="138" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
     </row>
     <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="139" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9139,11 +9164,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="141" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
     </row>
     <row r="9" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
@@ -9199,11 +9224,11 @@
       <c r="C13" s="21"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="116" t="s">
+      <c r="A15" s="141" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
@@ -9360,10 +9385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9408,13 +9433,13 @@
       <c r="C2" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="111" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="98">
+      <c r="E2" s="113">
         <v>44436</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="116" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9428,12 +9453,12 @@
       <c r="C3" s="77" t="s">
         <v>775</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="95" t="s">
         <v>460</v>
       </c>
       <c r="B4" s="78" t="s">
@@ -9442,9 +9467,9 @@
       <c r="C4" s="79" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -9456,9 +9481,9 @@
       <c r="C5" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
     </row>
     <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
@@ -9470,9 +9495,9 @@
       <c r="C6" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -9484,9 +9509,9 @@
       <c r="C7" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -9498,9 +9523,9 @@
       <c r="C8" s="78" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9512,9 +9537,9 @@
       <c r="C9" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
@@ -9524,12 +9549,12 @@
       <c r="C10" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="95" t="s">
         <v>475</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -9538,12 +9563,12 @@
       <c r="C11" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="97"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="95" t="s">
         <v>476</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -9552,9 +9577,9 @@
       <c r="C12" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -9564,12 +9589,12 @@
         <v>463</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="95" t="s">
         <v>478</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -9578,9 +9603,9 @@
       <c r="C14" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -9592,9 +9617,9 @@
       <c r="C15" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -9606,9 +9631,9 @@
       <c r="C16" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -9620,12 +9645,12 @@
       <c r="C17" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
     </row>
     <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="95" t="s">
         <v>486</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -9634,12 +9659,12 @@
       <c r="C18" s="80" t="s">
         <v>777</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="114"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="95" t="s">
         <v>487</v>
       </c>
       <c r="B19" s="72" t="s">
@@ -9648,9 +9673,9 @@
       <c r="C19" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -9662,12 +9687,12 @@
       <c r="C20" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
     </row>
     <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="95" t="s">
         <v>491</v>
       </c>
       <c r="B21" s="72" t="s">
@@ -9676,12 +9701,12 @@
       <c r="C21" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
     </row>
     <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="95" t="s">
         <v>493</v>
       </c>
       <c r="B22" s="72" t="s">
@@ -9690,9 +9715,9 @@
       <c r="C22" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="75"/>
@@ -9718,13 +9743,13 @@
       <c r="C25" s="81" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="112" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="96" t="s">
+      <c r="E25" s="111" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="96" t="s">
+      <c r="F25" s="111" t="s">
         <v>500</v>
       </c>
     </row>
@@ -9738,12 +9763,12 @@
       <c r="C26" s="81" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="96"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="111"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="100" t="s">
         <v>503</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -9752,9 +9777,9 @@
       <c r="C27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="96"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="111"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -9766,12 +9791,12 @@
       <c r="C28" s="83" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="96"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="111"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="100" t="s">
         <v>473</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -9780,12 +9805,12 @@
       <c r="C29" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="96"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="111"/>
     </row>
     <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="100" t="s">
         <v>506</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -9794,12 +9819,12 @@
       <c r="C30" s="68" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="96"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="111"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="100" t="s">
         <v>508</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -9808,9 +9833,9 @@
       <c r="C31" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="96"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="111"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -9822,9 +9847,9 @@
       <c r="C32" s="81" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="96"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="111"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
@@ -9836,9 +9861,9 @@
       <c r="C33" s="81" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="96"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
@@ -9850,12 +9875,12 @@
       <c r="C34" s="68" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="96"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="111"/>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="95" t="s">
         <v>516</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -9864,9 +9889,9 @@
       <c r="C35" s="68" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="96"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="111"/>
       <c r="G35" s="84" t="s">
         <v>595</v>
       </c>
@@ -9881,9 +9906,9 @@
       <c r="C36" s="81" t="s">
         <v>520</v>
       </c>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="96"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="111"/>
       <c r="G36" s="19" t="s">
         <v>596</v>
       </c>
@@ -9898,12 +9923,12 @@
       <c r="C37" s="81" t="s">
         <v>523</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="96"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="111"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="95" t="s">
         <v>524</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -9912,9 +9937,9 @@
       <c r="C38" s="81" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="96"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="111"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -9924,9 +9949,9 @@
         <v>463</v>
       </c>
       <c r="C39" s="81"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="96"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="111"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
@@ -9938,9 +9963,9 @@
       <c r="C40" s="81" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="96"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="111"/>
     </row>
     <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
@@ -9952,9 +9977,9 @@
       <c r="C41" s="68" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="96"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="111"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -9966,9 +9991,9 @@
       <c r="C42" s="81" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="96"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="111"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="91" t="s">
@@ -9990,13 +10015,13 @@
       <c r="C45" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="116" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="102" t="s">
+      <c r="E45" s="117" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="101" t="s">
+      <c r="F45" s="116" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10010,9 +10035,9 @@
       <c r="C46" s="72" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="99"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="99"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="114"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
@@ -10024,9 +10049,9 @@
       <c r="C47" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="99"/>
-      <c r="E47" s="103"/>
-      <c r="F47" s="99"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="114"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -10036,9 +10061,9 @@
         <v>532</v>
       </c>
       <c r="C48" s="72"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="99"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="114"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
@@ -10050,9 +10075,9 @@
       <c r="C49" s="72" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="99"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="114"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
@@ -10064,9 +10089,9 @@
       <c r="C50" s="85" t="s">
         <v>547</v>
       </c>
-      <c r="D50" s="99"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="99"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="114"/>
     </row>
     <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
@@ -10078,9 +10103,9 @@
       <c r="C51" s="85" t="s">
         <v>549</v>
       </c>
-      <c r="D51" s="99"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="99"/>
+      <c r="D51" s="114"/>
+      <c r="E51" s="118"/>
+      <c r="F51" s="114"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -10090,9 +10115,9 @@
         <v>455</v>
       </c>
       <c r="C52" s="72"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="99"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="114"/>
     </row>
     <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
@@ -10104,9 +10129,9 @@
       <c r="C53" s="85" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="99"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="99"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="114"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
@@ -10116,9 +10141,9 @@
         <v>455</v>
       </c>
       <c r="C54" s="72"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="99"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="114"/>
     </row>
     <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
@@ -10130,9 +10155,9 @@
       <c r="C55" s="86" t="s">
         <v>778</v>
       </c>
-      <c r="D55" s="100"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="100"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="115"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="91"/>
@@ -10152,11 +10177,11 @@
       <c r="C57" s="68" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="97" t="s">
+      <c r="D57" s="112" t="s">
         <v>557</v>
       </c>
-      <c r="E57" s="105"/>
-      <c r="F57" s="101" t="s">
+      <c r="E57" s="120"/>
+      <c r="F57" s="116" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10170,9 +10195,9 @@
       <c r="C58" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="97"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="99"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="114"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
@@ -10184,12 +10209,12 @@
       <c r="C59" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="97"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="99"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="114"/>
     </row>
     <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="122" t="s">
+      <c r="A60" s="100" t="s">
         <v>563</v>
       </c>
       <c r="B60" s="82" t="s">
@@ -10198,9 +10223,9 @@
       <c r="C60" s="87" t="s">
         <v>547</v>
       </c>
-      <c r="D60" s="97"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="99"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="114"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
@@ -10212,9 +10237,9 @@
       <c r="C61" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D61" s="97"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="99"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="120"/>
+      <c r="F61" s="114"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
@@ -10226,9 +10251,9 @@
       <c r="C62" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="97"/>
-      <c r="E62" s="105"/>
-      <c r="F62" s="100"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="115"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="91"/>
@@ -10248,18 +10273,18 @@
       <c r="C64" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="97" t="s">
+      <c r="D64" s="112" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="96" t="s">
+      <c r="E64" s="111" t="s">
         <v>570</v>
       </c>
-      <c r="F64" s="96" t="s">
+      <c r="F64" s="111" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="122" t="s">
+      <c r="A65" s="100" t="s">
         <v>563</v>
       </c>
       <c r="B65" s="82" t="s">
@@ -10268,9 +10293,9 @@
       <c r="C65" s="87" t="s">
         <v>547</v>
       </c>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
@@ -10282,9 +10307,9 @@
       <c r="C66" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
     </row>
     <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -10296,9 +10321,9 @@
       <c r="C67" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
@@ -10310,9 +10335,9 @@
       <c r="C68" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="97"/>
-      <c r="E68" s="97"/>
-      <c r="F68" s="97"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="112"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="91"/>
@@ -10328,13 +10353,13 @@
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="102" t="s">
+      <c r="D70" s="117" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="102" t="s">
+      <c r="E70" s="117" t="s">
         <v>577</v>
       </c>
-      <c r="F70" s="101" t="s">
+      <c r="F70" s="116" t="s">
         <v>578</v>
       </c>
     </row>
@@ -10344,9 +10369,9 @@
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="99"/>
+      <c r="D71" s="118"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="114"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
@@ -10354,9 +10379,9 @@
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="99"/>
+      <c r="D72" s="118"/>
+      <c r="E72" s="118"/>
+      <c r="F72" s="114"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
@@ -10364,20 +10389,20 @@
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="104"/>
-      <c r="F73" s="100"/>
+      <c r="D73" s="119"/>
+      <c r="E73" s="119"/>
+      <c r="F73" s="115"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="106"/>
-      <c r="B74" s="107"/>
-      <c r="C74" s="107"/>
-      <c r="D74" s="107"/>
-      <c r="E74" s="107"/>
-      <c r="F74" s="108"/>
+      <c r="A74" s="123"/>
+      <c r="B74" s="124"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="125"/>
     </row>
     <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="122" t="s">
+      <c r="A75" s="100" t="s">
         <v>582</v>
       </c>
       <c r="B75" s="21" t="s">
@@ -10386,11 +10411,11 @@
       <c r="C75" s="87" t="s">
         <v>547</v>
       </c>
-      <c r="D75" s="97"/>
-      <c r="E75" s="96" t="s">
+      <c r="D75" s="112"/>
+      <c r="E75" s="111" t="s">
         <v>583</v>
       </c>
-      <c r="F75" s="97" t="s">
+      <c r="F75" s="112" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10404,9 +10429,9 @@
       <c r="C76" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="112"/>
+      <c r="F76" s="112"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
@@ -10418,9 +10443,9 @@
       <c r="C77" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="112"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
@@ -10432,12 +10457,12 @@
       <c r="C78" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="112"/>
+      <c r="F78" s="112"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="122" t="s">
+      <c r="A79" s="100" t="s">
         <v>591</v>
       </c>
       <c r="B79" s="21" t="s">
@@ -10446,9 +10471,9 @@
       <c r="C79" s="87" t="s">
         <v>592</v>
       </c>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
+      <c r="D79" s="112"/>
+      <c r="E79" s="112"/>
+      <c r="F79" s="112"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
@@ -10478,7 +10503,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="123" t="s">
+      <c r="A85" s="101" t="s">
         <v>794</v>
       </c>
     </row>
@@ -10492,13 +10517,13 @@
       <c r="C86" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="95" t="s">
+      <c r="D86" s="121" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="96" t="s">
+      <c r="E86" s="111" t="s">
         <v>652</v>
       </c>
-      <c r="F86" s="95" t="s">
+      <c r="F86" s="121" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10512,9 +10537,9 @@
       <c r="C87" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="D87" s="95"/>
-      <c r="E87" s="96"/>
-      <c r="F87" s="95"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="111"/>
+      <c r="F87" s="121"/>
     </row>
     <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
@@ -10526,9 +10551,9 @@
       <c r="C88" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="D88" s="95"/>
-      <c r="E88" s="96"/>
-      <c r="F88" s="95"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="111"/>
+      <c r="F88" s="121"/>
     </row>
     <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
@@ -10540,9 +10565,9 @@
       <c r="C89" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="D89" s="95"/>
-      <c r="E89" s="96"/>
-      <c r="F89" s="95"/>
+      <c r="D89" s="121"/>
+      <c r="E89" s="111"/>
+      <c r="F89" s="121"/>
     </row>
     <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
@@ -10554,9 +10579,9 @@
       <c r="C90" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="D90" s="95"/>
-      <c r="E90" s="96"/>
-      <c r="F90" s="95"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="111"/>
+      <c r="F90" s="121"/>
     </row>
     <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
@@ -10568,9 +10593,9 @@
       <c r="C91" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="D91" s="95"/>
-      <c r="E91" s="96"/>
-      <c r="F91" s="95"/>
+      <c r="D91" s="121"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="121"/>
     </row>
     <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
@@ -10582,9 +10607,9 @@
       <c r="C92" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="D92" s="95"/>
-      <c r="E92" s="96"/>
-      <c r="F92" s="95"/>
+      <c r="D92" s="121"/>
+      <c r="E92" s="111"/>
+      <c r="F92" s="121"/>
     </row>
     <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
@@ -10596,12 +10621,12 @@
       <c r="C93" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="D93" s="95"/>
-      <c r="E93" s="96"/>
-      <c r="F93" s="95"/>
+      <c r="D93" s="121"/>
+      <c r="E93" s="111"/>
+      <c r="F93" s="121"/>
     </row>
     <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="123" t="s">
+      <c r="A95" s="101" t="s">
         <v>793</v>
       </c>
     </row>
@@ -10613,13 +10638,13 @@
         <v>463</v>
       </c>
       <c r="C96" s="21"/>
-      <c r="D96" s="95" t="s">
+      <c r="D96" s="121" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="95" t="s">
+      <c r="E96" s="121" t="s">
         <v>809</v>
       </c>
-      <c r="F96" s="95" t="s">
+      <c r="F96" s="121" t="s">
         <v>812</v>
       </c>
     </row>
@@ -10633,9 +10658,9 @@
       <c r="C97" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="D97" s="95"/>
-      <c r="E97" s="95"/>
-      <c r="F97" s="95"/>
+      <c r="D97" s="121"/>
+      <c r="E97" s="121"/>
+      <c r="F97" s="121"/>
     </row>
     <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A98" s="87" t="s">
@@ -10647,9 +10672,9 @@
       <c r="C98" s="87" t="s">
         <v>706</v>
       </c>
-      <c r="D98" s="95"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="95"/>
+      <c r="D98" s="121"/>
+      <c r="E98" s="121"/>
+      <c r="F98" s="121"/>
     </row>
     <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
@@ -10661,9 +10686,9 @@
       <c r="C99" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="D99" s="95"/>
-      <c r="E99" s="95"/>
-      <c r="F99" s="95"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
     </row>
     <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
@@ -10675,9 +10700,9 @@
       <c r="C100" s="21" t="s">
         <v>888</v>
       </c>
-      <c r="D100" s="95"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="95"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="121"/>
+      <c r="F100" s="121"/>
     </row>
     <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
@@ -10689,9 +10714,9 @@
       <c r="C101" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="D101" s="95"/>
-      <c r="E101" s="95"/>
-      <c r="F101" s="95"/>
+      <c r="D101" s="121"/>
+      <c r="E101" s="121"/>
+      <c r="F101" s="121"/>
     </row>
     <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
@@ -10703,9 +10728,9 @@
       <c r="C102" s="80" t="s">
         <v>817</v>
       </c>
-      <c r="D102" s="95"/>
-      <c r="E102" s="95"/>
-      <c r="F102" s="95"/>
+      <c r="D102" s="121"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="121"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
@@ -10715,9 +10740,9 @@
         <v>463</v>
       </c>
       <c r="C103" s="21"/>
-      <c r="D103" s="95"/>
-      <c r="E103" s="95"/>
-      <c r="F103" s="95"/>
+      <c r="D103" s="121"/>
+      <c r="E103" s="121"/>
+      <c r="F103" s="121"/>
     </row>
     <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A104" s="87" t="s">
@@ -10729,9 +10754,9 @@
       <c r="C104" s="87" t="s">
         <v>889</v>
       </c>
-      <c r="D104" s="95"/>
-      <c r="E104" s="95"/>
-      <c r="F104" s="95"/>
+      <c r="D104" s="121"/>
+      <c r="E104" s="121"/>
+      <c r="F104" s="121"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
@@ -10743,9 +10768,9 @@
       <c r="C105" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D105" s="95"/>
-      <c r="E105" s="95"/>
-      <c r="F105" s="95"/>
+      <c r="D105" s="121"/>
+      <c r="E105" s="121"/>
+      <c r="F105" s="121"/>
     </row>
     <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
@@ -10757,9 +10782,9 @@
       <c r="C106" s="26" t="s">
         <v>820</v>
       </c>
-      <c r="D106" s="95"/>
-      <c r="E106" s="95"/>
-      <c r="F106" s="95"/>
+      <c r="D106" s="121"/>
+      <c r="E106" s="121"/>
+      <c r="F106" s="121"/>
     </row>
     <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A107" s="87" t="s">
@@ -10771,9 +10796,9 @@
       <c r="C107" s="87" t="s">
         <v>821</v>
       </c>
-      <c r="D107" s="95"/>
-      <c r="E107" s="95"/>
-      <c r="F107" s="95"/>
+      <c r="D107" s="121"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="121"/>
     </row>
     <row r="108" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -10785,9 +10810,9 @@
       <c r="C108" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="D108" s="95"/>
-      <c r="E108" s="95"/>
-      <c r="F108" s="95"/>
+      <c r="D108" s="121"/>
+      <c r="E108" s="121"/>
+      <c r="F108" s="121"/>
     </row>
     <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="87" t="s">
@@ -10799,9 +10824,9 @@
       <c r="C109" s="87" t="s">
         <v>823</v>
       </c>
-      <c r="D109" s="95"/>
-      <c r="E109" s="95"/>
-      <c r="F109" s="95"/>
+      <c r="D109" s="121"/>
+      <c r="E109" s="121"/>
+      <c r="F109" s="121"/>
     </row>
     <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
@@ -10813,9 +10838,9 @@
       <c r="C110" s="89" t="s">
         <v>824</v>
       </c>
-      <c r="D110" s="95"/>
-      <c r="E110" s="95"/>
-      <c r="F110" s="95"/>
+      <c r="D110" s="121"/>
+      <c r="E110" s="121"/>
+      <c r="F110" s="121"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
@@ -10825,9 +10850,9 @@
         <v>455</v>
       </c>
       <c r="C111" s="21"/>
-      <c r="D111" s="95"/>
-      <c r="E111" s="95"/>
-      <c r="F111" s="95"/>
+      <c r="D111" s="121"/>
+      <c r="E111" s="121"/>
+      <c r="F111" s="121"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
@@ -10837,9 +10862,9 @@
         <v>455</v>
       </c>
       <c r="C112" s="21"/>
-      <c r="D112" s="95"/>
-      <c r="E112" s="95"/>
-      <c r="F112" s="95"/>
+      <c r="D112" s="121"/>
+      <c r="E112" s="121"/>
+      <c r="F112" s="121"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
@@ -10849,9 +10874,9 @@
         <v>455</v>
       </c>
       <c r="C113" s="21"/>
-      <c r="D113" s="95"/>
-      <c r="E113" s="95"/>
-      <c r="F113" s="95"/>
+      <c r="D113" s="121"/>
+      <c r="E113" s="121"/>
+      <c r="F113" s="121"/>
     </row>
     <row r="114" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
@@ -10863,12 +10888,12 @@
       <c r="C114" s="89" t="s">
         <v>825</v>
       </c>
-      <c r="D114" s="95"/>
-      <c r="E114" s="95"/>
-      <c r="F114" s="95"/>
+      <c r="D114" s="121"/>
+      <c r="E114" s="121"/>
+      <c r="F114" s="121"/>
     </row>
     <row r="116" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="123" t="s">
+      <c r="A116" s="101" t="s">
         <v>899</v>
       </c>
     </row>
@@ -10879,16 +10904,18 @@
       <c r="B117" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C117" s="118" t="s">
+      <c r="C117" s="96" t="s">
         <v>903</v>
       </c>
-      <c r="D117" s="95" t="s">
+      <c r="D117" s="121" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="138">
+      <c r="E117" s="122">
         <v>45194</v>
       </c>
-      <c r="F117" s="95"/>
+      <c r="F117" s="121" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="118" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="26" t="s">
@@ -10897,12 +10924,12 @@
       <c r="B118" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C118" s="118" t="s">
+      <c r="C118" s="96" t="s">
         <v>903</v>
       </c>
-      <c r="D118" s="95"/>
-      <c r="E118" s="95"/>
-      <c r="F118" s="95"/>
+      <c r="D118" s="121"/>
+      <c r="E118" s="121"/>
+      <c r="F118" s="121"/>
     </row>
     <row r="119" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
@@ -10911,12 +10938,12 @@
       <c r="B119" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C119" s="118" t="s">
+      <c r="C119" s="96" t="s">
         <v>903</v>
       </c>
-      <c r="D119" s="95"/>
-      <c r="E119" s="95"/>
-      <c r="F119" s="95"/>
+      <c r="D119" s="121"/>
+      <c r="E119" s="121"/>
+      <c r="F119" s="121"/>
     </row>
     <row r="120" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
@@ -10928,9 +10955,9 @@
       <c r="C120" s="26" t="s">
         <v>905</v>
       </c>
-      <c r="D120" s="95"/>
-      <c r="E120" s="95"/>
-      <c r="F120" s="95"/>
+      <c r="D120" s="121"/>
+      <c r="E120" s="121"/>
+      <c r="F120" s="121"/>
     </row>
     <row r="121" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="74" t="s">
@@ -10942,9 +10969,9 @@
       <c r="C121" s="74" t="s">
         <v>907</v>
       </c>
-      <c r="D121" s="95"/>
-      <c r="E121" s="95"/>
-      <c r="F121" s="95"/>
+      <c r="D121" s="121"/>
+      <c r="E121" s="121"/>
+      <c r="F121" s="121"/>
     </row>
     <row r="122" spans="1:6" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
@@ -10956,9 +10983,9 @@
       <c r="C122" s="89" t="s">
         <v>909</v>
       </c>
-      <c r="D122" s="95"/>
-      <c r="E122" s="95"/>
-      <c r="F122" s="95"/>
+      <c r="D122" s="121"/>
+      <c r="E122" s="121"/>
+      <c r="F122" s="121"/>
     </row>
     <row r="123" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
@@ -10968,9 +10995,9 @@
         <v>455</v>
       </c>
       <c r="C123" s="21"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="95"/>
-      <c r="F123" s="95"/>
+      <c r="D123" s="121"/>
+      <c r="E123" s="121"/>
+      <c r="F123" s="121"/>
     </row>
     <row r="124" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
@@ -10982,9 +11009,9 @@
       <c r="C124" s="26" t="s">
         <v>912</v>
       </c>
-      <c r="D124" s="95"/>
-      <c r="E124" s="95"/>
-      <c r="F124" s="95"/>
+      <c r="D124" s="121"/>
+      <c r="E124" s="121"/>
+      <c r="F124" s="121"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
@@ -10994,9 +11021,14 @@
         <v>455</v>
       </c>
       <c r="C125" s="21"/>
-      <c r="D125" s="95"/>
-      <c r="E125" s="95"/>
-      <c r="F125" s="95"/>
+      <c r="D125" s="121"/>
+      <c r="E125" s="121"/>
+      <c r="F125" s="121"/>
+    </row>
+    <row r="127" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="101" t="s">
+        <v>534</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -11007,6 +11039,12 @@
     <mergeCell ref="D75:D79"/>
     <mergeCell ref="E75:E79"/>
     <mergeCell ref="F75:F79"/>
+    <mergeCell ref="D96:D114"/>
+    <mergeCell ref="E96:E114"/>
+    <mergeCell ref="F96:F114"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
     <mergeCell ref="D64:D68"/>
     <mergeCell ref="E64:E68"/>
     <mergeCell ref="F64:F68"/>
@@ -11025,12 +11063,6 @@
     <mergeCell ref="D25:D42"/>
     <mergeCell ref="E25:E42"/>
     <mergeCell ref="F25:F42"/>
-    <mergeCell ref="D96:D114"/>
-    <mergeCell ref="E96:E114"/>
-    <mergeCell ref="F96:F114"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
@@ -11085,7 +11117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9EA002-3826-45E0-AB6A-307795449AA6}">
   <dimension ref="A1:E409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
@@ -11649,7 +11681,7 @@
       <c r="D117" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="141">
+      <c r="E117" s="110">
         <v>45194</v>
       </c>
     </row>
@@ -11672,7 +11704,7 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="26"/>
       <c r="B122" s="26"/>
-      <c r="C122" s="121" t="s">
+      <c r="C122" s="99" t="s">
         <v>909</v>
       </c>
     </row>
@@ -11706,8 +11738,8 @@
       <c r="C125" s="4"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="120"/>
-      <c r="B126" s="120"/>
+      <c r="A126" s="98"/>
+      <c r="B126" s="98"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="26"/>
@@ -12853,8 +12885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5703F574-C88B-4291-BBA6-05D5382680CC}">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13172,7 +13204,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="91" t="s">
         <v>721</v>
       </c>
@@ -13182,8 +13214,11 @@
       <c r="G17" s="20" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="142" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>727</v>
       </c>
@@ -13202,8 +13237,14 @@
       <c r="H18" s="21" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>21</v>
       </c>
@@ -13222,9 +13263,15 @@
       <c r="H19" s="21" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="137" t="s">
+      <c r="J19" s="21" t="s">
+        <v>920</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="107" t="s">
         <v>745</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -13243,7 +13290,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="s">
         <v>638</v>
       </c>
@@ -13255,7 +13302,7 @@
       <c r="D117" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="140">
+      <c r="E117" s="109">
         <v>45194</v>
       </c>
     </row>
@@ -13305,8 +13352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A2292-F8D8-430C-931B-01C5D23F2DCF}">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13329,7 +13376,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="106" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="18"/>
@@ -13488,7 +13535,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="106" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="20"/>
@@ -13596,7 +13643,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="106" t="s">
         <v>218</v>
       </c>
       <c r="B13" s="21"/>
@@ -13706,6 +13753,9 @@
       <c r="B19" s="18" t="s">
         <v>347</v>
       </c>
+      <c r="D19" s="20" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
@@ -13714,6 +13764,12 @@
       <c r="B20" s="18" t="s">
         <v>348</v>
       </c>
+      <c r="D20" s="21" t="s">
+        <v>915</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
@@ -13735,7 +13791,7 @@
       <c r="D117" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="140">
+      <c r="E117" s="109">
         <v>45194</v>
       </c>
     </row>
@@ -13800,13 +13856,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="94"/>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="129" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="110"/>
+      <c r="C1" s="130"/>
     </row>
     <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A2" s="119"/>
+      <c r="A2" s="97"/>
       <c r="B2" s="30" t="s">
         <v>354</v>
       </c>
@@ -13815,7 +13871,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A3" s="119"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="30" t="s">
         <v>356</v>
       </c>
@@ -13824,7 +13880,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A4" s="119"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="30" t="s">
         <v>357</v>
       </c>
@@ -13833,7 +13889,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="119"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="32" t="s">
         <v>359</v>
       </c>
@@ -13851,7 +13907,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="119"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="34" t="s">
         <v>363</v>
       </c>
@@ -13860,7 +13916,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="30" t="s">
         <v>365</v>
       </c>
@@ -13869,7 +13925,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="30" t="s">
         <v>366</v>
       </c>
@@ -13878,7 +13934,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="30" t="s">
         <v>368</v>
       </c>
@@ -13887,11 +13943,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="119"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="36"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="131" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="37" t="s">
@@ -13902,7 +13958,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="39" t="s">
         <v>371</v>
       </c>
@@ -13911,7 +13967,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="128"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="41" t="s">
         <v>372</v>
       </c>
@@ -13920,7 +13976,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="128"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="41" t="s">
         <v>373</v>
       </c>
@@ -13929,7 +13985,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="129"/>
+      <c r="A16" s="133"/>
       <c r="B16" s="42" t="s">
         <v>356</v>
       </c>
@@ -13938,15 +13994,15 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="36"/>
     </row>
     <row r="18" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="119"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="36"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="126" t="s">
         <v>375</v>
       </c>
       <c r="B19" s="44" t="s">
@@ -13957,7 +14013,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
+      <c r="A20" s="127"/>
       <c r="B20" s="45" t="s">
         <v>377</v>
       </c>
@@ -13966,7 +14022,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="45" t="s">
         <v>378</v>
       </c>
@@ -13975,7 +14031,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
+      <c r="A22" s="134"/>
       <c r="B22" s="45" t="s">
         <v>380</v>
       </c>
@@ -13984,7 +14040,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
+      <c r="A23" s="134"/>
       <c r="B23" s="45" t="s">
         <v>381</v>
       </c>
@@ -13993,7 +14049,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
+      <c r="A24" s="127"/>
       <c r="B24" s="45" t="s">
         <v>382</v>
       </c>
@@ -14002,7 +14058,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="45" t="s">
         <v>384</v>
       </c>
@@ -14011,7 +14067,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
+      <c r="A26" s="127"/>
       <c r="B26" s="45" t="s">
         <v>385</v>
       </c>
@@ -14020,7 +14076,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="45" t="s">
         <v>387</v>
       </c>
@@ -14029,7 +14085,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="133"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="47" t="s">
         <v>388</v>
       </c>
@@ -14038,15 +14094,15 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
+      <c r="A29" s="97"/>
       <c r="B29" s="36"/>
     </row>
     <row r="30" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="119"/>
+      <c r="A30" s="97"/>
       <c r="B30" s="36"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="130" t="s">
+      <c r="A31" s="126" t="s">
         <v>390</v>
       </c>
       <c r="B31" s="45" t="s">
@@ -14057,7 +14113,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="132"/>
+      <c r="A32" s="134"/>
       <c r="B32" s="45" t="s">
         <v>370</v>
       </c>
@@ -14066,7 +14122,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
+      <c r="A33" s="134"/>
       <c r="B33" s="45" t="s">
         <v>394</v>
       </c>
@@ -14075,7 +14131,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="131"/>
+      <c r="A34" s="127"/>
       <c r="B34" s="45" t="s">
         <v>372</v>
       </c>
@@ -14084,7 +14140,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="134"/>
+      <c r="A35" s="128"/>
       <c r="B35" s="45" t="s">
         <v>373</v>
       </c>
@@ -14093,15 +14149,15 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
+      <c r="A36" s="97"/>
       <c r="B36" s="36"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
+      <c r="A37" s="97"/>
       <c r="B37" s="36"/>
     </row>
     <row r="38" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A38" s="135" t="s">
+      <c r="A38" s="105" t="s">
         <v>396</v>
       </c>
       <c r="B38" s="30" t="s">
@@ -14112,7 +14168,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="135" t="s">
+      <c r="A39" s="105" t="s">
         <v>398</v>
       </c>
       <c r="B39" s="30" t="s">
@@ -14123,15 +14179,15 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
+      <c r="A40" s="97"/>
       <c r="B40" s="36"/>
     </row>
     <row r="41" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="119"/>
+      <c r="A41" s="97"/>
       <c r="B41" s="36"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="130" t="s">
+      <c r="A42" s="126" t="s">
         <v>401</v>
       </c>
       <c r="B42" s="30" t="s">
@@ -14142,7 +14198,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="134"/>
+      <c r="A43" s="128"/>
       <c r="B43" s="30" t="s">
         <v>402</v>
       </c>
@@ -14151,15 +14207,15 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
+      <c r="A44" s="97"/>
       <c r="B44" s="36"/>
     </row>
     <row r="45" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="119"/>
+      <c r="A45" s="97"/>
       <c r="B45" s="36"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="130" t="s">
+      <c r="A46" s="126" t="s">
         <v>404</v>
       </c>
       <c r="B46" s="30" t="s">
@@ -14170,7 +14226,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="131"/>
+      <c r="A47" s="127"/>
       <c r="B47" s="30" t="s">
         <v>407</v>
       </c>
@@ -14179,7 +14235,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="131"/>
+      <c r="A48" s="127"/>
       <c r="B48" s="30" t="s">
         <v>408</v>
       </c>
@@ -14188,7 +14244,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="131"/>
+      <c r="A49" s="127"/>
       <c r="B49" s="30" t="s">
         <v>410</v>
       </c>
@@ -14197,7 +14253,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="134"/>
+      <c r="A50" s="128"/>
       <c r="B50" s="30" t="s">
         <v>411</v>
       </c>
@@ -14206,15 +14262,15 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="119"/>
+      <c r="A51" s="97"/>
       <c r="B51" s="36"/>
     </row>
     <row r="52" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="119"/>
+      <c r="A52" s="97"/>
       <c r="B52" s="36"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="130" t="s">
+      <c r="A53" s="126" t="s">
         <v>412</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -14225,7 +14281,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="131"/>
+      <c r="A54" s="127"/>
       <c r="B54" s="30" t="s">
         <v>414</v>
       </c>
@@ -14234,7 +14290,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="134"/>
+      <c r="A55" s="128"/>
       <c r="B55" s="30" t="s">
         <v>416</v>
       </c>
@@ -14246,7 +14302,7 @@
       <c r="D117" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="140">
+      <c r="E117" s="109">
         <v>45194</v>
       </c>
     </row>
@@ -14348,7 +14404,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="103" t="s">
         <v>119</v>
       </c>
       <c r="B5" s="66" t="s">
@@ -14360,7 +14416,7 @@
       <c r="B6" s="64"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="104" t="s">
         <v>121</v>
       </c>
       <c r="B7" s="67" t="s">
@@ -14395,7 +14451,7 @@
       <c r="D117" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="139">
+      <c r="E117" s="108">
         <v>45194</v>
       </c>
     </row>
@@ -14403,7 +14459,7 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="121" t="s">
+      <c r="C122" s="99" t="s">
         <v>909</v>
       </c>
     </row>
@@ -14447,7 +14503,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14681,7 +14737,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="102" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -14833,7 +14889,7 @@
       <c r="D117" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="139">
+      <c r="E117" s="108">
         <v>45194</v>
       </c>
     </row>
@@ -14841,7 +14897,7 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="121" t="s">
+      <c r="C122" s="99" t="s">
         <v>909</v>
       </c>
     </row>
@@ -14939,17 +14995,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="136" t="s">
         <v>707</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="61" t="s">
@@ -14957,25 +15013,25 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="137" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="112"/>
+      <c r="A12" s="137"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="112"/>
+      <c r="A13" s="137"/>
     </row>
     <row r="14" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="112"/>
+      <c r="A14" s="137"/>
       <c r="B14" s="5"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="139">
+      <c r="E117" s="108">
         <v>45194</v>
       </c>
     </row>
@@ -14983,7 +15039,7 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="121" t="s">
+      <c r="C122" s="99" t="s">
         <v>909</v>
       </c>
     </row>

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A122807E-1324-4A2D-85B5-3477064EA3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94586D6F-4572-42EC-9884-0E35ABFECED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="923">
   <si>
     <t>Module</t>
   </si>
@@ -5101,12 +5101,6 @@
 The alternate calculation routine says, "ignore the 10% altogether. Instead, use an externally calculated 20%."  Then, you end up with a final value of $100 + (20% of $100) = $120. 
 Put them both together, and you could end up with $100 + (20% of $90) = $118. </t>
     </r>
-  </si>
-  <si>
-    <t>The value of this field states where the values of subtotals must be captured i.e. in which table and which field.
-Controls which fields condition amounts or subtotals (for instance, a customer discount or the cost of a material) are saved. 
-If the same fields are being utilized for storing the various condition amounts, the system adds the individual amounts.
-These condition amounts or subtotals are utilized as a starting point for performing further calculations. User may require a subtotal of all the discounts which are encompassed in the pricing of a sales order.</t>
   </si>
   <si>
     <t>The values of the Sales Deductions, Tax Revenues,  Sales Revenues, Freight Revenues and Rebate Accruals etc. are going to be posted in the respective G/L accounts in Fi Module.
@@ -5530,6 +5524,15 @@
   </si>
   <si>
     <t>Re-run the errored process item in the background</t>
+  </si>
+  <si>
+    <t>The value of this field states where the values of subtotals must be captured i.e. in which table and which field(KOMP-KZW1I)
+Controls which fields condition amounts or subtotals (for instance, a customer discount or the cost of a material) are saved. 
+If the same fields are being utilized for storing the various condition amounts, the system adds the individual amounts.
+These condition amounts or subtotals are utilized as a starting point for performing further calculations. User may require a subtotal of all the discounts which are encompassed in the pricing of a sales order.</t>
+  </si>
+  <si>
+    <t>Using the table called TPAR &amp; TPAER</t>
   </si>
 </sst>
 </file>
@@ -6051,7 +6054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6136,9 +6139,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6321,36 +6321,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -6365,6 +6336,36 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6414,7 +6415,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7702,71 +7702,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.7265625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.7265625" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="53"/>
+    <col min="1" max="1" width="20.453125" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.7265625" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.7265625" style="52" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="195.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>792</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="57" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>440</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="149.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="126.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="51" t="s">
         <v>447</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="56"/>
+      <c r="C7" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7778,7 +7778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62021A-965A-4299-8854-C66D43EE8F34}">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
@@ -7833,7 +7833,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="60" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7846,7 +7846,7 @@
       <c r="D117" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="108">
+      <c r="E117" s="107">
         <v>45194</v>
       </c>
     </row>
@@ -7854,13 +7854,13 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="99" t="s">
-        <v>909</v>
+      <c r="C122" s="98" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>455</v>
@@ -7869,18 +7869,18 @@
     </row>
     <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>455</v>
@@ -7897,7 +7897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3859DFB-17B5-474D-869D-DAD91F3CD285}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:V5"/>
     </sheetView>
   </sheetViews>
@@ -8050,7 +8050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDFA6AB-519B-401C-95C1-68F74041F3E1}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -8062,7 +8062,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>684</v>
       </c>
     </row>
@@ -8070,16 +8070,16 @@
       <c r="A2" s="21" t="s">
         <v>662</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>671</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="73" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>676</v>
       </c>
       <c r="C3" s="21" t="s">
@@ -8096,16 +8096,16 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="74" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="72" t="s">
         <v>677</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="74" t="s">
         <v>678</v>
       </c>
     </row>
@@ -8152,7 +8152,7 @@
       <c r="A12" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>681</v>
       </c>
       <c r="C12" s="21" t="s">
@@ -8161,7 +8161,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>679</v>
       </c>
       <c r="C13" s="21" t="s">
@@ -8170,7 +8170,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>682</v>
       </c>
       <c r="C14" s="21" t="s">
@@ -8178,12 +8178,12 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="62" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="71" t="s">
         <v>662</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -8200,7 +8200,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="74" t="s">
         <v>759</v>
       </c>
       <c r="C19" s="19"/>
@@ -8252,7 +8252,7 @@
       <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="62" t="s">
         <v>767</v>
       </c>
       <c r="B26" s="19"/>
@@ -8307,328 +8307,328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F62B76-A999-4491-9487-4664B67861D8}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88.6328125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="91.36328125" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.36328125" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" style="79" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>828</v>
+      <c r="A1" s="62" t="s">
+        <v>827</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>836</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>837</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
+        <v>861</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+      <c r="A10" s="89"/>
+      <c r="B10" s="73" t="s">
         <v>862</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="50" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
-      <c r="B10" s="74" t="s">
-        <v>863</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>876</v>
+      <c r="A11" s="45" t="s">
+        <v>875</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="s">
-        <v>835</v>
+      <c r="A13" s="62" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>840</v>
-      </c>
-      <c r="C14" s="80" t="s">
+        <v>839</v>
+      </c>
+      <c r="C14" s="79" t="s">
         <v>174</v>
       </c>
       <c r="D14" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>854</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>855</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>857</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="21" t="s">
         <v>858</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E16" s="21" t="s">
+        <v>857</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>858</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E17" s="21" t="s">
+        <v>857</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>858</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B18" s="26"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="B22" s="90" t="s">
         <v>847</v>
       </c>
-      <c r="B22" s="91" t="s">
-        <v>848</v>
-      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="91" t="s">
-        <v>851</v>
+      <c r="B23" s="90" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="69" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="70" t="s">
-        <v>850</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>892</v>
+      <c r="C25" s="79" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="70" t="s">
-        <v>852</v>
+      <c r="B26" s="69" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="70" t="s">
-        <v>853</v>
+      <c r="B28" s="69" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="26" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="88" t="s">
-        <v>865</v>
+      <c r="A37" s="87" t="s">
+        <v>864</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
+        <v>865</v>
+      </c>
+      <c r="B38" s="91" t="s">
+        <v>893</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>868</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="C39" s="73" t="s">
+        <v>869</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>866</v>
-      </c>
-      <c r="B38" s="92" t="s">
-        <v>894</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>869</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="C39" s="74" t="s">
-        <v>870</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C40" s="26" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="69" t="s">
+        <v>897</v>
+      </c>
+      <c r="C41" s="84" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="70" t="s">
-        <v>898</v>
-      </c>
-      <c r="C41" s="85" t="s">
+      <c r="D41" s="21" t="s">
         <v>872</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>873</v>
-      </c>
       <c r="E41" s="21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" s="21" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="69" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="79" t="s">
         <v>896</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="80" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="25" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -8705,7 +8705,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>780</v>
       </c>
     </row>
@@ -8788,7 +8788,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="59">
+      <c r="A3" s="58">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
@@ -8831,7 +8831,7 @@
       <c r="A1" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>602</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -8840,7 +8840,7 @@
       <c r="E1" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>602</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -8849,7 +8849,7 @@
       <c r="I1" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="60" t="s">
         <v>602</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -8857,7 +8857,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>599</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -9088,7 +9088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -9171,13 +9171,13 @@
       <c r="C8" s="141"/>
     </row>
     <row r="9" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="49" t="s">
         <v>82</v>
       </c>
     </row>
@@ -9231,13 +9231,13 @@
       <c r="C15" s="141"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="49" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9387,13 +9387,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.26953125" style="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.26953125" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.90625" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="115.81640625" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.90625" style="19" bestFit="1" customWidth="1"/>
@@ -9404,13 +9404,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>437</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="75" t="s">
         <v>451</v>
       </c>
       <c r="D1" s="21" t="s">
@@ -9433,13 +9433,13 @@
       <c r="C2" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="117" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="113">
+      <c r="E2" s="125">
         <v>44436</v>
       </c>
-      <c r="F2" s="116" t="s">
+      <c r="F2" s="121" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9450,26 +9450,26 @@
       <c r="B3" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="76" t="s">
         <v>775</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="94" t="s">
         <v>460</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="77" t="s">
         <v>455</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -9481,9 +9481,9 @@
       <c r="C5" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="112"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
     </row>
     <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
@@ -9495,9 +9495,9 @@
       <c r="C6" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -9509,9 +9509,9 @@
       <c r="C7" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -9520,12 +9520,12 @@
       <c r="B8" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9537,9 +9537,9 @@
       <c r="C9" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
@@ -9549,12 +9549,12 @@
       <c r="C10" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="94" t="s">
         <v>475</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -9563,12 +9563,12 @@
       <c r="C11" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="94" t="s">
         <v>476</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -9577,9 +9577,9 @@
       <c r="C12" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -9589,12 +9589,12 @@
         <v>463</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="94" t="s">
         <v>478</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -9603,9 +9603,9 @@
       <c r="C14" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -9617,9 +9617,9 @@
       <c r="C15" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -9631,9 +9631,9 @@
       <c r="C16" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -9645,86 +9645,86 @@
       <c r="C17" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
     </row>
     <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="94" t="s">
         <v>486</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="79" t="s">
         <v>777</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="94" t="s">
         <v>487</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="71" t="s">
         <v>463</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="112"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>455</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="112"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
     </row>
     <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="94" t="s">
         <v>491</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>455</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
     </row>
     <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="94" t="s">
         <v>493</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="71" t="s">
         <v>455</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="75"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="90" t="s">
         <v>495</v>
       </c>
       <c r="B24" s="24"/>
@@ -9740,16 +9740,16 @@
       <c r="B25" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="80" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="112" t="s">
+      <c r="D25" s="116" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="111" t="s">
+      <c r="E25" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="111" t="s">
+      <c r="F25" s="117" t="s">
         <v>500</v>
       </c>
     </row>
@@ -9760,15 +9760,15 @@
       <c r="B26" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="80" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="112"/>
-      <c r="E26" s="112"/>
-      <c r="F26" s="111"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="117"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="99" t="s">
         <v>503</v>
       </c>
       <c r="B27" s="21" t="s">
@@ -9777,9 +9777,9 @@
       <c r="C27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="111"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="117"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -9788,15 +9788,15 @@
       <c r="B28" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="112"/>
-      <c r="F28" s="111"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="117"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="99" t="s">
         <v>473</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -9805,26 +9805,26 @@
       <c r="C29" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="111"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="117"/>
     </row>
     <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="99" t="s">
         <v>506</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C30" s="68" t="s">
+      <c r="C30" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="111"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="99" t="s">
         <v>508</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -9833,9 +9833,9 @@
       <c r="C31" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="111"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="117"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -9844,12 +9844,12 @@
       <c r="B32" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="111"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="117"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
@@ -9858,12 +9858,12 @@
       <c r="B33" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="111"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="117"/>
     </row>
     <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
@@ -9872,27 +9872,27 @@
       <c r="B34" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C34" s="68" t="s">
+      <c r="C34" s="67" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="111"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="117"/>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="94" t="s">
         <v>516</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="67" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="84" t="s">
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="83" t="s">
         <v>595</v>
       </c>
     </row>
@@ -9903,12 +9903,12 @@
       <c r="B36" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="80" t="s">
         <v>520</v>
       </c>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="111"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="117"/>
       <c r="G36" s="19" t="s">
         <v>596</v>
       </c>
@@ -9920,26 +9920,26 @@
       <c r="B37" s="21" t="s">
         <v>522</v>
       </c>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="80" t="s">
         <v>523</v>
       </c>
-      <c r="D37" s="112"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="111"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="117"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="94" t="s">
         <v>524</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C38" s="81" t="s">
+      <c r="C38" s="80" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="112"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="111"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="117"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -9948,10 +9948,10 @@
       <c r="B39" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="111"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="117"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
@@ -9960,12 +9960,12 @@
       <c r="B40" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C40" s="81" t="s">
+      <c r="C40" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="111"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="117"/>
     </row>
     <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
@@ -9974,12 +9974,12 @@
       <c r="B41" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C41" s="68" t="s">
+      <c r="C41" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="111"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="117"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -9988,15 +9988,15 @@
       <c r="B42" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="112"/>
-      <c r="E42" s="112"/>
-      <c r="F42" s="111"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="117"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="91" t="s">
+      <c r="A44" s="90" t="s">
         <v>534</v>
       </c>
       <c r="B44" s="24"/>
@@ -10012,16 +10012,16 @@
       <c r="B45" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="84" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="116" t="s">
+      <c r="D45" s="121" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="117" t="s">
+      <c r="E45" s="118" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="116" t="s">
+      <c r="F45" s="121" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10032,12 +10032,12 @@
       <c r="B46" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="71" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="114"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="114"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="122"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
@@ -10046,12 +10046,12 @@
       <c r="B47" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="71" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="114"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="114"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="122"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -10060,10 +10060,10 @@
       <c r="B48" s="21" t="s">
         <v>532</v>
       </c>
-      <c r="C48" s="72"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="114"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="122"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
@@ -10072,12 +10072,12 @@
       <c r="B49" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C49" s="72" t="s">
+      <c r="C49" s="71" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="114"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="114"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="122"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
@@ -10086,12 +10086,12 @@
       <c r="B50" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C50" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="D50" s="114"/>
-      <c r="E50" s="118"/>
-      <c r="F50" s="114"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="122"/>
     </row>
     <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
@@ -10100,12 +10100,12 @@
       <c r="B51" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C51" s="85" t="s">
+      <c r="C51" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="D51" s="114"/>
-      <c r="E51" s="118"/>
-      <c r="F51" s="114"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="122"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -10114,10 +10114,10 @@
       <c r="B52" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C52" s="72"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="114"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="119"/>
+      <c r="F52" s="122"/>
     </row>
     <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
@@ -10126,12 +10126,12 @@
       <c r="B53" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C53" s="85" t="s">
+      <c r="C53" s="84" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="114"/>
-      <c r="E53" s="118"/>
-      <c r="F53" s="114"/>
+      <c r="D53" s="122"/>
+      <c r="E53" s="119"/>
+      <c r="F53" s="122"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
@@ -10140,10 +10140,10 @@
       <c r="B54" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="114"/>
-      <c r="E54" s="118"/>
-      <c r="F54" s="114"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="122"/>
     </row>
     <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
@@ -10152,15 +10152,15 @@
       <c r="B55" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="85" t="s">
         <v>778</v>
       </c>
-      <c r="D55" s="115"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="115"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="123"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="91"/>
+      <c r="A56" s="90"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
@@ -10174,14 +10174,14 @@
       <c r="B57" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="67" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="112" t="s">
+      <c r="D57" s="116" t="s">
         <v>557</v>
       </c>
-      <c r="E57" s="120"/>
-      <c r="F57" s="116" t="s">
+      <c r="E57" s="124"/>
+      <c r="F57" s="121" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10195,9 +10195,9 @@
       <c r="C58" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="112"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="114"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="122"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
@@ -10209,23 +10209,23 @@
       <c r="C59" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="112"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="114"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="122"/>
     </row>
     <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="100" t="s">
+      <c r="A60" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="B60" s="82" t="s">
+      <c r="B60" s="81" t="s">
         <v>463</v>
       </c>
-      <c r="C60" s="87" t="s">
+      <c r="C60" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D60" s="112"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="114"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="122"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
@@ -10237,9 +10237,9 @@
       <c r="C61" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D61" s="112"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="114"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="122"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
@@ -10251,12 +10251,12 @@
       <c r="C62" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="112"/>
-      <c r="E62" s="120"/>
-      <c r="F62" s="115"/>
+      <c r="D62" s="116"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="123"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="91"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
@@ -10273,29 +10273,29 @@
       <c r="C64" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="112" t="s">
+      <c r="D64" s="116" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="111" t="s">
+      <c r="E64" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="F64" s="111" t="s">
+      <c r="F64" s="117" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="100" t="s">
+      <c r="A65" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="B65" s="82" t="s">
+      <c r="B65" s="81" t="s">
         <v>463</v>
       </c>
-      <c r="C65" s="87" t="s">
+      <c r="C65" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D65" s="112"/>
-      <c r="E65" s="112"/>
-      <c r="F65" s="112"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
@@ -10307,9 +10307,9 @@
       <c r="C66" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="112"/>
+      <c r="D66" s="116"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="116"/>
     </row>
     <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -10321,9 +10321,9 @@
       <c r="C67" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="D67" s="112"/>
-      <c r="E67" s="112"/>
-      <c r="F67" s="112"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="116"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
@@ -10335,12 +10335,12 @@
       <c r="C68" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="112"/>
-      <c r="E68" s="112"/>
-      <c r="F68" s="112"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
@@ -10353,13 +10353,13 @@
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="117" t="s">
+      <c r="D70" s="118" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="117" t="s">
+      <c r="E70" s="118" t="s">
         <v>577</v>
       </c>
-      <c r="F70" s="116" t="s">
+      <c r="F70" s="121" t="s">
         <v>578</v>
       </c>
     </row>
@@ -10369,9 +10369,9 @@
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="118"/>
-      <c r="E71" s="118"/>
-      <c r="F71" s="114"/>
+      <c r="D71" s="119"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="122"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
@@ -10379,9 +10379,9 @@
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="118"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="114"/>
+      <c r="D72" s="119"/>
+      <c r="E72" s="119"/>
+      <c r="F72" s="122"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
@@ -10389,33 +10389,33 @@
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="119"/>
-      <c r="E73" s="119"/>
-      <c r="F73" s="115"/>
+      <c r="D73" s="120"/>
+      <c r="E73" s="120"/>
+      <c r="F73" s="123"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="123"/>
-      <c r="B74" s="124"/>
-      <c r="C74" s="124"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="125"/>
+      <c r="A74" s="113"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="114"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="115"/>
     </row>
     <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="100" t="s">
+      <c r="A75" s="99" t="s">
         <v>582</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C75" s="87" t="s">
+      <c r="C75" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D75" s="112"/>
-      <c r="E75" s="111" t="s">
+      <c r="D75" s="116"/>
+      <c r="E75" s="117" t="s">
         <v>583</v>
       </c>
-      <c r="F75" s="112" t="s">
+      <c r="F75" s="116" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10429,9 +10429,9 @@
       <c r="C76" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="112"/>
-      <c r="E76" s="112"/>
-      <c r="F76" s="112"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
@@ -10443,9 +10443,9 @@
       <c r="C77" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="112"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="112"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="116"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
@@ -10457,23 +10457,23 @@
       <c r="C78" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="112"/>
-      <c r="E78" s="112"/>
-      <c r="F78" s="112"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="116"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="100" t="s">
+      <c r="A79" s="99" t="s">
         <v>591</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C79" s="87" t="s">
+      <c r="C79" s="86" t="s">
         <v>592</v>
       </c>
-      <c r="D79" s="112"/>
-      <c r="E79" s="112"/>
-      <c r="F79" s="112"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
@@ -10490,7 +10490,7 @@
       <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="70"/>
+      <c r="A81" s="69"/>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
@@ -10498,12 +10498,12 @@
       <c r="F81" s="24"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="80" t="s">
+      <c r="A82" s="79" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="101" t="s">
+      <c r="A85" s="100" t="s">
         <v>794</v>
       </c>
     </row>
@@ -10517,13 +10517,13 @@
       <c r="C86" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="121" t="s">
+      <c r="D86" s="111" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="111" t="s">
+      <c r="E86" s="117" t="s">
         <v>652</v>
       </c>
-      <c r="F86" s="121" t="s">
+      <c r="F86" s="111" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10537,9 +10537,9 @@
       <c r="C87" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="D87" s="121"/>
-      <c r="E87" s="111"/>
-      <c r="F87" s="121"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="111"/>
     </row>
     <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
@@ -10551,9 +10551,9 @@
       <c r="C88" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="D88" s="121"/>
-      <c r="E88" s="111"/>
-      <c r="F88" s="121"/>
+      <c r="D88" s="111"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="111"/>
     </row>
     <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
@@ -10565,9 +10565,9 @@
       <c r="C89" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="D89" s="121"/>
-      <c r="E89" s="111"/>
-      <c r="F89" s="121"/>
+      <c r="D89" s="111"/>
+      <c r="E89" s="117"/>
+      <c r="F89" s="111"/>
     </row>
     <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
@@ -10579,9 +10579,9 @@
       <c r="C90" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="D90" s="121"/>
-      <c r="E90" s="111"/>
-      <c r="F90" s="121"/>
+      <c r="D90" s="111"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="111"/>
     </row>
     <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
@@ -10593,9 +10593,9 @@
       <c r="C91" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="D91" s="121"/>
-      <c r="E91" s="111"/>
-      <c r="F91" s="121"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
@@ -10607,9 +10607,9 @@
       <c r="C92" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="D92" s="121"/>
-      <c r="E92" s="111"/>
-      <c r="F92" s="121"/>
+      <c r="D92" s="111"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="111"/>
     </row>
     <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
@@ -10621,12 +10621,12 @@
       <c r="C93" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="D93" s="121"/>
-      <c r="E93" s="111"/>
-      <c r="F93" s="121"/>
+      <c r="D93" s="111"/>
+      <c r="E93" s="117"/>
+      <c r="F93" s="111"/>
     </row>
     <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="101" t="s">
+      <c r="A95" s="100" t="s">
         <v>793</v>
       </c>
     </row>
@@ -10638,13 +10638,13 @@
         <v>463</v>
       </c>
       <c r="C96" s="21"/>
-      <c r="D96" s="121" t="s">
+      <c r="D96" s="111" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="121" t="s">
+      <c r="E96" s="111" t="s">
         <v>809</v>
       </c>
-      <c r="F96" s="121" t="s">
+      <c r="F96" s="111" t="s">
         <v>812</v>
       </c>
     </row>
@@ -10658,23 +10658,23 @@
       <c r="C97" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="D97" s="121"/>
-      <c r="E97" s="121"/>
-      <c r="F97" s="121"/>
+      <c r="D97" s="111"/>
+      <c r="E97" s="111"/>
+      <c r="F97" s="111"/>
     </row>
     <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="87" t="s">
+      <c r="A98" s="86" t="s">
         <v>797</v>
       </c>
-      <c r="B98" s="87" t="s">
+      <c r="B98" s="86" t="s">
         <v>463</v>
       </c>
-      <c r="C98" s="87" t="s">
+      <c r="C98" s="86" t="s">
         <v>706</v>
       </c>
-      <c r="D98" s="121"/>
-      <c r="E98" s="121"/>
-      <c r="F98" s="121"/>
+      <c r="D98" s="111"/>
+      <c r="E98" s="111"/>
+      <c r="F98" s="111"/>
     </row>
     <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
@@ -10686,9 +10686,9 @@
       <c r="C99" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="D99" s="121"/>
-      <c r="E99" s="121"/>
-      <c r="F99" s="121"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="111"/>
     </row>
     <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
@@ -10698,11 +10698,11 @@
         <v>463</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>888</v>
-      </c>
-      <c r="D100" s="121"/>
-      <c r="E100" s="121"/>
-      <c r="F100" s="121"/>
+        <v>887</v>
+      </c>
+      <c r="D100" s="111"/>
+      <c r="E100" s="111"/>
+      <c r="F100" s="111"/>
     </row>
     <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
@@ -10714,9 +10714,9 @@
       <c r="C101" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="D101" s="121"/>
-      <c r="E101" s="121"/>
-      <c r="F101" s="121"/>
+      <c r="D101" s="111"/>
+      <c r="E101" s="111"/>
+      <c r="F101" s="111"/>
     </row>
     <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
@@ -10725,12 +10725,12 @@
       <c r="B102" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C102" s="80" t="s">
+      <c r="C102" s="79" t="s">
         <v>817</v>
       </c>
-      <c r="D102" s="121"/>
-      <c r="E102" s="121"/>
-      <c r="F102" s="121"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
@@ -10740,23 +10740,23 @@
         <v>463</v>
       </c>
       <c r="C103" s="21"/>
-      <c r="D103" s="121"/>
-      <c r="E103" s="121"/>
-      <c r="F103" s="121"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="111"/>
     </row>
     <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="87" t="s">
+      <c r="A104" s="86" t="s">
         <v>800</v>
       </c>
-      <c r="B104" s="87" t="s">
+      <c r="B104" s="86" t="s">
         <v>463</v>
       </c>
-      <c r="C104" s="87" t="s">
-        <v>889</v>
-      </c>
-      <c r="D104" s="121"/>
-      <c r="E104" s="121"/>
-      <c r="F104" s="121"/>
+      <c r="C104" s="86" t="s">
+        <v>888</v>
+      </c>
+      <c r="D104" s="111"/>
+      <c r="E104" s="111"/>
+      <c r="F104" s="111"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
@@ -10768,9 +10768,9 @@
       <c r="C105" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D105" s="121"/>
-      <c r="E105" s="121"/>
-      <c r="F105" s="121"/>
+      <c r="D105" s="111"/>
+      <c r="E105" s="111"/>
+      <c r="F105" s="111"/>
     </row>
     <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A106" s="26" t="s">
@@ -10782,25 +10782,25 @@
       <c r="C106" s="26" t="s">
         <v>820</v>
       </c>
-      <c r="D106" s="121"/>
-      <c r="E106" s="121"/>
-      <c r="F106" s="121"/>
+      <c r="D106" s="111"/>
+      <c r="E106" s="111"/>
+      <c r="F106" s="111"/>
     </row>
     <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="87" t="s">
+      <c r="A107" s="86" t="s">
         <v>801</v>
       </c>
-      <c r="B107" s="87" t="s">
+      <c r="B107" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="C107" s="87" t="s">
+      <c r="C107" s="86" t="s">
         <v>821</v>
       </c>
-      <c r="D107" s="121"/>
-      <c r="E107" s="121"/>
-      <c r="F107" s="121"/>
-    </row>
-    <row r="108" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="D107" s="111"/>
+      <c r="E107" s="111"/>
+      <c r="F107" s="111"/>
+    </row>
+    <row r="108" spans="1:6" ht="125" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>802</v>
       </c>
@@ -10810,23 +10810,23 @@
       <c r="C108" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="D108" s="121"/>
-      <c r="E108" s="121"/>
-      <c r="F108" s="121"/>
+      <c r="D108" s="111"/>
+      <c r="E108" s="111"/>
+      <c r="F108" s="111"/>
     </row>
     <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="87" t="s">
+      <c r="A109" s="86" t="s">
         <v>806</v>
       </c>
-      <c r="B109" s="87" t="s">
+      <c r="B109" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="C109" s="87" t="s">
+      <c r="C109" s="86" t="s">
         <v>823</v>
       </c>
-      <c r="D109" s="121"/>
-      <c r="E109" s="121"/>
-      <c r="F109" s="121"/>
+      <c r="D109" s="111"/>
+      <c r="E109" s="111"/>
+      <c r="F109" s="111"/>
     </row>
     <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
@@ -10835,12 +10835,12 @@
       <c r="B110" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="C110" s="89" t="s">
-        <v>824</v>
-      </c>
-      <c r="D110" s="121"/>
-      <c r="E110" s="121"/>
-      <c r="F110" s="121"/>
+      <c r="C110" s="88" t="s">
+        <v>921</v>
+      </c>
+      <c r="D110" s="111"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="111"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
@@ -10850,33 +10850,33 @@
         <v>455</v>
       </c>
       <c r="C111" s="21"/>
-      <c r="D111" s="121"/>
-      <c r="E111" s="121"/>
-      <c r="F111" s="121"/>
+      <c r="D111" s="111"/>
+      <c r="E111" s="111"/>
+      <c r="F111" s="111"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B112" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C112" s="21"/>
-      <c r="D112" s="121"/>
-      <c r="E112" s="121"/>
-      <c r="F112" s="121"/>
+      <c r="D112" s="111"/>
+      <c r="E112" s="111"/>
+      <c r="F112" s="111"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B113" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C113" s="21"/>
-      <c r="D113" s="121"/>
-      <c r="E113" s="121"/>
-      <c r="F113" s="121"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="26" t="s">
@@ -10885,153 +10885,173 @@
       <c r="B114" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C114" s="89" t="s">
-        <v>825</v>
-      </c>
-      <c r="D114" s="121"/>
-      <c r="E114" s="121"/>
-      <c r="F114" s="121"/>
+      <c r="C114" s="88" t="s">
+        <v>824</v>
+      </c>
+      <c r="D114" s="111"/>
+      <c r="E114" s="111"/>
+      <c r="F114" s="111"/>
     </row>
     <row r="116" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="101" t="s">
-        <v>899</v>
+      <c r="A116" s="100" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B117" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C117" s="96" t="s">
-        <v>903</v>
-      </c>
-      <c r="D117" s="121" t="s">
+      <c r="C117" s="95" t="s">
+        <v>902</v>
+      </c>
+      <c r="D117" s="111" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="122">
+      <c r="E117" s="112">
         <v>45194</v>
       </c>
-      <c r="F117" s="121" t="s">
+      <c r="F117" s="111" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="26" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B118" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C118" s="96" t="s">
-        <v>903</v>
-      </c>
-      <c r="D118" s="121"/>
-      <c r="E118" s="121"/>
-      <c r="F118" s="121"/>
+      <c r="C118" s="95" t="s">
+        <v>902</v>
+      </c>
+      <c r="D118" s="111"/>
+      <c r="E118" s="111"/>
+      <c r="F118" s="111"/>
     </row>
     <row r="119" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B119" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C119" s="96" t="s">
-        <v>903</v>
-      </c>
-      <c r="D119" s="121"/>
-      <c r="E119" s="121"/>
-      <c r="F119" s="121"/>
+      <c r="C119" s="95" t="s">
+        <v>902</v>
+      </c>
+      <c r="D119" s="111"/>
+      <c r="E119" s="111"/>
+      <c r="F119" s="111"/>
     </row>
     <row r="120" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B120" s="21" t="s">
         <v>517</v>
       </c>
       <c r="C120" s="26" t="s">
+        <v>904</v>
+      </c>
+      <c r="D120" s="111"/>
+      <c r="E120" s="111"/>
+      <c r="F120" s="111"/>
+    </row>
+    <row r="121" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="73" t="s">
         <v>905</v>
       </c>
-      <c r="D120" s="121"/>
-      <c r="E120" s="121"/>
-      <c r="F120" s="121"/>
-    </row>
-    <row r="121" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="74" t="s">
+      <c r="B121" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="C121" s="73" t="s">
         <v>906</v>
       </c>
-      <c r="B121" s="75" t="s">
-        <v>463</v>
-      </c>
-      <c r="C121" s="74" t="s">
-        <v>907</v>
-      </c>
-      <c r="D121" s="121"/>
-      <c r="E121" s="121"/>
-      <c r="F121" s="121"/>
+      <c r="D121" s="111"/>
+      <c r="E121" s="111"/>
+      <c r="F121" s="111"/>
     </row>
     <row r="122" spans="1:6" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B122" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="C122" s="89" t="s">
-        <v>909</v>
-      </c>
-      <c r="D122" s="121"/>
-      <c r="E122" s="121"/>
-      <c r="F122" s="121"/>
+      <c r="C122" s="88" t="s">
+        <v>908</v>
+      </c>
+      <c r="D122" s="111"/>
+      <c r="E122" s="111"/>
+      <c r="F122" s="111"/>
     </row>
     <row r="123" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B123" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="C123" s="21"/>
-      <c r="D123" s="121"/>
-      <c r="E123" s="121"/>
-      <c r="F123" s="121"/>
+      <c r="C123" s="21" t="s">
+        <v>922</v>
+      </c>
+      <c r="D123" s="111"/>
+      <c r="E123" s="111"/>
+      <c r="F123" s="111"/>
     </row>
     <row r="124" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B124" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>912</v>
-      </c>
-      <c r="D124" s="121"/>
-      <c r="E124" s="121"/>
-      <c r="F124" s="121"/>
+        <v>911</v>
+      </c>
+      <c r="D124" s="111"/>
+      <c r="E124" s="111"/>
+      <c r="F124" s="111"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C125" s="21"/>
-      <c r="D125" s="121"/>
-      <c r="E125" s="121"/>
-      <c r="F125" s="121"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="127" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="101" t="s">
+      <c r="A127" s="100" t="s">
         <v>534</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D2:D22"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="F25:F42"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="F45:F55"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
     <mergeCell ref="D117:D125"/>
     <mergeCell ref="E117:E125"/>
     <mergeCell ref="F117:F125"/>
@@ -11045,24 +11065,6 @@
     <mergeCell ref="D86:D93"/>
     <mergeCell ref="E86:E93"/>
     <mergeCell ref="F86:F93"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="F45:F55"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="D2:D22"/>
-    <mergeCell ref="E2:E22"/>
-    <mergeCell ref="F2:F22"/>
-    <mergeCell ref="D25:D42"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="F25:F42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
@@ -11117,8 +11119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9EA002-3826-45E0-AB6A-307795449AA6}">
   <dimension ref="A1:E409"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="74.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11129,10 +11131,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="69" t="s">
         <v>691</v>
       </c>
     </row>
@@ -11140,7 +11142,7 @@
       <c r="A2" s="26" t="s">
         <v>686</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>687</v>
       </c>
     </row>
@@ -11164,13 +11166,13 @@
       <c r="A5" s="26" t="s">
         <v>692</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="67" t="s">
         <v>518</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>595</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="50" t="s">
         <v>596</v>
       </c>
     </row>
@@ -11178,10 +11180,10 @@
       <c r="A6" s="26" t="s">
         <v>693</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="C6" s="51"/>
+      <c r="C6" s="50"/>
     </row>
     <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
@@ -11681,7 +11683,7 @@
       <c r="D117" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="110">
+      <c r="E117" s="109">
         <v>45194</v>
       </c>
     </row>
@@ -11698,19 +11700,19 @@
       <c r="B120" s="26"/>
     </row>
     <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="74"/>
-      <c r="B121" s="74"/>
+      <c r="A121" s="73"/>
+      <c r="B121" s="73"/>
     </row>
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="26"/>
       <c r="B122" s="26"/>
-      <c r="C122" s="99" t="s">
-        <v>909</v>
+      <c r="C122" s="98" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B123" s="26" t="s">
         <v>455</v>
@@ -11719,18 +11721,18 @@
     </row>
     <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B124" s="26" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B125" s="26" t="s">
         <v>455</v>
@@ -11738,8 +11740,8 @@
       <c r="C125" s="4"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="98"/>
-      <c r="B126" s="98"/>
+      <c r="A126" s="97"/>
+      <c r="B126" s="97"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="26"/>
@@ -12885,13 +12887,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5703F574-C88B-4291-BBA6-05D5382680CC}">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:K19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" style="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.08984375" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.1796875" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="19"/>
     <col min="4" max="4" width="15" style="19" bestFit="1" customWidth="1"/>
@@ -12901,14 +12903,14 @@
     <col min="8" max="8" width="26.26953125" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="19"/>
     <col min="10" max="10" width="5.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.90625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="45.26953125" style="19" customWidth="1"/>
     <col min="12" max="13" width="8.7265625" style="19"/>
     <col min="14" max="14" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="90" t="s">
         <v>241</v>
       </c>
       <c r="D1" s="24" t="s">
@@ -13124,15 +13126,15 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="70" t="s">
         <v>653</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="70" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="25" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="90" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="24" t="s">
@@ -13205,7 +13207,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>721</v>
       </c>
       <c r="D17" s="24" t="s">
@@ -13214,8 +13216,8 @@
       <c r="G17" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="J17" s="142" t="s">
-        <v>917</v>
+      <c r="J17" s="110" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -13238,10 +13240,10 @@
         <v>754</v>
       </c>
       <c r="J18" s="21" t="s">
+        <v>917</v>
+      </c>
+      <c r="K18" s="21" t="s">
         <v>918</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -13264,14 +13266,14 @@
         <v>755</v>
       </c>
       <c r="J19" s="21" t="s">
+        <v>919</v>
+      </c>
+      <c r="K19" s="21" t="s">
         <v>920</v>
       </c>
-      <c r="K19" s="21" t="s">
-        <v>921</v>
-      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="106" t="s">
         <v>745</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -13291,7 +13293,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="76" t="s">
         <v>638</v>
       </c>
       <c r="B21" s="21" t="s">
@@ -13302,7 +13304,7 @@
       <c r="D117" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="109">
+      <c r="E117" s="108">
         <v>45194</v>
       </c>
     </row>
@@ -13310,13 +13312,13 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="21"/>
-      <c r="C122" s="89" t="s">
-        <v>909</v>
+      <c r="C122" s="88" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B123" s="21" t="s">
         <v>455</v>
@@ -13325,18 +13327,18 @@
     </row>
     <row r="124" spans="1:5" ht="250" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B124" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>455</v>
@@ -13358,7 +13360,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="19"/>
     <col min="4" max="4" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
@@ -13376,7 +13378,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="105" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="18"/>
@@ -13535,7 +13537,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="105" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="20"/>
@@ -13636,14 +13638,14 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M12" s="21" t="s">
+        <v>889</v>
+      </c>
+      <c r="N12" s="21" t="s">
         <v>890</v>
       </c>
-      <c r="N12" s="21" t="s">
-        <v>891</v>
-      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="105" t="s">
         <v>218</v>
       </c>
       <c r="B13" s="21"/>
@@ -13754,7 +13756,7 @@
         <v>347</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -13765,10 +13767,10 @@
         <v>348</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>914</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>915</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -13791,7 +13793,7 @@
       <c r="D117" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="109">
+      <c r="E117" s="108">
         <v>45194</v>
       </c>
     </row>
@@ -13799,13 +13801,13 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="21"/>
-      <c r="C122" s="89" t="s">
-        <v>909</v>
+      <c r="C122" s="88" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B123" s="21" t="s">
         <v>455</v>
@@ -13814,18 +13816,18 @@
     </row>
     <row r="124" spans="1:5" ht="250" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B124" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>455</v>
@@ -13842,27 +13844,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0181675-3379-485E-B27D-5445AC0B1EDD}">
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.08984375" style="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.36328125" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="142.36328125" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="94"/>
+      <c r="A1" s="93"/>
       <c r="B1" s="129" t="s">
         <v>353</v>
       </c>
       <c r="C1" s="130"/>
     </row>
     <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A2" s="97"/>
+      <c r="A2" s="96"/>
       <c r="B2" s="30" t="s">
         <v>354</v>
       </c>
@@ -13871,7 +13873,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A3" s="97"/>
+      <c r="A3" s="96"/>
       <c r="B3" s="30" t="s">
         <v>356</v>
       </c>
@@ -13880,7 +13882,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="30" t="s">
         <v>357</v>
       </c>
@@ -13889,7 +13891,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="96"/>
       <c r="B5" s="32" t="s">
         <v>359</v>
       </c>
@@ -13898,7 +13900,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="33" t="s">
         <v>361</v>
       </c>
@@ -13907,7 +13909,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="97"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="34" t="s">
         <v>363</v>
       </c>
@@ -13916,7 +13918,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
+      <c r="A8" s="96"/>
       <c r="B8" s="30" t="s">
         <v>365</v>
       </c>
@@ -13925,7 +13927,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
+      <c r="A9" s="96"/>
       <c r="B9" s="30" t="s">
         <v>366</v>
       </c>
@@ -13934,78 +13936,78 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="67" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="97"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="132"/>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="132"/>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>372</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="132"/>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="40" t="s">
         <v>373</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="133"/>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="97"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="35"/>
     </row>
     <row r="18" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="97"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="126" t="s">
         <v>375</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>376</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -14014,7 +14016,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="127"/>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="44" t="s">
         <v>377</v>
       </c>
       <c r="C20" s="21" t="s">
@@ -14023,16 +14025,16 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="127"/>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="134"/>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>380</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -14041,7 +14043,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="134"/>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>381</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -14050,16 +14052,16 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="127"/>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="45" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="127"/>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="44" t="s">
         <v>384</v>
       </c>
       <c r="C25" s="21" t="s">
@@ -14068,7 +14070,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="127"/>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="44" t="s">
         <v>385</v>
       </c>
       <c r="C26" s="26" t="s">
@@ -14077,7 +14079,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="134"/>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="44" t="s">
         <v>387</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -14086,7 +14088,7 @@
     </row>
     <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="135"/>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="46" t="s">
         <v>388</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -14094,18 +14096,18 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="97"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="35"/>
     </row>
     <row r="30" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="97"/>
-      <c r="B30" s="36"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="35"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="126" t="s">
         <v>390</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="44" t="s">
         <v>391</v>
       </c>
       <c r="C31" s="21" t="s">
@@ -14114,25 +14116,25 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="134"/>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="47" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="134"/>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="127"/>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>372</v>
       </c>
       <c r="C34" s="26" t="s">
@@ -14141,7 +14143,7 @@
     </row>
     <row r="35" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="128"/>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="44" t="s">
         <v>373</v>
       </c>
       <c r="C35" s="26" t="s">
@@ -14149,15 +14151,15 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="97"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="35"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="97"/>
-      <c r="B37" s="36"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="35"/>
     </row>
     <row r="38" spans="1:3" ht="25" x14ac:dyDescent="0.25">
-      <c r="A38" s="105" t="s">
+      <c r="A38" s="104" t="s">
         <v>396</v>
       </c>
       <c r="B38" s="30" t="s">
@@ -14168,23 +14170,23 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="105" t="s">
+      <c r="A39" s="104" t="s">
         <v>398</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="47" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="97"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="35"/>
     </row>
     <row r="41" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="97"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="35"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="126" t="s">
@@ -14202,17 +14204,17 @@
       <c r="B43" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="47" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="97"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="96"/>
+      <c r="B44" s="35"/>
     </row>
     <row r="45" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="97"/>
-      <c r="B45" s="36"/>
+      <c r="A45" s="96"/>
+      <c r="B45" s="35"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="126" t="s">
@@ -14262,12 +14264,12 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="97"/>
-      <c r="B51" s="36"/>
+      <c r="A51" s="96"/>
+      <c r="B51" s="35"/>
     </row>
     <row r="52" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="97"/>
-      <c r="B52" s="36"/>
+      <c r="A52" s="96"/>
+      <c r="B52" s="35"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="126" t="s">
@@ -14285,7 +14287,7 @@
       <c r="B54" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="47" t="s">
         <v>415</v>
       </c>
     </row>
@@ -14294,7 +14296,7 @@
       <c r="B55" s="30" t="s">
         <v>416</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="47" t="s">
         <v>417</v>
       </c>
     </row>
@@ -14302,7 +14304,7 @@
       <c r="D117" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="109">
+      <c r="E117" s="108">
         <v>45194</v>
       </c>
     </row>
@@ -14310,13 +14312,13 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="21"/>
-      <c r="C122" s="89" t="s">
-        <v>909</v>
+      <c r="C122" s="88" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B123" s="21" t="s">
         <v>455</v>
@@ -14325,18 +14327,18 @@
     </row>
     <row r="124" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B124" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>455</v>
@@ -14372,78 +14374,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="65" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="66" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="70.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="63" t="s">
         <v>685</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>688</v>
       </c>
     </row>
@@ -14451,7 +14453,7 @@
       <c r="D117" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="108">
+      <c r="E117" s="107">
         <v>45194</v>
       </c>
     </row>
@@ -14459,13 +14461,13 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="99" t="s">
-        <v>909</v>
+      <c r="C122" s="98" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>455</v>
@@ -14474,18 +14476,18 @@
     </row>
     <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>455</v>
@@ -14659,7 +14661,7 @@
       <c r="G10" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="60" t="s">
         <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -14737,7 +14739,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="101" t="s">
         <v>109</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -14889,7 +14891,7 @@
       <c r="D117" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="108">
+      <c r="E117" s="107">
         <v>45194</v>
       </c>
     </row>
@@ -14897,13 +14899,13 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="99" t="s">
-        <v>909</v>
+      <c r="C122" s="98" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>455</v>
@@ -14912,18 +14914,18 @@
     </row>
     <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>455</v>
@@ -15008,7 +15010,7 @@
       <c r="I8" s="136"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="60" t="s">
         <v>201</v>
       </c>
     </row>
@@ -15031,7 +15033,7 @@
       <c r="D117" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="108">
+      <c r="E117" s="107">
         <v>45194</v>
       </c>
     </row>
@@ -15039,13 +15041,13 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="99" t="s">
-        <v>909</v>
+      <c r="C122" s="98" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>455</v>
@@ -15054,18 +15056,18 @@
     </row>
     <row r="124" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>455</v>

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94586D6F-4572-42EC-9884-0E35ABFECED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323ED01B-B094-4C9D-9F0B-8860AA3007ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="948">
   <si>
     <t>Module</t>
   </si>
@@ -5533,6 +5533,174 @@
   </si>
   <si>
     <t>Using the table called TPAR &amp; TPAER</t>
+  </si>
+  <si>
+    <t>What are the activities that will be done after cut-over activity?</t>
+  </si>
+  <si>
+    <t>Diff b/w requirements and Alternate condition base value</t>
+  </si>
+  <si>
+    <t>What are the 16 fields in pricing procedure</t>
+  </si>
+  <si>
+    <t>what are Account keys used for?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diff b/w Account keys &amp; Accruals </t>
+  </si>
+  <si>
+    <t>Explain Third-party drop ship process- Brief</t>
+  </si>
+  <si>
+    <t>Explain the Third-party drop ship process</t>
+  </si>
+  <si>
+    <t>1. Sales order will be placed.
+2. Item will be added with Item category TAS &amp; Schedule line CS, to trigger PR(viewed in ME53N)
+3. Purchasing officer will approve the PR to convert it into PO 
+4. PR to PO conversion will be done through (T-code: ME21N--&gt; Document overview on--&gt; My Purchase requistions --&gt; Drag &amp; drop our PR to Cart--&gt; Save) or use Tcode: ME59N for the automatic PO processing.
+5. We could see the address of the customer there, which is pulled from Sales order via PR to PO
+6. Goods receipt is not possible for 3rd-party drop-ship as we do not store the goods in our warehouse(No MIGO)
+7. Invoice receipt(MIRO) is done based on the purchase order/receipt. Purchase order history should update the invoice received from the vendor.
+(MIRO--&gt; Enter the PO number--&gt; enter the amount in header --&gt; Save)
+8. After this, go to VF03 for billing or VA02--&gt;sales document--&gt; Billing for Sales order invoice to customer</t>
+  </si>
+  <si>
+    <t>Hyper-care support</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Alternative Condition Base value :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Means, This is routine written by ABAPer to use some other base value to calculate the conditions. Eg. For discount conditions, we might apply the percentage to base price of the material to arrive at a value. Here, base price of the material is used as condition base value. Whereas, for freight conditions, we do not rely on base price condition value but we depend either on Gross/Net weight of the material which will not be available on the PP, so a routine is written to make use of either Gross weight(12)/Net weight(13) as the base value to calculate the Freight conditions. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Requirements:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+This is a routine written by ABAPer to activate the condition type based on some criteria. For example: Condition type for Intercompany(PI01 or PI02) will have a check-in for Statistical and Requirement: 22(activate only if order is cross-company- if plant belongs to other company code). It means the condition type will be inactive in standard pricing but gets activated in Intercompany pricing</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you seen the account entries for CF(631),  CI(633) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>631:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Distributor stock A/c --- Dr
+To Common Plant stock A/c ---CR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>633:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+COGS A/c ----- Dr
+To Distributor Stock A/c--- Cr</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct drop-shipment &amp; Third party drop-ship </t>
+  </si>
+  <si>
+    <t>What are the different types of  drop ship process</t>
+  </si>
+  <si>
+    <t>Invoice is created &amp; accounting document is not generated</t>
+  </si>
+  <si>
+    <t>1. Release to accounting
+2. Acc. Determination analysis</t>
+  </si>
+  <si>
+    <t>Movement types</t>
+  </si>
+  <si>
+    <t>OMJJ</t>
+  </si>
+  <si>
+    <t>MT controls(credit/debit)</t>
+  </si>
+  <si>
+    <t>OBYC</t>
+  </si>
+  <si>
+    <t>Automatic A/c determination</t>
+  </si>
+  <si>
+    <t>Configuration for STO: UB to NL link</t>
+  </si>
+  <si>
+    <t>SPRO--&gt; MM--&gt; Purchasing --&gt; PO --&gt; Setup STO --&gt; Config Delivery Type &amp; AC procedure by plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERB is the account key used for rebate processing and it is a sales deduction. ERU is the accurual key used in pricing for rebate processing it is used for difference in sales revenues.
+ERB is sales deduction and ERU is the accrual amount. Both amounts are same but posted to diff GL a/cs.
+</t>
+  </si>
+  <si>
+    <t>3rd Interview- 1st round</t>
   </si>
 </sst>
 </file>
@@ -6054,7 +6222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6322,6 +6490,43 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -6336,36 +6541,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6414,6 +6589,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7897,141 +8075,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3859DFB-17B5-474D-869D-DAD91F3CD285}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="139" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
     </row>
     <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="141" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="141"/>
+      <c r="O2" s="141"/>
+      <c r="P2" s="141"/>
+      <c r="Q2" s="141"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
     </row>
     <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="142" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
     </row>
     <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="140"/>
-      <c r="S4" s="140"/>
-      <c r="T4" s="140"/>
-      <c r="U4" s="140"/>
-      <c r="V4" s="140"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
     </row>
     <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="142" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="140"/>
-      <c r="U5" s="140"/>
-      <c r="V5" s="140"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9164,11 +9342,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
     </row>
     <row r="9" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
@@ -9224,11 +9402,11 @@
       <c r="C13" s="21"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="141"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
@@ -9385,10 +9563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9433,13 +9611,13 @@
       <c r="C2" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="114" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="125">
+      <c r="E2" s="116">
         <v>44436</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="119" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9453,9 +9631,9 @@
       <c r="C3" s="76" t="s">
         <v>775</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
@@ -9467,9 +9645,9 @@
       <c r="C4" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -9481,9 +9659,9 @@
       <c r="C5" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
     </row>
     <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
@@ -9495,9 +9673,9 @@
       <c r="C6" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -9509,9 +9687,9 @@
       <c r="C7" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -9523,9 +9701,9 @@
       <c r="C8" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9537,9 +9715,9 @@
       <c r="C9" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
@@ -9549,9 +9727,9 @@
       <c r="C10" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="s">
@@ -9563,9 +9741,9 @@
       <c r="C11" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="s">
@@ -9577,9 +9755,9 @@
       <c r="C12" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -9589,9 +9767,9 @@
         <v>463</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="s">
@@ -9603,9 +9781,9 @@
       <c r="C14" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -9617,9 +9795,9 @@
       <c r="C15" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -9631,9 +9809,9 @@
       <c r="C16" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -9645,9 +9823,9 @@
       <c r="C17" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
     </row>
     <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="s">
@@ -9659,9 +9837,9 @@
       <c r="C18" s="79" t="s">
         <v>777</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="s">
@@ -9673,9 +9851,9 @@
       <c r="C19" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -9687,9 +9865,9 @@
       <c r="C20" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
     </row>
     <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="s">
@@ -9701,9 +9879,9 @@
       <c r="C21" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
     </row>
     <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="s">
@@ -9715,9 +9893,9 @@
       <c r="C22" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="74"/>
@@ -9743,13 +9921,13 @@
       <c r="C25" s="80" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="115" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="117" t="s">
+      <c r="E25" s="114" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="117" t="s">
+      <c r="F25" s="114" t="s">
         <v>500</v>
       </c>
     </row>
@@ -9763,9 +9941,9 @@
       <c r="C26" s="80" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="117"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="114"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
@@ -9777,9 +9955,9 @@
       <c r="C27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="117"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="114"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -9791,9 +9969,9 @@
       <c r="C28" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="117"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="114"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
@@ -9805,9 +9983,9 @@
       <c r="C29" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="117"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="114"/>
     </row>
     <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
@@ -9819,9 +9997,9 @@
       <c r="C30" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="117"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="114"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
@@ -9833,9 +10011,9 @@
       <c r="C31" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="117"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="114"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -9847,9 +10025,9 @@
       <c r="C32" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="117"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="114"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
@@ -9861,9 +10039,9 @@
       <c r="C33" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="117"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
@@ -9875,23 +10053,23 @@
       <c r="C34" s="67" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="117"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="114"/>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="s">
         <v>516</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="111" t="s">
         <v>517</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="112" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="117"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="114"/>
       <c r="G35" s="83" t="s">
         <v>595</v>
       </c>
@@ -9906,9 +10084,9 @@
       <c r="C36" s="80" t="s">
         <v>520</v>
       </c>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="117"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="114"/>
       <c r="G36" s="19" t="s">
         <v>596</v>
       </c>
@@ -9923,9 +10101,9 @@
       <c r="C37" s="80" t="s">
         <v>523</v>
       </c>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="117"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="114"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -9937,9 +10115,9 @@
       <c r="C38" s="80" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="117"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="114"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -9949,9 +10127,9 @@
         <v>463</v>
       </c>
       <c r="C39" s="80"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="117"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="114"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
@@ -9963,9 +10141,9 @@
       <c r="C40" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="117"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="114"/>
     </row>
     <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
@@ -9977,9 +10155,9 @@
       <c r="C41" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="117"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="114"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -9991,9 +10169,9 @@
       <c r="C42" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="117"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="114"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
@@ -10015,13 +10193,13 @@
       <c r="C45" s="84" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="121" t="s">
+      <c r="D45" s="119" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="118" t="s">
+      <c r="E45" s="120" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="121" t="s">
+      <c r="F45" s="119" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10035,9 +10213,9 @@
       <c r="C46" s="71" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="122"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="122"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="117"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
@@ -10049,9 +10227,9 @@
       <c r="C47" s="71" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="122"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="122"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="117"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -10061,9 +10239,9 @@
         <v>532</v>
       </c>
       <c r="C48" s="71"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="122"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="117"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
@@ -10075,9 +10253,9 @@
       <c r="C49" s="71" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="122"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="122"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="117"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
@@ -10089,9 +10267,9 @@
       <c r="C50" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="D50" s="122"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="122"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="117"/>
     </row>
     <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
@@ -10103,9 +10281,9 @@
       <c r="C51" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="D51" s="122"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="122"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="117"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -10115,9 +10293,9 @@
         <v>455</v>
       </c>
       <c r="C52" s="71"/>
-      <c r="D52" s="122"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="122"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="117"/>
     </row>
     <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
@@ -10129,9 +10307,9 @@
       <c r="C53" s="84" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="122"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="122"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="117"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
@@ -10141,9 +10319,9 @@
         <v>455</v>
       </c>
       <c r="C54" s="71"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="122"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="121"/>
+      <c r="F54" s="117"/>
     </row>
     <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
@@ -10155,9 +10333,9 @@
       <c r="C55" s="85" t="s">
         <v>778</v>
       </c>
-      <c r="D55" s="123"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="123"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="118"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
@@ -10177,11 +10355,11 @@
       <c r="C57" s="67" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="116" t="s">
+      <c r="D57" s="115" t="s">
         <v>557</v>
       </c>
-      <c r="E57" s="124"/>
-      <c r="F57" s="121" t="s">
+      <c r="E57" s="123"/>
+      <c r="F57" s="119" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10195,9 +10373,9 @@
       <c r="C58" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="116"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="122"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="123"/>
+      <c r="F58" s="117"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
@@ -10209,9 +10387,9 @@
       <c r="C59" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="116"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="122"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="117"/>
     </row>
     <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
@@ -10223,9 +10401,9 @@
       <c r="C60" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D60" s="116"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="122"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="123"/>
+      <c r="F60" s="117"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
@@ -10237,9 +10415,9 @@
       <c r="C61" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D61" s="116"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="122"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="117"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
@@ -10251,9 +10429,9 @@
       <c r="C62" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="116"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="123"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="118"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
@@ -10273,13 +10451,13 @@
       <c r="C64" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="116" t="s">
+      <c r="D64" s="115" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="117" t="s">
+      <c r="E64" s="114" t="s">
         <v>570</v>
       </c>
-      <c r="F64" s="117" t="s">
+      <c r="F64" s="114" t="s">
         <v>571</v>
       </c>
     </row>
@@ -10293,9 +10471,9 @@
       <c r="C65" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D65" s="116"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
+      <c r="D65" s="115"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="115"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
@@ -10307,9 +10485,9 @@
       <c r="C66" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D66" s="116"/>
-      <c r="E66" s="116"/>
-      <c r="F66" s="116"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
     </row>
     <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -10321,9 +10499,9 @@
       <c r="C67" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="D67" s="116"/>
-      <c r="E67" s="116"/>
-      <c r="F67" s="116"/>
+      <c r="D67" s="115"/>
+      <c r="E67" s="115"/>
+      <c r="F67" s="115"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
@@ -10335,9 +10513,9 @@
       <c r="C68" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="116"/>
-      <c r="E68" s="116"/>
-      <c r="F68" s="116"/>
+      <c r="D68" s="115"/>
+      <c r="E68" s="115"/>
+      <c r="F68" s="115"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
@@ -10353,13 +10531,13 @@
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="118" t="s">
+      <c r="D70" s="120" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="118" t="s">
+      <c r="E70" s="120" t="s">
         <v>577</v>
       </c>
-      <c r="F70" s="121" t="s">
+      <c r="F70" s="119" t="s">
         <v>578</v>
       </c>
     </row>
@@ -10369,9 +10547,9 @@
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="119"/>
-      <c r="E71" s="119"/>
-      <c r="F71" s="122"/>
+      <c r="D71" s="121"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="117"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
@@ -10379,9 +10557,9 @@
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="119"/>
-      <c r="E72" s="119"/>
-      <c r="F72" s="122"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="121"/>
+      <c r="F72" s="117"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
@@ -10389,17 +10567,17 @@
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="120"/>
-      <c r="E73" s="120"/>
-      <c r="F73" s="123"/>
+      <c r="D73" s="122"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="118"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="113"/>
-      <c r="B74" s="114"/>
-      <c r="C74" s="114"/>
-      <c r="D74" s="114"/>
-      <c r="E74" s="114"/>
-      <c r="F74" s="115"/>
+      <c r="A74" s="126"/>
+      <c r="B74" s="127"/>
+      <c r="C74" s="127"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="127"/>
+      <c r="F74" s="128"/>
     </row>
     <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="99" t="s">
@@ -10411,11 +10589,11 @@
       <c r="C75" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D75" s="116"/>
-      <c r="E75" s="117" t="s">
+      <c r="D75" s="115"/>
+      <c r="E75" s="114" t="s">
         <v>583</v>
       </c>
-      <c r="F75" s="116" t="s">
+      <c r="F75" s="115" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10429,9 +10607,9 @@
       <c r="C76" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="116"/>
-      <c r="E76" s="116"/>
-      <c r="F76" s="116"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
@@ -10443,9 +10621,9 @@
       <c r="C77" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="116"/>
-      <c r="E77" s="116"/>
-      <c r="F77" s="116"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="115"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
@@ -10457,9 +10635,9 @@
       <c r="C78" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="116"/>
-      <c r="E78" s="116"/>
-      <c r="F78" s="116"/>
+      <c r="D78" s="115"/>
+      <c r="E78" s="115"/>
+      <c r="F78" s="115"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="99" t="s">
@@ -10471,9 +10649,9 @@
       <c r="C79" s="86" t="s">
         <v>592</v>
       </c>
-      <c r="D79" s="116"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="116"/>
+      <c r="D79" s="115"/>
+      <c r="E79" s="115"/>
+      <c r="F79" s="115"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
@@ -10517,13 +10695,13 @@
       <c r="C86" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="111" t="s">
+      <c r="D86" s="124" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="117" t="s">
+      <c r="E86" s="114" t="s">
         <v>652</v>
       </c>
-      <c r="F86" s="111" t="s">
+      <c r="F86" s="124" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10537,9 +10715,9 @@
       <c r="C87" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="D87" s="111"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="111"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="124"/>
     </row>
     <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
@@ -10551,9 +10729,9 @@
       <c r="C88" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="D88" s="111"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="111"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="124"/>
     </row>
     <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
@@ -10565,9 +10743,9 @@
       <c r="C89" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="D89" s="111"/>
-      <c r="E89" s="117"/>
-      <c r="F89" s="111"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="114"/>
+      <c r="F89" s="124"/>
     </row>
     <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
@@ -10579,9 +10757,9 @@
       <c r="C90" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="D90" s="111"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="111"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="114"/>
+      <c r="F90" s="124"/>
     </row>
     <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
@@ -10593,9 +10771,9 @@
       <c r="C91" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="D91" s="111"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="111"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="124"/>
     </row>
     <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
@@ -10607,9 +10785,9 @@
       <c r="C92" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="D92" s="111"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="111"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="114"/>
+      <c r="F92" s="124"/>
     </row>
     <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
@@ -10621,9 +10799,9 @@
       <c r="C93" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="D93" s="111"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="111"/>
+      <c r="D93" s="124"/>
+      <c r="E93" s="114"/>
+      <c r="F93" s="124"/>
     </row>
     <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A95" s="100" t="s">
@@ -10638,13 +10816,13 @@
         <v>463</v>
       </c>
       <c r="C96" s="21"/>
-      <c r="D96" s="111" t="s">
+      <c r="D96" s="124" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="111" t="s">
+      <c r="E96" s="124" t="s">
         <v>809</v>
       </c>
-      <c r="F96" s="111" t="s">
+      <c r="F96" s="124" t="s">
         <v>812</v>
       </c>
     </row>
@@ -10658,9 +10836,9 @@
       <c r="C97" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="D97" s="111"/>
-      <c r="E97" s="111"/>
-      <c r="F97" s="111"/>
+      <c r="D97" s="124"/>
+      <c r="E97" s="124"/>
+      <c r="F97" s="124"/>
     </row>
     <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A98" s="86" t="s">
@@ -10672,9 +10850,9 @@
       <c r="C98" s="86" t="s">
         <v>706</v>
       </c>
-      <c r="D98" s="111"/>
-      <c r="E98" s="111"/>
-      <c r="F98" s="111"/>
+      <c r="D98" s="124"/>
+      <c r="E98" s="124"/>
+      <c r="F98" s="124"/>
     </row>
     <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
@@ -10686,9 +10864,9 @@
       <c r="C99" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="D99" s="111"/>
-      <c r="E99" s="111"/>
-      <c r="F99" s="111"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="124"/>
+      <c r="F99" s="124"/>
     </row>
     <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
@@ -10700,9 +10878,9 @@
       <c r="C100" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="D100" s="111"/>
-      <c r="E100" s="111"/>
-      <c r="F100" s="111"/>
+      <c r="D100" s="124"/>
+      <c r="E100" s="124"/>
+      <c r="F100" s="124"/>
     </row>
     <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
@@ -10714,9 +10892,9 @@
       <c r="C101" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="D101" s="111"/>
-      <c r="E101" s="111"/>
-      <c r="F101" s="111"/>
+      <c r="D101" s="124"/>
+      <c r="E101" s="124"/>
+      <c r="F101" s="124"/>
     </row>
     <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
@@ -10728,9 +10906,9 @@
       <c r="C102" s="79" t="s">
         <v>817</v>
       </c>
-      <c r="D102" s="111"/>
-      <c r="E102" s="111"/>
-      <c r="F102" s="111"/>
+      <c r="D102" s="124"/>
+      <c r="E102" s="124"/>
+      <c r="F102" s="124"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
@@ -10740,9 +10918,9 @@
         <v>463</v>
       </c>
       <c r="C103" s="21"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="111"/>
+      <c r="D103" s="124"/>
+      <c r="E103" s="124"/>
+      <c r="F103" s="124"/>
     </row>
     <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A104" s="86" t="s">
@@ -10754,9 +10932,9 @@
       <c r="C104" s="86" t="s">
         <v>888</v>
       </c>
-      <c r="D104" s="111"/>
-      <c r="E104" s="111"/>
-      <c r="F104" s="111"/>
+      <c r="D104" s="124"/>
+      <c r="E104" s="124"/>
+      <c r="F104" s="124"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
@@ -10768,23 +10946,23 @@
       <c r="C105" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D105" s="111"/>
-      <c r="E105" s="111"/>
-      <c r="F105" s="111"/>
+      <c r="D105" s="124"/>
+      <c r="E105" s="124"/>
+      <c r="F105" s="124"/>
     </row>
     <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="94" t="s">
         <v>819</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B106" s="111" t="s">
         <v>517</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="94" t="s">
         <v>820</v>
       </c>
-      <c r="D106" s="111"/>
-      <c r="E106" s="111"/>
-      <c r="F106" s="111"/>
+      <c r="D106" s="124"/>
+      <c r="E106" s="124"/>
+      <c r="F106" s="124"/>
     </row>
     <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A107" s="86" t="s">
@@ -10796,11 +10974,11 @@
       <c r="C107" s="86" t="s">
         <v>821</v>
       </c>
-      <c r="D107" s="111"/>
-      <c r="E107" s="111"/>
-      <c r="F107" s="111"/>
-    </row>
-    <row r="108" spans="1:6" ht="125" x14ac:dyDescent="0.25">
+      <c r="D107" s="124"/>
+      <c r="E107" s="124"/>
+      <c r="F107" s="124"/>
+    </row>
+    <row r="108" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>802</v>
       </c>
@@ -10810,9 +10988,9 @@
       <c r="C108" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="D108" s="111"/>
-      <c r="E108" s="111"/>
-      <c r="F108" s="111"/>
+      <c r="D108" s="124"/>
+      <c r="E108" s="124"/>
+      <c r="F108" s="124"/>
     </row>
     <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="86" t="s">
@@ -10824,9 +11002,9 @@
       <c r="C109" s="86" t="s">
         <v>823</v>
       </c>
-      <c r="D109" s="111"/>
-      <c r="E109" s="111"/>
-      <c r="F109" s="111"/>
+      <c r="D109" s="124"/>
+      <c r="E109" s="124"/>
+      <c r="F109" s="124"/>
     </row>
     <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
@@ -10838,9 +11016,9 @@
       <c r="C110" s="88" t="s">
         <v>921</v>
       </c>
-      <c r="D110" s="111"/>
-      <c r="E110" s="111"/>
-      <c r="F110" s="111"/>
+      <c r="D110" s="124"/>
+      <c r="E110" s="124"/>
+      <c r="F110" s="124"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
@@ -10850,9 +11028,9 @@
         <v>455</v>
       </c>
       <c r="C111" s="21"/>
-      <c r="D111" s="111"/>
-      <c r="E111" s="111"/>
-      <c r="F111" s="111"/>
+      <c r="D111" s="124"/>
+      <c r="E111" s="124"/>
+      <c r="F111" s="124"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
@@ -10862,9 +11040,9 @@
         <v>455</v>
       </c>
       <c r="C112" s="21"/>
-      <c r="D112" s="111"/>
-      <c r="E112" s="111"/>
-      <c r="F112" s="111"/>
+      <c r="D112" s="124"/>
+      <c r="E112" s="124"/>
+      <c r="F112" s="124"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
@@ -10874,23 +11052,23 @@
         <v>455</v>
       </c>
       <c r="C113" s="21"/>
-      <c r="D113" s="111"/>
-      <c r="E113" s="111"/>
-      <c r="F113" s="111"/>
+      <c r="D113" s="124"/>
+      <c r="E113" s="124"/>
+      <c r="F113" s="124"/>
     </row>
     <row r="114" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="26" t="s">
+      <c r="A114" s="86" t="s">
         <v>811</v>
       </c>
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="86" t="s">
         <v>463</v>
       </c>
-      <c r="C114" s="88" t="s">
+      <c r="C114" s="86" t="s">
         <v>824</v>
       </c>
-      <c r="D114" s="111"/>
-      <c r="E114" s="111"/>
-      <c r="F114" s="111"/>
+      <c r="D114" s="124"/>
+      <c r="E114" s="124"/>
+      <c r="F114" s="124"/>
     </row>
     <row r="116" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A116" s="100" t="s">
@@ -10907,13 +11085,13 @@
       <c r="C117" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D117" s="111" t="s">
+      <c r="D117" s="124" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="112">
+      <c r="E117" s="125">
         <v>45194</v>
       </c>
-      <c r="F117" s="111" t="s">
+      <c r="F117" s="124" t="s">
         <v>812</v>
       </c>
     </row>
@@ -10927,9 +11105,9 @@
       <c r="C118" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D118" s="111"/>
-      <c r="E118" s="111"/>
-      <c r="F118" s="111"/>
+      <c r="D118" s="124"/>
+      <c r="E118" s="124"/>
+      <c r="F118" s="124"/>
     </row>
     <row r="119" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
@@ -10941,9 +11119,9 @@
       <c r="C119" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D119" s="111"/>
-      <c r="E119" s="111"/>
-      <c r="F119" s="111"/>
+      <c r="D119" s="124"/>
+      <c r="E119" s="124"/>
+      <c r="F119" s="124"/>
     </row>
     <row r="120" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
@@ -10955,9 +11133,9 @@
       <c r="C120" s="26" t="s">
         <v>904</v>
       </c>
-      <c r="D120" s="111"/>
-      <c r="E120" s="111"/>
-      <c r="F120" s="111"/>
+      <c r="D120" s="124"/>
+      <c r="E120" s="124"/>
+      <c r="F120" s="124"/>
     </row>
     <row r="121" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="73" t="s">
@@ -10969,9 +11147,9 @@
       <c r="C121" s="73" t="s">
         <v>906</v>
       </c>
-      <c r="D121" s="111"/>
-      <c r="E121" s="111"/>
-      <c r="F121" s="111"/>
+      <c r="D121" s="124"/>
+      <c r="E121" s="124"/>
+      <c r="F121" s="124"/>
     </row>
     <row r="122" spans="1:6" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
@@ -10983,9 +11161,9 @@
       <c r="C122" s="88" t="s">
         <v>908</v>
       </c>
-      <c r="D122" s="111"/>
-      <c r="E122" s="111"/>
-      <c r="F122" s="111"/>
+      <c r="D122" s="124"/>
+      <c r="E122" s="124"/>
+      <c r="F122" s="124"/>
     </row>
     <row r="123" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
@@ -10997,9 +11175,9 @@
       <c r="C123" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="D123" s="111"/>
-      <c r="E123" s="111"/>
-      <c r="F123" s="111"/>
+      <c r="D123" s="124"/>
+      <c r="E123" s="124"/>
+      <c r="F123" s="124"/>
     </row>
     <row r="124" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
@@ -11011,9 +11189,9 @@
       <c r="C124" s="26" t="s">
         <v>911</v>
       </c>
-      <c r="D124" s="111"/>
-      <c r="E124" s="111"/>
-      <c r="F124" s="111"/>
+      <c r="D124" s="124"/>
+      <c r="E124" s="124"/>
+      <c r="F124" s="124"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
@@ -11023,35 +11201,239 @@
         <v>455</v>
       </c>
       <c r="C125" s="21"/>
-      <c r="D125" s="111"/>
-      <c r="E125" s="111"/>
-      <c r="F125" s="111"/>
+      <c r="D125" s="124"/>
+      <c r="E125" s="124"/>
+      <c r="F125" s="124"/>
     </row>
     <row r="127" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A127" s="100" t="s">
-        <v>534</v>
-      </c>
+        <v>947</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="26" t="s">
+        <v>923</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>931</v>
+      </c>
+      <c r="D128" s="124" t="s">
+        <v>569</v>
+      </c>
+      <c r="E128" s="145">
+        <v>45203</v>
+      </c>
+      <c r="F128" s="124" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="137.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="26" t="s">
+        <v>924</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C129" s="88" t="s">
+        <v>932</v>
+      </c>
+      <c r="D129" s="124"/>
+      <c r="E129" s="124"/>
+      <c r="F129" s="124"/>
+    </row>
+    <row r="130" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="26" t="s">
+        <v>925</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C130" s="95" t="s">
+        <v>902</v>
+      </c>
+      <c r="D130" s="124"/>
+      <c r="E130" s="124"/>
+      <c r="F130" s="124"/>
+    </row>
+    <row r="131" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="26" t="s">
+        <v>926</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C131" s="95" t="s">
+        <v>902</v>
+      </c>
+      <c r="D131" s="124"/>
+      <c r="E131" s="124"/>
+      <c r="F131" s="124"/>
+    </row>
+    <row r="132" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="26" t="s">
+        <v>927</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C132" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="D132" s="124"/>
+      <c r="E132" s="124"/>
+      <c r="F132" s="124"/>
+    </row>
+    <row r="133" spans="1:6" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="D133" s="124"/>
+      <c r="E133" s="124"/>
+      <c r="F133" s="124"/>
+    </row>
+    <row r="134" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="26" t="s">
+        <v>900</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C134" s="95" t="s">
+        <v>902</v>
+      </c>
+      <c r="D134" s="124"/>
+      <c r="E134" s="124"/>
+      <c r="F134" s="124"/>
+    </row>
+    <row r="135" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="26" t="s">
+        <v>818</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C135" s="95" t="s">
+        <v>902</v>
+      </c>
+      <c r="D135" s="124"/>
+      <c r="E135" s="124"/>
+      <c r="F135" s="124"/>
+    </row>
+    <row r="136" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="26" t="s">
+        <v>819</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C136" s="95" t="s">
+        <v>902</v>
+      </c>
+      <c r="D136" s="124"/>
+      <c r="E136" s="124"/>
+      <c r="F136" s="124"/>
+    </row>
+    <row r="137" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="26" t="s">
+        <v>933</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>934</v>
+      </c>
+      <c r="D137" s="124"/>
+      <c r="E137" s="124"/>
+      <c r="F137" s="124"/>
+    </row>
+    <row r="138" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="26" t="s">
+        <v>928</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C138" s="95" t="s">
+        <v>902</v>
+      </c>
+      <c r="D138" s="124"/>
+      <c r="E138" s="124"/>
+      <c r="F138" s="124"/>
+    </row>
+    <row r="139" spans="1:6" ht="146" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="26" t="s">
+        <v>929</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C139" s="113" t="s">
+        <v>930</v>
+      </c>
+      <c r="D139" s="124"/>
+      <c r="E139" s="124"/>
+      <c r="F139" s="124"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="26" t="s">
+        <v>936</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>935</v>
+      </c>
+      <c r="D140" s="124"/>
+      <c r="E140" s="124"/>
+      <c r="F140" s="124"/>
+    </row>
+    <row r="141" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A141" s="26" t="s">
+        <v>937</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="C141" s="26" t="s">
+        <v>938</v>
+      </c>
+      <c r="D141" s="124"/>
+      <c r="E141" s="124"/>
+      <c r="F141" s="124"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="26" t="s">
+        <v>944</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>945</v>
+      </c>
+      <c r="D142" s="124"/>
+      <c r="E142" s="124"/>
+      <c r="F142" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D2:D22"/>
-    <mergeCell ref="E2:E22"/>
-    <mergeCell ref="F2:F22"/>
-    <mergeCell ref="D25:D42"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="F25:F42"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="F45:F55"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
+  <mergeCells count="37">
+    <mergeCell ref="D128:D136"/>
+    <mergeCell ref="E128:E136"/>
+    <mergeCell ref="F128:F136"/>
+    <mergeCell ref="D137:D142"/>
+    <mergeCell ref="E137:E142"/>
+    <mergeCell ref="F137:F142"/>
     <mergeCell ref="D117:D125"/>
     <mergeCell ref="E117:E125"/>
     <mergeCell ref="F117:F125"/>
@@ -11065,12 +11447,36 @@
     <mergeCell ref="D86:D93"/>
     <mergeCell ref="E86:E93"/>
     <mergeCell ref="F86:F93"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="F45:F55"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="D2:D22"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="F25:F42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
     <hyperlink ref="C117" location="Interview!A109" display="Refer above" xr:uid="{66F9D0BD-70E7-44F4-A074-958B1AA69ABA}"/>
     <hyperlink ref="C118" location="Interview!A104" display="Refer above" xr:uid="{0C6E1074-4B32-47E3-81C3-31545AA39C47}"/>
     <hyperlink ref="C119" location="Interview!A98" display="Refer above" xr:uid="{E69E5EE7-49BE-4707-857A-AF7EA954CBAA}"/>
+    <hyperlink ref="C130" location="Interview!A35" display="Refer above" xr:uid="{B7F165F3-716B-4E26-9812-9554AF5FB888}"/>
+    <hyperlink ref="C131" location="Interview!A114" display="Refer above" xr:uid="{89850CDF-45CC-4EBA-BC1E-81BA55F70452}"/>
+    <hyperlink ref="C134" location="Interview!A104" display="Refer above" xr:uid="{AB402E7B-6C4E-4413-BA37-CDAFE8C25D54}"/>
+    <hyperlink ref="C135" location="Interview!A105" display="Refer above" xr:uid="{ED35FD76-2AC3-4D98-B7A7-F7E93A4F3EFB}"/>
+    <hyperlink ref="C136" location="Interview!A106" display="Refer above" xr:uid="{68782239-DFCC-47E7-87D6-9A1DD51DF8E4}"/>
+    <hyperlink ref="C138" location="Interview!A98" display="Refer above" xr:uid="{9E61C24C-F189-4542-BAD8-C0600C79EAA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11119,8 +11525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9EA002-3826-45E0-AB6A-307795449AA6}">
   <dimension ref="A1:E409"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="74.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12887,8 +13293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5703F574-C88B-4291-BBA6-05D5382680CC}">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A25" sqref="A24:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13298,6 +13704,27 @@
       </c>
       <c r="B21" s="21" t="s">
         <v>744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="90" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>940</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>942</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -13858,10 +14285,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="93"/>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="132" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="130"/>
+      <c r="C1" s="133"/>
     </row>
     <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="96"/>
@@ -13949,7 +14376,7 @@
       <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="134" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -13960,7 +14387,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="38" t="s">
         <v>371</v>
       </c>
@@ -13969,7 +14396,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="40" t="s">
         <v>372</v>
       </c>
@@ -13978,7 +14405,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="132"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="40" t="s">
         <v>373</v>
       </c>
@@ -13987,7 +14414,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="133"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="41" t="s">
         <v>356</v>
       </c>
@@ -14004,7 +14431,7 @@
       <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="129" t="s">
         <v>375</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -14015,7 +14442,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="44" t="s">
         <v>377</v>
       </c>
@@ -14024,7 +14451,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="44" t="s">
         <v>378</v>
       </c>
@@ -14033,7 +14460,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="44" t="s">
         <v>380</v>
       </c>
@@ -14042,7 +14469,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="44" t="s">
         <v>381</v>
       </c>
@@ -14051,7 +14478,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
+      <c r="A24" s="130"/>
       <c r="B24" s="44" t="s">
         <v>382</v>
       </c>
@@ -14060,7 +14487,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
+      <c r="A25" s="130"/>
       <c r="B25" s="44" t="s">
         <v>384</v>
       </c>
@@ -14069,7 +14496,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
+      <c r="A26" s="130"/>
       <c r="B26" s="44" t="s">
         <v>385</v>
       </c>
@@ -14078,7 +14505,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="44" t="s">
         <v>387</v>
       </c>
@@ -14087,7 +14514,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="135"/>
+      <c r="A28" s="138"/>
       <c r="B28" s="46" t="s">
         <v>388</v>
       </c>
@@ -14104,7 +14531,7 @@
       <c r="B30" s="35"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="129" t="s">
         <v>390</v>
       </c>
       <c r="B31" s="44" t="s">
@@ -14115,7 +14542,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="134"/>
+      <c r="A32" s="137"/>
       <c r="B32" s="44" t="s">
         <v>370</v>
       </c>
@@ -14124,7 +14551,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="134"/>
+      <c r="A33" s="137"/>
       <c r="B33" s="44" t="s">
         <v>394</v>
       </c>
@@ -14133,7 +14560,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
+      <c r="A34" s="130"/>
       <c r="B34" s="44" t="s">
         <v>372</v>
       </c>
@@ -14142,7 +14569,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="128"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="44" t="s">
         <v>373</v>
       </c>
@@ -14189,7 +14616,7 @@
       <c r="B41" s="35"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="126" t="s">
+      <c r="A42" s="129" t="s">
         <v>401</v>
       </c>
       <c r="B42" s="30" t="s">
@@ -14200,7 +14627,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="128"/>
+      <c r="A43" s="131"/>
       <c r="B43" s="30" t="s">
         <v>402</v>
       </c>
@@ -14217,7 +14644,7 @@
       <c r="B45" s="35"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="126" t="s">
+      <c r="A46" s="129" t="s">
         <v>404</v>
       </c>
       <c r="B46" s="30" t="s">
@@ -14228,7 +14655,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="127"/>
+      <c r="A47" s="130"/>
       <c r="B47" s="30" t="s">
         <v>407</v>
       </c>
@@ -14237,7 +14664,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="127"/>
+      <c r="A48" s="130"/>
       <c r="B48" s="30" t="s">
         <v>408</v>
       </c>
@@ -14246,7 +14673,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="127"/>
+      <c r="A49" s="130"/>
       <c r="B49" s="30" t="s">
         <v>410</v>
       </c>
@@ -14255,7 +14682,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="128"/>
+      <c r="A50" s="131"/>
       <c r="B50" s="30" t="s">
         <v>411</v>
       </c>
@@ -14272,7 +14699,7 @@
       <c r="B52" s="35"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="126" t="s">
+      <c r="A53" s="129" t="s">
         <v>412</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -14283,7 +14710,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="127"/>
+      <c r="A54" s="130"/>
       <c r="B54" s="30" t="s">
         <v>414</v>
       </c>
@@ -14292,7 +14719,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="128"/>
+      <c r="A55" s="131"/>
       <c r="B55" s="30" t="s">
         <v>416</v>
       </c>
@@ -14944,7 +15371,7 @@
   <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+      <selection activeCell="A8" sqref="A8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14997,17 +15424,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="136" t="s">
+      <c r="A8" s="139" t="s">
         <v>707</v>
       </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
@@ -15015,18 +15442,18 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="140" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="137"/>
+      <c r="A12" s="140"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="137"/>
+      <c r="A13" s="140"/>
     </row>
     <row r="14" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="137"/>
+      <c r="A14" s="140"/>
       <c r="B14" s="5"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323ED01B-B094-4C9D-9F0B-8860AA3007ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1918D24-A197-4520-886E-091B4092F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="965">
   <si>
     <t>Module</t>
   </si>
@@ -5701,6 +5701,75 @@
   </si>
   <si>
     <t>3rd Interview- 1st round</t>
+  </si>
+  <si>
+    <t>3rd Interview- 2nd round</t>
+  </si>
+  <si>
+    <t>How will the system know if it has to pull the stock from retailer location ?</t>
+  </si>
+  <si>
+    <t>Based on Movement type-633</t>
+  </si>
+  <si>
+    <t>When will material &amp; accounting document generated for consignment processes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>Based on billing document for CI &amp; CR</t>
+  </si>
+  <si>
+    <t>There is a requirement for the client to procure particular material externally only if it is not available in the requested delivery date.</t>
+  </si>
+  <si>
+    <t>Tell the configuration to achieve it</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>VOV4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SD(OR) + Item category group(NORM): Item category (TAS)(Manual Item category)</t>
+    </r>
+  </si>
+  <si>
+    <t>Explain what is to be done in Blueprint preparation phase?</t>
+  </si>
+  <si>
+    <t>Have you done any conversion in cut-over activities?</t>
+  </si>
+  <si>
+    <t>In the current, what is the most difficult enhancement you have done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Explain Amazon ORDRSP enhancement</t>
+  </si>
+  <si>
+    <t>In this phase you create a blueprint using the Question &amp; Answer database (Q&amp;Adb), which documents your enterprises requirements and establishes how your business processes and organizational structure are to be represented in the SAP System. You also refine the original project goals and objectives and revise the overall project schedule in this phase. To get in details of it, AS-IS &amp; TO-BE documentation. GAP analysis, put it in WRICEF, document it. Get it verified from Business and proceed further.</t>
+  </si>
+  <si>
+    <t>4th Interview- 1st round</t>
+  </si>
+  <si>
+    <t>How will you migrate S4 HANA Bp as same as ECC Bp?</t>
   </si>
 </sst>
 </file>
@@ -6222,7 +6291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6497,35 +6566,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
@@ -6540,6 +6600,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6589,9 +6679,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8082,134 +8169,134 @@
   <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="146" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
     </row>
     <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="148" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
     </row>
     <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="149" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
     </row>
     <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
     </row>
     <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="149" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="143"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="143"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="150"/>
+      <c r="R5" s="150"/>
+      <c r="S5" s="150"/>
+      <c r="T5" s="150"/>
+      <c r="U5" s="150"/>
+      <c r="V5" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9342,11 +9429,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
     </row>
     <row r="9" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
@@ -9402,11 +9489,11 @@
       <c r="C13" s="21"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
@@ -9563,10 +9650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9611,13 +9698,13 @@
       <c r="C2" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="127" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="116">
+      <c r="E2" s="134">
         <v>44436</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="131" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9631,9 +9718,9 @@
       <c r="C3" s="76" t="s">
         <v>775</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
@@ -9645,9 +9732,9 @@
       <c r="C4" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -9659,9 +9746,9 @@
       <c r="C5" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
@@ -9673,9 +9760,9 @@
       <c r="C6" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -9687,9 +9774,9 @@
       <c r="C7" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -9701,9 +9788,9 @@
       <c r="C8" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9715,9 +9802,9 @@
       <c r="C9" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
@@ -9727,9 +9814,9 @@
       <c r="C10" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="s">
@@ -9741,9 +9828,9 @@
       <c r="C11" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="s">
@@ -9755,9 +9842,9 @@
       <c r="C12" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -9767,9 +9854,9 @@
         <v>463</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="s">
@@ -9781,9 +9868,9 @@
       <c r="C14" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -9795,9 +9882,9 @@
       <c r="C15" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -9809,9 +9896,9 @@
       <c r="C16" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -9823,9 +9910,9 @@
       <c r="C17" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
     </row>
     <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="s">
@@ -9837,9 +9924,9 @@
       <c r="C18" s="79" t="s">
         <v>777</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="s">
@@ -9851,9 +9938,9 @@
       <c r="C19" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -9865,9 +9952,9 @@
       <c r="C20" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="115"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
     </row>
     <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="s">
@@ -9879,9 +9966,9 @@
       <c r="C21" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="115"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
     </row>
     <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="s">
@@ -9893,9 +9980,9 @@
       <c r="C22" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="74"/>
@@ -9921,13 +10008,13 @@
       <c r="C25" s="80" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="126" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="114" t="s">
+      <c r="E25" s="127" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="114" t="s">
+      <c r="F25" s="127" t="s">
         <v>500</v>
       </c>
     </row>
@@ -9941,9 +10028,9 @@
       <c r="C26" s="80" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="114"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
@@ -9955,9 +10042,9 @@
       <c r="C27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="114"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -9969,9 +10056,9 @@
       <c r="C28" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="114"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
@@ -9983,9 +10070,9 @@
       <c r="C29" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="114"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
     </row>
     <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
@@ -9997,9 +10084,9 @@
       <c r="C30" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="114"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="127"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
@@ -10011,9 +10098,9 @@
       <c r="C31" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="114"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -10025,9 +10112,9 @@
       <c r="C32" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="114"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
@@ -10039,9 +10126,9 @@
       <c r="C33" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="114"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
     </row>
     <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
@@ -10053,9 +10140,9 @@
       <c r="C34" s="67" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="114"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="127"/>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="s">
@@ -10067,9 +10154,9 @@
       <c r="C35" s="112" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="114"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="127"/>
       <c r="G35" s="83" t="s">
         <v>595</v>
       </c>
@@ -10084,9 +10171,9 @@
       <c r="C36" s="80" t="s">
         <v>520</v>
       </c>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="114"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="127"/>
       <c r="G36" s="19" t="s">
         <v>596</v>
       </c>
@@ -10101,9 +10188,9 @@
       <c r="C37" s="80" t="s">
         <v>523</v>
       </c>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="114"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="127"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -10115,9 +10202,9 @@
       <c r="C38" s="80" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="114"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="127"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -10127,9 +10214,9 @@
         <v>463</v>
       </c>
       <c r="C39" s="80"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="114"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="127"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
@@ -10141,9 +10228,9 @@
       <c r="C40" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="114"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="127"/>
     </row>
     <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
@@ -10155,9 +10242,9 @@
       <c r="C41" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="114"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="127"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -10169,9 +10256,9 @@
       <c r="C42" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="114"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="127"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
@@ -10193,13 +10280,13 @@
       <c r="C45" s="84" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="119" t="s">
+      <c r="D45" s="131" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="120" t="s">
+      <c r="E45" s="128" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="119" t="s">
+      <c r="F45" s="131" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10213,9 +10300,9 @@
       <c r="C46" s="71" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="117"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="117"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="132"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
@@ -10227,9 +10314,9 @@
       <c r="C47" s="71" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="117"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="117"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="132"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -10239,9 +10326,9 @@
         <v>532</v>
       </c>
       <c r="C48" s="71"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="117"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="132"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
@@ -10253,9 +10340,9 @@
       <c r="C49" s="71" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="117"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="117"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="132"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
@@ -10267,9 +10354,9 @@
       <c r="C50" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="D50" s="117"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="117"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="132"/>
     </row>
     <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
@@ -10281,9 +10368,9 @@
       <c r="C51" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="D51" s="117"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="117"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="132"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -10293,9 +10380,9 @@
         <v>455</v>
       </c>
       <c r="C52" s="71"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="117"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="132"/>
     </row>
     <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
@@ -10307,9 +10394,9 @@
       <c r="C53" s="84" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="117"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="117"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="132"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
@@ -10319,9 +10406,9 @@
         <v>455</v>
       </c>
       <c r="C54" s="71"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="121"/>
-      <c r="F54" s="117"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="132"/>
     </row>
     <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
@@ -10333,9 +10420,9 @@
       <c r="C55" s="85" t="s">
         <v>778</v>
       </c>
-      <c r="D55" s="118"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="118"/>
+      <c r="D55" s="133"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="133"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
@@ -10355,11 +10442,11 @@
       <c r="C57" s="67" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="115" t="s">
+      <c r="D57" s="126" t="s">
         <v>557</v>
       </c>
-      <c r="E57" s="123"/>
-      <c r="F57" s="119" t="s">
+      <c r="E57" s="135"/>
+      <c r="F57" s="131" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10373,9 +10460,9 @@
       <c r="C58" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="115"/>
-      <c r="E58" s="123"/>
-      <c r="F58" s="117"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="132"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
@@ -10387,9 +10474,9 @@
       <c r="C59" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="115"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="117"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="132"/>
     </row>
     <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
@@ -10401,9 +10488,9 @@
       <c r="C60" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D60" s="115"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="117"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="132"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
@@ -10415,9 +10502,9 @@
       <c r="C61" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D61" s="115"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="117"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="132"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
@@ -10429,9 +10516,9 @@
       <c r="C62" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="115"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="118"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="133"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
@@ -10451,13 +10538,13 @@
       <c r="C64" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="115" t="s">
+      <c r="D64" s="126" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="114" t="s">
+      <c r="E64" s="127" t="s">
         <v>570</v>
       </c>
-      <c r="F64" s="114" t="s">
+      <c r="F64" s="127" t="s">
         <v>571</v>
       </c>
     </row>
@@ -10471,9 +10558,9 @@
       <c r="C65" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D65" s="115"/>
-      <c r="E65" s="115"/>
-      <c r="F65" s="115"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
@@ -10485,9 +10572,9 @@
       <c r="C66" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D66" s="115"/>
-      <c r="E66" s="115"/>
-      <c r="F66" s="115"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
     </row>
     <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -10499,9 +10586,9 @@
       <c r="C67" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="D67" s="115"/>
-      <c r="E67" s="115"/>
-      <c r="F67" s="115"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
@@ -10513,9 +10600,9 @@
       <c r="C68" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="115"/>
-      <c r="E68" s="115"/>
-      <c r="F68" s="115"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
@@ -10531,13 +10618,13 @@
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="120" t="s">
+      <c r="D70" s="128" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="120" t="s">
+      <c r="E70" s="128" t="s">
         <v>577</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="131" t="s">
         <v>578</v>
       </c>
     </row>
@@ -10547,9 +10634,9 @@
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="121"/>
-      <c r="E71" s="121"/>
-      <c r="F71" s="117"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="129"/>
+      <c r="F71" s="132"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
@@ -10557,9 +10644,9 @@
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="121"/>
-      <c r="E72" s="121"/>
-      <c r="F72" s="117"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="132"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
@@ -10567,17 +10654,17 @@
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="122"/>
-      <c r="E73" s="122"/>
-      <c r="F73" s="118"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="133"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="126"/>
-      <c r="B74" s="127"/>
-      <c r="C74" s="127"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="127"/>
-      <c r="F74" s="128"/>
+      <c r="A74" s="123"/>
+      <c r="B74" s="124"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="125"/>
     </row>
     <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="99" t="s">
@@ -10589,11 +10676,11 @@
       <c r="C75" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D75" s="115"/>
-      <c r="E75" s="114" t="s">
+      <c r="D75" s="126"/>
+      <c r="E75" s="127" t="s">
         <v>583</v>
       </c>
-      <c r="F75" s="115" t="s">
+      <c r="F75" s="126" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10607,9 +10694,9 @@
       <c r="C76" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="115"/>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
@@ -10621,9 +10708,9 @@
       <c r="C77" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="115"/>
-      <c r="E77" s="115"/>
-      <c r="F77" s="115"/>
+      <c r="D77" s="126"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="126"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
@@ -10635,9 +10722,9 @@
       <c r="C78" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="115"/>
-      <c r="E78" s="115"/>
-      <c r="F78" s="115"/>
+      <c r="D78" s="126"/>
+      <c r="E78" s="126"/>
+      <c r="F78" s="126"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="99" t="s">
@@ -10649,9 +10736,9 @@
       <c r="C79" s="86" t="s">
         <v>592</v>
       </c>
-      <c r="D79" s="115"/>
-      <c r="E79" s="115"/>
-      <c r="F79" s="115"/>
+      <c r="D79" s="126"/>
+      <c r="E79" s="126"/>
+      <c r="F79" s="126"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
@@ -10695,13 +10782,13 @@
       <c r="C86" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="124" t="s">
+      <c r="D86" s="121" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="114" t="s">
+      <c r="E86" s="127" t="s">
         <v>652</v>
       </c>
-      <c r="F86" s="124" t="s">
+      <c r="F86" s="121" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10715,9 +10802,9 @@
       <c r="C87" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="D87" s="124"/>
-      <c r="E87" s="114"/>
-      <c r="F87" s="124"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="121"/>
     </row>
     <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
@@ -10729,9 +10816,9 @@
       <c r="C88" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="D88" s="124"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="124"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="121"/>
     </row>
     <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
@@ -10743,9 +10830,9 @@
       <c r="C89" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="D89" s="124"/>
-      <c r="E89" s="114"/>
-      <c r="F89" s="124"/>
+      <c r="D89" s="121"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="121"/>
     </row>
     <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
@@ -10757,9 +10844,9 @@
       <c r="C90" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="D90" s="124"/>
-      <c r="E90" s="114"/>
-      <c r="F90" s="124"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="121"/>
     </row>
     <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
@@ -10771,9 +10858,9 @@
       <c r="C91" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="D91" s="124"/>
-      <c r="E91" s="114"/>
-      <c r="F91" s="124"/>
+      <c r="D91" s="121"/>
+      <c r="E91" s="127"/>
+      <c r="F91" s="121"/>
     </row>
     <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
@@ -10785,9 +10872,9 @@
       <c r="C92" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="D92" s="124"/>
-      <c r="E92" s="114"/>
-      <c r="F92" s="124"/>
+      <c r="D92" s="121"/>
+      <c r="E92" s="127"/>
+      <c r="F92" s="121"/>
     </row>
     <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
@@ -10799,9 +10886,9 @@
       <c r="C93" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="D93" s="124"/>
-      <c r="E93" s="114"/>
-      <c r="F93" s="124"/>
+      <c r="D93" s="121"/>
+      <c r="E93" s="127"/>
+      <c r="F93" s="121"/>
     </row>
     <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A95" s="100" t="s">
@@ -10816,13 +10903,13 @@
         <v>463</v>
       </c>
       <c r="C96" s="21"/>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="121" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="124" t="s">
+      <c r="E96" s="121" t="s">
         <v>809</v>
       </c>
-      <c r="F96" s="124" t="s">
+      <c r="F96" s="121" t="s">
         <v>812</v>
       </c>
     </row>
@@ -10836,9 +10923,9 @@
       <c r="C97" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="D97" s="124"/>
-      <c r="E97" s="124"/>
-      <c r="F97" s="124"/>
+      <c r="D97" s="121"/>
+      <c r="E97" s="121"/>
+      <c r="F97" s="121"/>
     </row>
     <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A98" s="86" t="s">
@@ -10850,9 +10937,9 @@
       <c r="C98" s="86" t="s">
         <v>706</v>
       </c>
-      <c r="D98" s="124"/>
-      <c r="E98" s="124"/>
-      <c r="F98" s="124"/>
+      <c r="D98" s="121"/>
+      <c r="E98" s="121"/>
+      <c r="F98" s="121"/>
     </row>
     <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
@@ -10864,9 +10951,9 @@
       <c r="C99" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="D99" s="124"/>
-      <c r="E99" s="124"/>
-      <c r="F99" s="124"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
     </row>
     <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
@@ -10878,9 +10965,9 @@
       <c r="C100" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="D100" s="124"/>
-      <c r="E100" s="124"/>
-      <c r="F100" s="124"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="121"/>
+      <c r="F100" s="121"/>
     </row>
     <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
@@ -10892,9 +10979,9 @@
       <c r="C101" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="D101" s="124"/>
-      <c r="E101" s="124"/>
-      <c r="F101" s="124"/>
+      <c r="D101" s="121"/>
+      <c r="E101" s="121"/>
+      <c r="F101" s="121"/>
     </row>
     <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
@@ -10906,9 +10993,9 @@
       <c r="C102" s="79" t="s">
         <v>817</v>
       </c>
-      <c r="D102" s="124"/>
-      <c r="E102" s="124"/>
-      <c r="F102" s="124"/>
+      <c r="D102" s="121"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="121"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
@@ -10918,9 +11005,9 @@
         <v>463</v>
       </c>
       <c r="C103" s="21"/>
-      <c r="D103" s="124"/>
-      <c r="E103" s="124"/>
-      <c r="F103" s="124"/>
+      <c r="D103" s="121"/>
+      <c r="E103" s="121"/>
+      <c r="F103" s="121"/>
     </row>
     <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A104" s="86" t="s">
@@ -10932,9 +11019,9 @@
       <c r="C104" s="86" t="s">
         <v>888</v>
       </c>
-      <c r="D104" s="124"/>
-      <c r="E104" s="124"/>
-      <c r="F104" s="124"/>
+      <c r="D104" s="121"/>
+      <c r="E104" s="121"/>
+      <c r="F104" s="121"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
@@ -10946,9 +11033,9 @@
       <c r="C105" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D105" s="124"/>
-      <c r="E105" s="124"/>
-      <c r="F105" s="124"/>
+      <c r="D105" s="121"/>
+      <c r="E105" s="121"/>
+      <c r="F105" s="121"/>
     </row>
     <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="s">
@@ -10960,9 +11047,9 @@
       <c r="C106" s="94" t="s">
         <v>820</v>
       </c>
-      <c r="D106" s="124"/>
-      <c r="E106" s="124"/>
-      <c r="F106" s="124"/>
+      <c r="D106" s="121"/>
+      <c r="E106" s="121"/>
+      <c r="F106" s="121"/>
     </row>
     <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A107" s="86" t="s">
@@ -10974,9 +11061,9 @@
       <c r="C107" s="86" t="s">
         <v>821</v>
       </c>
-      <c r="D107" s="124"/>
-      <c r="E107" s="124"/>
-      <c r="F107" s="124"/>
+      <c r="D107" s="121"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="121"/>
     </row>
     <row r="108" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -10988,9 +11075,9 @@
       <c r="C108" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="D108" s="124"/>
-      <c r="E108" s="124"/>
-      <c r="F108" s="124"/>
+      <c r="D108" s="121"/>
+      <c r="E108" s="121"/>
+      <c r="F108" s="121"/>
     </row>
     <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="86" t="s">
@@ -11002,9 +11089,9 @@
       <c r="C109" s="86" t="s">
         <v>823</v>
       </c>
-      <c r="D109" s="124"/>
-      <c r="E109" s="124"/>
-      <c r="F109" s="124"/>
+      <c r="D109" s="121"/>
+      <c r="E109" s="121"/>
+      <c r="F109" s="121"/>
     </row>
     <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
@@ -11016,9 +11103,9 @@
       <c r="C110" s="88" t="s">
         <v>921</v>
       </c>
-      <c r="D110" s="124"/>
-      <c r="E110" s="124"/>
-      <c r="F110" s="124"/>
+      <c r="D110" s="121"/>
+      <c r="E110" s="121"/>
+      <c r="F110" s="121"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
@@ -11028,9 +11115,9 @@
         <v>455</v>
       </c>
       <c r="C111" s="21"/>
-      <c r="D111" s="124"/>
-      <c r="E111" s="124"/>
-      <c r="F111" s="124"/>
+      <c r="D111" s="121"/>
+      <c r="E111" s="121"/>
+      <c r="F111" s="121"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
@@ -11040,9 +11127,9 @@
         <v>455</v>
       </c>
       <c r="C112" s="21"/>
-      <c r="D112" s="124"/>
-      <c r="E112" s="124"/>
-      <c r="F112" s="124"/>
+      <c r="D112" s="121"/>
+      <c r="E112" s="121"/>
+      <c r="F112" s="121"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
@@ -11052,9 +11139,9 @@
         <v>455</v>
       </c>
       <c r="C113" s="21"/>
-      <c r="D113" s="124"/>
-      <c r="E113" s="124"/>
-      <c r="F113" s="124"/>
+      <c r="D113" s="121"/>
+      <c r="E113" s="121"/>
+      <c r="F113" s="121"/>
     </row>
     <row r="114" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="86" t="s">
@@ -11066,9 +11153,9 @@
       <c r="C114" s="86" t="s">
         <v>824</v>
       </c>
-      <c r="D114" s="124"/>
-      <c r="E114" s="124"/>
-      <c r="F114" s="124"/>
+      <c r="D114" s="121"/>
+      <c r="E114" s="121"/>
+      <c r="F114" s="121"/>
     </row>
     <row r="116" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A116" s="100" t="s">
@@ -11085,13 +11172,13 @@
       <c r="C117" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D117" s="124" t="s">
+      <c r="D117" s="121" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="125">
+      <c r="E117" s="122">
         <v>45194</v>
       </c>
-      <c r="F117" s="124" t="s">
+      <c r="F117" s="121" t="s">
         <v>812</v>
       </c>
     </row>
@@ -11105,9 +11192,9 @@
       <c r="C118" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D118" s="124"/>
-      <c r="E118" s="124"/>
-      <c r="F118" s="124"/>
+      <c r="D118" s="121"/>
+      <c r="E118" s="121"/>
+      <c r="F118" s="121"/>
     </row>
     <row r="119" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
@@ -11119,9 +11206,9 @@
       <c r="C119" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D119" s="124"/>
-      <c r="E119" s="124"/>
-      <c r="F119" s="124"/>
+      <c r="D119" s="121"/>
+      <c r="E119" s="121"/>
+      <c r="F119" s="121"/>
     </row>
     <row r="120" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
@@ -11133,9 +11220,9 @@
       <c r="C120" s="26" t="s">
         <v>904</v>
       </c>
-      <c r="D120" s="124"/>
-      <c r="E120" s="124"/>
-      <c r="F120" s="124"/>
+      <c r="D120" s="121"/>
+      <c r="E120" s="121"/>
+      <c r="F120" s="121"/>
     </row>
     <row r="121" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="73" t="s">
@@ -11147,9 +11234,9 @@
       <c r="C121" s="73" t="s">
         <v>906</v>
       </c>
-      <c r="D121" s="124"/>
-      <c r="E121" s="124"/>
-      <c r="F121" s="124"/>
+      <c r="D121" s="121"/>
+      <c r="E121" s="121"/>
+      <c r="F121" s="121"/>
     </row>
     <row r="122" spans="1:6" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
@@ -11161,9 +11248,9 @@
       <c r="C122" s="88" t="s">
         <v>908</v>
       </c>
-      <c r="D122" s="124"/>
-      <c r="E122" s="124"/>
-      <c r="F122" s="124"/>
+      <c r="D122" s="121"/>
+      <c r="E122" s="121"/>
+      <c r="F122" s="121"/>
     </row>
     <row r="123" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
@@ -11175,9 +11262,9 @@
       <c r="C123" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="D123" s="124"/>
-      <c r="E123" s="124"/>
-      <c r="F123" s="124"/>
+      <c r="D123" s="121"/>
+      <c r="E123" s="121"/>
+      <c r="F123" s="121"/>
     </row>
     <row r="124" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
@@ -11189,28 +11276,28 @@
       <c r="C124" s="26" t="s">
         <v>911</v>
       </c>
-      <c r="D124" s="124"/>
-      <c r="E124" s="124"/>
-      <c r="F124" s="124"/>
+      <c r="D124" s="121"/>
+      <c r="E124" s="121"/>
+      <c r="F124" s="121"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>912</v>
+        <v>964</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C125" s="21"/>
-      <c r="D125" s="124"/>
-      <c r="E125" s="124"/>
-      <c r="F125" s="124"/>
+      <c r="D125" s="121"/>
+      <c r="E125" s="121"/>
+      <c r="F125" s="121"/>
     </row>
     <row r="127" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A127" s="100" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
         <v>923</v>
       </c>
@@ -11220,13 +11307,13 @@
       <c r="C128" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="D128" s="124" t="s">
+      <c r="D128" s="115" t="s">
         <v>569</v>
       </c>
-      <c r="E128" s="145">
+      <c r="E128" s="118">
         <v>45203</v>
       </c>
-      <c r="F128" s="124" t="s">
+      <c r="F128" s="115" t="s">
         <v>812</v>
       </c>
     </row>
@@ -11240,9 +11327,9 @@
       <c r="C129" s="88" t="s">
         <v>932</v>
       </c>
-      <c r="D129" s="124"/>
-      <c r="E129" s="124"/>
-      <c r="F129" s="124"/>
+      <c r="D129" s="116"/>
+      <c r="E129" s="119"/>
+      <c r="F129" s="116"/>
     </row>
     <row r="130" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="26" t="s">
@@ -11254,9 +11341,9 @@
       <c r="C130" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D130" s="124"/>
-      <c r="E130" s="124"/>
-      <c r="F130" s="124"/>
+      <c r="D130" s="116"/>
+      <c r="E130" s="119"/>
+      <c r="F130" s="116"/>
     </row>
     <row r="131" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="26" t="s">
@@ -11268,9 +11355,9 @@
       <c r="C131" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D131" s="124"/>
-      <c r="E131" s="124"/>
-      <c r="F131" s="124"/>
+      <c r="D131" s="116"/>
+      <c r="E131" s="119"/>
+      <c r="F131" s="116"/>
     </row>
     <row r="132" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
@@ -11282,9 +11369,9 @@
       <c r="C132" s="113" t="s">
         <v>946</v>
       </c>
-      <c r="D132" s="124"/>
-      <c r="E132" s="124"/>
-      <c r="F132" s="124"/>
+      <c r="D132" s="116"/>
+      <c r="E132" s="119"/>
+      <c r="F132" s="116"/>
     </row>
     <row r="133" spans="1:6" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
@@ -11296,9 +11383,9 @@
       <c r="C133" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="D133" s="124"/>
-      <c r="E133" s="124"/>
-      <c r="F133" s="124"/>
+      <c r="D133" s="116"/>
+      <c r="E133" s="119"/>
+      <c r="F133" s="116"/>
     </row>
     <row r="134" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="26" t="s">
@@ -11310,9 +11397,9 @@
       <c r="C134" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D134" s="124"/>
-      <c r="E134" s="124"/>
-      <c r="F134" s="124"/>
+      <c r="D134" s="116"/>
+      <c r="E134" s="119"/>
+      <c r="F134" s="116"/>
     </row>
     <row r="135" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="26" t="s">
@@ -11324,9 +11411,9 @@
       <c r="C135" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D135" s="124"/>
-      <c r="E135" s="124"/>
-      <c r="F135" s="124"/>
+      <c r="D135" s="116"/>
+      <c r="E135" s="119"/>
+      <c r="F135" s="116"/>
     </row>
     <row r="136" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="26" t="s">
@@ -11338,9 +11425,9 @@
       <c r="C136" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D136" s="124"/>
-      <c r="E136" s="124"/>
-      <c r="F136" s="124"/>
+      <c r="D136" s="116"/>
+      <c r="E136" s="119"/>
+      <c r="F136" s="116"/>
     </row>
     <row r="137" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
@@ -11352,9 +11439,9 @@
       <c r="C137" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="D137" s="124"/>
-      <c r="E137" s="124"/>
-      <c r="F137" s="124"/>
+      <c r="D137" s="116"/>
+      <c r="E137" s="119"/>
+      <c r="F137" s="116"/>
     </row>
     <row r="138" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26" t="s">
@@ -11366,9 +11453,9 @@
       <c r="C138" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D138" s="124"/>
-      <c r="E138" s="124"/>
-      <c r="F138" s="124"/>
+      <c r="D138" s="116"/>
+      <c r="E138" s="119"/>
+      <c r="F138" s="116"/>
     </row>
     <row r="139" spans="1:6" ht="146" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
@@ -11380,9 +11467,9 @@
       <c r="C139" s="113" t="s">
         <v>930</v>
       </c>
-      <c r="D139" s="124"/>
-      <c r="E139" s="124"/>
-      <c r="F139" s="124"/>
+      <c r="D139" s="116"/>
+      <c r="E139" s="119"/>
+      <c r="F139" s="116"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
@@ -11394,9 +11481,9 @@
       <c r="C140" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="D140" s="124"/>
-      <c r="E140" s="124"/>
-      <c r="F140" s="124"/>
+      <c r="D140" s="116"/>
+      <c r="E140" s="119"/>
+      <c r="F140" s="116"/>
     </row>
     <row r="141" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
@@ -11408,9 +11495,9 @@
       <c r="C141" s="26" t="s">
         <v>938</v>
       </c>
-      <c r="D141" s="124"/>
-      <c r="E141" s="124"/>
-      <c r="F141" s="124"/>
+      <c r="D141" s="116"/>
+      <c r="E141" s="119"/>
+      <c r="F141" s="116"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
@@ -11422,21 +11509,143 @@
       <c r="C142" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="D142" s="124"/>
-      <c r="E142" s="124"/>
-      <c r="F142" s="124"/>
+      <c r="D142" s="117"/>
+      <c r="E142" s="120"/>
+      <c r="F142" s="117"/>
+    </row>
+    <row r="144" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="114" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="26" t="s">
+        <v>949</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>950</v>
+      </c>
+      <c r="D145" s="121" t="s">
+        <v>569</v>
+      </c>
+      <c r="E145" s="122">
+        <v>45204</v>
+      </c>
+      <c r="F145" s="121" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="26" t="s">
+        <v>951</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>952</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>953</v>
+      </c>
+      <c r="D146" s="121"/>
+      <c r="E146" s="121"/>
+      <c r="F146" s="121"/>
+    </row>
+    <row r="147" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A147" s="26" t="s">
+        <v>954</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="C147" s="21"/>
+      <c r="D147" s="121"/>
+      <c r="E147" s="121"/>
+      <c r="F147" s="121"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="26" t="s">
+        <v>955</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>952</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>956</v>
+      </c>
+      <c r="D148" s="121"/>
+      <c r="E148" s="121"/>
+      <c r="F148" s="121"/>
+    </row>
+    <row r="149" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+      <c r="A149" s="26" t="s">
+        <v>957</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>952</v>
+      </c>
+      <c r="C149" s="26" t="s">
+        <v>962</v>
+      </c>
+      <c r="D149" s="121"/>
+      <c r="E149" s="121"/>
+      <c r="F149" s="121"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="26" t="s">
+        <v>958</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>952</v>
+      </c>
+      <c r="C150" s="21"/>
+      <c r="D150" s="121"/>
+      <c r="E150" s="121"/>
+      <c r="F150" s="121"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="26" t="s">
+        <v>959</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>960</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>961</v>
+      </c>
+      <c r="D151" s="121"/>
+      <c r="E151" s="121"/>
+      <c r="F151" s="121"/>
+    </row>
+    <row r="153" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="114" t="s">
+        <v>963</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D128:D136"/>
-    <mergeCell ref="E128:E136"/>
-    <mergeCell ref="F128:F136"/>
-    <mergeCell ref="D137:D142"/>
-    <mergeCell ref="E137:E142"/>
-    <mergeCell ref="F137:F142"/>
-    <mergeCell ref="D117:D125"/>
-    <mergeCell ref="E117:E125"/>
-    <mergeCell ref="F117:F125"/>
+    <mergeCell ref="D145:D151"/>
+    <mergeCell ref="E145:E151"/>
+    <mergeCell ref="F145:F151"/>
+    <mergeCell ref="D2:D22"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="D25:D42"/>
+    <mergeCell ref="E25:E42"/>
+    <mergeCell ref="F25:F42"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="F45:F55"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="D75:D79"/>
     <mergeCell ref="E75:E79"/>
@@ -11447,24 +11656,12 @@
     <mergeCell ref="D86:D93"/>
     <mergeCell ref="E86:E93"/>
     <mergeCell ref="F86:F93"/>
-    <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="F45:F55"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="D2:D22"/>
-    <mergeCell ref="E2:E22"/>
-    <mergeCell ref="F2:F22"/>
-    <mergeCell ref="D25:D42"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="F25:F42"/>
+    <mergeCell ref="D128:D142"/>
+    <mergeCell ref="E128:E142"/>
+    <mergeCell ref="F128:F142"/>
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="F117:F125"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
@@ -11525,7 +11722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9EA002-3826-45E0-AB6A-307795449AA6}">
   <dimension ref="A1:E409"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
@@ -14285,10 +14482,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="93"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="139" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="133"/>
+      <c r="C1" s="140"/>
     </row>
     <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="96"/>
@@ -14376,7 +14573,7 @@
       <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -14387,7 +14584,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="38" t="s">
         <v>371</v>
       </c>
@@ -14396,7 +14593,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="135"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="40" t="s">
         <v>372</v>
       </c>
@@ -14405,7 +14602,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="142"/>
       <c r="B15" s="40" t="s">
         <v>373</v>
       </c>
@@ -14414,7 +14611,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="136"/>
+      <c r="A16" s="143"/>
       <c r="B16" s="41" t="s">
         <v>356</v>
       </c>
@@ -14431,7 +14628,7 @@
       <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="129" t="s">
+      <c r="A19" s="136" t="s">
         <v>375</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -14442,7 +14639,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="137"/>
       <c r="B20" s="44" t="s">
         <v>377</v>
       </c>
@@ -14451,7 +14648,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="44" t="s">
         <v>378</v>
       </c>
@@ -14460,7 +14657,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="137"/>
+      <c r="A22" s="144"/>
       <c r="B22" s="44" t="s">
         <v>380</v>
       </c>
@@ -14469,7 +14666,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="137"/>
+      <c r="A23" s="144"/>
       <c r="B23" s="44" t="s">
         <v>381</v>
       </c>
@@ -14478,7 +14675,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
+      <c r="A24" s="137"/>
       <c r="B24" s="44" t="s">
         <v>382</v>
       </c>
@@ -14487,7 +14684,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
+      <c r="A25" s="137"/>
       <c r="B25" s="44" t="s">
         <v>384</v>
       </c>
@@ -14496,7 +14693,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="44" t="s">
         <v>385</v>
       </c>
@@ -14505,7 +14702,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="137"/>
+      <c r="A27" s="144"/>
       <c r="B27" s="44" t="s">
         <v>387</v>
       </c>
@@ -14514,7 +14711,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="138"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="46" t="s">
         <v>388</v>
       </c>
@@ -14531,7 +14728,7 @@
       <c r="B30" s="35"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="129" t="s">
+      <c r="A31" s="136" t="s">
         <v>390</v>
       </c>
       <c r="B31" s="44" t="s">
@@ -14542,7 +14739,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="137"/>
+      <c r="A32" s="144"/>
       <c r="B32" s="44" t="s">
         <v>370</v>
       </c>
@@ -14551,7 +14748,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="137"/>
+      <c r="A33" s="144"/>
       <c r="B33" s="44" t="s">
         <v>394</v>
       </c>
@@ -14560,7 +14757,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="130"/>
+      <c r="A34" s="137"/>
       <c r="B34" s="44" t="s">
         <v>372</v>
       </c>
@@ -14569,7 +14766,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="131"/>
+      <c r="A35" s="138"/>
       <c r="B35" s="44" t="s">
         <v>373</v>
       </c>
@@ -14616,7 +14813,7 @@
       <c r="B41" s="35"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="129" t="s">
+      <c r="A42" s="136" t="s">
         <v>401</v>
       </c>
       <c r="B42" s="30" t="s">
@@ -14627,7 +14824,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="131"/>
+      <c r="A43" s="138"/>
       <c r="B43" s="30" t="s">
         <v>402</v>
       </c>
@@ -14644,7 +14841,7 @@
       <c r="B45" s="35"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="129" t="s">
+      <c r="A46" s="136" t="s">
         <v>404</v>
       </c>
       <c r="B46" s="30" t="s">
@@ -14655,7 +14852,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="130"/>
+      <c r="A47" s="137"/>
       <c r="B47" s="30" t="s">
         <v>407</v>
       </c>
@@ -14664,7 +14861,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="130"/>
+      <c r="A48" s="137"/>
       <c r="B48" s="30" t="s">
         <v>408</v>
       </c>
@@ -14673,7 +14870,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="130"/>
+      <c r="A49" s="137"/>
       <c r="B49" s="30" t="s">
         <v>410</v>
       </c>
@@ -14682,7 +14879,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="131"/>
+      <c r="A50" s="138"/>
       <c r="B50" s="30" t="s">
         <v>411</v>
       </c>
@@ -14699,7 +14896,7 @@
       <c r="B52" s="35"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="129" t="s">
+      <c r="A53" s="136" t="s">
         <v>412</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -14710,7 +14907,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="130"/>
+      <c r="A54" s="137"/>
       <c r="B54" s="30" t="s">
         <v>414</v>
       </c>
@@ -14719,7 +14916,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="131"/>
+      <c r="A55" s="138"/>
       <c r="B55" s="30" t="s">
         <v>416</v>
       </c>
@@ -15424,17 +15621,17 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="146" t="s">
         <v>707</v>
       </c>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="146"/>
+      <c r="I8" s="146"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
@@ -15442,18 +15639,18 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="140" t="s">
+      <c r="A11" s="147" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="140"/>
+      <c r="A12" s="147"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="140"/>
+      <c r="A13" s="147"/>
     </row>
     <row r="14" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="140"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="5"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1918D24-A197-4520-886E-091B4092F364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0EF7FC-65D8-4712-9517-3240CFD95719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="972">
   <si>
     <t>Module</t>
   </si>
@@ -5770,6 +5770,27 @@
   </si>
   <si>
     <t>How will you migrate S4 HANA Bp as same as ECC Bp?</t>
+  </si>
+  <si>
+    <t>output table for BRF+</t>
+  </si>
+  <si>
+    <t>APOC_D_OR_ITEM</t>
+  </si>
+  <si>
+    <t>APOC_D_OR_ITEM_A</t>
+  </si>
+  <si>
+    <t>APOC_D_OR_ITEM_E</t>
+  </si>
+  <si>
+    <t>Output Request Item</t>
+  </si>
+  <si>
+    <t>Output Request Item Attachment</t>
+  </si>
+  <si>
+    <t>Output Request Item Email</t>
   </si>
 </sst>
 </file>
@@ -9652,8 +9673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A141" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11535,7 +11556,7 @@
         <v>45204</v>
       </c>
       <c r="F145" s="121" t="s">
-        <v>584</v>
+        <v>812</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -13490,8 +13511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5703F574-C88B-4291-BBA6-05D5382680CC}">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A24:B25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13978,8 +13999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A2292-F8D8-430C-931B-01C5D23F2DCF}">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13990,7 +14011,7 @@
     <col min="4" max="4" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.08984375" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" style="19"/>
-    <col min="7" max="7" width="16.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.1796875" style="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="19"/>
     <col min="10" max="10" width="8.453125" style="19" bestFit="1" customWidth="1"/>
@@ -14382,8 +14403,11 @@
       <c r="D19" s="20" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G19" s="110" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>71</v>
       </c>
@@ -14396,21 +14420,39 @@
       <c r="E20" s="21" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="21" t="s">
+        <v>966</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>349</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>351</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>352</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0EF7FC-65D8-4712-9517-3240CFD95719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FDE685-2B3A-4B6C-B7D9-88C1A917BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10080" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -6590,6 +6590,51 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -6607,51 +6652,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9719,13 +9719,13 @@
       <c r="C2" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="117" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="134">
+      <c r="E2" s="119">
         <v>44436</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="122" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9739,9 +9739,9 @@
       <c r="C3" s="76" t="s">
         <v>775</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
@@ -9753,9 +9753,9 @@
       <c r="C4" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -9767,9 +9767,9 @@
       <c r="C5" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
     </row>
     <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
@@ -9781,9 +9781,9 @@
       <c r="C6" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -9795,9 +9795,9 @@
       <c r="C7" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -9809,9 +9809,9 @@
       <c r="C8" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9823,9 +9823,9 @@
       <c r="C9" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
@@ -9835,9 +9835,9 @@
       <c r="C10" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="s">
@@ -9849,9 +9849,9 @@
       <c r="C11" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="s">
@@ -9863,9 +9863,9 @@
       <c r="C12" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -9875,9 +9875,9 @@
         <v>463</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="s">
@@ -9889,9 +9889,9 @@
       <c r="C14" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -9903,9 +9903,9 @@
       <c r="C15" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -9917,9 +9917,9 @@
       <c r="C16" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -9931,9 +9931,9 @@
       <c r="C17" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
     </row>
     <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="s">
@@ -9945,9 +9945,9 @@
       <c r="C18" s="79" t="s">
         <v>777</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="s">
@@ -9959,9 +9959,9 @@
       <c r="C19" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -9973,9 +9973,9 @@
       <c r="C20" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
     </row>
     <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="s">
@@ -9987,9 +9987,9 @@
       <c r="C21" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
     </row>
     <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="s">
@@ -10001,9 +10001,9 @@
       <c r="C22" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="74"/>
@@ -10029,13 +10029,13 @@
       <c r="C25" s="80" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="118" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="127" t="s">
+      <c r="E25" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="127" t="s">
+      <c r="F25" s="117" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10049,9 +10049,9 @@
       <c r="C26" s="80" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="117"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
@@ -10063,9 +10063,9 @@
       <c r="C27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="117"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -10077,9 +10077,9 @@
       <c r="C28" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="127"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="117"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
@@ -10091,9 +10091,9 @@
       <c r="C29" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="127"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="117"/>
     </row>
     <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
@@ -10105,9 +10105,9 @@
       <c r="C30" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
@@ -10119,9 +10119,9 @@
       <c r="C31" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="127"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="117"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -10133,9 +10133,9 @@
       <c r="C32" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="127"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="117"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
@@ -10147,9 +10147,9 @@
       <c r="C33" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="117"/>
     </row>
     <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
@@ -10161,9 +10161,9 @@
       <c r="C34" s="67" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="127"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="117"/>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="s">
@@ -10175,9 +10175,9 @@
       <c r="C35" s="112" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="127"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="117"/>
       <c r="G35" s="83" t="s">
         <v>595</v>
       </c>
@@ -10192,9 +10192,9 @@
       <c r="C36" s="80" t="s">
         <v>520</v>
       </c>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="127"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="117"/>
       <c r="G36" s="19" t="s">
         <v>596</v>
       </c>
@@ -10209,9 +10209,9 @@
       <c r="C37" s="80" t="s">
         <v>523</v>
       </c>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="127"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="117"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -10223,9 +10223,9 @@
       <c r="C38" s="80" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="127"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="117"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -10235,9 +10235,9 @@
         <v>463</v>
       </c>
       <c r="C39" s="80"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="127"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="117"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
@@ -10249,9 +10249,9 @@
       <c r="C40" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="127"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="117"/>
     </row>
     <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
@@ -10263,9 +10263,9 @@
       <c r="C41" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="127"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="117"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -10277,9 +10277,9 @@
       <c r="C42" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="127"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
+      <c r="F42" s="117"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
@@ -10301,13 +10301,13 @@
       <c r="C45" s="84" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="131" t="s">
+      <c r="D45" s="122" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="128" t="s">
+      <c r="E45" s="123" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="131" t="s">
+      <c r="F45" s="122" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10321,9 +10321,9 @@
       <c r="C46" s="71" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="132"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="132"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="120"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
@@ -10335,9 +10335,9 @@
       <c r="C47" s="71" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="132"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="132"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="120"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -10347,9 +10347,9 @@
         <v>532</v>
       </c>
       <c r="C48" s="71"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="132"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="120"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
@@ -10361,9 +10361,9 @@
       <c r="C49" s="71" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="132"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="132"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="120"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
@@ -10375,9 +10375,9 @@
       <c r="C50" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="132"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="120"/>
     </row>
     <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
@@ -10389,9 +10389,9 @@
       <c r="C51" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="D51" s="132"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="132"/>
+      <c r="D51" s="120"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="120"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -10401,9 +10401,9 @@
         <v>455</v>
       </c>
       <c r="C52" s="71"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="132"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="120"/>
     </row>
     <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
@@ -10415,9 +10415,9 @@
       <c r="C53" s="84" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="132"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="132"/>
+      <c r="D53" s="120"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="120"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
@@ -10427,9 +10427,9 @@
         <v>455</v>
       </c>
       <c r="C54" s="71"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="132"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="120"/>
     </row>
     <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
@@ -10441,9 +10441,9 @@
       <c r="C55" s="85" t="s">
         <v>778</v>
       </c>
-      <c r="D55" s="133"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="133"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="121"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
@@ -10463,11 +10463,11 @@
       <c r="C57" s="67" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="126" t="s">
+      <c r="D57" s="118" t="s">
         <v>557</v>
       </c>
-      <c r="E57" s="135"/>
-      <c r="F57" s="131" t="s">
+      <c r="E57" s="126"/>
+      <c r="F57" s="122" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10481,9 +10481,9 @@
       <c r="C58" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="126"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="132"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="126"/>
+      <c r="F58" s="120"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
@@ -10495,9 +10495,9 @@
       <c r="C59" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="126"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="132"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="126"/>
+      <c r="F59" s="120"/>
     </row>
     <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
@@ -10509,9 +10509,9 @@
       <c r="C60" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D60" s="126"/>
-      <c r="E60" s="135"/>
-      <c r="F60" s="132"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="120"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
@@ -10523,9 +10523,9 @@
       <c r="C61" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D61" s="126"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="132"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="120"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
@@ -10537,9 +10537,9 @@
       <c r="C62" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="126"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="133"/>
+      <c r="D62" s="118"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="121"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
@@ -10559,13 +10559,13 @@
       <c r="C64" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="126" t="s">
+      <c r="D64" s="118" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="127" t="s">
+      <c r="E64" s="117" t="s">
         <v>570</v>
       </c>
-      <c r="F64" s="127" t="s">
+      <c r="F64" s="117" t="s">
         <v>571</v>
       </c>
     </row>
@@ -10579,9 +10579,9 @@
       <c r="C65" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
+      <c r="D65" s="118"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
@@ -10593,9 +10593,9 @@
       <c r="C66" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D66" s="126"/>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
     </row>
     <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -10607,9 +10607,9 @@
       <c r="C67" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="D67" s="126"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="126"/>
+      <c r="D67" s="118"/>
+      <c r="E67" s="118"/>
+      <c r="F67" s="118"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
@@ -10621,9 +10621,9 @@
       <c r="C68" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="126"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="118"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
@@ -10639,13 +10639,13 @@
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="128" t="s">
+      <c r="D70" s="123" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="128" t="s">
+      <c r="E70" s="123" t="s">
         <v>577</v>
       </c>
-      <c r="F70" s="131" t="s">
+      <c r="F70" s="122" t="s">
         <v>578</v>
       </c>
     </row>
@@ -10655,9 +10655,9 @@
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="129"/>
-      <c r="E71" s="129"/>
-      <c r="F71" s="132"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="120"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
@@ -10665,9 +10665,9 @@
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="129"/>
-      <c r="E72" s="129"/>
-      <c r="F72" s="132"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="120"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
@@ -10675,17 +10675,17 @@
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="130"/>
-      <c r="E73" s="130"/>
-      <c r="F73" s="133"/>
+      <c r="D73" s="125"/>
+      <c r="E73" s="125"/>
+      <c r="F73" s="121"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="123"/>
-      <c r="B74" s="124"/>
-      <c r="C74" s="124"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="125"/>
+      <c r="A74" s="127"/>
+      <c r="B74" s="128"/>
+      <c r="C74" s="128"/>
+      <c r="D74" s="128"/>
+      <c r="E74" s="128"/>
+      <c r="F74" s="129"/>
     </row>
     <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="99" t="s">
@@ -10697,11 +10697,11 @@
       <c r="C75" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D75" s="126"/>
-      <c r="E75" s="127" t="s">
+      <c r="D75" s="118"/>
+      <c r="E75" s="117" t="s">
         <v>583</v>
       </c>
-      <c r="F75" s="126" t="s">
+      <c r="F75" s="118" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10715,9 +10715,9 @@
       <c r="C76" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="126"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
+      <c r="D76" s="118"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="118"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
@@ -10729,9 +10729,9 @@
       <c r="C77" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="126"/>
-      <c r="E77" s="126"/>
-      <c r="F77" s="126"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="118"/>
+      <c r="F77" s="118"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
@@ -10743,9 +10743,9 @@
       <c r="C78" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="126"/>
-      <c r="E78" s="126"/>
-      <c r="F78" s="126"/>
+      <c r="D78" s="118"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="99" t="s">
@@ -10757,9 +10757,9 @@
       <c r="C79" s="86" t="s">
         <v>592</v>
       </c>
-      <c r="D79" s="126"/>
-      <c r="E79" s="126"/>
-      <c r="F79" s="126"/>
+      <c r="D79" s="118"/>
+      <c r="E79" s="118"/>
+      <c r="F79" s="118"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
@@ -10803,13 +10803,13 @@
       <c r="C86" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="121" t="s">
+      <c r="D86" s="115" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="127" t="s">
+      <c r="E86" s="117" t="s">
         <v>652</v>
       </c>
-      <c r="F86" s="121" t="s">
+      <c r="F86" s="115" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10823,9 +10823,9 @@
       <c r="C87" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="D87" s="121"/>
-      <c r="E87" s="127"/>
-      <c r="F87" s="121"/>
+      <c r="D87" s="115"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="115"/>
     </row>
     <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
@@ -10837,9 +10837,9 @@
       <c r="C88" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="D88" s="121"/>
-      <c r="E88" s="127"/>
-      <c r="F88" s="121"/>
+      <c r="D88" s="115"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="115"/>
     </row>
     <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
@@ -10851,9 +10851,9 @@
       <c r="C89" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="D89" s="121"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="121"/>
+      <c r="D89" s="115"/>
+      <c r="E89" s="117"/>
+      <c r="F89" s="115"/>
     </row>
     <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
@@ -10865,9 +10865,9 @@
       <c r="C90" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="D90" s="121"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="121"/>
+      <c r="D90" s="115"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="115"/>
     </row>
     <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
@@ -10879,9 +10879,9 @@
       <c r="C91" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="D91" s="121"/>
-      <c r="E91" s="127"/>
-      <c r="F91" s="121"/>
+      <c r="D91" s="115"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="115"/>
     </row>
     <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
@@ -10893,9 +10893,9 @@
       <c r="C92" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="D92" s="121"/>
-      <c r="E92" s="127"/>
-      <c r="F92" s="121"/>
+      <c r="D92" s="115"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="115"/>
     </row>
     <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
@@ -10907,9 +10907,9 @@
       <c r="C93" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="D93" s="121"/>
-      <c r="E93" s="127"/>
-      <c r="F93" s="121"/>
+      <c r="D93" s="115"/>
+      <c r="E93" s="117"/>
+      <c r="F93" s="115"/>
     </row>
     <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A95" s="100" t="s">
@@ -10924,13 +10924,13 @@
         <v>463</v>
       </c>
       <c r="C96" s="21"/>
-      <c r="D96" s="121" t="s">
+      <c r="D96" s="115" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="121" t="s">
+      <c r="E96" s="115" t="s">
         <v>809</v>
       </c>
-      <c r="F96" s="121" t="s">
+      <c r="F96" s="115" t="s">
         <v>812</v>
       </c>
     </row>
@@ -10944,9 +10944,9 @@
       <c r="C97" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="D97" s="121"/>
-      <c r="E97" s="121"/>
-      <c r="F97" s="121"/>
+      <c r="D97" s="115"/>
+      <c r="E97" s="115"/>
+      <c r="F97" s="115"/>
     </row>
     <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A98" s="86" t="s">
@@ -10958,9 +10958,9 @@
       <c r="C98" s="86" t="s">
         <v>706</v>
       </c>
-      <c r="D98" s="121"/>
-      <c r="E98" s="121"/>
-      <c r="F98" s="121"/>
+      <c r="D98" s="115"/>
+      <c r="E98" s="115"/>
+      <c r="F98" s="115"/>
     </row>
     <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
@@ -10972,9 +10972,9 @@
       <c r="C99" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="D99" s="121"/>
-      <c r="E99" s="121"/>
-      <c r="F99" s="121"/>
+      <c r="D99" s="115"/>
+      <c r="E99" s="115"/>
+      <c r="F99" s="115"/>
     </row>
     <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
@@ -10986,9 +10986,9 @@
       <c r="C100" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="D100" s="121"/>
-      <c r="E100" s="121"/>
-      <c r="F100" s="121"/>
+      <c r="D100" s="115"/>
+      <c r="E100" s="115"/>
+      <c r="F100" s="115"/>
     </row>
     <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
@@ -11000,9 +11000,9 @@
       <c r="C101" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="D101" s="121"/>
-      <c r="E101" s="121"/>
-      <c r="F101" s="121"/>
+      <c r="D101" s="115"/>
+      <c r="E101" s="115"/>
+      <c r="F101" s="115"/>
     </row>
     <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
@@ -11014,9 +11014,9 @@
       <c r="C102" s="79" t="s">
         <v>817</v>
       </c>
-      <c r="D102" s="121"/>
-      <c r="E102" s="121"/>
-      <c r="F102" s="121"/>
+      <c r="D102" s="115"/>
+      <c r="E102" s="115"/>
+      <c r="F102" s="115"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
@@ -11026,9 +11026,9 @@
         <v>463</v>
       </c>
       <c r="C103" s="21"/>
-      <c r="D103" s="121"/>
-      <c r="E103" s="121"/>
-      <c r="F103" s="121"/>
+      <c r="D103" s="115"/>
+      <c r="E103" s="115"/>
+      <c r="F103" s="115"/>
     </row>
     <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A104" s="86" t="s">
@@ -11040,9 +11040,9 @@
       <c r="C104" s="86" t="s">
         <v>888</v>
       </c>
-      <c r="D104" s="121"/>
-      <c r="E104" s="121"/>
-      <c r="F104" s="121"/>
+      <c r="D104" s="115"/>
+      <c r="E104" s="115"/>
+      <c r="F104" s="115"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
@@ -11054,9 +11054,9 @@
       <c r="C105" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D105" s="121"/>
-      <c r="E105" s="121"/>
-      <c r="F105" s="121"/>
+      <c r="D105" s="115"/>
+      <c r="E105" s="115"/>
+      <c r="F105" s="115"/>
     </row>
     <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="s">
@@ -11068,9 +11068,9 @@
       <c r="C106" s="94" t="s">
         <v>820</v>
       </c>
-      <c r="D106" s="121"/>
-      <c r="E106" s="121"/>
-      <c r="F106" s="121"/>
+      <c r="D106" s="115"/>
+      <c r="E106" s="115"/>
+      <c r="F106" s="115"/>
     </row>
     <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A107" s="86" t="s">
@@ -11082,9 +11082,9 @@
       <c r="C107" s="86" t="s">
         <v>821</v>
       </c>
-      <c r="D107" s="121"/>
-      <c r="E107" s="121"/>
-      <c r="F107" s="121"/>
+      <c r="D107" s="115"/>
+      <c r="E107" s="115"/>
+      <c r="F107" s="115"/>
     </row>
     <row r="108" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -11096,9 +11096,9 @@
       <c r="C108" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="D108" s="121"/>
-      <c r="E108" s="121"/>
-      <c r="F108" s="121"/>
+      <c r="D108" s="115"/>
+      <c r="E108" s="115"/>
+      <c r="F108" s="115"/>
     </row>
     <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="86" t="s">
@@ -11110,9 +11110,9 @@
       <c r="C109" s="86" t="s">
         <v>823</v>
       </c>
-      <c r="D109" s="121"/>
-      <c r="E109" s="121"/>
-      <c r="F109" s="121"/>
+      <c r="D109" s="115"/>
+      <c r="E109" s="115"/>
+      <c r="F109" s="115"/>
     </row>
     <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
@@ -11124,9 +11124,9 @@
       <c r="C110" s="88" t="s">
         <v>921</v>
       </c>
-      <c r="D110" s="121"/>
-      <c r="E110" s="121"/>
-      <c r="F110" s="121"/>
+      <c r="D110" s="115"/>
+      <c r="E110" s="115"/>
+      <c r="F110" s="115"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
@@ -11136,9 +11136,9 @@
         <v>455</v>
       </c>
       <c r="C111" s="21"/>
-      <c r="D111" s="121"/>
-      <c r="E111" s="121"/>
-      <c r="F111" s="121"/>
+      <c r="D111" s="115"/>
+      <c r="E111" s="115"/>
+      <c r="F111" s="115"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
@@ -11148,9 +11148,9 @@
         <v>455</v>
       </c>
       <c r="C112" s="21"/>
-      <c r="D112" s="121"/>
-      <c r="E112" s="121"/>
-      <c r="F112" s="121"/>
+      <c r="D112" s="115"/>
+      <c r="E112" s="115"/>
+      <c r="F112" s="115"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
@@ -11160,9 +11160,9 @@
         <v>455</v>
       </c>
       <c r="C113" s="21"/>
-      <c r="D113" s="121"/>
-      <c r="E113" s="121"/>
-      <c r="F113" s="121"/>
+      <c r="D113" s="115"/>
+      <c r="E113" s="115"/>
+      <c r="F113" s="115"/>
     </row>
     <row r="114" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="86" t="s">
@@ -11174,9 +11174,9 @@
       <c r="C114" s="86" t="s">
         <v>824</v>
       </c>
-      <c r="D114" s="121"/>
-      <c r="E114" s="121"/>
-      <c r="F114" s="121"/>
+      <c r="D114" s="115"/>
+      <c r="E114" s="115"/>
+      <c r="F114" s="115"/>
     </row>
     <row r="116" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A116" s="100" t="s">
@@ -11193,13 +11193,13 @@
       <c r="C117" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D117" s="121" t="s">
+      <c r="D117" s="115" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="122">
+      <c r="E117" s="116">
         <v>45194</v>
       </c>
-      <c r="F117" s="121" t="s">
+      <c r="F117" s="115" t="s">
         <v>812</v>
       </c>
     </row>
@@ -11213,9 +11213,9 @@
       <c r="C118" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D118" s="121"/>
-      <c r="E118" s="121"/>
-      <c r="F118" s="121"/>
+      <c r="D118" s="115"/>
+      <c r="E118" s="115"/>
+      <c r="F118" s="115"/>
     </row>
     <row r="119" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
@@ -11227,9 +11227,9 @@
       <c r="C119" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D119" s="121"/>
-      <c r="E119" s="121"/>
-      <c r="F119" s="121"/>
+      <c r="D119" s="115"/>
+      <c r="E119" s="115"/>
+      <c r="F119" s="115"/>
     </row>
     <row r="120" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
@@ -11241,9 +11241,9 @@
       <c r="C120" s="26" t="s">
         <v>904</v>
       </c>
-      <c r="D120" s="121"/>
-      <c r="E120" s="121"/>
-      <c r="F120" s="121"/>
+      <c r="D120" s="115"/>
+      <c r="E120" s="115"/>
+      <c r="F120" s="115"/>
     </row>
     <row r="121" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="73" t="s">
@@ -11255,9 +11255,9 @@
       <c r="C121" s="73" t="s">
         <v>906</v>
       </c>
-      <c r="D121" s="121"/>
-      <c r="E121" s="121"/>
-      <c r="F121" s="121"/>
+      <c r="D121" s="115"/>
+      <c r="E121" s="115"/>
+      <c r="F121" s="115"/>
     </row>
     <row r="122" spans="1:6" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
@@ -11269,9 +11269,9 @@
       <c r="C122" s="88" t="s">
         <v>908</v>
       </c>
-      <c r="D122" s="121"/>
-      <c r="E122" s="121"/>
-      <c r="F122" s="121"/>
+      <c r="D122" s="115"/>
+      <c r="E122" s="115"/>
+      <c r="F122" s="115"/>
     </row>
     <row r="123" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
@@ -11283,9 +11283,9 @@
       <c r="C123" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="D123" s="121"/>
-      <c r="E123" s="121"/>
-      <c r="F123" s="121"/>
+      <c r="D123" s="115"/>
+      <c r="E123" s="115"/>
+      <c r="F123" s="115"/>
     </row>
     <row r="124" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
@@ -11297,9 +11297,9 @@
       <c r="C124" s="26" t="s">
         <v>911</v>
       </c>
-      <c r="D124" s="121"/>
-      <c r="E124" s="121"/>
-      <c r="F124" s="121"/>
+      <c r="D124" s="115"/>
+      <c r="E124" s="115"/>
+      <c r="F124" s="115"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
@@ -11309,9 +11309,9 @@
         <v>455</v>
       </c>
       <c r="C125" s="21"/>
-      <c r="D125" s="121"/>
-      <c r="E125" s="121"/>
-      <c r="F125" s="121"/>
+      <c r="D125" s="115"/>
+      <c r="E125" s="115"/>
+      <c r="F125" s="115"/>
     </row>
     <row r="127" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A127" s="100" t="s">
@@ -11328,13 +11328,13 @@
       <c r="C128" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="D128" s="115" t="s">
+      <c r="D128" s="130" t="s">
         <v>569</v>
       </c>
-      <c r="E128" s="118">
+      <c r="E128" s="133">
         <v>45203</v>
       </c>
-      <c r="F128" s="115" t="s">
+      <c r="F128" s="130" t="s">
         <v>812</v>
       </c>
     </row>
@@ -11348,9 +11348,9 @@
       <c r="C129" s="88" t="s">
         <v>932</v>
       </c>
-      <c r="D129" s="116"/>
-      <c r="E129" s="119"/>
-      <c r="F129" s="116"/>
+      <c r="D129" s="131"/>
+      <c r="E129" s="134"/>
+      <c r="F129" s="131"/>
     </row>
     <row r="130" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="26" t="s">
@@ -11362,9 +11362,9 @@
       <c r="C130" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D130" s="116"/>
-      <c r="E130" s="119"/>
-      <c r="F130" s="116"/>
+      <c r="D130" s="131"/>
+      <c r="E130" s="134"/>
+      <c r="F130" s="131"/>
     </row>
     <row r="131" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="26" t="s">
@@ -11376,9 +11376,9 @@
       <c r="C131" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D131" s="116"/>
-      <c r="E131" s="119"/>
-      <c r="F131" s="116"/>
+      <c r="D131" s="131"/>
+      <c r="E131" s="134"/>
+      <c r="F131" s="131"/>
     </row>
     <row r="132" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
@@ -11390,9 +11390,9 @@
       <c r="C132" s="113" t="s">
         <v>946</v>
       </c>
-      <c r="D132" s="116"/>
-      <c r="E132" s="119"/>
-      <c r="F132" s="116"/>
+      <c r="D132" s="131"/>
+      <c r="E132" s="134"/>
+      <c r="F132" s="131"/>
     </row>
     <row r="133" spans="1:6" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
@@ -11404,9 +11404,9 @@
       <c r="C133" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="D133" s="116"/>
-      <c r="E133" s="119"/>
-      <c r="F133" s="116"/>
+      <c r="D133" s="131"/>
+      <c r="E133" s="134"/>
+      <c r="F133" s="131"/>
     </row>
     <row r="134" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="26" t="s">
@@ -11418,9 +11418,9 @@
       <c r="C134" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D134" s="116"/>
-      <c r="E134" s="119"/>
-      <c r="F134" s="116"/>
+      <c r="D134" s="131"/>
+      <c r="E134" s="134"/>
+      <c r="F134" s="131"/>
     </row>
     <row r="135" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="26" t="s">
@@ -11432,9 +11432,9 @@
       <c r="C135" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D135" s="116"/>
-      <c r="E135" s="119"/>
-      <c r="F135" s="116"/>
+      <c r="D135" s="131"/>
+      <c r="E135" s="134"/>
+      <c r="F135" s="131"/>
     </row>
     <row r="136" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="26" t="s">
@@ -11446,9 +11446,9 @@
       <c r="C136" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D136" s="116"/>
-      <c r="E136" s="119"/>
-      <c r="F136" s="116"/>
+      <c r="D136" s="131"/>
+      <c r="E136" s="134"/>
+      <c r="F136" s="131"/>
     </row>
     <row r="137" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
@@ -11460,9 +11460,9 @@
       <c r="C137" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="D137" s="116"/>
-      <c r="E137" s="119"/>
-      <c r="F137" s="116"/>
+      <c r="D137" s="131"/>
+      <c r="E137" s="134"/>
+      <c r="F137" s="131"/>
     </row>
     <row r="138" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26" t="s">
@@ -11474,9 +11474,9 @@
       <c r="C138" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D138" s="116"/>
-      <c r="E138" s="119"/>
-      <c r="F138" s="116"/>
+      <c r="D138" s="131"/>
+      <c r="E138" s="134"/>
+      <c r="F138" s="131"/>
     </row>
     <row r="139" spans="1:6" ht="146" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
@@ -11488,9 +11488,9 @@
       <c r="C139" s="113" t="s">
         <v>930</v>
       </c>
-      <c r="D139" s="116"/>
-      <c r="E139" s="119"/>
-      <c r="F139" s="116"/>
+      <c r="D139" s="131"/>
+      <c r="E139" s="134"/>
+      <c r="F139" s="131"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
@@ -11502,9 +11502,9 @@
       <c r="C140" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="D140" s="116"/>
-      <c r="E140" s="119"/>
-      <c r="F140" s="116"/>
+      <c r="D140" s="131"/>
+      <c r="E140" s="134"/>
+      <c r="F140" s="131"/>
     </row>
     <row r="141" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
@@ -11516,9 +11516,9 @@
       <c r="C141" s="26" t="s">
         <v>938</v>
       </c>
-      <c r="D141" s="116"/>
-      <c r="E141" s="119"/>
-      <c r="F141" s="116"/>
+      <c r="D141" s="131"/>
+      <c r="E141" s="134"/>
+      <c r="F141" s="131"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
@@ -11530,9 +11530,9 @@
       <c r="C142" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="D142" s="117"/>
-      <c r="E142" s="120"/>
-      <c r="F142" s="117"/>
+      <c r="D142" s="132"/>
+      <c r="E142" s="135"/>
+      <c r="F142" s="132"/>
     </row>
     <row r="144" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A144" s="114" t="s">
@@ -11549,13 +11549,13 @@
       <c r="C145" s="21" t="s">
         <v>950</v>
       </c>
-      <c r="D145" s="121" t="s">
+      <c r="D145" s="115" t="s">
         <v>569</v>
       </c>
-      <c r="E145" s="122">
+      <c r="E145" s="116">
         <v>45204</v>
       </c>
-      <c r="F145" s="121" t="s">
+      <c r="F145" s="115" t="s">
         <v>812</v>
       </c>
     </row>
@@ -11569,9 +11569,9 @@
       <c r="C146" s="21" t="s">
         <v>953</v>
       </c>
-      <c r="D146" s="121"/>
-      <c r="E146" s="121"/>
-      <c r="F146" s="121"/>
+      <c r="D146" s="115"/>
+      <c r="E146" s="115"/>
+      <c r="F146" s="115"/>
     </row>
     <row r="147" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
@@ -11581,9 +11581,9 @@
         <v>517</v>
       </c>
       <c r="C147" s="21"/>
-      <c r="D147" s="121"/>
-      <c r="E147" s="121"/>
-      <c r="F147" s="121"/>
+      <c r="D147" s="115"/>
+      <c r="E147" s="115"/>
+      <c r="F147" s="115"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
@@ -11595,9 +11595,9 @@
       <c r="C148" s="21" t="s">
         <v>956</v>
       </c>
-      <c r="D148" s="121"/>
-      <c r="E148" s="121"/>
-      <c r="F148" s="121"/>
+      <c r="D148" s="115"/>
+      <c r="E148" s="115"/>
+      <c r="F148" s="115"/>
     </row>
     <row r="149" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
@@ -11609,9 +11609,9 @@
       <c r="C149" s="26" t="s">
         <v>962</v>
       </c>
-      <c r="D149" s="121"/>
-      <c r="E149" s="121"/>
-      <c r="F149" s="121"/>
+      <c r="D149" s="115"/>
+      <c r="E149" s="115"/>
+      <c r="F149" s="115"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
@@ -11621,9 +11621,9 @@
         <v>952</v>
       </c>
       <c r="C150" s="21"/>
-      <c r="D150" s="121"/>
-      <c r="E150" s="121"/>
-      <c r="F150" s="121"/>
+      <c r="D150" s="115"/>
+      <c r="E150" s="115"/>
+      <c r="F150" s="115"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
@@ -11635,9 +11635,9 @@
       <c r="C151" s="21" t="s">
         <v>961</v>
       </c>
-      <c r="D151" s="121"/>
-      <c r="E151" s="121"/>
-      <c r="F151" s="121"/>
+      <c r="D151" s="115"/>
+      <c r="E151" s="115"/>
+      <c r="F151" s="115"/>
     </row>
     <row r="153" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A153" s="114" t="s">
@@ -11646,6 +11646,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="D128:D142"/>
+    <mergeCell ref="E128:E142"/>
+    <mergeCell ref="F128:F142"/>
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="F117:F125"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="D96:D114"/>
+    <mergeCell ref="E96:E114"/>
+    <mergeCell ref="F96:F114"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
     <mergeCell ref="D145:D151"/>
     <mergeCell ref="E145:E151"/>
     <mergeCell ref="F145:F151"/>
@@ -11662,27 +11683,6 @@
     <mergeCell ref="E57:E62"/>
     <mergeCell ref="F57:F62"/>
     <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="D96:D114"/>
-    <mergeCell ref="E96:E114"/>
-    <mergeCell ref="F96:F114"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="D128:D142"/>
-    <mergeCell ref="E128:E142"/>
-    <mergeCell ref="F128:F142"/>
-    <mergeCell ref="D117:D125"/>
-    <mergeCell ref="E117:E125"/>
-    <mergeCell ref="F117:F125"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FDE685-2B3A-4B6C-B7D9-88C1A917BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A199DA96-B04B-41C2-888D-413AC48BF7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="978">
   <si>
     <t>Module</t>
   </si>
@@ -5791,6 +5791,24 @@
   </si>
   <si>
     <t>Output Request Item Email</t>
+  </si>
+  <si>
+    <t>WE82</t>
+  </si>
+  <si>
+    <t>Msg type assignment to Basic type with Extension</t>
+  </si>
+  <si>
+    <t>SM59</t>
+  </si>
+  <si>
+    <t>RFC connection with LS</t>
+  </si>
+  <si>
+    <t>BD52</t>
+  </si>
+  <si>
+    <t>To change pointers to trigger outputs</t>
   </si>
 </sst>
 </file>
@@ -6312,7 +6330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6590,51 +6608,6 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -6652,6 +6625,51 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6700,6 +6718,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8037,7 +8058,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="149.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="161" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>445</v>
       </c>
@@ -9719,13 +9740,13 @@
       <c r="C2" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="D2" s="127" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="119">
+      <c r="E2" s="134">
         <v>44436</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="F2" s="131" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9739,9 +9760,9 @@
       <c r="C3" s="76" t="s">
         <v>775</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
@@ -9753,9 +9774,9 @@
       <c r="C4" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -9767,9 +9788,9 @@
       <c r="C5" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
     </row>
     <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
@@ -9781,9 +9802,9 @@
       <c r="C6" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -9795,9 +9816,9 @@
       <c r="C7" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -9809,9 +9830,9 @@
       <c r="C8" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="118"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9823,9 +9844,9 @@
       <c r="C9" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
@@ -9835,9 +9856,9 @@
       <c r="C10" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="132"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="s">
@@ -9849,9 +9870,9 @@
       <c r="C11" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="s">
@@ -9863,9 +9884,9 @@
       <c r="C12" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -9875,9 +9896,9 @@
         <v>463</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="s">
@@ -9889,9 +9910,9 @@
       <c r="C14" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -9903,9 +9924,9 @@
       <c r="C15" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -9917,9 +9938,9 @@
       <c r="C16" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -9931,9 +9952,9 @@
       <c r="C17" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
     </row>
     <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="s">
@@ -9945,9 +9966,9 @@
       <c r="C18" s="79" t="s">
         <v>777</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="s">
@@ -9959,9 +9980,9 @@
       <c r="C19" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -9973,9 +9994,9 @@
       <c r="C20" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
     </row>
     <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="s">
@@ -9987,9 +10008,9 @@
       <c r="C21" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
     </row>
     <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="s">
@@ -10001,9 +10022,9 @@
       <c r="C22" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="118"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="74"/>
@@ -10029,13 +10050,13 @@
       <c r="C25" s="80" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="126" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="117" t="s">
+      <c r="E25" s="127" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="117" t="s">
+      <c r="F25" s="127" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10049,9 +10070,9 @@
       <c r="C26" s="80" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="118"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="117"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
@@ -10063,9 +10084,9 @@
       <c r="C27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="117"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -10077,9 +10098,9 @@
       <c r="C28" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="118"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="117"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
@@ -10091,9 +10112,9 @@
       <c r="C29" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="118"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="117"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
     </row>
     <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
@@ -10105,9 +10126,9 @@
       <c r="C30" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="117"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="127"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
@@ -10119,9 +10140,9 @@
       <c r="C31" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="117"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -10133,9 +10154,9 @@
       <c r="C32" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="118"/>
-      <c r="E32" s="118"/>
-      <c r="F32" s="117"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
@@ -10147,9 +10168,9 @@
       <c r="C33" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="118"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="117"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
     </row>
     <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
@@ -10161,9 +10182,9 @@
       <c r="C34" s="67" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="117"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="127"/>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="s">
@@ -10175,9 +10196,9 @@
       <c r="C35" s="112" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="117"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="127"/>
       <c r="G35" s="83" t="s">
         <v>595</v>
       </c>
@@ -10192,9 +10213,9 @@
       <c r="C36" s="80" t="s">
         <v>520</v>
       </c>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="117"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="127"/>
       <c r="G36" s="19" t="s">
         <v>596</v>
       </c>
@@ -10209,9 +10230,9 @@
       <c r="C37" s="80" t="s">
         <v>523</v>
       </c>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="117"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="127"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -10223,9 +10244,9 @@
       <c r="C38" s="80" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="117"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="127"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -10235,9 +10256,9 @@
         <v>463</v>
       </c>
       <c r="C39" s="80"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="117"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="127"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
@@ -10249,9 +10270,9 @@
       <c r="C40" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="117"/>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="127"/>
     </row>
     <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
@@ -10263,9 +10284,9 @@
       <c r="C41" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="118"/>
-      <c r="E41" s="118"/>
-      <c r="F41" s="117"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="127"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -10277,9 +10298,9 @@
       <c r="C42" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="118"/>
-      <c r="E42" s="118"/>
-      <c r="F42" s="117"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="127"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
@@ -10301,13 +10322,13 @@
       <c r="C45" s="84" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="122" t="s">
+      <c r="D45" s="131" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="123" t="s">
+      <c r="E45" s="128" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="122" t="s">
+      <c r="F45" s="131" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10321,9 +10342,9 @@
       <c r="C46" s="71" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="120"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="120"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="132"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
@@ -10335,9 +10356,9 @@
       <c r="C47" s="71" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="120"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="120"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="132"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -10347,9 +10368,9 @@
         <v>532</v>
       </c>
       <c r="C48" s="71"/>
-      <c r="D48" s="120"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="120"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="132"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
@@ -10361,9 +10382,9 @@
       <c r="C49" s="71" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="120"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="120"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="132"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
@@ -10375,9 +10396,9 @@
       <c r="C50" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="D50" s="120"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="120"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="132"/>
     </row>
     <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
@@ -10389,9 +10410,9 @@
       <c r="C51" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="D51" s="120"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="120"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="132"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -10401,9 +10422,9 @@
         <v>455</v>
       </c>
       <c r="C52" s="71"/>
-      <c r="D52" s="120"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="120"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="132"/>
     </row>
     <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
@@ -10415,9 +10436,9 @@
       <c r="C53" s="84" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="120"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="120"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="132"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
@@ -10427,9 +10448,9 @@
         <v>455</v>
       </c>
       <c r="C54" s="71"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="120"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="132"/>
     </row>
     <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
@@ -10441,9 +10462,9 @@
       <c r="C55" s="85" t="s">
         <v>778</v>
       </c>
-      <c r="D55" s="121"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="121"/>
+      <c r="D55" s="133"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="133"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
@@ -10463,11 +10484,11 @@
       <c r="C57" s="67" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="118" t="s">
+      <c r="D57" s="126" t="s">
         <v>557</v>
       </c>
-      <c r="E57" s="126"/>
-      <c r="F57" s="122" t="s">
+      <c r="E57" s="135"/>
+      <c r="F57" s="131" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10481,9 +10502,9 @@
       <c r="C58" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="118"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="120"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="132"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
@@ -10495,9 +10516,9 @@
       <c r="C59" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="118"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="120"/>
+      <c r="D59" s="126"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="132"/>
     </row>
     <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
@@ -10509,9 +10530,9 @@
       <c r="C60" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D60" s="118"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="120"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="132"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
@@ -10523,9 +10544,9 @@
       <c r="C61" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D61" s="118"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="120"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="132"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
@@ -10537,9 +10558,9 @@
       <c r="C62" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="118"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="121"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="133"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
@@ -10559,13 +10580,13 @@
       <c r="C64" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="118" t="s">
+      <c r="D64" s="126" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="117" t="s">
+      <c r="E64" s="127" t="s">
         <v>570</v>
       </c>
-      <c r="F64" s="117" t="s">
+      <c r="F64" s="127" t="s">
         <v>571</v>
       </c>
     </row>
@@ -10579,9 +10600,9 @@
       <c r="C65" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D65" s="118"/>
-      <c r="E65" s="118"/>
-      <c r="F65" s="118"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
@@ -10593,9 +10614,9 @@
       <c r="C66" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D66" s="118"/>
-      <c r="E66" s="118"/>
-      <c r="F66" s="118"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
     </row>
     <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -10607,9 +10628,9 @@
       <c r="C67" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="D67" s="118"/>
-      <c r="E67" s="118"/>
-      <c r="F67" s="118"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
@@ -10621,9 +10642,9 @@
       <c r="C68" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="118"/>
-      <c r="E68" s="118"/>
-      <c r="F68" s="118"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
@@ -10639,13 +10660,13 @@
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="123" t="s">
+      <c r="D70" s="128" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="123" t="s">
+      <c r="E70" s="128" t="s">
         <v>577</v>
       </c>
-      <c r="F70" s="122" t="s">
+      <c r="F70" s="131" t="s">
         <v>578</v>
       </c>
     </row>
@@ -10655,9 +10676,9 @@
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="120"/>
+      <c r="D71" s="129"/>
+      <c r="E71" s="129"/>
+      <c r="F71" s="132"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
@@ -10665,9 +10686,9 @@
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="124"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="120"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="132"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
@@ -10675,17 +10696,17 @@
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="125"/>
-      <c r="E73" s="125"/>
-      <c r="F73" s="121"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="133"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="127"/>
-      <c r="B74" s="128"/>
-      <c r="C74" s="128"/>
-      <c r="D74" s="128"/>
-      <c r="E74" s="128"/>
-      <c r="F74" s="129"/>
+      <c r="A74" s="123"/>
+      <c r="B74" s="124"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="125"/>
     </row>
     <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="99" t="s">
@@ -10697,11 +10718,11 @@
       <c r="C75" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D75" s="118"/>
-      <c r="E75" s="117" t="s">
+      <c r="D75" s="126"/>
+      <c r="E75" s="127" t="s">
         <v>583</v>
       </c>
-      <c r="F75" s="118" t="s">
+      <c r="F75" s="126" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10715,9 +10736,9 @@
       <c r="C76" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="118"/>
-      <c r="E76" s="118"/>
-      <c r="F76" s="118"/>
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
@@ -10729,9 +10750,9 @@
       <c r="C77" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="118"/>
-      <c r="E77" s="118"/>
-      <c r="F77" s="118"/>
+      <c r="D77" s="126"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="126"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
@@ -10743,9 +10764,9 @@
       <c r="C78" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="118"/>
-      <c r="E78" s="118"/>
-      <c r="F78" s="118"/>
+      <c r="D78" s="126"/>
+      <c r="E78" s="126"/>
+      <c r="F78" s="126"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="99" t="s">
@@ -10757,9 +10778,9 @@
       <c r="C79" s="86" t="s">
         <v>592</v>
       </c>
-      <c r="D79" s="118"/>
-      <c r="E79" s="118"/>
-      <c r="F79" s="118"/>
+      <c r="D79" s="126"/>
+      <c r="E79" s="126"/>
+      <c r="F79" s="126"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
@@ -10803,13 +10824,13 @@
       <c r="C86" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="115" t="s">
+      <c r="D86" s="121" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="117" t="s">
+      <c r="E86" s="127" t="s">
         <v>652</v>
       </c>
-      <c r="F86" s="115" t="s">
+      <c r="F86" s="121" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10823,9 +10844,9 @@
       <c r="C87" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="D87" s="115"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="115"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="121"/>
     </row>
     <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
@@ -10837,9 +10858,9 @@
       <c r="C88" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="D88" s="115"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="115"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="121"/>
     </row>
     <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
@@ -10851,9 +10872,9 @@
       <c r="C89" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="D89" s="115"/>
-      <c r="E89" s="117"/>
-      <c r="F89" s="115"/>
+      <c r="D89" s="121"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="121"/>
     </row>
     <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
@@ -10865,9 +10886,9 @@
       <c r="C90" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="D90" s="115"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="115"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="121"/>
     </row>
     <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
@@ -10879,9 +10900,9 @@
       <c r="C91" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="D91" s="115"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="115"/>
+      <c r="D91" s="121"/>
+      <c r="E91" s="127"/>
+      <c r="F91" s="121"/>
     </row>
     <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
@@ -10893,9 +10914,9 @@
       <c r="C92" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="D92" s="115"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="115"/>
+      <c r="D92" s="121"/>
+      <c r="E92" s="127"/>
+      <c r="F92" s="121"/>
     </row>
     <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
@@ -10907,9 +10928,9 @@
       <c r="C93" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="D93" s="115"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="115"/>
+      <c r="D93" s="121"/>
+      <c r="E93" s="127"/>
+      <c r="F93" s="121"/>
     </row>
     <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A95" s="100" t="s">
@@ -10924,13 +10945,13 @@
         <v>463</v>
       </c>
       <c r="C96" s="21"/>
-      <c r="D96" s="115" t="s">
+      <c r="D96" s="121" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="115" t="s">
+      <c r="E96" s="121" t="s">
         <v>809</v>
       </c>
-      <c r="F96" s="115" t="s">
+      <c r="F96" s="121" t="s">
         <v>812</v>
       </c>
     </row>
@@ -10944,9 +10965,9 @@
       <c r="C97" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="D97" s="115"/>
-      <c r="E97" s="115"/>
-      <c r="F97" s="115"/>
+      <c r="D97" s="121"/>
+      <c r="E97" s="121"/>
+      <c r="F97" s="121"/>
     </row>
     <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A98" s="86" t="s">
@@ -10958,9 +10979,9 @@
       <c r="C98" s="86" t="s">
         <v>706</v>
       </c>
-      <c r="D98" s="115"/>
-      <c r="E98" s="115"/>
-      <c r="F98" s="115"/>
+      <c r="D98" s="121"/>
+      <c r="E98" s="121"/>
+      <c r="F98" s="121"/>
     </row>
     <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
@@ -10972,9 +10993,9 @@
       <c r="C99" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="D99" s="115"/>
-      <c r="E99" s="115"/>
-      <c r="F99" s="115"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
     </row>
     <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
@@ -10986,9 +11007,9 @@
       <c r="C100" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="D100" s="115"/>
-      <c r="E100" s="115"/>
-      <c r="F100" s="115"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="121"/>
+      <c r="F100" s="121"/>
     </row>
     <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
@@ -11000,9 +11021,9 @@
       <c r="C101" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="D101" s="115"/>
-      <c r="E101" s="115"/>
-      <c r="F101" s="115"/>
+      <c r="D101" s="121"/>
+      <c r="E101" s="121"/>
+      <c r="F101" s="121"/>
     </row>
     <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
@@ -11014,9 +11035,9 @@
       <c r="C102" s="79" t="s">
         <v>817</v>
       </c>
-      <c r="D102" s="115"/>
-      <c r="E102" s="115"/>
-      <c r="F102" s="115"/>
+      <c r="D102" s="121"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="121"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
@@ -11026,9 +11047,9 @@
         <v>463</v>
       </c>
       <c r="C103" s="21"/>
-      <c r="D103" s="115"/>
-      <c r="E103" s="115"/>
-      <c r="F103" s="115"/>
+      <c r="D103" s="121"/>
+      <c r="E103" s="121"/>
+      <c r="F103" s="121"/>
     </row>
     <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A104" s="86" t="s">
@@ -11040,9 +11061,9 @@
       <c r="C104" s="86" t="s">
         <v>888</v>
       </c>
-      <c r="D104" s="115"/>
-      <c r="E104" s="115"/>
-      <c r="F104" s="115"/>
+      <c r="D104" s="121"/>
+      <c r="E104" s="121"/>
+      <c r="F104" s="121"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
@@ -11054,9 +11075,9 @@
       <c r="C105" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D105" s="115"/>
-      <c r="E105" s="115"/>
-      <c r="F105" s="115"/>
+      <c r="D105" s="121"/>
+      <c r="E105" s="121"/>
+      <c r="F105" s="121"/>
     </row>
     <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="s">
@@ -11068,9 +11089,9 @@
       <c r="C106" s="94" t="s">
         <v>820</v>
       </c>
-      <c r="D106" s="115"/>
-      <c r="E106" s="115"/>
-      <c r="F106" s="115"/>
+      <c r="D106" s="121"/>
+      <c r="E106" s="121"/>
+      <c r="F106" s="121"/>
     </row>
     <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A107" s="86" t="s">
@@ -11082,9 +11103,9 @@
       <c r="C107" s="86" t="s">
         <v>821</v>
       </c>
-      <c r="D107" s="115"/>
-      <c r="E107" s="115"/>
-      <c r="F107" s="115"/>
+      <c r="D107" s="121"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="121"/>
     </row>
     <row r="108" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
@@ -11096,9 +11117,9 @@
       <c r="C108" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="D108" s="115"/>
-      <c r="E108" s="115"/>
-      <c r="F108" s="115"/>
+      <c r="D108" s="121"/>
+      <c r="E108" s="121"/>
+      <c r="F108" s="121"/>
     </row>
     <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="86" t="s">
@@ -11110,9 +11131,9 @@
       <c r="C109" s="86" t="s">
         <v>823</v>
       </c>
-      <c r="D109" s="115"/>
-      <c r="E109" s="115"/>
-      <c r="F109" s="115"/>
+      <c r="D109" s="121"/>
+      <c r="E109" s="121"/>
+      <c r="F109" s="121"/>
     </row>
     <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
@@ -11124,9 +11145,9 @@
       <c r="C110" s="88" t="s">
         <v>921</v>
       </c>
-      <c r="D110" s="115"/>
-      <c r="E110" s="115"/>
-      <c r="F110" s="115"/>
+      <c r="D110" s="121"/>
+      <c r="E110" s="121"/>
+      <c r="F110" s="121"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
@@ -11136,9 +11157,9 @@
         <v>455</v>
       </c>
       <c r="C111" s="21"/>
-      <c r="D111" s="115"/>
-      <c r="E111" s="115"/>
-      <c r="F111" s="115"/>
+      <c r="D111" s="121"/>
+      <c r="E111" s="121"/>
+      <c r="F111" s="121"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
@@ -11148,9 +11169,9 @@
         <v>455</v>
       </c>
       <c r="C112" s="21"/>
-      <c r="D112" s="115"/>
-      <c r="E112" s="115"/>
-      <c r="F112" s="115"/>
+      <c r="D112" s="121"/>
+      <c r="E112" s="121"/>
+      <c r="F112" s="121"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
@@ -11160,9 +11181,9 @@
         <v>455</v>
       </c>
       <c r="C113" s="21"/>
-      <c r="D113" s="115"/>
-      <c r="E113" s="115"/>
-      <c r="F113" s="115"/>
+      <c r="D113" s="121"/>
+      <c r="E113" s="121"/>
+      <c r="F113" s="121"/>
     </row>
     <row r="114" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="86" t="s">
@@ -11174,9 +11195,9 @@
       <c r="C114" s="86" t="s">
         <v>824</v>
       </c>
-      <c r="D114" s="115"/>
-      <c r="E114" s="115"/>
-      <c r="F114" s="115"/>
+      <c r="D114" s="121"/>
+      <c r="E114" s="121"/>
+      <c r="F114" s="121"/>
     </row>
     <row r="116" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A116" s="100" t="s">
@@ -11193,13 +11214,13 @@
       <c r="C117" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D117" s="115" t="s">
+      <c r="D117" s="121" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="116">
+      <c r="E117" s="122">
         <v>45194</v>
       </c>
-      <c r="F117" s="115" t="s">
+      <c r="F117" s="121" t="s">
         <v>812</v>
       </c>
     </row>
@@ -11213,9 +11234,9 @@
       <c r="C118" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D118" s="115"/>
-      <c r="E118" s="115"/>
-      <c r="F118" s="115"/>
+      <c r="D118" s="121"/>
+      <c r="E118" s="121"/>
+      <c r="F118" s="121"/>
     </row>
     <row r="119" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
@@ -11227,9 +11248,9 @@
       <c r="C119" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D119" s="115"/>
-      <c r="E119" s="115"/>
-      <c r="F119" s="115"/>
+      <c r="D119" s="121"/>
+      <c r="E119" s="121"/>
+      <c r="F119" s="121"/>
     </row>
     <row r="120" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
@@ -11241,9 +11262,9 @@
       <c r="C120" s="26" t="s">
         <v>904</v>
       </c>
-      <c r="D120" s="115"/>
-      <c r="E120" s="115"/>
-      <c r="F120" s="115"/>
+      <c r="D120" s="121"/>
+      <c r="E120" s="121"/>
+      <c r="F120" s="121"/>
     </row>
     <row r="121" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="73" t="s">
@@ -11255,9 +11276,9 @@
       <c r="C121" s="73" t="s">
         <v>906</v>
       </c>
-      <c r="D121" s="115"/>
-      <c r="E121" s="115"/>
-      <c r="F121" s="115"/>
+      <c r="D121" s="121"/>
+      <c r="E121" s="121"/>
+      <c r="F121" s="121"/>
     </row>
     <row r="122" spans="1:6" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
@@ -11269,9 +11290,9 @@
       <c r="C122" s="88" t="s">
         <v>908</v>
       </c>
-      <c r="D122" s="115"/>
-      <c r="E122" s="115"/>
-      <c r="F122" s="115"/>
+      <c r="D122" s="121"/>
+      <c r="E122" s="121"/>
+      <c r="F122" s="121"/>
     </row>
     <row r="123" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
@@ -11283,9 +11304,9 @@
       <c r="C123" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="D123" s="115"/>
-      <c r="E123" s="115"/>
-      <c r="F123" s="115"/>
+      <c r="D123" s="121"/>
+      <c r="E123" s="121"/>
+      <c r="F123" s="121"/>
     </row>
     <row r="124" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
@@ -11297,9 +11318,9 @@
       <c r="C124" s="26" t="s">
         <v>911</v>
       </c>
-      <c r="D124" s="115"/>
-      <c r="E124" s="115"/>
-      <c r="F124" s="115"/>
+      <c r="D124" s="121"/>
+      <c r="E124" s="121"/>
+      <c r="F124" s="121"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
@@ -11309,9 +11330,9 @@
         <v>455</v>
       </c>
       <c r="C125" s="21"/>
-      <c r="D125" s="115"/>
-      <c r="E125" s="115"/>
-      <c r="F125" s="115"/>
+      <c r="D125" s="121"/>
+      <c r="E125" s="121"/>
+      <c r="F125" s="121"/>
     </row>
     <row r="127" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A127" s="100" t="s">
@@ -11328,13 +11349,13 @@
       <c r="C128" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="D128" s="130" t="s">
+      <c r="D128" s="115" t="s">
         <v>569</v>
       </c>
-      <c r="E128" s="133">
+      <c r="E128" s="118">
         <v>45203</v>
       </c>
-      <c r="F128" s="130" t="s">
+      <c r="F128" s="115" t="s">
         <v>812</v>
       </c>
     </row>
@@ -11348,9 +11369,9 @@
       <c r="C129" s="88" t="s">
         <v>932</v>
       </c>
-      <c r="D129" s="131"/>
-      <c r="E129" s="134"/>
-      <c r="F129" s="131"/>
+      <c r="D129" s="116"/>
+      <c r="E129" s="119"/>
+      <c r="F129" s="116"/>
     </row>
     <row r="130" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="26" t="s">
@@ -11362,9 +11383,9 @@
       <c r="C130" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D130" s="131"/>
-      <c r="E130" s="134"/>
-      <c r="F130" s="131"/>
+      <c r="D130" s="116"/>
+      <c r="E130" s="119"/>
+      <c r="F130" s="116"/>
     </row>
     <row r="131" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="26" t="s">
@@ -11376,9 +11397,9 @@
       <c r="C131" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D131" s="131"/>
-      <c r="E131" s="134"/>
-      <c r="F131" s="131"/>
+      <c r="D131" s="116"/>
+      <c r="E131" s="119"/>
+      <c r="F131" s="116"/>
     </row>
     <row r="132" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
@@ -11390,9 +11411,9 @@
       <c r="C132" s="113" t="s">
         <v>946</v>
       </c>
-      <c r="D132" s="131"/>
-      <c r="E132" s="134"/>
-      <c r="F132" s="131"/>
+      <c r="D132" s="116"/>
+      <c r="E132" s="119"/>
+      <c r="F132" s="116"/>
     </row>
     <row r="133" spans="1:6" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
@@ -11404,9 +11425,9 @@
       <c r="C133" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="D133" s="131"/>
-      <c r="E133" s="134"/>
-      <c r="F133" s="131"/>
+      <c r="D133" s="116"/>
+      <c r="E133" s="119"/>
+      <c r="F133" s="116"/>
     </row>
     <row r="134" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="26" t="s">
@@ -11418,9 +11439,9 @@
       <c r="C134" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D134" s="131"/>
-      <c r="E134" s="134"/>
-      <c r="F134" s="131"/>
+      <c r="D134" s="116"/>
+      <c r="E134" s="119"/>
+      <c r="F134" s="116"/>
     </row>
     <row r="135" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="26" t="s">
@@ -11432,9 +11453,9 @@
       <c r="C135" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D135" s="131"/>
-      <c r="E135" s="134"/>
-      <c r="F135" s="131"/>
+      <c r="D135" s="116"/>
+      <c r="E135" s="119"/>
+      <c r="F135" s="116"/>
     </row>
     <row r="136" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="26" t="s">
@@ -11446,9 +11467,9 @@
       <c r="C136" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D136" s="131"/>
-      <c r="E136" s="134"/>
-      <c r="F136" s="131"/>
+      <c r="D136" s="116"/>
+      <c r="E136" s="119"/>
+      <c r="F136" s="116"/>
     </row>
     <row r="137" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
@@ -11460,9 +11481,9 @@
       <c r="C137" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="D137" s="131"/>
-      <c r="E137" s="134"/>
-      <c r="F137" s="131"/>
+      <c r="D137" s="116"/>
+      <c r="E137" s="119"/>
+      <c r="F137" s="116"/>
     </row>
     <row r="138" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26" t="s">
@@ -11474,9 +11495,9 @@
       <c r="C138" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D138" s="131"/>
-      <c r="E138" s="134"/>
-      <c r="F138" s="131"/>
+      <c r="D138" s="116"/>
+      <c r="E138" s="119"/>
+      <c r="F138" s="116"/>
     </row>
     <row r="139" spans="1:6" ht="146" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
@@ -11488,9 +11509,9 @@
       <c r="C139" s="113" t="s">
         <v>930</v>
       </c>
-      <c r="D139" s="131"/>
-      <c r="E139" s="134"/>
-      <c r="F139" s="131"/>
+      <c r="D139" s="116"/>
+      <c r="E139" s="119"/>
+      <c r="F139" s="116"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
@@ -11502,9 +11523,9 @@
       <c r="C140" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="D140" s="131"/>
-      <c r="E140" s="134"/>
-      <c r="F140" s="131"/>
+      <c r="D140" s="116"/>
+      <c r="E140" s="119"/>
+      <c r="F140" s="116"/>
     </row>
     <row r="141" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
@@ -11516,9 +11537,9 @@
       <c r="C141" s="26" t="s">
         <v>938</v>
       </c>
-      <c r="D141" s="131"/>
-      <c r="E141" s="134"/>
-      <c r="F141" s="131"/>
+      <c r="D141" s="116"/>
+      <c r="E141" s="119"/>
+      <c r="F141" s="116"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
@@ -11530,9 +11551,9 @@
       <c r="C142" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="D142" s="132"/>
-      <c r="E142" s="135"/>
-      <c r="F142" s="132"/>
+      <c r="D142" s="117"/>
+      <c r="E142" s="120"/>
+      <c r="F142" s="117"/>
     </row>
     <row r="144" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A144" s="114" t="s">
@@ -11549,13 +11570,13 @@
       <c r="C145" s="21" t="s">
         <v>950</v>
       </c>
-      <c r="D145" s="115" t="s">
+      <c r="D145" s="121" t="s">
         <v>569</v>
       </c>
-      <c r="E145" s="116">
+      <c r="E145" s="122">
         <v>45204</v>
       </c>
-      <c r="F145" s="115" t="s">
+      <c r="F145" s="121" t="s">
         <v>812</v>
       </c>
     </row>
@@ -11569,9 +11590,9 @@
       <c r="C146" s="21" t="s">
         <v>953</v>
       </c>
-      <c r="D146" s="115"/>
-      <c r="E146" s="115"/>
-      <c r="F146" s="115"/>
+      <c r="D146" s="121"/>
+      <c r="E146" s="121"/>
+      <c r="F146" s="121"/>
     </row>
     <row r="147" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
@@ -11581,9 +11602,9 @@
         <v>517</v>
       </c>
       <c r="C147" s="21"/>
-      <c r="D147" s="115"/>
-      <c r="E147" s="115"/>
-      <c r="F147" s="115"/>
+      <c r="D147" s="121"/>
+      <c r="E147" s="121"/>
+      <c r="F147" s="121"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
@@ -11595,9 +11616,9 @@
       <c r="C148" s="21" t="s">
         <v>956</v>
       </c>
-      <c r="D148" s="115"/>
-      <c r="E148" s="115"/>
-      <c r="F148" s="115"/>
+      <c r="D148" s="121"/>
+      <c r="E148" s="121"/>
+      <c r="F148" s="121"/>
     </row>
     <row r="149" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
@@ -11609,9 +11630,9 @@
       <c r="C149" s="26" t="s">
         <v>962</v>
       </c>
-      <c r="D149" s="115"/>
-      <c r="E149" s="115"/>
-      <c r="F149" s="115"/>
+      <c r="D149" s="121"/>
+      <c r="E149" s="121"/>
+      <c r="F149" s="121"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
@@ -11621,9 +11642,9 @@
         <v>952</v>
       </c>
       <c r="C150" s="21"/>
-      <c r="D150" s="115"/>
-      <c r="E150" s="115"/>
-      <c r="F150" s="115"/>
+      <c r="D150" s="121"/>
+      <c r="E150" s="121"/>
+      <c r="F150" s="121"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
@@ -11635,9 +11656,9 @@
       <c r="C151" s="21" t="s">
         <v>961</v>
       </c>
-      <c r="D151" s="115"/>
-      <c r="E151" s="115"/>
-      <c r="F151" s="115"/>
+      <c r="D151" s="121"/>
+      <c r="E151" s="121"/>
+      <c r="F151" s="121"/>
     </row>
     <row r="153" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A153" s="114" t="s">
@@ -11646,27 +11667,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D128:D142"/>
-    <mergeCell ref="E128:E142"/>
-    <mergeCell ref="F128:F142"/>
-    <mergeCell ref="D117:D125"/>
-    <mergeCell ref="E117:E125"/>
-    <mergeCell ref="F117:F125"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="D96:D114"/>
-    <mergeCell ref="E96:E114"/>
-    <mergeCell ref="F96:F114"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
     <mergeCell ref="D145:D151"/>
     <mergeCell ref="E145:E151"/>
     <mergeCell ref="F145:F151"/>
@@ -11683,6 +11683,27 @@
     <mergeCell ref="E57:E62"/>
     <mergeCell ref="F57:F62"/>
     <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="D96:D114"/>
+    <mergeCell ref="E96:E114"/>
+    <mergeCell ref="F96:F114"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="D128:D142"/>
+    <mergeCell ref="E128:E142"/>
+    <mergeCell ref="F128:F142"/>
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="F117:F125"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
@@ -11849,7 +11870,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="101" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>704</v>
       </c>
@@ -13511,8 +13532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5703F574-C88B-4291-BBA6-05D5382680CC}">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13793,6 +13814,12 @@
       <c r="H12" s="21" t="s">
         <v>213</v>
       </c>
+      <c r="J12" s="21" t="s">
+        <v>972</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -13813,6 +13840,12 @@
       <c r="H13" s="21" t="s">
         <v>225</v>
       </c>
+      <c r="J13" s="21" t="s">
+        <v>974</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G14" s="21" t="s">
@@ -13821,6 +13854,12 @@
       <c r="H14" s="21" t="s">
         <v>232</v>
       </c>
+      <c r="J14" s="21" t="s">
+        <v>976</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G15" s="21" t="s">
@@ -13840,11 +13879,8 @@
       <c r="G17" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="J17" s="110" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>727</v>
       </c>
@@ -13863,11 +13899,8 @@
       <c r="H18" s="21" t="s">
         <v>754</v>
       </c>
-      <c r="J18" s="21" t="s">
-        <v>917</v>
-      </c>
-      <c r="K18" s="21" t="s">
-        <v>918</v>
+      <c r="J18" s="152" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -13890,10 +13923,10 @@
         <v>755</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -13914,6 +13947,12 @@
       </c>
       <c r="H20" s="21" t="s">
         <v>756</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>919</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -13999,7 +14038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2A2292-F8D8-430C-931B-01C5D23F2DCF}">
   <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G14" sqref="G14:H15"/>
     </sheetView>
   </sheetViews>

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\P\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A199DA96-B04B-41C2-888D-413AC48BF7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E34EBDB-46AE-4736-8388-8DA169BE4B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -39,23 +39,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="988">
   <si>
     <t>Module</t>
   </si>
@@ -5809,6 +5798,36 @@
   </si>
   <si>
     <t>To change pointers to trigger outputs</t>
+  </si>
+  <si>
+    <t>What does T-code FD32 do?</t>
+  </si>
+  <si>
+    <t>What is the alternate code FD32 in S4 HANA?</t>
+  </si>
+  <si>
+    <t>What is Item category determination picking rule?</t>
+  </si>
+  <si>
+    <t>Will there be any account key when condition type is statistical?</t>
+  </si>
+  <si>
+    <t>What are the condition types used in Intercompany billing?</t>
+  </si>
+  <si>
+    <t>When will idoc be used in Intercompany company process?</t>
+  </si>
+  <si>
+    <t>Which configuration we will have to change to create PO directly in 3rd party drop ship?</t>
+  </si>
+  <si>
+    <t>Can we document flow for all the processes in consignment process?</t>
+  </si>
+  <si>
+    <t>Have you worked on Batch determinations?</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -6608,6 +6627,54 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -6625,51 +6692,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6718,9 +6740,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8004,18 +8023,18 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.453125" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.7265625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.7265625" style="52" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="52"/>
+    <col min="1" max="1" width="20.44140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.77734375" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.77734375" style="52" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
         <v>437</v>
       </c>
@@ -8023,7 +8042,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="195.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="193.8" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>439</v>
       </c>
@@ -8034,7 +8053,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="148.19999999999999" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>440</v>
       </c>
@@ -8042,7 +8061,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
         <v>441</v>
       </c>
@@ -8050,7 +8069,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>443</v>
       </c>
@@ -8058,7 +8077,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="161" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="148.19999999999999" x14ac:dyDescent="0.2">
       <c r="A6" s="56" t="s">
         <v>445</v>
       </c>
@@ -8066,7 +8085,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="126.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="125.4" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
         <v>447</v>
       </c>
@@ -8085,16 +8104,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B62021A-965A-4299-8854-C66D43EE8F34}">
   <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="138.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="138.21875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="123.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>230</v>
       </c>
@@ -8109,47 +8128,47 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="203" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
         <v>808</v>
       </c>
@@ -8157,15 +8176,15 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="98" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>909</v>
       </c>
@@ -8174,7 +8193,7 @@
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="288" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>910</v>
       </c>
@@ -8185,7 +8204,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>912</v>
       </c>
@@ -8208,137 +8227,137 @@
       <selection activeCell="A5" sqref="A5:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="110.55" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:22" ht="72.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="147" t="s">
         <v>597</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-    </row>
-    <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="148" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+    </row>
+    <row r="2" spans="1:22" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="149" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-    </row>
-    <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="149" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+    </row>
+    <row r="3" spans="1:22" ht="259.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="150" t="s">
         <v>246</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="149"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-    </row>
-    <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="148" t="s">
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+    </row>
+    <row r="4" spans="1:22" ht="308.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="149" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-    </row>
-    <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="149" t="s">
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+    </row>
+    <row r="5" spans="1:22" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="150" t="s">
         <v>248</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="150"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8361,19 +8380,19 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>662</v>
       </c>
@@ -8384,7 +8403,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="45" t="s">
         <v>676</v>
@@ -8393,21 +8412,21 @@
         <v>673</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="21" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="74" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="72" t="s">
         <v>677</v>
@@ -8416,28 +8435,28 @@
         <v>678</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>663</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>664</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>665</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>666</v>
       </c>
@@ -8446,7 +8465,7 @@
       </c>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>669</v>
       </c>
@@ -8455,7 +8474,7 @@
       </c>
       <c r="C11" s="21"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>670</v>
       </c>
@@ -8466,7 +8485,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="45" t="s">
         <v>679</v>
@@ -8475,7 +8494,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="45" t="s">
         <v>682</v>
@@ -8484,12 +8503,12 @@
         <v>680</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="62" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="71" t="s">
         <v>662</v>
       </c>
@@ -8498,21 +8517,21 @@
       </c>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="21" t="s">
         <v>758</v>
       </c>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="74" t="s">
         <v>759</v>
       </c>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>760</v>
       </c>
@@ -8521,7 +8540,7 @@
       </c>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>761</v>
       </c>
@@ -8530,14 +8549,14 @@
       </c>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>764</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>765</v>
       </c>
@@ -8546,50 +8565,50 @@
       </c>
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
         <v>766</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="19"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="62" t="s">
         <v>767</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
         <v>768</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>769</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
         <v>770</v>
       </c>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
         <v>771</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>773</v>
       </c>
@@ -8597,7 +8616,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>774</v>
       </c>
@@ -8618,23 +8637,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.6328125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="91.36328125" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="88.6640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="91.33203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>827</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>828</v>
       </c>
@@ -8647,7 +8666,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>833</v>
       </c>
@@ -8655,12 +8674,12 @@
         <v>831</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>835</v>
       </c>
@@ -8668,7 +8687,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>861</v>
       </c>
@@ -8676,7 +8695,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="73" t="s">
         <v>862</v>
@@ -8695,12 +8714,12 @@
         <v>886</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="62" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>837</v>
       </c>
@@ -8720,7 +8739,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>838</v>
       </c>
@@ -8823,7 +8842,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A37" s="87" t="s">
         <v>864</v>
       </c>
@@ -8831,7 +8850,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>865</v>
       </c>
@@ -8845,7 +8864,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="C39" s="73" t="s">
         <v>869</v>
       </c>
@@ -8853,7 +8872,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
         <v>894</v>
       </c>
@@ -8898,7 +8917,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>883</v>
       </c>
@@ -8906,7 +8925,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>877</v>
       </c>
@@ -8952,13 +8971,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.90625" customWidth="1"/>
-    <col min="2" max="2" width="69.90625" customWidth="1"/>
+    <col min="1" max="1" width="96.88671875" customWidth="1"/>
+    <col min="2" max="2" width="69.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>305</v>
       </c>
@@ -8966,17 +8985,17 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>307</v>
       </c>
       <c r="B2" s="12"/>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>308</v>
       </c>
@@ -8984,7 +9003,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="155" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="156" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>310</v>
       </c>
@@ -9004,19 +9023,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>781</v>
       </c>
@@ -9024,7 +9043,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>783</v>
       </c>
@@ -9032,7 +9051,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>785</v>
       </c>
@@ -9040,17 +9059,17 @@
         <v>786</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>788</v>
       </c>
@@ -9072,13 +9091,13 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>313</v>
       </c>
@@ -9086,7 +9105,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>312</v>
       </c>
@@ -9094,13 +9113,13 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="58">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
         <v>174</v>
       </c>
@@ -9118,23 +9137,23 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>598</v>
       </c>
@@ -9163,7 +9182,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>599</v>
       </c>
@@ -9192,7 +9211,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>608</v>
       </c>
@@ -9221,7 +9240,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>608</v>
       </c>
@@ -9247,7 +9266,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>616</v>
       </c>
@@ -9267,7 +9286,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>617</v>
       </c>
@@ -9287,7 +9306,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>618</v>
       </c>
@@ -9307,7 +9326,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>619</v>
       </c>
@@ -9327,7 +9346,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>620</v>
       </c>
@@ -9347,7 +9366,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>621</v>
       </c>
@@ -9361,7 +9380,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>622</v>
       </c>
@@ -9369,7 +9388,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>637</v>
       </c>
@@ -9380,7 +9399,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
         <v>640</v>
       </c>
@@ -9399,7 +9418,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="50" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="50" style="19"/>
   </cols>
@@ -9415,7 +9434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="132" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -9426,7 +9445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="125" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="132" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
@@ -9437,7 +9456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>52</v>
       </c>
@@ -9448,7 +9467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>57</v>
       </c>
@@ -9459,7 +9478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>60</v>
       </c>
@@ -9471,13 +9490,13 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="152" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-    </row>
-    <row r="9" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+    </row>
+    <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
@@ -9531,11 +9550,11 @@
       <c r="C13" s="21"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
@@ -9548,7 +9567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>94</v>
       </c>
@@ -9620,9 +9639,9 @@
       <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="15:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="15:30" ht="43.2" x14ac:dyDescent="0.3">
       <c r="O1" s="5" t="s">
         <v>130</v>
       </c>
@@ -9642,12 +9661,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -9655,27 +9674,27 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -9692,22 +9711,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="255.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.26953125" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="115.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.36328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="255.54296875" style="19"/>
+    <col min="1" max="1" width="70.21875" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="255.5546875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9730,7 +9749,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>454</v>
       </c>
@@ -9740,17 +9759,17 @@
       <c r="C2" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="118" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="134">
+      <c r="E2" s="120">
         <v>44436</v>
       </c>
-      <c r="F2" s="131" t="s">
+      <c r="F2" s="123" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>459</v>
       </c>
@@ -9760,9 +9779,9 @@
       <c r="C3" s="76" t="s">
         <v>775</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
@@ -9774,9 +9793,9 @@
       <c r="C4" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -9788,11 +9807,11 @@
       <c r="C5" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="126"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-    </row>
-    <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D5" s="119"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>465</v>
       </c>
@@ -9802,11 +9821,11 @@
       <c r="C6" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-    </row>
-    <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D6" s="119"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>467</v>
       </c>
@@ -9816,9 +9835,9 @@
       <c r="C7" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -9830,9 +9849,9 @@
       <c r="C8" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9844,11 +9863,11 @@
       <c r="C9" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-    </row>
-    <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D9" s="119"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>473</v>
       </c>
@@ -9856,9 +9875,9 @@
       <c r="C10" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="s">
@@ -9870,11 +9889,11 @@
       <c r="C11" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-    </row>
-    <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D11" s="119"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+    </row>
+    <row r="12" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="s">
         <v>476</v>
       </c>
@@ -9884,9 +9903,9 @@
       <c r="C12" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -9896,9 +9915,9 @@
         <v>463</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="s">
@@ -9910,9 +9929,9 @@
       <c r="C14" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -9924,9 +9943,9 @@
       <c r="C15" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -9938,9 +9957,9 @@
       <c r="C16" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -9952,11 +9971,11 @@
       <c r="C17" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-    </row>
-    <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D17" s="119"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+    </row>
+    <row r="18" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="s">
         <v>486</v>
       </c>
@@ -9966,9 +9985,9 @@
       <c r="C18" s="79" t="s">
         <v>777</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="s">
@@ -9980,9 +9999,9 @@
       <c r="C19" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -9994,11 +10013,11 @@
       <c r="C20" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-    </row>
-    <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D20" s="119"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+    </row>
+    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="s">
         <v>491</v>
       </c>
@@ -10008,11 +10027,11 @@
       <c r="C21" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-    </row>
-    <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D21" s="119"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+    </row>
+    <row r="22" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="s">
         <v>493</v>
       </c>
@@ -10022,9 +10041,9 @@
       <c r="C22" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="126"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="74"/>
@@ -10050,13 +10069,13 @@
       <c r="C25" s="80" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="126" t="s">
+      <c r="D25" s="119" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="127" t="s">
+      <c r="E25" s="118" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="127" t="s">
+      <c r="F25" s="118" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10070,9 +10089,9 @@
       <c r="C26" s="80" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="118"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
@@ -10084,9 +10103,9 @@
       <c r="C27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="118"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -10098,9 +10117,9 @@
       <c r="C28" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="127"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="118"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
@@ -10112,11 +10131,11 @@
       <c r="C29" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="127"/>
-    </row>
-    <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="118"/>
+    </row>
+    <row r="30" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
         <v>506</v>
       </c>
@@ -10126,9 +10145,9 @@
       <c r="C30" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="118"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
@@ -10140,9 +10159,9 @@
       <c r="C31" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="127"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="118"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -10154,9 +10173,9 @@
       <c r="C32" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="127"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="118"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
@@ -10168,11 +10187,11 @@
       <c r="C33" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-    </row>
-    <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="118"/>
+    </row>
+    <row r="34" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>514</v>
       </c>
@@ -10182,11 +10201,11 @@
       <c r="C34" s="67" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="127"/>
-    </row>
-    <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="118"/>
+    </row>
+    <row r="35" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A35" s="94" t="s">
         <v>516</v>
       </c>
@@ -10196,9 +10215,9 @@
       <c r="C35" s="112" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="127"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="118"/>
       <c r="G35" s="83" t="s">
         <v>595</v>
       </c>
@@ -10213,9 +10232,9 @@
       <c r="C36" s="80" t="s">
         <v>520</v>
       </c>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="127"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="118"/>
       <c r="G36" s="19" t="s">
         <v>596</v>
       </c>
@@ -10230,9 +10249,9 @@
       <c r="C37" s="80" t="s">
         <v>523</v>
       </c>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="127"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="118"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -10244,9 +10263,9 @@
       <c r="C38" s="80" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="127"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="118"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -10256,9 +10275,9 @@
         <v>463</v>
       </c>
       <c r="C39" s="80"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="127"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="118"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
@@ -10270,11 +10289,11 @@
       <c r="C40" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="127"/>
-    </row>
-    <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="118"/>
+    </row>
+    <row r="41" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>529</v>
       </c>
@@ -10284,9 +10303,9 @@
       <c r="C41" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="127"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="118"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -10298,9 +10317,9 @@
       <c r="C42" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="127"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="118"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
@@ -10312,7 +10331,7 @@
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
     </row>
-    <row r="45" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>535</v>
       </c>
@@ -10322,13 +10341,13 @@
       <c r="C45" s="84" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="131" t="s">
+      <c r="D45" s="123" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="128" t="s">
+      <c r="E45" s="124" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="131" t="s">
+      <c r="F45" s="123" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10342,9 +10361,9 @@
       <c r="C46" s="71" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="132"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="132"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="121"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
@@ -10356,9 +10375,9 @@
       <c r="C47" s="71" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="132"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="132"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="121"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -10368,9 +10387,9 @@
         <v>532</v>
       </c>
       <c r="C48" s="71"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="132"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="121"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
@@ -10382,11 +10401,11 @@
       <c r="C49" s="71" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="132"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="132"/>
-    </row>
-    <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D49" s="121"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="121"/>
+    </row>
+    <row r="50" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>546</v>
       </c>
@@ -10396,11 +10415,11 @@
       <c r="C50" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="132"/>
-    </row>
-    <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D50" s="121"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="121"/>
+    </row>
+    <row r="51" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>548</v>
       </c>
@@ -10410,9 +10429,9 @@
       <c r="C51" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="D51" s="132"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="132"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="121"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -10422,11 +10441,11 @@
         <v>455</v>
       </c>
       <c r="C52" s="71"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="132"/>
-    </row>
-    <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D52" s="121"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="121"/>
+    </row>
+    <row r="53" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>551</v>
       </c>
@@ -10436,9 +10455,9 @@
       <c r="C53" s="84" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="132"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="132"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="121"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
@@ -10448,11 +10467,11 @@
         <v>455</v>
       </c>
       <c r="C54" s="71"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="132"/>
-    </row>
-    <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D54" s="121"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="121"/>
+    </row>
+    <row r="55" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>554</v>
       </c>
@@ -10462,9 +10481,9 @@
       <c r="C55" s="85" t="s">
         <v>778</v>
       </c>
-      <c r="D55" s="133"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="133"/>
+      <c r="D55" s="122"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="122"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
@@ -10474,7 +10493,7 @@
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
     </row>
-    <row r="57" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>555</v>
       </c>
@@ -10484,15 +10503,15 @@
       <c r="C57" s="67" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="126" t="s">
+      <c r="D57" s="119" t="s">
         <v>557</v>
       </c>
-      <c r="E57" s="135"/>
-      <c r="F57" s="131" t="s">
+      <c r="E57" s="127"/>
+      <c r="F57" s="123" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>559</v>
       </c>
@@ -10502,9 +10521,9 @@
       <c r="C58" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="126"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="132"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="121"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
@@ -10516,11 +10535,11 @@
       <c r="C59" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="126"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="132"/>
-    </row>
-    <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D59" s="119"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="121"/>
+    </row>
+    <row r="60" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
         <v>563</v>
       </c>
@@ -10530,9 +10549,9 @@
       <c r="C60" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D60" s="126"/>
-      <c r="E60" s="135"/>
-      <c r="F60" s="132"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="121"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
@@ -10544,9 +10563,9 @@
       <c r="C61" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D61" s="126"/>
-      <c r="E61" s="135"/>
-      <c r="F61" s="132"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="121"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
@@ -10558,9 +10577,9 @@
       <c r="C62" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="126"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="133"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="122"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
@@ -10580,17 +10599,17 @@
       <c r="C64" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="126" t="s">
+      <c r="D64" s="119" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="127" t="s">
+      <c r="E64" s="118" t="s">
         <v>570</v>
       </c>
-      <c r="F64" s="127" t="s">
+      <c r="F64" s="118" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A65" s="99" t="s">
         <v>563</v>
       </c>
@@ -10600,9 +10619,9 @@
       <c r="C65" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
@@ -10614,11 +10633,11 @@
       <c r="C66" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D66" s="126"/>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
-    </row>
-    <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="D66" s="119"/>
+      <c r="E66" s="119"/>
+      <c r="F66" s="119"/>
+    </row>
+    <row r="67" spans="1:6" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>573</v>
       </c>
@@ -10628,9 +10647,9 @@
       <c r="C67" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="D67" s="126"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="126"/>
+      <c r="D67" s="119"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="119"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
@@ -10642,9 +10661,9 @@
       <c r="C68" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="126"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
+      <c r="D68" s="119"/>
+      <c r="E68" s="119"/>
+      <c r="F68" s="119"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
@@ -10654,31 +10673,31 @@
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
     </row>
-    <row r="70" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>575</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="128" t="s">
+      <c r="D70" s="124" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="128" t="s">
+      <c r="E70" s="124" t="s">
         <v>577</v>
       </c>
-      <c r="F70" s="131" t="s">
+      <c r="F70" s="123" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>579</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="129"/>
-      <c r="E71" s="129"/>
-      <c r="F71" s="132"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="121"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
@@ -10686,9 +10705,9 @@
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="129"/>
-      <c r="E72" s="129"/>
-      <c r="F72" s="132"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="125"/>
+      <c r="F72" s="121"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
@@ -10696,19 +10715,19 @@
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="130"/>
-      <c r="E73" s="130"/>
-      <c r="F73" s="133"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="122"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="123"/>
-      <c r="B74" s="124"/>
-      <c r="C74" s="124"/>
-      <c r="D74" s="124"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="125"/>
-    </row>
-    <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="128"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="129"/>
+      <c r="E74" s="129"/>
+      <c r="F74" s="130"/>
+    </row>
+    <row r="75" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A75" s="99" t="s">
         <v>582</v>
       </c>
@@ -10718,11 +10737,11 @@
       <c r="C75" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D75" s="126"/>
-      <c r="E75" s="127" t="s">
+      <c r="D75" s="119"/>
+      <c r="E75" s="118" t="s">
         <v>583</v>
       </c>
-      <c r="F75" s="126" t="s">
+      <c r="F75" s="119" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10736,9 +10755,9 @@
       <c r="C76" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="126"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
+      <c r="D76" s="119"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="119"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
@@ -10750,9 +10769,9 @@
       <c r="C77" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="126"/>
-      <c r="E77" s="126"/>
-      <c r="F77" s="126"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="119"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
@@ -10764,9 +10783,9 @@
       <c r="C78" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="126"/>
-      <c r="E78" s="126"/>
-      <c r="F78" s="126"/>
+      <c r="D78" s="119"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="119"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="99" t="s">
@@ -10778,9 +10797,9 @@
       <c r="C79" s="86" t="s">
         <v>592</v>
       </c>
-      <c r="D79" s="126"/>
-      <c r="E79" s="126"/>
-      <c r="F79" s="126"/>
+      <c r="D79" s="119"/>
+      <c r="E79" s="119"/>
+      <c r="F79" s="119"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
@@ -10809,7 +10828,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="100" t="s">
         <v>794</v>
       </c>
@@ -10824,13 +10843,13 @@
       <c r="C86" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="121" t="s">
+      <c r="D86" s="116" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="127" t="s">
+      <c r="E86" s="118" t="s">
         <v>652</v>
       </c>
-      <c r="F86" s="121" t="s">
+      <c r="F86" s="116" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10844,11 +10863,11 @@
       <c r="C87" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="D87" s="121"/>
-      <c r="E87" s="127"/>
-      <c r="F87" s="121"/>
-    </row>
-    <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D87" s="116"/>
+      <c r="E87" s="118"/>
+      <c r="F87" s="116"/>
+    </row>
+    <row r="88" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>646</v>
       </c>
@@ -10858,11 +10877,11 @@
       <c r="C88" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="D88" s="121"/>
-      <c r="E88" s="127"/>
-      <c r="F88" s="121"/>
-    </row>
-    <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D88" s="116"/>
+      <c r="E88" s="118"/>
+      <c r="F88" s="116"/>
+    </row>
+    <row r="89" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>647</v>
       </c>
@@ -10872,11 +10891,11 @@
       <c r="C89" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="D89" s="121"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="121"/>
-    </row>
-    <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D89" s="116"/>
+      <c r="E89" s="118"/>
+      <c r="F89" s="116"/>
+    </row>
+    <row r="90" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>648</v>
       </c>
@@ -10886,11 +10905,11 @@
       <c r="C90" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="D90" s="121"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="121"/>
-    </row>
-    <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D90" s="116"/>
+      <c r="E90" s="118"/>
+      <c r="F90" s="116"/>
+    </row>
+    <row r="91" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>649</v>
       </c>
@@ -10900,11 +10919,11 @@
       <c r="C91" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="D91" s="121"/>
-      <c r="E91" s="127"/>
-      <c r="F91" s="121"/>
-    </row>
-    <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D91" s="116"/>
+      <c r="E91" s="118"/>
+      <c r="F91" s="116"/>
+    </row>
+    <row r="92" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>650</v>
       </c>
@@ -10914,11 +10933,11 @@
       <c r="C92" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="D92" s="121"/>
-      <c r="E92" s="127"/>
-      <c r="F92" s="121"/>
-    </row>
-    <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D92" s="116"/>
+      <c r="E92" s="118"/>
+      <c r="F92" s="116"/>
+    </row>
+    <row r="93" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>651</v>
       </c>
@@ -10928,16 +10947,16 @@
       <c r="C93" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="D93" s="121"/>
-      <c r="E93" s="127"/>
-      <c r="F93" s="121"/>
-    </row>
-    <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="D93" s="116"/>
+      <c r="E93" s="118"/>
+      <c r="F93" s="116"/>
+    </row>
+    <row r="95" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="100" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>795</v>
       </c>
@@ -10945,17 +10964,17 @@
         <v>463</v>
       </c>
       <c r="C96" s="21"/>
-      <c r="D96" s="121" t="s">
+      <c r="D96" s="116" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="121" t="s">
+      <c r="E96" s="116" t="s">
         <v>809</v>
       </c>
-      <c r="F96" s="121" t="s">
+      <c r="F96" s="116" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>796</v>
       </c>
@@ -10965,11 +10984,11 @@
       <c r="C97" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="D97" s="121"/>
-      <c r="E97" s="121"/>
-      <c r="F97" s="121"/>
-    </row>
-    <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D97" s="116"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="116"/>
+    </row>
+    <row r="98" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A98" s="86" t="s">
         <v>797</v>
       </c>
@@ -10979,11 +10998,11 @@
       <c r="C98" s="86" t="s">
         <v>706</v>
       </c>
-      <c r="D98" s="121"/>
-      <c r="E98" s="121"/>
-      <c r="F98" s="121"/>
-    </row>
-    <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="D98" s="116"/>
+      <c r="E98" s="116"/>
+      <c r="F98" s="116"/>
+    </row>
+    <row r="99" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>798</v>
       </c>
@@ -10993,11 +11012,11 @@
       <c r="C99" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="D99" s="121"/>
-      <c r="E99" s="121"/>
-      <c r="F99" s="121"/>
-    </row>
-    <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+    </row>
+    <row r="100" spans="1:6" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>803</v>
       </c>
@@ -11007,11 +11026,11 @@
       <c r="C100" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="D100" s="121"/>
-      <c r="E100" s="121"/>
-      <c r="F100" s="121"/>
-    </row>
-    <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="116"/>
+      <c r="E100" s="116"/>
+      <c r="F100" s="116"/>
+    </row>
+    <row r="101" spans="1:6" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>804</v>
       </c>
@@ -11021,11 +11040,11 @@
       <c r="C101" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="D101" s="121"/>
-      <c r="E101" s="121"/>
-      <c r="F101" s="121"/>
-    </row>
-    <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+      <c r="D101" s="116"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="116"/>
+    </row>
+    <row r="102" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
         <v>805</v>
       </c>
@@ -11035,9 +11054,9 @@
       <c r="C102" s="79" t="s">
         <v>817</v>
       </c>
-      <c r="D102" s="121"/>
-      <c r="E102" s="121"/>
-      <c r="F102" s="121"/>
+      <c r="D102" s="116"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="116"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
@@ -11047,11 +11066,11 @@
         <v>463</v>
       </c>
       <c r="C103" s="21"/>
-      <c r="D103" s="121"/>
-      <c r="E103" s="121"/>
-      <c r="F103" s="121"/>
-    </row>
-    <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="D103" s="116"/>
+      <c r="E103" s="116"/>
+      <c r="F103" s="116"/>
+    </row>
+    <row r="104" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A104" s="86" t="s">
         <v>800</v>
       </c>
@@ -11061,9 +11080,9 @@
       <c r="C104" s="86" t="s">
         <v>888</v>
       </c>
-      <c r="D104" s="121"/>
-      <c r="E104" s="121"/>
-      <c r="F104" s="121"/>
+      <c r="D104" s="116"/>
+      <c r="E104" s="116"/>
+      <c r="F104" s="116"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
@@ -11075,11 +11094,11 @@
       <c r="C105" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D105" s="121"/>
-      <c r="E105" s="121"/>
-      <c r="F105" s="121"/>
-    </row>
-    <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D105" s="116"/>
+      <c r="E105" s="116"/>
+      <c r="F105" s="116"/>
+    </row>
+    <row r="106" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="s">
         <v>819</v>
       </c>
@@ -11089,11 +11108,11 @@
       <c r="C106" s="94" t="s">
         <v>820</v>
       </c>
-      <c r="D106" s="121"/>
-      <c r="E106" s="121"/>
-      <c r="F106" s="121"/>
-    </row>
-    <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="D106" s="116"/>
+      <c r="E106" s="116"/>
+      <c r="F106" s="116"/>
+    </row>
+    <row r="107" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A107" s="86" t="s">
         <v>801</v>
       </c>
@@ -11103,11 +11122,11 @@
       <c r="C107" s="86" t="s">
         <v>821</v>
       </c>
-      <c r="D107" s="121"/>
-      <c r="E107" s="121"/>
-      <c r="F107" s="121"/>
-    </row>
-    <row r="108" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="D107" s="116"/>
+      <c r="E107" s="116"/>
+      <c r="F107" s="116"/>
+    </row>
+    <row r="108" spans="1:6" ht="132" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>802</v>
       </c>
@@ -11117,11 +11136,11 @@
       <c r="C108" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="D108" s="121"/>
-      <c r="E108" s="121"/>
-      <c r="F108" s="121"/>
-    </row>
-    <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="116"/>
+      <c r="E108" s="116"/>
+      <c r="F108" s="116"/>
+    </row>
+    <row r="109" spans="1:6" ht="249.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="86" t="s">
         <v>806</v>
       </c>
@@ -11131,11 +11150,11 @@
       <c r="C109" s="86" t="s">
         <v>823</v>
       </c>
-      <c r="D109" s="121"/>
-      <c r="E109" s="121"/>
-      <c r="F109" s="121"/>
-    </row>
-    <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="D109" s="116"/>
+      <c r="E109" s="116"/>
+      <c r="F109" s="116"/>
+    </row>
+    <row r="110" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
         <v>807</v>
       </c>
@@ -11145,9 +11164,9 @@
       <c r="C110" s="88" t="s">
         <v>921</v>
       </c>
-      <c r="D110" s="121"/>
-      <c r="E110" s="121"/>
-      <c r="F110" s="121"/>
+      <c r="D110" s="116"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="116"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
@@ -11157,9 +11176,9 @@
         <v>455</v>
       </c>
       <c r="C111" s="21"/>
-      <c r="D111" s="121"/>
-      <c r="E111" s="121"/>
-      <c r="F111" s="121"/>
+      <c r="D111" s="116"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="116"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
@@ -11169,9 +11188,9 @@
         <v>455</v>
       </c>
       <c r="C112" s="21"/>
-      <c r="D112" s="121"/>
-      <c r="E112" s="121"/>
-      <c r="F112" s="121"/>
+      <c r="D112" s="116"/>
+      <c r="E112" s="116"/>
+      <c r="F112" s="116"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
@@ -11181,11 +11200,11 @@
         <v>455</v>
       </c>
       <c r="C113" s="21"/>
-      <c r="D113" s="121"/>
-      <c r="E113" s="121"/>
-      <c r="F113" s="121"/>
-    </row>
-    <row r="114" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D113" s="116"/>
+      <c r="E113" s="116"/>
+      <c r="F113" s="116"/>
+    </row>
+    <row r="114" spans="1:6" ht="128.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="86" t="s">
         <v>811</v>
       </c>
@@ -11195,16 +11214,16 @@
       <c r="C114" s="86" t="s">
         <v>824</v>
       </c>
-      <c r="D114" s="121"/>
-      <c r="E114" s="121"/>
-      <c r="F114" s="121"/>
-    </row>
-    <row r="116" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="D114" s="116"/>
+      <c r="E114" s="116"/>
+      <c r="F114" s="116"/>
+    </row>
+    <row r="116" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="100" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="26" t="s">
         <v>899</v>
       </c>
@@ -11214,17 +11233,17 @@
       <c r="C117" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D117" s="121" t="s">
+      <c r="D117" s="116" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="122">
+      <c r="E117" s="117">
         <v>45194</v>
       </c>
-      <c r="F117" s="121" t="s">
+      <c r="F117" s="116" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="26" t="s">
         <v>900</v>
       </c>
@@ -11234,11 +11253,11 @@
       <c r="C118" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D118" s="121"/>
-      <c r="E118" s="121"/>
-      <c r="F118" s="121"/>
-    </row>
-    <row r="119" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D118" s="116"/>
+      <c r="E118" s="116"/>
+      <c r="F118" s="116"/>
+    </row>
+    <row r="119" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="26" t="s">
         <v>901</v>
       </c>
@@ -11248,11 +11267,11 @@
       <c r="C119" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D119" s="121"/>
-      <c r="E119" s="121"/>
-      <c r="F119" s="121"/>
-    </row>
-    <row r="120" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D119" s="116"/>
+      <c r="E119" s="116"/>
+      <c r="F119" s="116"/>
+    </row>
+    <row r="120" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>903</v>
       </c>
@@ -11262,9 +11281,9 @@
       <c r="C120" s="26" t="s">
         <v>904</v>
       </c>
-      <c r="D120" s="121"/>
-      <c r="E120" s="121"/>
-      <c r="F120" s="121"/>
+      <c r="D120" s="116"/>
+      <c r="E120" s="116"/>
+      <c r="F120" s="116"/>
     </row>
     <row r="121" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="73" t="s">
@@ -11276,11 +11295,11 @@
       <c r="C121" s="73" t="s">
         <v>906</v>
       </c>
-      <c r="D121" s="121"/>
-      <c r="E121" s="121"/>
-      <c r="F121" s="121"/>
-    </row>
-    <row r="122" spans="1:6" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="116"/>
+      <c r="E121" s="116"/>
+      <c r="F121" s="116"/>
+    </row>
+    <row r="122" spans="1:6" ht="186.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
         <v>907</v>
       </c>
@@ -11290,11 +11309,11 @@
       <c r="C122" s="88" t="s">
         <v>908</v>
       </c>
-      <c r="D122" s="121"/>
-      <c r="E122" s="121"/>
-      <c r="F122" s="121"/>
-    </row>
-    <row r="123" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D122" s="116"/>
+      <c r="E122" s="116"/>
+      <c r="F122" s="116"/>
+    </row>
+    <row r="123" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>909</v>
       </c>
@@ -11304,11 +11323,11 @@
       <c r="C123" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="D123" s="121"/>
-      <c r="E123" s="121"/>
-      <c r="F123" s="121"/>
-    </row>
-    <row r="124" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D123" s="116"/>
+      <c r="E123" s="116"/>
+      <c r="F123" s="116"/>
+    </row>
+    <row r="124" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>910</v>
       </c>
@@ -11318,9 +11337,9 @@
       <c r="C124" s="26" t="s">
         <v>911</v>
       </c>
-      <c r="D124" s="121"/>
-      <c r="E124" s="121"/>
-      <c r="F124" s="121"/>
+      <c r="D124" s="116"/>
+      <c r="E124" s="116"/>
+      <c r="F124" s="116"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
@@ -11330,16 +11349,16 @@
         <v>455</v>
       </c>
       <c r="C125" s="21"/>
-      <c r="D125" s="121"/>
-      <c r="E125" s="121"/>
-      <c r="F125" s="121"/>
-    </row>
-    <row r="127" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="D125" s="116"/>
+      <c r="E125" s="116"/>
+      <c r="F125" s="116"/>
+    </row>
+    <row r="127" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A127" s="100" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
         <v>923</v>
       </c>
@@ -11349,17 +11368,17 @@
       <c r="C128" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="D128" s="115" t="s">
+      <c r="D128" s="131" t="s">
         <v>569</v>
       </c>
-      <c r="E128" s="118">
+      <c r="E128" s="134">
         <v>45203</v>
       </c>
-      <c r="F128" s="115" t="s">
+      <c r="F128" s="131" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="137.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
         <v>924</v>
       </c>
@@ -11369,11 +11388,11 @@
       <c r="C129" s="88" t="s">
         <v>932</v>
       </c>
-      <c r="D129" s="116"/>
-      <c r="E129" s="119"/>
-      <c r="F129" s="116"/>
-    </row>
-    <row r="130" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D129" s="132"/>
+      <c r="E129" s="135"/>
+      <c r="F129" s="132"/>
+    </row>
+    <row r="130" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="26" t="s">
         <v>925</v>
       </c>
@@ -11383,11 +11402,11 @@
       <c r="C130" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D130" s="116"/>
-      <c r="E130" s="119"/>
-      <c r="F130" s="116"/>
-    </row>
-    <row r="131" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D130" s="132"/>
+      <c r="E130" s="135"/>
+      <c r="F130" s="132"/>
+    </row>
+    <row r="131" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="26" t="s">
         <v>926</v>
       </c>
@@ -11397,11 +11416,11 @@
       <c r="C131" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D131" s="116"/>
-      <c r="E131" s="119"/>
-      <c r="F131" s="116"/>
-    </row>
-    <row r="132" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="D131" s="132"/>
+      <c r="E131" s="135"/>
+      <c r="F131" s="132"/>
+    </row>
+    <row r="132" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
         <v>927</v>
       </c>
@@ -11411,11 +11430,11 @@
       <c r="C132" s="113" t="s">
         <v>946</v>
       </c>
-      <c r="D132" s="116"/>
-      <c r="E132" s="119"/>
-      <c r="F132" s="116"/>
-    </row>
-    <row r="133" spans="1:6" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D132" s="132"/>
+      <c r="E132" s="135"/>
+      <c r="F132" s="132"/>
+    </row>
+    <row r="133" spans="1:6" ht="119.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
         <v>704</v>
       </c>
@@ -11425,11 +11444,11 @@
       <c r="C133" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="D133" s="116"/>
-      <c r="E133" s="119"/>
-      <c r="F133" s="116"/>
-    </row>
-    <row r="134" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D133" s="132"/>
+      <c r="E133" s="135"/>
+      <c r="F133" s="132"/>
+    </row>
+    <row r="134" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="26" t="s">
         <v>900</v>
       </c>
@@ -11439,11 +11458,11 @@
       <c r="C134" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D134" s="116"/>
-      <c r="E134" s="119"/>
-      <c r="F134" s="116"/>
-    </row>
-    <row r="135" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D134" s="132"/>
+      <c r="E134" s="135"/>
+      <c r="F134" s="132"/>
+    </row>
+    <row r="135" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="26" t="s">
         <v>818</v>
       </c>
@@ -11453,11 +11472,11 @@
       <c r="C135" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D135" s="116"/>
-      <c r="E135" s="119"/>
-      <c r="F135" s="116"/>
-    </row>
-    <row r="136" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D135" s="132"/>
+      <c r="E135" s="135"/>
+      <c r="F135" s="132"/>
+    </row>
+    <row r="136" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="26" t="s">
         <v>819</v>
       </c>
@@ -11467,9 +11486,9 @@
       <c r="C136" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D136" s="116"/>
-      <c r="E136" s="119"/>
-      <c r="F136" s="116"/>
+      <c r="D136" s="132"/>
+      <c r="E136" s="135"/>
+      <c r="F136" s="132"/>
     </row>
     <row r="137" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
@@ -11481,11 +11500,11 @@
       <c r="C137" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="D137" s="116"/>
-      <c r="E137" s="119"/>
-      <c r="F137" s="116"/>
-    </row>
-    <row r="138" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D137" s="132"/>
+      <c r="E137" s="135"/>
+      <c r="F137" s="132"/>
+    </row>
+    <row r="138" spans="1:6" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26" t="s">
         <v>928</v>
       </c>
@@ -11495,11 +11514,11 @@
       <c r="C138" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D138" s="116"/>
-      <c r="E138" s="119"/>
-      <c r="F138" s="116"/>
-    </row>
-    <row r="139" spans="1:6" ht="146" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D138" s="132"/>
+      <c r="E138" s="135"/>
+      <c r="F138" s="132"/>
+    </row>
+    <row r="139" spans="1:6" ht="145.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
         <v>929</v>
       </c>
@@ -11509,9 +11528,9 @@
       <c r="C139" s="113" t="s">
         <v>930</v>
       </c>
-      <c r="D139" s="116"/>
-      <c r="E139" s="119"/>
-      <c r="F139" s="116"/>
+      <c r="D139" s="132"/>
+      <c r="E139" s="135"/>
+      <c r="F139" s="132"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
@@ -11523,11 +11542,11 @@
       <c r="C140" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="D140" s="116"/>
-      <c r="E140" s="119"/>
-      <c r="F140" s="116"/>
-    </row>
-    <row r="141" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D140" s="132"/>
+      <c r="E140" s="135"/>
+      <c r="F140" s="132"/>
+    </row>
+    <row r="141" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
         <v>937</v>
       </c>
@@ -11537,9 +11556,9 @@
       <c r="C141" s="26" t="s">
         <v>938</v>
       </c>
-      <c r="D141" s="116"/>
-      <c r="E141" s="119"/>
-      <c r="F141" s="116"/>
+      <c r="D141" s="132"/>
+      <c r="E141" s="135"/>
+      <c r="F141" s="132"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
@@ -11551,11 +11570,11 @@
       <c r="C142" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="D142" s="117"/>
-      <c r="E142" s="120"/>
-      <c r="F142" s="117"/>
-    </row>
-    <row r="144" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="D142" s="133"/>
+      <c r="E142" s="136"/>
+      <c r="F142" s="133"/>
+    </row>
+    <row r="144" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A144" s="114" t="s">
         <v>948</v>
       </c>
@@ -11570,13 +11589,13 @@
       <c r="C145" s="21" t="s">
         <v>950</v>
       </c>
-      <c r="D145" s="121" t="s">
+      <c r="D145" s="116" t="s">
         <v>569</v>
       </c>
-      <c r="E145" s="122">
+      <c r="E145" s="117">
         <v>45204</v>
       </c>
-      <c r="F145" s="121" t="s">
+      <c r="F145" s="116" t="s">
         <v>812</v>
       </c>
     </row>
@@ -11590,11 +11609,11 @@
       <c r="C146" s="21" t="s">
         <v>953</v>
       </c>
-      <c r="D146" s="121"/>
-      <c r="E146" s="121"/>
-      <c r="F146" s="121"/>
-    </row>
-    <row r="147" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="D146" s="116"/>
+      <c r="E146" s="116"/>
+      <c r="F146" s="116"/>
+    </row>
+    <row r="147" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
         <v>954</v>
       </c>
@@ -11602,9 +11621,9 @@
         <v>517</v>
       </c>
       <c r="C147" s="21"/>
-      <c r="D147" s="121"/>
-      <c r="E147" s="121"/>
-      <c r="F147" s="121"/>
+      <c r="D147" s="116"/>
+      <c r="E147" s="116"/>
+      <c r="F147" s="116"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
@@ -11616,11 +11635,11 @@
       <c r="C148" s="21" t="s">
         <v>956</v>
       </c>
-      <c r="D148" s="121"/>
-      <c r="E148" s="121"/>
-      <c r="F148" s="121"/>
-    </row>
-    <row r="149" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+      <c r="D148" s="116"/>
+      <c r="E148" s="116"/>
+      <c r="F148" s="116"/>
+    </row>
+    <row r="149" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
         <v>957</v>
       </c>
@@ -11630,9 +11649,9 @@
       <c r="C149" s="26" t="s">
         <v>962</v>
       </c>
-      <c r="D149" s="121"/>
-      <c r="E149" s="121"/>
-      <c r="F149" s="121"/>
+      <c r="D149" s="116"/>
+      <c r="E149" s="116"/>
+      <c r="F149" s="116"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
@@ -11642,9 +11661,9 @@
         <v>952</v>
       </c>
       <c r="C150" s="21"/>
-      <c r="D150" s="121"/>
-      <c r="E150" s="121"/>
-      <c r="F150" s="121"/>
+      <c r="D150" s="116"/>
+      <c r="E150" s="116"/>
+      <c r="F150" s="116"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
@@ -11656,17 +11675,97 @@
       <c r="C151" s="21" t="s">
         <v>961</v>
       </c>
-      <c r="D151" s="121"/>
-      <c r="E151" s="121"/>
-      <c r="F151" s="121"/>
-    </row>
-    <row r="153" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="D151" s="116"/>
+      <c r="E151" s="116"/>
+      <c r="F151" s="116"/>
+    </row>
+    <row r="153" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A153" s="114" t="s">
         <v>963</v>
       </c>
     </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="26" t="s">
+        <v>978</v>
+      </c>
+      <c r="B154" s="21"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="26" t="s">
+        <v>979</v>
+      </c>
+      <c r="B155" s="21"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="B156" s="21"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="26" t="s">
+        <v>981</v>
+      </c>
+      <c r="B157" s="21"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="26" t="s">
+        <v>982</v>
+      </c>
+      <c r="B158" s="21"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="26" t="s">
+        <v>983</v>
+      </c>
+      <c r="B159" s="21"/>
+    </row>
+    <row r="160" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A160" s="26" t="s">
+        <v>984</v>
+      </c>
+      <c r="B160" s="21"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="26" t="s">
+        <v>985</v>
+      </c>
+      <c r="B161" s="21"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="26" t="s">
+        <v>986</v>
+      </c>
+      <c r="B162" s="21"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="79" t="s">
+        <v>987</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="D128:D142"/>
+    <mergeCell ref="E128:E142"/>
+    <mergeCell ref="F128:F142"/>
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="F117:F125"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="D96:D114"/>
+    <mergeCell ref="E96:E114"/>
+    <mergeCell ref="F96:F114"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
     <mergeCell ref="D145:D151"/>
     <mergeCell ref="E145:E151"/>
     <mergeCell ref="F145:F151"/>
@@ -11683,27 +11782,6 @@
     <mergeCell ref="E57:E62"/>
     <mergeCell ref="F57:F62"/>
     <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="D96:D114"/>
-    <mergeCell ref="E96:E114"/>
-    <mergeCell ref="F96:F114"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="D128:D142"/>
-    <mergeCell ref="E128:E142"/>
-    <mergeCell ref="F128:F142"/>
-    <mergeCell ref="D117:D125"/>
-    <mergeCell ref="E117:E125"/>
-    <mergeCell ref="F117:F125"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
@@ -11730,13 +11808,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="114.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="1" max="1" width="114.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>258</v>
       </c>
@@ -11744,12 +11822,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>260</v>
       </c>
@@ -11768,14 +11846,14 @@
       <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="74.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="74.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="127.26953125" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="74.1796875" style="5"/>
+    <col min="1" max="1" width="54.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="127.21875" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="74.21875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
         <v>437</v>
       </c>
@@ -11783,7 +11861,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>686</v>
       </c>
@@ -11791,7 +11869,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="63.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>689</v>
       </c>
@@ -11799,7 +11877,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>690</v>
       </c>
@@ -11807,7 +11885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>692</v>
       </c>
@@ -11821,7 +11899,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="88.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="93" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>693</v>
       </c>
@@ -11830,7 +11908,7 @@
       </c>
       <c r="C6" s="50"/>
     </row>
-    <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>695</v>
       </c>
@@ -11838,7 +11916,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>696</v>
       </c>
@@ -11846,7 +11924,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="113.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>697</v>
       </c>
@@ -11854,7 +11932,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="101" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>699</v>
       </c>
@@ -11862,7 +11940,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="76" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>701</v>
       </c>
@@ -11870,7 +11948,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="113.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="119.4" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>704</v>
       </c>
@@ -11878,7 +11956,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>705</v>
       </c>
@@ -11886,7 +11964,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>708</v>
       </c>
@@ -11894,7 +11972,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>712</v>
       </c>
@@ -11902,7 +11980,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="63.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>731</v>
       </c>
@@ -11910,7 +11988,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="63.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>734</v>
       </c>
@@ -11918,7 +11996,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="63.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="66.599999999999994" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>736</v>
       </c>
@@ -11926,7 +12004,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="38.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
         <v>737</v>
       </c>
@@ -11934,395 +12012,395 @@
         <v>738</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="26"/>
       <c r="B57" s="26"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="26"/>
       <c r="B58" s="26"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="26"/>
       <c r="B59" s="26"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="26"/>
       <c r="B60" s="26"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="26"/>
       <c r="B61" s="26"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="26"/>
       <c r="B62" s="26"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="26"/>
       <c r="B65" s="26"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="26"/>
       <c r="B67" s="26"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="26"/>
       <c r="B68" s="26"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="26"/>
       <c r="B69" s="26"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="26"/>
       <c r="B70" s="26"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="26"/>
       <c r="B71" s="26"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="26"/>
       <c r="B74" s="26"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="26"/>
       <c r="B75" s="26"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="26"/>
       <c r="B76" s="26"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="26"/>
       <c r="B77" s="26"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="26"/>
       <c r="B78" s="26"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="26"/>
       <c r="B80" s="26"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="26"/>
       <c r="B83" s="26"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="26"/>
       <c r="B84" s="26"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="26"/>
       <c r="B85" s="26"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="26"/>
       <c r="B86" s="26"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="26"/>
       <c r="B87" s="26"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="26"/>
       <c r="B88" s="26"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="26"/>
       <c r="B89" s="26"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="26"/>
       <c r="B90" s="26"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="26"/>
       <c r="B91" s="26"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="26"/>
       <c r="B92" s="26"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="26"/>
       <c r="B93" s="26"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="26"/>
       <c r="B94" s="26"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="26"/>
       <c r="B95" s="26"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="26"/>
       <c r="B96" s="26"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="26"/>
       <c r="B98" s="26"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="26"/>
       <c r="B101" s="26"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="26"/>
       <c r="B102" s="26"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="26"/>
       <c r="B103" s="26"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="26"/>
       <c r="B104" s="26"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="26"/>
       <c r="B105" s="26"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="26"/>
       <c r="B106" s="26"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="26"/>
       <c r="B107" s="26"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="26"/>
       <c r="B108" s="26"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="26"/>
       <c r="B109" s="26"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="26"/>
       <c r="B110" s="26"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="26"/>
       <c r="B111" s="26"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="26"/>
       <c r="B112" s="26"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="26"/>
       <c r="B113" s="26"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="26"/>
       <c r="B114" s="26"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="26"/>
       <c r="B115" s="26"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="26"/>
       <c r="B116" s="26"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="26"/>
       <c r="B117" s="26"/>
       <c r="D117" s="5" t="s">
@@ -12332,30 +12410,30 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="26"/>
       <c r="B118" s="26"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="26"/>
       <c r="B119" s="26"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="26"/>
       <c r="B120" s="26"/>
     </row>
-    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="73"/>
       <c r="B121" s="73"/>
     </row>
-    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="26"/>
       <c r="B122" s="26"/>
       <c r="C122" s="98" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A123" s="26" t="s">
         <v>909</v>
       </c>
@@ -12364,7 +12442,7 @@
       </c>
       <c r="C123" s="4"/>
     </row>
-    <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
         <v>910</v>
       </c>
@@ -12375,7 +12453,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="26" t="s">
         <v>912</v>
       </c>
@@ -12384,1139 +12462,1139 @@
       </c>
       <c r="C125" s="4"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="97"/>
       <c r="B126" s="97"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="26"/>
       <c r="B127" s="26"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="26"/>
       <c r="B128" s="26"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="26"/>
       <c r="B129" s="26"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="26"/>
       <c r="B130" s="26"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="26"/>
       <c r="B131" s="26"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="26"/>
       <c r="B132" s="26"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="26"/>
       <c r="B133" s="26"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="26"/>
       <c r="B134" s="26"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="26"/>
       <c r="B135" s="26"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="26"/>
       <c r="B136" s="26"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="26"/>
       <c r="B137" s="26"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="26"/>
       <c r="B138" s="26"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="26"/>
       <c r="B139" s="26"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="26"/>
       <c r="B140" s="26"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="26"/>
       <c r="B141" s="26"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="26"/>
       <c r="B142" s="26"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="26"/>
       <c r="B143" s="26"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="26"/>
       <c r="B144" s="26"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="26"/>
       <c r="B145" s="26"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="26"/>
       <c r="B146" s="26"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="26"/>
       <c r="B147" s="26"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="26"/>
       <c r="B148" s="26"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="26"/>
       <c r="B149" s="26"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="26"/>
       <c r="B150" s="26"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="26"/>
       <c r="B151" s="26"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="26"/>
       <c r="B152" s="26"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="26"/>
       <c r="B153" s="26"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="26"/>
       <c r="B154" s="26"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="26"/>
       <c r="B155" s="26"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="26"/>
       <c r="B156" s="26"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="26"/>
       <c r="B157" s="26"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="26"/>
       <c r="B158" s="26"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="26"/>
       <c r="B159" s="26"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="26"/>
       <c r="B160" s="26"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="26"/>
       <c r="B161" s="26"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="26"/>
       <c r="B162" s="26"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="26"/>
       <c r="B163" s="26"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="26"/>
       <c r="B164" s="26"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="26"/>
       <c r="B165" s="26"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="26"/>
       <c r="B166" s="26"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="26"/>
       <c r="B167" s="26"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="26"/>
       <c r="B168" s="26"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="26"/>
       <c r="B169" s="26"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="26"/>
       <c r="B170" s="26"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="26"/>
       <c r="B171" s="26"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="26"/>
       <c r="B172" s="26"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="26"/>
       <c r="B173" s="26"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="26"/>
       <c r="B174" s="26"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="26"/>
       <c r="B175" s="26"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="26"/>
       <c r="B176" s="26"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="26"/>
       <c r="B177" s="26"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="26"/>
       <c r="B178" s="26"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="26"/>
       <c r="B179" s="26"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="26"/>
       <c r="B180" s="26"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="26"/>
       <c r="B181" s="26"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="26"/>
       <c r="B182" s="26"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="26"/>
       <c r="B183" s="26"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="26"/>
       <c r="B184" s="26"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="26"/>
       <c r="B185" s="26"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="26"/>
       <c r="B186" s="26"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="26"/>
       <c r="B187" s="26"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="26"/>
       <c r="B188" s="26"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="26"/>
       <c r="B189" s="26"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="26"/>
       <c r="B190" s="26"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="26"/>
       <c r="B191" s="26"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="26"/>
       <c r="B192" s="26"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="26"/>
       <c r="B193" s="26"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="26"/>
       <c r="B194" s="26"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="26"/>
       <c r="B195" s="26"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="26"/>
       <c r="B196" s="26"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="26"/>
       <c r="B197" s="26"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="26"/>
       <c r="B198" s="26"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="26"/>
       <c r="B199" s="26"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="26"/>
       <c r="B200" s="26"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="26"/>
       <c r="B201" s="26"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="26"/>
       <c r="B202" s="26"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="26"/>
       <c r="B203" s="26"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="26"/>
       <c r="B204" s="26"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="26"/>
       <c r="B205" s="26"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="26"/>
       <c r="B206" s="26"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="26"/>
       <c r="B207" s="26"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="26"/>
       <c r="B208" s="26"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="26"/>
       <c r="B209" s="26"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="26"/>
       <c r="B210" s="26"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="26"/>
       <c r="B211" s="26"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="26"/>
       <c r="B212" s="26"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="26"/>
       <c r="B213" s="26"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="26"/>
       <c r="B214" s="26"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="26"/>
       <c r="B215" s="26"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="26"/>
       <c r="B216" s="26"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="26"/>
       <c r="B217" s="26"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="26"/>
       <c r="B218" s="26"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="26"/>
       <c r="B219" s="26"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="26"/>
       <c r="B220" s="26"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="26"/>
       <c r="B221" s="26"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="26"/>
       <c r="B222" s="26"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="26"/>
       <c r="B223" s="26"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="26"/>
       <c r="B224" s="26"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="26"/>
       <c r="B225" s="26"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="26"/>
       <c r="B226" s="26"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="26"/>
       <c r="B227" s="26"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="26"/>
       <c r="B228" s="26"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="26"/>
       <c r="B229" s="26"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="26"/>
       <c r="B230" s="26"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="26"/>
       <c r="B231" s="26"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="26"/>
       <c r="B232" s="26"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="26"/>
       <c r="B233" s="26"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="26"/>
       <c r="B234" s="26"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="26"/>
       <c r="B235" s="26"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="26"/>
       <c r="B236" s="26"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="26"/>
       <c r="B237" s="26"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="26"/>
       <c r="B238" s="26"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="26"/>
       <c r="B239" s="26"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="26"/>
       <c r="B240" s="26"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="26"/>
       <c r="B241" s="26"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="26"/>
       <c r="B242" s="26"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="26"/>
       <c r="B243" s="26"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="26"/>
       <c r="B244" s="26"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="26"/>
       <c r="B245" s="26"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="26"/>
       <c r="B246" s="26"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="26"/>
       <c r="B247" s="26"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="26"/>
       <c r="B248" s="26"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="26"/>
       <c r="B249" s="26"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="26"/>
       <c r="B250" s="26"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="26"/>
       <c r="B251" s="26"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="26"/>
       <c r="B252" s="26"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="26"/>
       <c r="B253" s="26"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="26"/>
       <c r="B254" s="26"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="26"/>
       <c r="B255" s="26"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="26"/>
       <c r="B256" s="26"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="26"/>
       <c r="B257" s="26"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="26"/>
       <c r="B258" s="26"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="26"/>
       <c r="B259" s="26"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="26"/>
       <c r="B260" s="26"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="26"/>
       <c r="B261" s="26"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="26"/>
       <c r="B262" s="26"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="26"/>
       <c r="B263" s="26"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="26"/>
       <c r="B264" s="26"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="26"/>
       <c r="B265" s="26"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="26"/>
       <c r="B266" s="26"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="26"/>
       <c r="B267" s="26"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="26"/>
       <c r="B268" s="26"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="26"/>
       <c r="B269" s="26"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="26"/>
       <c r="B270" s="26"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="26"/>
       <c r="B271" s="26"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="26"/>
       <c r="B272" s="26"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="26"/>
       <c r="B273" s="26"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="26"/>
       <c r="B274" s="26"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="26"/>
       <c r="B275" s="26"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="26"/>
       <c r="B276" s="26"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="26"/>
       <c r="B277" s="26"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="26"/>
       <c r="B278" s="26"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="26"/>
       <c r="B279" s="26"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="26"/>
       <c r="B280" s="26"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="26"/>
       <c r="B281" s="26"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="26"/>
       <c r="B282" s="26"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="26"/>
       <c r="B283" s="26"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="26"/>
       <c r="B284" s="26"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="26"/>
       <c r="B285" s="26"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="26"/>
       <c r="B286" s="26"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="26"/>
       <c r="B287" s="26"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="26"/>
       <c r="B288" s="26"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="26"/>
       <c r="B289" s="26"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="26"/>
       <c r="B290" s="26"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="26"/>
       <c r="B291" s="26"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="26"/>
       <c r="B292" s="26"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="26"/>
       <c r="B293" s="26"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="26"/>
       <c r="B294" s="26"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="26"/>
       <c r="B295" s="26"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="26"/>
       <c r="B296" s="26"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="26"/>
       <c r="B297" s="26"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="26"/>
       <c r="B298" s="26"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="26"/>
       <c r="B299" s="26"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="26"/>
       <c r="B300" s="26"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="26"/>
       <c r="B301" s="26"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="26"/>
       <c r="B302" s="26"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="26"/>
       <c r="B303" s="26"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="26"/>
       <c r="B304" s="26"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="26"/>
       <c r="B305" s="26"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="26"/>
       <c r="B306" s="26"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="26"/>
       <c r="B307" s="26"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="26"/>
       <c r="B308" s="26"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="26"/>
       <c r="B309" s="26"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="26"/>
       <c r="B310" s="26"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="26"/>
       <c r="B311" s="26"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="26"/>
       <c r="B312" s="26"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="26"/>
       <c r="B313" s="26"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="26"/>
       <c r="B314" s="26"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="26"/>
       <c r="B315" s="26"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="26"/>
       <c r="B316" s="26"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="26"/>
       <c r="B317" s="26"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="26"/>
       <c r="B318" s="26"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="26"/>
       <c r="B319" s="26"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="26"/>
       <c r="B320" s="26"/>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="26"/>
       <c r="B321" s="26"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="26"/>
       <c r="B322" s="26"/>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="26"/>
       <c r="B323" s="26"/>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="26"/>
       <c r="B324" s="26"/>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="26"/>
       <c r="B325" s="26"/>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="26"/>
       <c r="B326" s="26"/>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="26"/>
       <c r="B327" s="26"/>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="26"/>
       <c r="B328" s="26"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="26"/>
       <c r="B329" s="26"/>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="26"/>
       <c r="B330" s="26"/>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="26"/>
       <c r="B331" s="26"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="26"/>
       <c r="B332" s="26"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="26"/>
       <c r="B333" s="26"/>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="26"/>
       <c r="B334" s="26"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="26"/>
       <c r="B335" s="26"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="26"/>
       <c r="B336" s="26"/>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="26"/>
       <c r="B337" s="26"/>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="26"/>
       <c r="B338" s="26"/>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="26"/>
       <c r="B339" s="26"/>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="26"/>
       <c r="B340" s="26"/>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="26"/>
       <c r="B341" s="26"/>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="26"/>
       <c r="B342" s="26"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="26"/>
       <c r="B343" s="26"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="26"/>
       <c r="B344" s="26"/>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="26"/>
       <c r="B345" s="26"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="26"/>
       <c r="B346" s="26"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="26"/>
       <c r="B347" s="26"/>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="26"/>
       <c r="B348" s="26"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="26"/>
       <c r="B349" s="26"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="26"/>
       <c r="B350" s="26"/>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="26"/>
       <c r="B351" s="26"/>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="26"/>
       <c r="B352" s="26"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="26"/>
       <c r="B353" s="26"/>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="26"/>
       <c r="B354" s="26"/>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="26"/>
       <c r="B355" s="26"/>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="26"/>
       <c r="B356" s="26"/>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="26"/>
       <c r="B357" s="26"/>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="26"/>
       <c r="B358" s="26"/>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="26"/>
       <c r="B359" s="26"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="26"/>
       <c r="B360" s="26"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="26"/>
       <c r="B361" s="26"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="26"/>
       <c r="B362" s="26"/>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="26"/>
       <c r="B363" s="26"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="26"/>
       <c r="B364" s="26"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="26"/>
       <c r="B365" s="26"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="26"/>
       <c r="B366" s="26"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="26"/>
       <c r="B367" s="26"/>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="26"/>
       <c r="B368" s="26"/>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="26"/>
       <c r="B369" s="26"/>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="26"/>
       <c r="B370" s="26"/>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="26"/>
       <c r="B371" s="26"/>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="26"/>
       <c r="B372" s="26"/>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="26"/>
       <c r="B373" s="26"/>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="26"/>
       <c r="B374" s="26"/>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="26"/>
       <c r="B375" s="26"/>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="26"/>
       <c r="B376" s="26"/>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="26"/>
       <c r="B377" s="26"/>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="26"/>
       <c r="B378" s="26"/>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="26"/>
       <c r="B379" s="26"/>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="26"/>
       <c r="B380" s="26"/>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="26"/>
       <c r="B381" s="26"/>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="26"/>
       <c r="B382" s="26"/>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="26"/>
       <c r="B383" s="26"/>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="26"/>
       <c r="B384" s="26"/>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="26"/>
       <c r="B385" s="26"/>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="26"/>
       <c r="B386" s="26"/>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="26"/>
       <c r="B387" s="26"/>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="26"/>
       <c r="B388" s="26"/>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="26"/>
       <c r="B389" s="26"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="26"/>
       <c r="B390" s="26"/>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="26"/>
       <c r="B391" s="26"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="26"/>
       <c r="B392" s="26"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="26"/>
       <c r="B393" s="26"/>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="26"/>
       <c r="B394" s="26"/>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="26"/>
       <c r="B395" s="26"/>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="26"/>
       <c r="B396" s="26"/>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="26"/>
       <c r="B397" s="26"/>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="26"/>
       <c r="B398" s="26"/>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="26"/>
       <c r="B399" s="26"/>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="26"/>
       <c r="B400" s="26"/>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="26"/>
       <c r="B401" s="26"/>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="26"/>
       <c r="B402" s="26"/>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="26"/>
       <c r="B403" s="26"/>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="26"/>
       <c r="B404" s="26"/>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="26"/>
       <c r="B405" s="26"/>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="26"/>
       <c r="B406" s="26"/>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="26"/>
       <c r="B407" s="26"/>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="26"/>
       <c r="B408" s="26"/>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="26"/>
       <c r="B409" s="26"/>
     </row>
@@ -13532,26 +13610,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5703F574-C88B-4291-BBA6-05D5382680CC}">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="18.109375" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="19"/>
     <col min="4" max="4" width="15" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="19"/>
-    <col min="7" max="7" width="15.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="19"/>
-    <col min="10" max="10" width="5.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.26953125" style="19" customWidth="1"/>
-    <col min="12" max="13" width="8.7265625" style="19"/>
-    <col min="14" max="14" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="19"/>
+    <col min="5" max="5" width="28.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="19"/>
+    <col min="7" max="7" width="15.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="19"/>
+    <col min="10" max="10" width="5.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.21875" style="19" customWidth="1"/>
+    <col min="12" max="13" width="8.77734375" style="19"/>
+    <col min="14" max="14" width="23.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -13664,7 +13742,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>188</v>
       </c>
@@ -13778,7 +13856,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
         <v>9</v>
       </c>
@@ -13880,7 +13958,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>727</v>
       </c>
@@ -13899,7 +13977,7 @@
       <c r="H18" s="21" t="s">
         <v>754</v>
       </c>
-      <c r="J18" s="152" t="s">
+      <c r="J18" s="115" t="s">
         <v>916</v>
       </c>
     </row>
@@ -13993,14 +14071,14 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="21"/>
       <c r="C122" s="88" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="66" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>909</v>
       </c>
@@ -14009,7 +14087,7 @@
       </c>
       <c r="C123" s="21"/>
     </row>
-    <row r="124" spans="1:5" ht="250" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>910</v>
       </c>
@@ -14020,7 +14098,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>912</v>
       </c>
@@ -14042,23 +14120,23 @@
       <selection activeCell="G14" sqref="G14:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" style="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="19"/>
-    <col min="4" max="4" width="8.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.08984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="19"/>
-    <col min="7" max="7" width="18.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="19"/>
-    <col min="10" max="10" width="8.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="19"/>
-    <col min="13" max="13" width="5.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="19"/>
+    <col min="3" max="3" width="8.77734375" style="19"/>
+    <col min="4" max="4" width="8.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="19"/>
+    <col min="7" max="7" width="18.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="19"/>
+    <col min="10" max="10" width="8.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" style="19"/>
+    <col min="13" max="13" width="5.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -14184,7 +14262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
@@ -14346,7 +14424,7 @@
       </c>
       <c r="K13" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>220</v>
       </c>
@@ -14420,7 +14498,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>346</v>
       </c>
@@ -14446,7 +14524,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>71</v>
       </c>
@@ -14466,7 +14544,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>349</v>
       </c>
@@ -14480,7 +14558,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>351</v>
       </c>
@@ -14503,14 +14581,14 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="21"/>
       <c r="C122" s="88" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>909</v>
       </c>
@@ -14519,7 +14597,7 @@
       </c>
       <c r="C123" s="21"/>
     </row>
-    <row r="124" spans="1:5" ht="250" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="277.2" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>910</v>
       </c>
@@ -14530,7 +14608,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>912</v>
       </c>
@@ -14553,22 +14631,22 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.08984375" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="142.36328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="27.109375" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="93"/>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="140" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="140"/>
-    </row>
-    <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+      <c r="C1" s="141"/>
+    </row>
+    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="96"/>
       <c r="B2" s="30" t="s">
         <v>354</v>
@@ -14577,7 +14655,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="96"/>
       <c r="B3" s="30" t="s">
         <v>356</v>
@@ -14586,7 +14664,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="96"/>
       <c r="B4" s="30" t="s">
         <v>357</v>
@@ -14622,7 +14700,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="96"/>
       <c r="B8" s="30" t="s">
         <v>365</v>
@@ -14640,7 +14718,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A10" s="96"/>
       <c r="B10" s="30" t="s">
         <v>368</v>
@@ -14649,12 +14727,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
       <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="142" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -14665,7 +14743,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
+      <c r="A13" s="143"/>
       <c r="B13" s="38" t="s">
         <v>371</v>
       </c>
@@ -14674,7 +14752,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
+      <c r="A14" s="143"/>
       <c r="B14" s="40" t="s">
         <v>372</v>
       </c>
@@ -14683,7 +14761,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="142"/>
+      <c r="A15" s="143"/>
       <c r="B15" s="40" t="s">
         <v>373</v>
       </c>
@@ -14691,8 +14769,8 @@
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="143"/>
+    <row r="16" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="144"/>
       <c r="B16" s="41" t="s">
         <v>356</v>
       </c>
@@ -14704,12 +14782,12 @@
       <c r="A17" s="96"/>
       <c r="B17" s="35"/>
     </row>
-    <row r="18" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="35"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="137" t="s">
         <v>375</v>
       </c>
       <c r="B19" s="43" t="s">
@@ -14720,7 +14798,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="137"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="44" t="s">
         <v>377</v>
       </c>
@@ -14729,7 +14807,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="137"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="44" t="s">
         <v>378</v>
       </c>
@@ -14738,7 +14816,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="144"/>
+      <c r="A22" s="145"/>
       <c r="B22" s="44" t="s">
         <v>380</v>
       </c>
@@ -14747,7 +14825,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="144"/>
+      <c r="A23" s="145"/>
       <c r="B23" s="44" t="s">
         <v>381</v>
       </c>
@@ -14756,7 +14834,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="137"/>
+      <c r="A24" s="138"/>
       <c r="B24" s="44" t="s">
         <v>382</v>
       </c>
@@ -14765,7 +14843,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="137"/>
+      <c r="A25" s="138"/>
       <c r="B25" s="44" t="s">
         <v>384</v>
       </c>
@@ -14774,7 +14852,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="137"/>
+      <c r="A26" s="138"/>
       <c r="B26" s="44" t="s">
         <v>385</v>
       </c>
@@ -14783,7 +14861,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="144"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="44" t="s">
         <v>387</v>
       </c>
@@ -14791,8 +14869,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="145"/>
+    <row r="28" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="146"/>
       <c r="B28" s="46" t="s">
         <v>388</v>
       </c>
@@ -14804,12 +14882,12 @@
       <c r="A29" s="96"/>
       <c r="B29" s="35"/>
     </row>
-    <row r="30" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="96"/>
       <c r="B30" s="35"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="136" t="s">
+      <c r="A31" s="137" t="s">
         <v>390</v>
       </c>
       <c r="B31" s="44" t="s">
@@ -14820,7 +14898,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="144"/>
+      <c r="A32" s="145"/>
       <c r="B32" s="44" t="s">
         <v>370</v>
       </c>
@@ -14829,7 +14907,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="144"/>
+      <c r="A33" s="145"/>
       <c r="B33" s="44" t="s">
         <v>394</v>
       </c>
@@ -14838,7 +14916,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="137"/>
+      <c r="A34" s="138"/>
       <c r="B34" s="44" t="s">
         <v>372</v>
       </c>
@@ -14846,8 +14924,8 @@
         <v>430</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="138"/>
+    <row r="35" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="139"/>
       <c r="B35" s="44" t="s">
         <v>373</v>
       </c>
@@ -14863,7 +14941,7 @@
       <c r="A37" s="96"/>
       <c r="B37" s="35"/>
     </row>
-    <row r="38" spans="1:3" ht="25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="104" t="s">
         <v>396</v>
       </c>
@@ -14889,12 +14967,12 @@
       <c r="A40" s="96"/>
       <c r="B40" s="35"/>
     </row>
-    <row r="41" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="96"/>
       <c r="B41" s="35"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="136" t="s">
+      <c r="A42" s="137" t="s">
         <v>401</v>
       </c>
       <c r="B42" s="30" t="s">
@@ -14904,8 +14982,8 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="138"/>
+    <row r="43" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="139"/>
       <c r="B43" s="30" t="s">
         <v>402</v>
       </c>
@@ -14917,12 +14995,12 @@
       <c r="A44" s="96"/>
       <c r="B44" s="35"/>
     </row>
-    <row r="45" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="96"/>
       <c r="B45" s="35"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="136" t="s">
+      <c r="A46" s="137" t="s">
         <v>404</v>
       </c>
       <c r="B46" s="30" t="s">
@@ -14933,7 +15011,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="137"/>
+      <c r="A47" s="138"/>
       <c r="B47" s="30" t="s">
         <v>407</v>
       </c>
@@ -14942,7 +15020,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="137"/>
+      <c r="A48" s="138"/>
       <c r="B48" s="30" t="s">
         <v>408</v>
       </c>
@@ -14951,7 +15029,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="137"/>
+      <c r="A49" s="138"/>
       <c r="B49" s="30" t="s">
         <v>410</v>
       </c>
@@ -14959,8 +15037,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="138"/>
+    <row r="50" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="139"/>
       <c r="B50" s="30" t="s">
         <v>411</v>
       </c>
@@ -14972,12 +15050,12 @@
       <c r="A51" s="96"/>
       <c r="B51" s="35"/>
     </row>
-    <row r="52" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="96"/>
       <c r="B52" s="35"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="136" t="s">
+      <c r="A53" s="137" t="s">
         <v>412</v>
       </c>
       <c r="B53" s="30" t="s">
@@ -14988,7 +15066,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="137"/>
+      <c r="A54" s="138"/>
       <c r="B54" s="30" t="s">
         <v>414</v>
       </c>
@@ -14996,8 +15074,8 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="138"/>
+    <row r="55" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="139"/>
       <c r="B55" s="30" t="s">
         <v>416</v>
       </c>
@@ -15014,14 +15092,14 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="21"/>
       <c r="C122" s="88" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="50" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>909</v>
       </c>
@@ -15030,7 +15108,7 @@
       </c>
       <c r="C123" s="21"/>
     </row>
-    <row r="124" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>910</v>
       </c>
@@ -15041,7 +15119,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>912</v>
       </c>
@@ -15072,13 +15150,13 @@
       <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="137.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="137.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>111</v>
       </c>
@@ -15086,7 +15164,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>113</v>
       </c>
@@ -15094,7 +15172,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
         <v>115</v>
       </c>
@@ -15102,7 +15180,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
         <v>117</v>
       </c>
@@ -15110,7 +15188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="102" t="s">
         <v>119</v>
       </c>
@@ -15118,11 +15196,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="63"/>
       <c r="B6" s="63"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="103" t="s">
         <v>121</v>
       </c>
@@ -15130,7 +15208,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
         <v>123</v>
       </c>
@@ -15138,7 +15216,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
         <v>125</v>
       </c>
@@ -15146,7 +15224,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="70.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="69.599999999999994" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
         <v>685</v>
       </c>
@@ -15154,7 +15232,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
         <v>808</v>
       </c>
@@ -15162,15 +15240,15 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="98" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>909</v>
       </c>
@@ -15179,7 +15257,7 @@
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="288" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>910</v>
       </c>
@@ -15190,7 +15268,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>912</v>
       </c>
@@ -15213,28 +15291,28 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="73.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="73.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>128</v>
       </c>
@@ -15254,7 +15332,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>145</v>
       </c>
@@ -15268,7 +15346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>147</v>
       </c>
@@ -15282,7 +15360,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" s="1" t="s">
         <v>149</v>
       </c>
@@ -15296,7 +15374,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>157</v>
       </c>
@@ -15313,7 +15391,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>131</v>
       </c>
@@ -15333,7 +15411,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>131</v>
@@ -15345,7 +15423,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>739</v>
@@ -15355,7 +15433,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>742</v>
@@ -15365,7 +15443,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="60" t="s">
         <v>131</v>
       </c>
@@ -15380,7 +15458,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>252</v>
       </c>
@@ -15388,7 +15466,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>249</v>
       </c>
@@ -15396,7 +15474,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>250</v>
       </c>
@@ -15407,7 +15485,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>139</v>
       </c>
@@ -15416,7 +15494,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>140</v>
       </c>
@@ -15424,7 +15502,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>141</v>
       </c>
@@ -15432,18 +15510,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>160</v>
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="101" t="s">
         <v>109</v>
       </c>
@@ -15457,7 +15535,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>262</v>
       </c>
@@ -15465,7 +15543,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>263</v>
       </c>
@@ -15473,7 +15551,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>264</v>
       </c>
@@ -15481,7 +15559,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>265</v>
       </c>
@@ -15489,7 +15567,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>267</v>
       </c>
@@ -15497,7 +15575,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>266</v>
       </c>
@@ -15505,7 +15583,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>268</v>
       </c>
@@ -15513,7 +15591,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>269</v>
       </c>
@@ -15521,7 +15599,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>270</v>
       </c>
@@ -15529,7 +15607,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>271</v>
       </c>
@@ -15537,7 +15615,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>272</v>
       </c>
@@ -15545,7 +15623,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>273</v>
       </c>
@@ -15553,7 +15631,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>274</v>
       </c>
@@ -15561,7 +15639,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>275</v>
       </c>
@@ -15569,7 +15647,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>276</v>
       </c>
@@ -15577,22 +15655,22 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
         <v>808</v>
       </c>
@@ -15600,15 +15678,15 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="98" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>909</v>
       </c>
@@ -15617,7 +15695,7 @@
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="288" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>910</v>
       </c>
@@ -15628,7 +15706,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>912</v>
       </c>
@@ -15652,18 +15730,18 @@
       <selection activeCell="A8" sqref="A8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="96.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.54296875" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>175</v>
       </c>
@@ -15671,7 +15749,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>177</v>
       </c>
@@ -15682,7 +15760,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>183</v>
       </c>
@@ -15693,7 +15771,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>185</v>
       </c>
@@ -15701,40 +15779,40 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="146" t="s">
+    <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="147" t="s">
         <v>707</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="147" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="148" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="147"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="147"/>
-    </row>
-    <row r="14" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="147"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="148"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="148"/>
+    </row>
+    <row r="14" spans="1:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="148"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
         <v>808</v>
       </c>
@@ -15742,15 +15820,15 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="98" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>909</v>
       </c>
@@ -15759,7 +15837,7 @@
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>910</v>
       </c>
@@ -15770,7 +15848,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>912</v>
       </c>

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\P\SAP\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E34EBDB-46AE-4736-8388-8DA169BE4B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9494B2-A96B-4A8C-9D7A-3C493FCBCCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="Idoc structure" sheetId="3" r:id="rId19"/>
     <sheet name="ALE" sheetId="10" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6630,51 +6630,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -6692,6 +6647,51 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8026,15 +8026,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.77734375" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.77734375" style="52" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="52"/>
+    <col min="1" max="1" width="20.453125" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.81640625" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="52" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>437</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="193.8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="195.5" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>439</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="148.19999999999999" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
         <v>440</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
         <v>441</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34.200000000000003" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>443</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="148.19999999999999" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="161" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>445</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="125.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="126.5" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>447</v>
       </c>
@@ -8108,12 +8108,12 @@
       <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="138.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="138.1796875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="123.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>230</v>
       </c>
@@ -8128,47 +8128,47 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
         <v>808</v>
       </c>
@@ -8176,15 +8176,15 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="98" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>909</v>
       </c>
@@ -8193,7 +8193,7 @@
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>910</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>912</v>
       </c>
@@ -8227,9 +8227,9 @@
       <selection activeCell="A5" sqref="A5:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="110.55" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="72.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="147" t="s">
         <v>597</v>
       </c>
@@ -8255,7 +8255,7 @@
       <c r="U1" s="147"/>
       <c r="V1" s="147"/>
     </row>
-    <row r="2" spans="1:22" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="149" t="s">
         <v>245</v>
       </c>
@@ -8281,7 +8281,7 @@
       <c r="U2" s="149"/>
       <c r="V2" s="149"/>
     </row>
-    <row r="3" spans="1:22" ht="259.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="150" t="s">
         <v>246</v>
       </c>
@@ -8307,7 +8307,7 @@
       <c r="U3" s="150"/>
       <c r="V3" s="150"/>
     </row>
-    <row r="4" spans="1:22" ht="308.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="149" t="s">
         <v>247</v>
       </c>
@@ -8333,7 +8333,7 @@
       <c r="U4" s="151"/>
       <c r="V4" s="151"/>
     </row>
-    <row r="5" spans="1:22" ht="409.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="150" t="s">
         <v>248</v>
       </c>
@@ -8380,19 +8380,19 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>662</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
       <c r="B3" s="45" t="s">
         <v>676</v>
@@ -8412,21 +8412,21 @@
         <v>673</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="21" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="74" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="72" t="s">
         <v>677</v>
@@ -8435,28 +8435,28 @@
         <v>678</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>663</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>664</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>665</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>666</v>
       </c>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="C10" s="21"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>669</v>
       </c>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="C11" s="21"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>670</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="45" t="s">
         <v>679</v>
@@ -8494,7 +8494,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="45" t="s">
         <v>682</v>
@@ -8503,12 +8503,12 @@
         <v>680</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="62" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="71" t="s">
         <v>662</v>
       </c>
@@ -8517,21 +8517,21 @@
       </c>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="21" t="s">
         <v>758</v>
       </c>
       <c r="C18" s="19"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="74" t="s">
         <v>759</v>
       </c>
       <c r="C19" s="19"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>760</v>
       </c>
@@ -8540,7 +8540,7 @@
       </c>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>761</v>
       </c>
@@ -8549,14 +8549,14 @@
       </c>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>764</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>765</v>
       </c>
@@ -8565,50 +8565,50 @@
       </c>
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>766</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="19"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="62" t="s">
         <v>767</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>768</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>769</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
         <v>770</v>
       </c>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
         <v>771</v>
       </c>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>773</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
         <v>774</v>
       </c>
@@ -8637,23 +8637,23 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.6640625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="91.33203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="19"/>
+    <col min="1" max="1" width="88.6328125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="91.36328125" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
         <v>827</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>828</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>833</v>
       </c>
@@ -8674,12 +8674,12 @@
         <v>831</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>835</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>861</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="73" t="s">
         <v>862</v>
@@ -8714,12 +8714,12 @@
         <v>886</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="62" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>837</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>838</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A37" s="87" t="s">
         <v>864</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>865</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C39" s="73" t="s">
         <v>869</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
         <v>894</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>883</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="25" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>877</v>
       </c>
@@ -8971,13 +8971,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="96.88671875" customWidth="1"/>
-    <col min="2" max="2" width="69.88671875" customWidth="1"/>
+    <col min="1" max="1" width="96.90625" customWidth="1"/>
+    <col min="2" max="2" width="69.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>305</v>
       </c>
@@ -8985,17 +8985,17 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>307</v>
       </c>
       <c r="B2" s="12"/>
     </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
     </row>
-    <row r="4" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>308</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="156" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="155" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>310</v>
       </c>
@@ -9023,19 +9023,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>781</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>783</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>785</v>
       </c>
@@ -9059,17 +9059,17 @@
         <v>786</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>788</v>
       </c>
@@ -9091,13 +9091,13 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>313</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>312</v>
       </c>
@@ -9113,13 +9113,13 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="58">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I5" t="s">
         <v>174</v>
       </c>
@@ -9137,23 +9137,23 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>598</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
         <v>599</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>608</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>608</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>616</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>617</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>618</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>619</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>620</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>621</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>622</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>637</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="275.5" x14ac:dyDescent="0.35">
       <c r="C14" s="4" t="s">
         <v>640</v>
       </c>
@@ -9418,7 +9418,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="50" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="50" style="19"/>
   </cols>
@@ -9434,7 +9434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="132" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="132" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="125" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>52</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>57</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>60</v>
       </c>
@@ -9496,7 +9496,7 @@
       <c r="B8" s="152"/>
       <c r="C8" s="152"/>
     </row>
-    <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="50" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>94</v>
       </c>
@@ -9639,9 +9639,9 @@
       <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="15:30" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="15:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="O1" s="5" t="s">
         <v>130</v>
       </c>
@@ -9661,12 +9661,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -9674,27 +9674,27 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>110</v>
       </c>
@@ -9713,20 +9713,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="255.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.21875" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="115.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="255.5546875" style="19"/>
+    <col min="1" max="1" width="70.1796875" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.36328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="255.54296875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9749,7 +9749,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>454</v>
       </c>
@@ -9759,17 +9759,17 @@
       <c r="C2" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D2" s="118" t="s">
+      <c r="D2" s="128" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="120">
+      <c r="E2" s="135">
         <v>44436</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="132" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>459</v>
       </c>
@@ -9779,9 +9779,9 @@
       <c r="C3" s="76" t="s">
         <v>775</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
@@ -9793,9 +9793,9 @@
       <c r="C4" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -9807,11 +9807,11 @@
       <c r="C5" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="119"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-    </row>
-    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D5" s="127"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+    </row>
+    <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>465</v>
       </c>
@@ -9821,11 +9821,11 @@
       <c r="C6" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D6" s="127"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+    </row>
+    <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>467</v>
       </c>
@@ -9835,9 +9835,9 @@
       <c r="C7" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="119"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -9849,9 +9849,9 @@
       <c r="C8" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9863,11 +9863,11 @@
       <c r="C9" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-    </row>
-    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D9" s="127"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+    </row>
+    <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>473</v>
       </c>
@@ -9875,9 +9875,9 @@
       <c r="C10" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="s">
@@ -9889,11 +9889,11 @@
       <c r="C11" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-    </row>
-    <row r="12" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="D11" s="127"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+    </row>
+    <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="s">
         <v>476</v>
       </c>
@@ -9903,9 +9903,9 @@
       <c r="C12" s="26" t="s">
         <v>776</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -9915,9 +9915,9 @@
         <v>463</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="s">
@@ -9929,9 +9929,9 @@
       <c r="C14" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -9943,9 +9943,9 @@
       <c r="C15" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -9957,9 +9957,9 @@
       <c r="C16" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -9971,11 +9971,11 @@
       <c r="C17" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
-    </row>
-    <row r="18" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="D17" s="127"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+    </row>
+    <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="s">
         <v>486</v>
       </c>
@@ -9985,9 +9985,9 @@
       <c r="C18" s="79" t="s">
         <v>777</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="s">
@@ -9999,9 +9999,9 @@
       <c r="C19" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -10013,11 +10013,11 @@
       <c r="C20" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-    </row>
-    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D20" s="127"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+    </row>
+    <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="s">
         <v>491</v>
       </c>
@@ -10027,11 +10027,11 @@
       <c r="C21" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-    </row>
-    <row r="22" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D21" s="127"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+    </row>
+    <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="s">
         <v>493</v>
       </c>
@@ -10041,9 +10041,9 @@
       <c r="C22" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="74"/>
@@ -10069,13 +10069,13 @@
       <c r="C25" s="80" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="119" t="s">
+      <c r="D25" s="127" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="118" t="s">
+      <c r="E25" s="128" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="118" t="s">
+      <c r="F25" s="128" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10089,9 +10089,9 @@
       <c r="C26" s="80" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="118"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="128"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
@@ -10103,9 +10103,9 @@
       <c r="C27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="118"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="128"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -10117,9 +10117,9 @@
       <c r="C28" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="118"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="128"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
@@ -10131,11 +10131,11 @@
       <c r="C29" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="118"/>
-    </row>
-    <row r="30" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="128"/>
+    </row>
+    <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
         <v>506</v>
       </c>
@@ -10145,9 +10145,9 @@
       <c r="C30" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="118"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="128"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
@@ -10159,9 +10159,9 @@
       <c r="C31" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="119"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="118"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="128"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -10173,9 +10173,9 @@
       <c r="C32" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="118"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="128"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
@@ -10187,11 +10187,11 @@
       <c r="C33" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="118"/>
-    </row>
-    <row r="34" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="128"/>
+    </row>
+    <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>514</v>
       </c>
@@ -10201,11 +10201,11 @@
       <c r="C34" s="67" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="118"/>
-    </row>
-    <row r="35" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="128"/>
+    </row>
+    <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="s">
         <v>516</v>
       </c>
@@ -10215,9 +10215,9 @@
       <c r="C35" s="112" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="118"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="128"/>
       <c r="G35" s="83" t="s">
         <v>595</v>
       </c>
@@ -10232,9 +10232,9 @@
       <c r="C36" s="80" t="s">
         <v>520</v>
       </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="118"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="128"/>
       <c r="G36" s="19" t="s">
         <v>596</v>
       </c>
@@ -10249,9 +10249,9 @@
       <c r="C37" s="80" t="s">
         <v>523</v>
       </c>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="118"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="128"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -10263,9 +10263,9 @@
       <c r="C38" s="80" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="119"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="118"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="128"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -10275,9 +10275,9 @@
         <v>463</v>
       </c>
       <c r="C39" s="80"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="118"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="128"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
@@ -10289,11 +10289,11 @@
       <c r="C40" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="118"/>
-    </row>
-    <row r="41" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="128"/>
+    </row>
+    <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>529</v>
       </c>
@@ -10303,9 +10303,9 @@
       <c r="C41" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="118"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="128"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -10317,9 +10317,9 @@
       <c r="C42" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
-      <c r="F42" s="118"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="128"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
@@ -10331,7 +10331,7 @@
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
     </row>
-    <row r="45" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
         <v>535</v>
       </c>
@@ -10341,13 +10341,13 @@
       <c r="C45" s="84" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="123" t="s">
+      <c r="D45" s="132" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="124" t="s">
+      <c r="E45" s="129" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="123" t="s">
+      <c r="F45" s="132" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10361,9 +10361,9 @@
       <c r="C46" s="71" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="121"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="121"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="133"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
@@ -10375,9 +10375,9 @@
       <c r="C47" s="71" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="121"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="121"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="133"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -10387,9 +10387,9 @@
         <v>532</v>
       </c>
       <c r="C48" s="71"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="121"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="133"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
@@ -10401,11 +10401,11 @@
       <c r="C49" s="71" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="121"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="121"/>
-    </row>
-    <row r="50" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="D49" s="133"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="133"/>
+    </row>
+    <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
         <v>546</v>
       </c>
@@ -10415,11 +10415,11 @@
       <c r="C50" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="D50" s="121"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="121"/>
-    </row>
-    <row r="51" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D50" s="133"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="133"/>
+    </row>
+    <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>548</v>
       </c>
@@ -10429,9 +10429,9 @@
       <c r="C51" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="D51" s="121"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="121"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="133"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -10441,11 +10441,11 @@
         <v>455</v>
       </c>
       <c r="C52" s="71"/>
-      <c r="D52" s="121"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="121"/>
-    </row>
-    <row r="53" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="D52" s="133"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="133"/>
+    </row>
+    <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>551</v>
       </c>
@@ -10455,9 +10455,9 @@
       <c r="C53" s="84" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="121"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="121"/>
+      <c r="D53" s="133"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="133"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
@@ -10467,11 +10467,11 @@
         <v>455</v>
       </c>
       <c r="C54" s="71"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="121"/>
-    </row>
-    <row r="55" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="D54" s="133"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="133"/>
+    </row>
+    <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>554</v>
       </c>
@@ -10481,9 +10481,9 @@
       <c r="C55" s="85" t="s">
         <v>778</v>
       </c>
-      <c r="D55" s="122"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="122"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="134"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
@@ -10493,7 +10493,7 @@
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
     </row>
-    <row r="57" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A57" s="26" t="s">
         <v>555</v>
       </c>
@@ -10503,15 +10503,15 @@
       <c r="C57" s="67" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="119" t="s">
+      <c r="D57" s="127" t="s">
         <v>557</v>
       </c>
-      <c r="E57" s="127"/>
-      <c r="F57" s="123" t="s">
+      <c r="E57" s="136"/>
+      <c r="F57" s="132" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A58" s="26" t="s">
         <v>559</v>
       </c>
@@ -10521,9 +10521,9 @@
       <c r="C58" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="119"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="121"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="133"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
@@ -10535,11 +10535,11 @@
       <c r="C59" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="119"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="121"/>
-    </row>
-    <row r="60" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="D59" s="127"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="133"/>
+    </row>
+    <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
         <v>563</v>
       </c>
@@ -10549,9 +10549,9 @@
       <c r="C60" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D60" s="119"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="121"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="136"/>
+      <c r="F60" s="133"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
@@ -10563,9 +10563,9 @@
       <c r="C61" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D61" s="119"/>
-      <c r="E61" s="127"/>
-      <c r="F61" s="121"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="136"/>
+      <c r="F61" s="133"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
@@ -10577,9 +10577,9 @@
       <c r="C62" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="119"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="122"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="136"/>
+      <c r="F62" s="134"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
@@ -10599,17 +10599,17 @@
       <c r="C64" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="119" t="s">
+      <c r="D64" s="127" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="118" t="s">
+      <c r="E64" s="128" t="s">
         <v>570</v>
       </c>
-      <c r="F64" s="118" t="s">
+      <c r="F64" s="128" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A65" s="99" t="s">
         <v>563</v>
       </c>
@@ -10619,9 +10619,9 @@
       <c r="C65" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D65" s="119"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="127"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
@@ -10633,11 +10633,11 @@
       <c r="C66" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D66" s="119"/>
-      <c r="E66" s="119"/>
-      <c r="F66" s="119"/>
-    </row>
-    <row r="67" spans="1:6" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="D66" s="127"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="127"/>
+    </row>
+    <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>573</v>
       </c>
@@ -10647,9 +10647,9 @@
       <c r="C67" s="26" t="s">
         <v>779</v>
       </c>
-      <c r="D67" s="119"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="119"/>
+      <c r="D67" s="127"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="127"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
@@ -10661,9 +10661,9 @@
       <c r="C68" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="119"/>
-      <c r="E68" s="119"/>
-      <c r="F68" s="119"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="127"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
@@ -10673,31 +10673,31 @@
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
     </row>
-    <row r="70" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>575</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="124" t="s">
+      <c r="D70" s="129" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="124" t="s">
+      <c r="E70" s="129" t="s">
         <v>577</v>
       </c>
-      <c r="F70" s="123" t="s">
+      <c r="F70" s="132" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A71" s="26" t="s">
         <v>579</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="125"/>
-      <c r="E71" s="125"/>
-      <c r="F71" s="121"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="133"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
@@ -10705,9 +10705,9 @@
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="125"/>
-      <c r="E72" s="125"/>
-      <c r="F72" s="121"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="133"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
@@ -10715,19 +10715,19 @@
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="126"/>
-      <c r="E73" s="126"/>
-      <c r="F73" s="122"/>
+      <c r="D73" s="131"/>
+      <c r="E73" s="131"/>
+      <c r="F73" s="134"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="128"/>
-      <c r="B74" s="129"/>
-      <c r="C74" s="129"/>
-      <c r="D74" s="129"/>
-      <c r="E74" s="129"/>
-      <c r="F74" s="130"/>
-    </row>
-    <row r="75" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="124"/>
+      <c r="B74" s="125"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="125"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="126"/>
+    </row>
+    <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="99" t="s">
         <v>582</v>
       </c>
@@ -10737,11 +10737,11 @@
       <c r="C75" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D75" s="119"/>
-      <c r="E75" s="118" t="s">
+      <c r="D75" s="127"/>
+      <c r="E75" s="128" t="s">
         <v>583</v>
       </c>
-      <c r="F75" s="119" t="s">
+      <c r="F75" s="127" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10755,9 +10755,9 @@
       <c r="C76" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="119"/>
-      <c r="E76" s="119"/>
-      <c r="F76" s="119"/>
+      <c r="D76" s="127"/>
+      <c r="E76" s="127"/>
+      <c r="F76" s="127"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
@@ -10769,9 +10769,9 @@
       <c r="C77" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="119"/>
-      <c r="E77" s="119"/>
-      <c r="F77" s="119"/>
+      <c r="D77" s="127"/>
+      <c r="E77" s="127"/>
+      <c r="F77" s="127"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
@@ -10783,9 +10783,9 @@
       <c r="C78" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="119"/>
-      <c r="E78" s="119"/>
-      <c r="F78" s="119"/>
+      <c r="D78" s="127"/>
+      <c r="E78" s="127"/>
+      <c r="F78" s="127"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="99" t="s">
@@ -10797,9 +10797,9 @@
       <c r="C79" s="86" t="s">
         <v>592</v>
       </c>
-      <c r="D79" s="119"/>
-      <c r="E79" s="119"/>
-      <c r="F79" s="119"/>
+      <c r="D79" s="127"/>
+      <c r="E79" s="127"/>
+      <c r="F79" s="127"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
@@ -10828,7 +10828,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A85" s="100" t="s">
         <v>794</v>
       </c>
@@ -10843,13 +10843,13 @@
       <c r="C86" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="116" t="s">
+      <c r="D86" s="122" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="118" t="s">
+      <c r="E86" s="128" t="s">
         <v>652</v>
       </c>
-      <c r="F86" s="116" t="s">
+      <c r="F86" s="122" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10863,11 +10863,11 @@
       <c r="C87" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="D87" s="116"/>
-      <c r="E87" s="118"/>
-      <c r="F87" s="116"/>
-    </row>
-    <row r="88" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D87" s="122"/>
+      <c r="E87" s="128"/>
+      <c r="F87" s="122"/>
+    </row>
+    <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
         <v>646</v>
       </c>
@@ -10877,11 +10877,11 @@
       <c r="C88" s="26" t="s">
         <v>657</v>
       </c>
-      <c r="D88" s="116"/>
-      <c r="E88" s="118"/>
-      <c r="F88" s="116"/>
-    </row>
-    <row r="89" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="D88" s="122"/>
+      <c r="E88" s="128"/>
+      <c r="F88" s="122"/>
+    </row>
+    <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
         <v>647</v>
       </c>
@@ -10891,11 +10891,11 @@
       <c r="C89" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="D89" s="116"/>
-      <c r="E89" s="118"/>
-      <c r="F89" s="116"/>
-    </row>
-    <row r="90" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D89" s="122"/>
+      <c r="E89" s="128"/>
+      <c r="F89" s="122"/>
+    </row>
+    <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>648</v>
       </c>
@@ -10905,11 +10905,11 @@
       <c r="C90" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="D90" s="116"/>
-      <c r="E90" s="118"/>
-      <c r="F90" s="116"/>
-    </row>
-    <row r="91" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D90" s="122"/>
+      <c r="E90" s="128"/>
+      <c r="F90" s="122"/>
+    </row>
+    <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
         <v>649</v>
       </c>
@@ -10919,11 +10919,11 @@
       <c r="C91" s="26" t="s">
         <v>656</v>
       </c>
-      <c r="D91" s="116"/>
-      <c r="E91" s="118"/>
-      <c r="F91" s="116"/>
-    </row>
-    <row r="92" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D91" s="122"/>
+      <c r="E91" s="128"/>
+      <c r="F91" s="122"/>
+    </row>
+    <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
         <v>650</v>
       </c>
@@ -10933,11 +10933,11 @@
       <c r="C92" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="D92" s="116"/>
-      <c r="E92" s="118"/>
-      <c r="F92" s="116"/>
-    </row>
-    <row r="93" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="D92" s="122"/>
+      <c r="E92" s="128"/>
+      <c r="F92" s="122"/>
+    </row>
+    <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>651</v>
       </c>
@@ -10947,16 +10947,16 @@
       <c r="C93" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="D93" s="116"/>
-      <c r="E93" s="118"/>
-      <c r="F93" s="116"/>
-    </row>
-    <row r="95" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="D93" s="122"/>
+      <c r="E93" s="128"/>
+      <c r="F93" s="122"/>
+    </row>
+    <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A95" s="100" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
         <v>795</v>
       </c>
@@ -10964,17 +10964,17 @@
         <v>463</v>
       </c>
       <c r="C96" s="21"/>
-      <c r="D96" s="116" t="s">
+      <c r="D96" s="122" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="116" t="s">
+      <c r="E96" s="122" t="s">
         <v>809</v>
       </c>
-      <c r="F96" s="116" t="s">
+      <c r="F96" s="122" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
         <v>796</v>
       </c>
@@ -10984,11 +10984,11 @@
       <c r="C97" s="21" t="s">
         <v>813</v>
       </c>
-      <c r="D97" s="116"/>
-      <c r="E97" s="116"/>
-      <c r="F97" s="116"/>
-    </row>
-    <row r="98" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="D97" s="122"/>
+      <c r="E97" s="122"/>
+      <c r="F97" s="122"/>
+    </row>
+    <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A98" s="86" t="s">
         <v>797</v>
       </c>
@@ -10998,11 +10998,11 @@
       <c r="C98" s="86" t="s">
         <v>706</v>
       </c>
-      <c r="D98" s="116"/>
-      <c r="E98" s="116"/>
-      <c r="F98" s="116"/>
-    </row>
-    <row r="99" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="D98" s="122"/>
+      <c r="E98" s="122"/>
+      <c r="F98" s="122"/>
+    </row>
+    <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
         <v>798</v>
       </c>
@@ -11012,11 +11012,11 @@
       <c r="C99" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-    </row>
-    <row r="100" spans="1:6" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="122"/>
+      <c r="E99" s="122"/>
+      <c r="F99" s="122"/>
+    </row>
+    <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
         <v>803</v>
       </c>
@@ -11026,11 +11026,11 @@
       <c r="C100" s="21" t="s">
         <v>887</v>
       </c>
-      <c r="D100" s="116"/>
-      <c r="E100" s="116"/>
-      <c r="F100" s="116"/>
-    </row>
-    <row r="101" spans="1:6" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="122"/>
+      <c r="E100" s="122"/>
+      <c r="F100" s="122"/>
+    </row>
+    <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>804</v>
       </c>
@@ -11040,11 +11040,11 @@
       <c r="C101" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="D101" s="116"/>
-      <c r="E101" s="116"/>
-      <c r="F101" s="116"/>
-    </row>
-    <row r="102" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="D101" s="122"/>
+      <c r="E101" s="122"/>
+      <c r="F101" s="122"/>
+    </row>
+    <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
         <v>805</v>
       </c>
@@ -11054,9 +11054,9 @@
       <c r="C102" s="79" t="s">
         <v>817</v>
       </c>
-      <c r="D102" s="116"/>
-      <c r="E102" s="116"/>
-      <c r="F102" s="116"/>
+      <c r="D102" s="122"/>
+      <c r="E102" s="122"/>
+      <c r="F102" s="122"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
@@ -11066,11 +11066,11 @@
         <v>463</v>
       </c>
       <c r="C103" s="21"/>
-      <c r="D103" s="116"/>
-      <c r="E103" s="116"/>
-      <c r="F103" s="116"/>
-    </row>
-    <row r="104" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="D103" s="122"/>
+      <c r="E103" s="122"/>
+      <c r="F103" s="122"/>
+    </row>
+    <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A104" s="86" t="s">
         <v>800</v>
       </c>
@@ -11080,9 +11080,9 @@
       <c r="C104" s="86" t="s">
         <v>888</v>
       </c>
-      <c r="D104" s="116"/>
-      <c r="E104" s="116"/>
-      <c r="F104" s="116"/>
+      <c r="D104" s="122"/>
+      <c r="E104" s="122"/>
+      <c r="F104" s="122"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
@@ -11094,11 +11094,11 @@
       <c r="C105" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D105" s="116"/>
-      <c r="E105" s="116"/>
-      <c r="F105" s="116"/>
-    </row>
-    <row r="106" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D105" s="122"/>
+      <c r="E105" s="122"/>
+      <c r="F105" s="122"/>
+    </row>
+    <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="s">
         <v>819</v>
       </c>
@@ -11108,11 +11108,11 @@
       <c r="C106" s="94" t="s">
         <v>820</v>
       </c>
-      <c r="D106" s="116"/>
-      <c r="E106" s="116"/>
-      <c r="F106" s="116"/>
-    </row>
-    <row r="107" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="D106" s="122"/>
+      <c r="E106" s="122"/>
+      <c r="F106" s="122"/>
+    </row>
+    <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A107" s="86" t="s">
         <v>801</v>
       </c>
@@ -11122,11 +11122,11 @@
       <c r="C107" s="86" t="s">
         <v>821</v>
       </c>
-      <c r="D107" s="116"/>
-      <c r="E107" s="116"/>
-      <c r="F107" s="116"/>
-    </row>
-    <row r="108" spans="1:6" ht="132" x14ac:dyDescent="0.25">
+      <c r="D107" s="122"/>
+      <c r="E107" s="122"/>
+      <c r="F107" s="122"/>
+    </row>
+    <row r="108" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
         <v>802</v>
       </c>
@@ -11136,11 +11136,11 @@
       <c r="C108" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="D108" s="116"/>
-      <c r="E108" s="116"/>
-      <c r="F108" s="116"/>
-    </row>
-    <row r="109" spans="1:6" ht="249.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="122"/>
+      <c r="E108" s="122"/>
+      <c r="F108" s="122"/>
+    </row>
+    <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="86" t="s">
         <v>806</v>
       </c>
@@ -11150,11 +11150,11 @@
       <c r="C109" s="86" t="s">
         <v>823</v>
       </c>
-      <c r="D109" s="116"/>
-      <c r="E109" s="116"/>
-      <c r="F109" s="116"/>
-    </row>
-    <row r="110" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="D109" s="122"/>
+      <c r="E109" s="122"/>
+      <c r="F109" s="122"/>
+    </row>
+    <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
         <v>807</v>
       </c>
@@ -11164,9 +11164,9 @@
       <c r="C110" s="88" t="s">
         <v>921</v>
       </c>
-      <c r="D110" s="116"/>
-      <c r="E110" s="116"/>
-      <c r="F110" s="116"/>
+      <c r="D110" s="122"/>
+      <c r="E110" s="122"/>
+      <c r="F110" s="122"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
@@ -11176,9 +11176,9 @@
         <v>455</v>
       </c>
       <c r="C111" s="21"/>
-      <c r="D111" s="116"/>
-      <c r="E111" s="116"/>
-      <c r="F111" s="116"/>
+      <c r="D111" s="122"/>
+      <c r="E111" s="122"/>
+      <c r="F111" s="122"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
@@ -11188,9 +11188,9 @@
         <v>455</v>
       </c>
       <c r="C112" s="21"/>
-      <c r="D112" s="116"/>
-      <c r="E112" s="116"/>
-      <c r="F112" s="116"/>
+      <c r="D112" s="122"/>
+      <c r="E112" s="122"/>
+      <c r="F112" s="122"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
@@ -11200,11 +11200,11 @@
         <v>455</v>
       </c>
       <c r="C113" s="21"/>
-      <c r="D113" s="116"/>
-      <c r="E113" s="116"/>
-      <c r="F113" s="116"/>
-    </row>
-    <row r="114" spans="1:6" ht="128.55000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D113" s="122"/>
+      <c r="E113" s="122"/>
+      <c r="F113" s="122"/>
+    </row>
+    <row r="114" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="86" t="s">
         <v>811</v>
       </c>
@@ -11214,16 +11214,16 @@
       <c r="C114" s="86" t="s">
         <v>824</v>
       </c>
-      <c r="D114" s="116"/>
-      <c r="E114" s="116"/>
-      <c r="F114" s="116"/>
-    </row>
-    <row r="116" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="D114" s="122"/>
+      <c r="E114" s="122"/>
+      <c r="F114" s="122"/>
+    </row>
+    <row r="116" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A116" s="100" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
         <v>899</v>
       </c>
@@ -11233,17 +11233,17 @@
       <c r="C117" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D117" s="116" t="s">
+      <c r="D117" s="122" t="s">
         <v>808</v>
       </c>
-      <c r="E117" s="117">
+      <c r="E117" s="123">
         <v>45194</v>
       </c>
-      <c r="F117" s="116" t="s">
+      <c r="F117" s="122" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="26" t="s">
         <v>900</v>
       </c>
@@ -11253,11 +11253,11 @@
       <c r="C118" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D118" s="116"/>
-      <c r="E118" s="116"/>
-      <c r="F118" s="116"/>
-    </row>
-    <row r="119" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D118" s="122"/>
+      <c r="E118" s="122"/>
+      <c r="F118" s="122"/>
+    </row>
+    <row r="119" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
         <v>901</v>
       </c>
@@ -11267,11 +11267,11 @@
       <c r="C119" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D119" s="116"/>
-      <c r="E119" s="116"/>
-      <c r="F119" s="116"/>
-    </row>
-    <row r="120" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D119" s="122"/>
+      <c r="E119" s="122"/>
+      <c r="F119" s="122"/>
+    </row>
+    <row r="120" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
         <v>903</v>
       </c>
@@ -11281,9 +11281,9 @@
       <c r="C120" s="26" t="s">
         <v>904</v>
       </c>
-      <c r="D120" s="116"/>
-      <c r="E120" s="116"/>
-      <c r="F120" s="116"/>
+      <c r="D120" s="122"/>
+      <c r="E120" s="122"/>
+      <c r="F120" s="122"/>
     </row>
     <row r="121" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="73" t="s">
@@ -11295,11 +11295,11 @@
       <c r="C121" s="73" t="s">
         <v>906</v>
       </c>
-      <c r="D121" s="116"/>
-      <c r="E121" s="116"/>
-      <c r="F121" s="116"/>
-    </row>
-    <row r="122" spans="1:6" ht="186.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="122"/>
+      <c r="E121" s="122"/>
+      <c r="F121" s="122"/>
+    </row>
+    <row r="122" spans="1:6" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
         <v>907</v>
       </c>
@@ -11309,11 +11309,11 @@
       <c r="C122" s="88" t="s">
         <v>908</v>
       </c>
-      <c r="D122" s="116"/>
-      <c r="E122" s="116"/>
-      <c r="F122" s="116"/>
-    </row>
-    <row r="123" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D122" s="122"/>
+      <c r="E122" s="122"/>
+      <c r="F122" s="122"/>
+    </row>
+    <row r="123" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>909</v>
       </c>
@@ -11323,11 +11323,11 @@
       <c r="C123" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="D123" s="116"/>
-      <c r="E123" s="116"/>
-      <c r="F123" s="116"/>
-    </row>
-    <row r="124" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D123" s="122"/>
+      <c r="E123" s="122"/>
+      <c r="F123" s="122"/>
+    </row>
+    <row r="124" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>910</v>
       </c>
@@ -11337,9 +11337,9 @@
       <c r="C124" s="26" t="s">
         <v>911</v>
       </c>
-      <c r="D124" s="116"/>
-      <c r="E124" s="116"/>
-      <c r="F124" s="116"/>
+      <c r="D124" s="122"/>
+      <c r="E124" s="122"/>
+      <c r="F124" s="122"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
@@ -11349,16 +11349,16 @@
         <v>455</v>
       </c>
       <c r="C125" s="21"/>
-      <c r="D125" s="116"/>
-      <c r="E125" s="116"/>
-      <c r="F125" s="116"/>
-    </row>
-    <row r="127" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="D125" s="122"/>
+      <c r="E125" s="122"/>
+      <c r="F125" s="122"/>
+    </row>
+    <row r="127" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A127" s="100" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
         <v>923</v>
       </c>
@@ -11368,17 +11368,17 @@
       <c r="C128" s="21" t="s">
         <v>931</v>
       </c>
-      <c r="D128" s="131" t="s">
+      <c r="D128" s="116" t="s">
         <v>569</v>
       </c>
-      <c r="E128" s="134">
+      <c r="E128" s="119">
         <v>45203</v>
       </c>
-      <c r="F128" s="131" t="s">
+      <c r="F128" s="116" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
         <v>924</v>
       </c>
@@ -11388,11 +11388,11 @@
       <c r="C129" s="88" t="s">
         <v>932</v>
       </c>
-      <c r="D129" s="132"/>
-      <c r="E129" s="135"/>
-      <c r="F129" s="132"/>
-    </row>
-    <row r="130" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D129" s="117"/>
+      <c r="E129" s="120"/>
+      <c r="F129" s="117"/>
+    </row>
+    <row r="130" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="26" t="s">
         <v>925</v>
       </c>
@@ -11402,11 +11402,11 @@
       <c r="C130" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D130" s="132"/>
-      <c r="E130" s="135"/>
-      <c r="F130" s="132"/>
-    </row>
-    <row r="131" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D130" s="117"/>
+      <c r="E130" s="120"/>
+      <c r="F130" s="117"/>
+    </row>
+    <row r="131" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="26" t="s">
         <v>926</v>
       </c>
@@ -11416,11 +11416,11 @@
       <c r="C131" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D131" s="132"/>
-      <c r="E131" s="135"/>
-      <c r="F131" s="132"/>
-    </row>
-    <row r="132" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="D131" s="117"/>
+      <c r="E131" s="120"/>
+      <c r="F131" s="117"/>
+    </row>
+    <row r="132" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
         <v>927</v>
       </c>
@@ -11430,11 +11430,11 @@
       <c r="C132" s="113" t="s">
         <v>946</v>
       </c>
-      <c r="D132" s="132"/>
-      <c r="E132" s="135"/>
-      <c r="F132" s="132"/>
-    </row>
-    <row r="133" spans="1:6" ht="119.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D132" s="117"/>
+      <c r="E132" s="120"/>
+      <c r="F132" s="117"/>
+    </row>
+    <row r="133" spans="1:6" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
         <v>704</v>
       </c>
@@ -11444,11 +11444,11 @@
       <c r="C133" s="26" t="s">
         <v>703</v>
       </c>
-      <c r="D133" s="132"/>
-      <c r="E133" s="135"/>
-      <c r="F133" s="132"/>
-    </row>
-    <row r="134" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D133" s="117"/>
+      <c r="E133" s="120"/>
+      <c r="F133" s="117"/>
+    </row>
+    <row r="134" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="26" t="s">
         <v>900</v>
       </c>
@@ -11458,11 +11458,11 @@
       <c r="C134" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D134" s="132"/>
-      <c r="E134" s="135"/>
-      <c r="F134" s="132"/>
-    </row>
-    <row r="135" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D134" s="117"/>
+      <c r="E134" s="120"/>
+      <c r="F134" s="117"/>
+    </row>
+    <row r="135" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="26" t="s">
         <v>818</v>
       </c>
@@ -11472,11 +11472,11 @@
       <c r="C135" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D135" s="132"/>
-      <c r="E135" s="135"/>
-      <c r="F135" s="132"/>
-    </row>
-    <row r="136" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D135" s="117"/>
+      <c r="E135" s="120"/>
+      <c r="F135" s="117"/>
+    </row>
+    <row r="136" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="26" t="s">
         <v>819</v>
       </c>
@@ -11486,9 +11486,9 @@
       <c r="C136" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D136" s="132"/>
-      <c r="E136" s="135"/>
-      <c r="F136" s="132"/>
+      <c r="D136" s="117"/>
+      <c r="E136" s="120"/>
+      <c r="F136" s="117"/>
     </row>
     <row r="137" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
@@ -11500,11 +11500,11 @@
       <c r="C137" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="D137" s="132"/>
-      <c r="E137" s="135"/>
-      <c r="F137" s="132"/>
-    </row>
-    <row r="138" spans="1:6" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D137" s="117"/>
+      <c r="E137" s="120"/>
+      <c r="F137" s="117"/>
+    </row>
+    <row r="138" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26" t="s">
         <v>928</v>
       </c>
@@ -11514,11 +11514,11 @@
       <c r="C138" s="95" t="s">
         <v>902</v>
       </c>
-      <c r="D138" s="132"/>
-      <c r="E138" s="135"/>
-      <c r="F138" s="132"/>
-    </row>
-    <row r="139" spans="1:6" ht="145.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D138" s="117"/>
+      <c r="E138" s="120"/>
+      <c r="F138" s="117"/>
+    </row>
+    <row r="139" spans="1:6" ht="146" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
         <v>929</v>
       </c>
@@ -11528,9 +11528,9 @@
       <c r="C139" s="113" t="s">
         <v>930</v>
       </c>
-      <c r="D139" s="132"/>
-      <c r="E139" s="135"/>
-      <c r="F139" s="132"/>
+      <c r="D139" s="117"/>
+      <c r="E139" s="120"/>
+      <c r="F139" s="117"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
@@ -11542,11 +11542,11 @@
       <c r="C140" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="D140" s="132"/>
-      <c r="E140" s="135"/>
-      <c r="F140" s="132"/>
-    </row>
-    <row r="141" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D140" s="117"/>
+      <c r="E140" s="120"/>
+      <c r="F140" s="117"/>
+    </row>
+    <row r="141" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
         <v>937</v>
       </c>
@@ -11556,9 +11556,9 @@
       <c r="C141" s="26" t="s">
         <v>938</v>
       </c>
-      <c r="D141" s="132"/>
-      <c r="E141" s="135"/>
-      <c r="F141" s="132"/>
+      <c r="D141" s="117"/>
+      <c r="E141" s="120"/>
+      <c r="F141" s="117"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
@@ -11570,11 +11570,11 @@
       <c r="C142" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="D142" s="133"/>
-      <c r="E142" s="136"/>
-      <c r="F142" s="133"/>
-    </row>
-    <row r="144" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="D142" s="118"/>
+      <c r="E142" s="121"/>
+      <c r="F142" s="118"/>
+    </row>
+    <row r="144" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A144" s="114" t="s">
         <v>948</v>
       </c>
@@ -11589,13 +11589,13 @@
       <c r="C145" s="21" t="s">
         <v>950</v>
       </c>
-      <c r="D145" s="116" t="s">
+      <c r="D145" s="122" t="s">
         <v>569</v>
       </c>
-      <c r="E145" s="117">
+      <c r="E145" s="123">
         <v>45204</v>
       </c>
-      <c r="F145" s="116" t="s">
+      <c r="F145" s="122" t="s">
         <v>812</v>
       </c>
     </row>
@@ -11609,11 +11609,11 @@
       <c r="C146" s="21" t="s">
         <v>953</v>
       </c>
-      <c r="D146" s="116"/>
-      <c r="E146" s="116"/>
-      <c r="F146" s="116"/>
-    </row>
-    <row r="147" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="D146" s="122"/>
+      <c r="E146" s="122"/>
+      <c r="F146" s="122"/>
+    </row>
+    <row r="147" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
         <v>954</v>
       </c>
@@ -11621,9 +11621,9 @@
         <v>517</v>
       </c>
       <c r="C147" s="21"/>
-      <c r="D147" s="116"/>
-      <c r="E147" s="116"/>
-      <c r="F147" s="116"/>
+      <c r="D147" s="122"/>
+      <c r="E147" s="122"/>
+      <c r="F147" s="122"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
@@ -11635,11 +11635,11 @@
       <c r="C148" s="21" t="s">
         <v>956</v>
       </c>
-      <c r="D148" s="116"/>
-      <c r="E148" s="116"/>
-      <c r="F148" s="116"/>
-    </row>
-    <row r="149" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="D148" s="122"/>
+      <c r="E148" s="122"/>
+      <c r="F148" s="122"/>
+    </row>
+    <row r="149" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
         <v>957</v>
       </c>
@@ -11649,9 +11649,9 @@
       <c r="C149" s="26" t="s">
         <v>962</v>
       </c>
-      <c r="D149" s="116"/>
-      <c r="E149" s="116"/>
-      <c r="F149" s="116"/>
+      <c r="D149" s="122"/>
+      <c r="E149" s="122"/>
+      <c r="F149" s="122"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
@@ -11661,9 +11661,9 @@
         <v>952</v>
       </c>
       <c r="C150" s="21"/>
-      <c r="D150" s="116"/>
-      <c r="E150" s="116"/>
-      <c r="F150" s="116"/>
+      <c r="D150" s="122"/>
+      <c r="E150" s="122"/>
+      <c r="F150" s="122"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
@@ -11675,11 +11675,11 @@
       <c r="C151" s="21" t="s">
         <v>961</v>
       </c>
-      <c r="D151" s="116"/>
-      <c r="E151" s="116"/>
-      <c r="F151" s="116"/>
-    </row>
-    <row r="153" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="D151" s="122"/>
+      <c r="E151" s="122"/>
+      <c r="F151" s="122"/>
+    </row>
+    <row r="153" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A153" s="114" t="s">
         <v>963</v>
       </c>
@@ -11720,7 +11720,7 @@
       </c>
       <c r="B159" s="21"/>
     </row>
-    <row r="160" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A160" s="26" t="s">
         <v>984</v>
       </c>
@@ -11745,27 +11745,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D128:D142"/>
-    <mergeCell ref="E128:E142"/>
-    <mergeCell ref="F128:F142"/>
-    <mergeCell ref="D117:D125"/>
-    <mergeCell ref="E117:E125"/>
-    <mergeCell ref="F117:F125"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="D96:D114"/>
-    <mergeCell ref="E96:E114"/>
-    <mergeCell ref="F96:F114"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
     <mergeCell ref="D145:D151"/>
     <mergeCell ref="E145:E151"/>
     <mergeCell ref="F145:F151"/>
@@ -11782,6 +11761,27 @@
     <mergeCell ref="E57:E62"/>
     <mergeCell ref="F57:F62"/>
     <mergeCell ref="D64:D68"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="D96:D114"/>
+    <mergeCell ref="E96:E114"/>
+    <mergeCell ref="F96:F114"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="D128:D142"/>
+    <mergeCell ref="E128:E142"/>
+    <mergeCell ref="F128:F142"/>
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="F117:F125"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
@@ -11808,13 +11808,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="114.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" customWidth="1"/>
+    <col min="1" max="1" width="114.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>258</v>
       </c>
@@ -11822,12 +11822,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>260</v>
       </c>
@@ -11846,14 +11846,14 @@
       <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="74.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="74.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="127.21875" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="74.21875" style="5"/>
+    <col min="1" max="1" width="54.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="127.1796875" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="74.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="69" t="s">
         <v>437</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>686</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>689</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>690</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>692</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="93" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="88.5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>693</v>
       </c>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="C6" s="50"/>
     </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>695</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>696</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
         <v>697</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="101" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
         <v>699</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="76" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>701</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="119.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
         <v>704</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>705</v>
       </c>
@@ -11964,7 +11964,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
         <v>708</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>712</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
         <v>731</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
         <v>734</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>736</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>737</v>
       </c>
@@ -12012,395 +12012,395 @@
         <v>738</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="26"/>
       <c r="B40" s="26"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="26"/>
       <c r="B44" s="26"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="26"/>
       <c r="B50" s="26"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="26"/>
       <c r="B53" s="26"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="26"/>
       <c r="B54" s="26"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="26"/>
       <c r="B55" s="26"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="26"/>
       <c r="B57" s="26"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="26"/>
       <c r="B58" s="26"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="26"/>
       <c r="B59" s="26"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="26"/>
       <c r="B60" s="26"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="26"/>
       <c r="B61" s="26"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="26"/>
       <c r="B62" s="26"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="26"/>
       <c r="B63" s="26"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="26"/>
       <c r="B65" s="26"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="26"/>
       <c r="B66" s="26"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="26"/>
       <c r="B67" s="26"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="26"/>
       <c r="B68" s="26"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="26"/>
       <c r="B69" s="26"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="26"/>
       <c r="B70" s="26"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="26"/>
       <c r="B71" s="26"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="26"/>
       <c r="B72" s="26"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="26"/>
       <c r="B73" s="26"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="26"/>
       <c r="B74" s="26"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="26"/>
       <c r="B75" s="26"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="26"/>
       <c r="B76" s="26"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="26"/>
       <c r="B77" s="26"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="26"/>
       <c r="B78" s="26"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="26"/>
       <c r="B79" s="26"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="26"/>
       <c r="B80" s="26"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="26"/>
       <c r="B83" s="26"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="26"/>
       <c r="B84" s="26"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="26"/>
       <c r="B85" s="26"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="26"/>
       <c r="B86" s="26"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="26"/>
       <c r="B87" s="26"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="26"/>
       <c r="B88" s="26"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="26"/>
       <c r="B89" s="26"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="26"/>
       <c r="B90" s="26"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="26"/>
       <c r="B91" s="26"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="26"/>
       <c r="B92" s="26"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="26"/>
       <c r="B93" s="26"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="26"/>
       <c r="B94" s="26"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="26"/>
       <c r="B95" s="26"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="26"/>
       <c r="B96" s="26"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="26"/>
       <c r="B97" s="26"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="26"/>
       <c r="B98" s="26"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="26"/>
       <c r="B99" s="26"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="26"/>
       <c r="B100" s="26"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="26"/>
       <c r="B101" s="26"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="26"/>
       <c r="B102" s="26"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="26"/>
       <c r="B103" s="26"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="26"/>
       <c r="B104" s="26"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="26"/>
       <c r="B105" s="26"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="26"/>
       <c r="B106" s="26"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="26"/>
       <c r="B107" s="26"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="26"/>
       <c r="B108" s="26"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="26"/>
       <c r="B109" s="26"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="26"/>
       <c r="B110" s="26"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="26"/>
       <c r="B111" s="26"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="26"/>
       <c r="B112" s="26"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="26"/>
       <c r="B113" s="26"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="26"/>
       <c r="B114" s="26"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="26"/>
       <c r="B115" s="26"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="26"/>
       <c r="B116" s="26"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="26"/>
       <c r="B117" s="26"/>
       <c r="D117" s="5" t="s">
@@ -12410,30 +12410,30 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="26"/>
       <c r="B118" s="26"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="26"/>
       <c r="B119" s="26"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="26"/>
       <c r="B120" s="26"/>
     </row>
-    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="73"/>
       <c r="B121" s="73"/>
     </row>
-    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="26"/>
       <c r="B122" s="26"/>
       <c r="C122" s="98" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
         <v>909</v>
       </c>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="C123" s="4"/>
     </row>
-    <row r="124" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
         <v>910</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
         <v>912</v>
       </c>
@@ -12462,1139 +12462,1139 @@
       </c>
       <c r="C125" s="4"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="97"/>
       <c r="B126" s="97"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="26"/>
       <c r="B127" s="26"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="26"/>
       <c r="B128" s="26"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="26"/>
       <c r="B129" s="26"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="26"/>
       <c r="B130" s="26"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="26"/>
       <c r="B131" s="26"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="26"/>
       <c r="B132" s="26"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="26"/>
       <c r="B133" s="26"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="26"/>
       <c r="B134" s="26"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="26"/>
       <c r="B135" s="26"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="26"/>
       <c r="B136" s="26"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="26"/>
       <c r="B137" s="26"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="26"/>
       <c r="B138" s="26"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="26"/>
       <c r="B139" s="26"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="26"/>
       <c r="B140" s="26"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="26"/>
       <c r="B141" s="26"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="26"/>
       <c r="B142" s="26"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="26"/>
       <c r="B143" s="26"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="26"/>
       <c r="B144" s="26"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="26"/>
       <c r="B145" s="26"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="26"/>
       <c r="B146" s="26"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="26"/>
       <c r="B147" s="26"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="26"/>
       <c r="B148" s="26"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="26"/>
       <c r="B149" s="26"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="26"/>
       <c r="B150" s="26"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="26"/>
       <c r="B151" s="26"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="26"/>
       <c r="B152" s="26"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="26"/>
       <c r="B153" s="26"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="26"/>
       <c r="B154" s="26"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="26"/>
       <c r="B155" s="26"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="26"/>
       <c r="B156" s="26"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="26"/>
       <c r="B157" s="26"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="26"/>
       <c r="B158" s="26"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="26"/>
       <c r="B159" s="26"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="26"/>
       <c r="B160" s="26"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="26"/>
       <c r="B161" s="26"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="26"/>
       <c r="B162" s="26"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="26"/>
       <c r="B163" s="26"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="26"/>
       <c r="B164" s="26"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="26"/>
       <c r="B165" s="26"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="26"/>
       <c r="B166" s="26"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="26"/>
       <c r="B167" s="26"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="26"/>
       <c r="B168" s="26"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="26"/>
       <c r="B169" s="26"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="26"/>
       <c r="B170" s="26"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="26"/>
       <c r="B171" s="26"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="26"/>
       <c r="B172" s="26"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="26"/>
       <c r="B173" s="26"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="26"/>
       <c r="B174" s="26"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="26"/>
       <c r="B175" s="26"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="26"/>
       <c r="B176" s="26"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="26"/>
       <c r="B177" s="26"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="26"/>
       <c r="B178" s="26"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="26"/>
       <c r="B179" s="26"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="26"/>
       <c r="B180" s="26"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="26"/>
       <c r="B181" s="26"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="26"/>
       <c r="B182" s="26"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="26"/>
       <c r="B183" s="26"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="26"/>
       <c r="B184" s="26"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="26"/>
       <c r="B185" s="26"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="26"/>
       <c r="B186" s="26"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="26"/>
       <c r="B187" s="26"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="26"/>
       <c r="B188" s="26"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="26"/>
       <c r="B189" s="26"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="26"/>
       <c r="B190" s="26"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="26"/>
       <c r="B191" s="26"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="26"/>
       <c r="B192" s="26"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="26"/>
       <c r="B193" s="26"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="26"/>
       <c r="B194" s="26"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="26"/>
       <c r="B195" s="26"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="26"/>
       <c r="B196" s="26"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="26"/>
       <c r="B197" s="26"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="26"/>
       <c r="B198" s="26"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="26"/>
       <c r="B199" s="26"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="26"/>
       <c r="B200" s="26"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="26"/>
       <c r="B201" s="26"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="26"/>
       <c r="B202" s="26"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="26"/>
       <c r="B203" s="26"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="26"/>
       <c r="B204" s="26"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="26"/>
       <c r="B205" s="26"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="26"/>
       <c r="B206" s="26"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="26"/>
       <c r="B207" s="26"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="26"/>
       <c r="B208" s="26"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="26"/>
       <c r="B209" s="26"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="26"/>
       <c r="B210" s="26"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="26"/>
       <c r="B211" s="26"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="26"/>
       <c r="B212" s="26"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="26"/>
       <c r="B213" s="26"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="26"/>
       <c r="B214" s="26"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="26"/>
       <c r="B215" s="26"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="26"/>
       <c r="B216" s="26"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="26"/>
       <c r="B217" s="26"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="26"/>
       <c r="B218" s="26"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="26"/>
       <c r="B219" s="26"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="26"/>
       <c r="B220" s="26"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="26"/>
       <c r="B221" s="26"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="26"/>
       <c r="B222" s="26"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="26"/>
       <c r="B223" s="26"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="26"/>
       <c r="B224" s="26"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="26"/>
       <c r="B225" s="26"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="26"/>
       <c r="B226" s="26"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="26"/>
       <c r="B227" s="26"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="26"/>
       <c r="B228" s="26"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="26"/>
       <c r="B229" s="26"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="26"/>
       <c r="B230" s="26"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="26"/>
       <c r="B231" s="26"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="26"/>
       <c r="B232" s="26"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="26"/>
       <c r="B233" s="26"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="26"/>
       <c r="B234" s="26"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="26"/>
       <c r="B235" s="26"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="26"/>
       <c r="B236" s="26"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="26"/>
       <c r="B237" s="26"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="26"/>
       <c r="B238" s="26"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="26"/>
       <c r="B239" s="26"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="26"/>
       <c r="B240" s="26"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="26"/>
       <c r="B241" s="26"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="26"/>
       <c r="B242" s="26"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="26"/>
       <c r="B243" s="26"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="26"/>
       <c r="B244" s="26"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="26"/>
       <c r="B245" s="26"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="26"/>
       <c r="B246" s="26"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="26"/>
       <c r="B247" s="26"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="26"/>
       <c r="B248" s="26"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="26"/>
       <c r="B249" s="26"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="26"/>
       <c r="B250" s="26"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="26"/>
       <c r="B251" s="26"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="26"/>
       <c r="B252" s="26"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="26"/>
       <c r="B253" s="26"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="26"/>
       <c r="B254" s="26"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="26"/>
       <c r="B255" s="26"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="26"/>
       <c r="B256" s="26"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="26"/>
       <c r="B257" s="26"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="26"/>
       <c r="B258" s="26"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="26"/>
       <c r="B259" s="26"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="26"/>
       <c r="B260" s="26"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="26"/>
       <c r="B261" s="26"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="26"/>
       <c r="B262" s="26"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="26"/>
       <c r="B263" s="26"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="26"/>
       <c r="B264" s="26"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="26"/>
       <c r="B265" s="26"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="26"/>
       <c r="B266" s="26"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="26"/>
       <c r="B267" s="26"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="26"/>
       <c r="B268" s="26"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="26"/>
       <c r="B269" s="26"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="26"/>
       <c r="B270" s="26"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="26"/>
       <c r="B271" s="26"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="26"/>
       <c r="B272" s="26"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="26"/>
       <c r="B273" s="26"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="26"/>
       <c r="B274" s="26"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="26"/>
       <c r="B275" s="26"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="26"/>
       <c r="B276" s="26"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="26"/>
       <c r="B277" s="26"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="26"/>
       <c r="B278" s="26"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="26"/>
       <c r="B279" s="26"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="26"/>
       <c r="B280" s="26"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="26"/>
       <c r="B281" s="26"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="26"/>
       <c r="B282" s="26"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="26"/>
       <c r="B283" s="26"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="26"/>
       <c r="B284" s="26"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="26"/>
       <c r="B285" s="26"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="26"/>
       <c r="B286" s="26"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="26"/>
       <c r="B287" s="26"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="26"/>
       <c r="B288" s="26"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="26"/>
       <c r="B289" s="26"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="26"/>
       <c r="B290" s="26"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="26"/>
       <c r="B291" s="26"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="26"/>
       <c r="B292" s="26"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="26"/>
       <c r="B293" s="26"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="26"/>
       <c r="B294" s="26"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="26"/>
       <c r="B295" s="26"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="26"/>
       <c r="B296" s="26"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="26"/>
       <c r="B297" s="26"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="26"/>
       <c r="B298" s="26"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="26"/>
       <c r="B299" s="26"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="26"/>
       <c r="B300" s="26"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="26"/>
       <c r="B301" s="26"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="26"/>
       <c r="B302" s="26"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="26"/>
       <c r="B303" s="26"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="26"/>
       <c r="B304" s="26"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="26"/>
       <c r="B305" s="26"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="26"/>
       <c r="B306" s="26"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="26"/>
       <c r="B307" s="26"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="26"/>
       <c r="B308" s="26"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="26"/>
       <c r="B309" s="26"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="26"/>
       <c r="B310" s="26"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="26"/>
       <c r="B311" s="26"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="26"/>
       <c r="B312" s="26"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="26"/>
       <c r="B313" s="26"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="26"/>
       <c r="B314" s="26"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="26"/>
       <c r="B315" s="26"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="26"/>
       <c r="B316" s="26"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="26"/>
       <c r="B317" s="26"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="26"/>
       <c r="B318" s="26"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="26"/>
       <c r="B319" s="26"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="26"/>
       <c r="B320" s="26"/>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="26"/>
       <c r="B321" s="26"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="26"/>
       <c r="B322" s="26"/>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="26"/>
       <c r="B323" s="26"/>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="26"/>
       <c r="B324" s="26"/>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="26"/>
       <c r="B325" s="26"/>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="26"/>
       <c r="B326" s="26"/>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="26"/>
       <c r="B327" s="26"/>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="26"/>
       <c r="B328" s="26"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="26"/>
       <c r="B329" s="26"/>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="26"/>
       <c r="B330" s="26"/>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="26"/>
       <c r="B331" s="26"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="26"/>
       <c r="B332" s="26"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="26"/>
       <c r="B333" s="26"/>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="26"/>
       <c r="B334" s="26"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="26"/>
       <c r="B335" s="26"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="26"/>
       <c r="B336" s="26"/>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="26"/>
       <c r="B337" s="26"/>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="26"/>
       <c r="B338" s="26"/>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="26"/>
       <c r="B339" s="26"/>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="26"/>
       <c r="B340" s="26"/>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="26"/>
       <c r="B341" s="26"/>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="26"/>
       <c r="B342" s="26"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="26"/>
       <c r="B343" s="26"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="26"/>
       <c r="B344" s="26"/>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="26"/>
       <c r="B345" s="26"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="26"/>
       <c r="B346" s="26"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="26"/>
       <c r="B347" s="26"/>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="26"/>
       <c r="B348" s="26"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="26"/>
       <c r="B349" s="26"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="26"/>
       <c r="B350" s="26"/>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="26"/>
       <c r="B351" s="26"/>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="26"/>
       <c r="B352" s="26"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="26"/>
       <c r="B353" s="26"/>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="26"/>
       <c r="B354" s="26"/>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="26"/>
       <c r="B355" s="26"/>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="26"/>
       <c r="B356" s="26"/>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="26"/>
       <c r="B357" s="26"/>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="26"/>
       <c r="B358" s="26"/>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="26"/>
       <c r="B359" s="26"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="26"/>
       <c r="B360" s="26"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="26"/>
       <c r="B361" s="26"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="26"/>
       <c r="B362" s="26"/>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="26"/>
       <c r="B363" s="26"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="26"/>
       <c r="B364" s="26"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="26"/>
       <c r="B365" s="26"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="26"/>
       <c r="B366" s="26"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="26"/>
       <c r="B367" s="26"/>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="26"/>
       <c r="B368" s="26"/>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="26"/>
       <c r="B369" s="26"/>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="26"/>
       <c r="B370" s="26"/>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="26"/>
       <c r="B371" s="26"/>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="26"/>
       <c r="B372" s="26"/>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="26"/>
       <c r="B373" s="26"/>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="26"/>
       <c r="B374" s="26"/>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="26"/>
       <c r="B375" s="26"/>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="26"/>
       <c r="B376" s="26"/>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="26"/>
       <c r="B377" s="26"/>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="26"/>
       <c r="B378" s="26"/>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="26"/>
       <c r="B379" s="26"/>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="26"/>
       <c r="B380" s="26"/>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="26"/>
       <c r="B381" s="26"/>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="26"/>
       <c r="B382" s="26"/>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="26"/>
       <c r="B383" s="26"/>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="26"/>
       <c r="B384" s="26"/>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="26"/>
       <c r="B385" s="26"/>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="26"/>
       <c r="B386" s="26"/>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="26"/>
       <c r="B387" s="26"/>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="26"/>
       <c r="B388" s="26"/>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="26"/>
       <c r="B389" s="26"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="26"/>
       <c r="B390" s="26"/>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="26"/>
       <c r="B391" s="26"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="26"/>
       <c r="B392" s="26"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="26"/>
       <c r="B393" s="26"/>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="26"/>
       <c r="B394" s="26"/>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="26"/>
       <c r="B395" s="26"/>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="26"/>
       <c r="B396" s="26"/>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="26"/>
       <c r="B397" s="26"/>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="26"/>
       <c r="B398" s="26"/>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="26"/>
       <c r="B399" s="26"/>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="26"/>
       <c r="B400" s="26"/>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="26"/>
       <c r="B401" s="26"/>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="26"/>
       <c r="B402" s="26"/>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="26"/>
       <c r="B403" s="26"/>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="26"/>
       <c r="B404" s="26"/>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="26"/>
       <c r="B405" s="26"/>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="26"/>
       <c r="B406" s="26"/>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="26"/>
       <c r="B407" s="26"/>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="26"/>
       <c r="B408" s="26"/>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="26"/>
       <c r="B409" s="26"/>
     </row>
@@ -13610,26 +13610,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5703F574-C88B-4291-BBA6-05D5382680CC}">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="19"/>
+    <col min="1" max="1" width="18.08984375" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="19"/>
     <col min="4" max="4" width="15" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="19"/>
-    <col min="7" max="7" width="15.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="19"/>
-    <col min="10" max="10" width="5.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.21875" style="19" customWidth="1"/>
-    <col min="12" max="13" width="8.77734375" style="19"/>
-    <col min="14" max="14" width="23.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="19"/>
+    <col min="5" max="5" width="28.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="19"/>
+    <col min="7" max="7" width="15.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="19"/>
+    <col min="10" max="10" width="5.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.1796875" style="19" customWidth="1"/>
+    <col min="12" max="13" width="8.81640625" style="19"/>
+    <col min="14" max="14" width="23.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -13742,7 +13742,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="25" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>188</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="25" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
         <v>9</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>727</v>
       </c>
@@ -14071,14 +14071,14 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="21"/>
       <c r="C122" s="88" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>909</v>
       </c>
@@ -14087,7 +14087,7 @@
       </c>
       <c r="C123" s="21"/>
     </row>
-    <row r="124" spans="1:5" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="250" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>910</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>912</v>
       </c>
@@ -14120,23 +14120,23 @@
       <selection activeCell="G14" sqref="G14:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="79" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="19"/>
-    <col min="4" max="4" width="8.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="19"/>
-    <col min="7" max="7" width="18.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="19"/>
-    <col min="10" max="10" width="8.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="19"/>
-    <col min="13" max="13" width="5.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.77734375" style="19"/>
+    <col min="3" max="3" width="8.81640625" style="19"/>
+    <col min="4" max="4" width="8.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.08984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" style="19"/>
+    <col min="7" max="7" width="18.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" style="19"/>
+    <col min="10" max="10" width="8.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" style="19"/>
+    <col min="13" max="13" width="5.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -14262,7 +14262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>18</v>
       </c>
@@ -14424,7 +14424,7 @@
       </c>
       <c r="K13" s="23"/>
     </row>
-    <row r="14" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="25" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>220</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>346</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>71</v>
       </c>
@@ -14544,7 +14544,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
         <v>349</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>351</v>
       </c>
@@ -14581,14 +14581,14 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="21"/>
       <c r="C122" s="88" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>909</v>
       </c>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="C123" s="21"/>
     </row>
-    <row r="124" spans="1:5" ht="277.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="250" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>910</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>912</v>
       </c>
@@ -14631,12 +14631,12 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="142.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.77734375" style="19"/>
+    <col min="1" max="1" width="27.08984375" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="142.36328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -14646,7 +14646,7 @@
       </c>
       <c r="C1" s="141"/>
     </row>
-    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="96"/>
       <c r="B2" s="30" t="s">
         <v>354</v>
@@ -14655,7 +14655,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A3" s="96"/>
       <c r="B3" s="30" t="s">
         <v>356</v>
@@ -14664,7 +14664,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A4" s="96"/>
       <c r="B4" s="30" t="s">
         <v>357</v>
@@ -14700,7 +14700,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" s="96"/>
       <c r="B8" s="30" t="s">
         <v>365</v>
@@ -14718,7 +14718,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A10" s="96"/>
       <c r="B10" s="30" t="s">
         <v>368</v>
@@ -14727,7 +14727,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="96"/>
       <c r="B11" s="35"/>
     </row>
@@ -14769,7 +14769,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="144"/>
       <c r="B16" s="41" t="s">
         <v>356</v>
@@ -14782,7 +14782,7 @@
       <c r="A17" s="96"/>
       <c r="B17" s="35"/>
     </row>
-    <row r="18" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="35"/>
     </row>
@@ -14869,7 +14869,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
       <c r="B28" s="46" t="s">
         <v>388</v>
@@ -14882,7 +14882,7 @@
       <c r="A29" s="96"/>
       <c r="B29" s="35"/>
     </row>
-    <row r="30" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="96"/>
       <c r="B30" s="35"/>
     </row>
@@ -14924,7 +14924,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="139"/>
       <c r="B35" s="44" t="s">
         <v>373</v>
@@ -14941,7 +14941,7 @@
       <c r="A37" s="96"/>
       <c r="B37" s="35"/>
     </row>
-    <row r="38" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A38" s="104" t="s">
         <v>396</v>
       </c>
@@ -14967,7 +14967,7 @@
       <c r="A40" s="96"/>
       <c r="B40" s="35"/>
     </row>
-    <row r="41" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="96"/>
       <c r="B41" s="35"/>
     </row>
@@ -14982,7 +14982,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="139"/>
       <c r="B43" s="30" t="s">
         <v>402</v>
@@ -14995,7 +14995,7 @@
       <c r="A44" s="96"/>
       <c r="B44" s="35"/>
     </row>
-    <row r="45" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="96"/>
       <c r="B45" s="35"/>
     </row>
@@ -15037,7 +15037,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="139"/>
       <c r="B50" s="30" t="s">
         <v>411</v>
@@ -15050,7 +15050,7 @@
       <c r="A51" s="96"/>
       <c r="B51" s="35"/>
     </row>
-    <row r="52" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="96"/>
       <c r="B52" s="35"/>
     </row>
@@ -15074,7 +15074,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="139"/>
       <c r="B55" s="30" t="s">
         <v>416</v>
@@ -15092,14 +15092,14 @@
       </c>
     </row>
     <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26"/>
       <c r="B122" s="21"/>
       <c r="C122" s="88" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
         <v>909</v>
       </c>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="C123" s="21"/>
     </row>
-    <row r="124" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
         <v>910</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
         <v>912</v>
       </c>
@@ -15150,13 +15150,13 @@
       <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="137.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="137.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>111</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="63" t="s">
         <v>113</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>115</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="63" t="s">
         <v>117</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="102" t="s">
         <v>119</v>
       </c>
@@ -15196,11 +15196,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="63"/>
       <c r="B6" s="63"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="103" t="s">
         <v>121</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="63" t="s">
         <v>123</v>
       </c>
@@ -15216,7 +15216,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="63" t="s">
         <v>125</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="69.599999999999994" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="70.5" x14ac:dyDescent="0.35">
       <c r="A10" s="63" t="s">
         <v>685</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
         <v>808</v>
       </c>
@@ -15240,15 +15240,15 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="98" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>909</v>
       </c>
@@ -15257,7 +15257,7 @@
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>910</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>912</v>
       </c>
@@ -15291,28 +15291,28 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="73.44140625" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="73.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>128</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>145</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D4" s="1" t="s">
         <v>147</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>149</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>157</v>
       </c>
@@ -15391,7 +15391,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>131</v>
       </c>
@@ -15411,7 +15411,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>131</v>
@@ -15423,7 +15423,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>739</v>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>742</v>
@@ -15443,7 +15443,7 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="60" t="s">
         <v>131</v>
       </c>
@@ -15458,7 +15458,7 @@
       </c>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>252</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>249</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>250</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>139</v>
       </c>
@@ -15494,7 +15494,7 @@
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>140</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>141</v>
       </c>
@@ -15510,18 +15510,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>160</v>
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="101" t="s">
         <v>109</v>
       </c>
@@ -15535,7 +15535,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>262</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>263</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>264</v>
       </c>
@@ -15559,7 +15559,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>265</v>
       </c>
@@ -15567,7 +15567,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>267</v>
       </c>
@@ -15575,7 +15575,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>266</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>268</v>
       </c>
@@ -15591,7 +15591,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>269</v>
       </c>
@@ -15599,7 +15599,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>270</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
         <v>271</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>272</v>
       </c>
@@ -15623,7 +15623,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
         <v>273</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>274</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>275</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>276</v>
       </c>
@@ -15655,22 +15655,22 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B40" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="29" x14ac:dyDescent="0.35">
       <c r="B41" s="9" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
         <v>808</v>
       </c>
@@ -15678,15 +15678,15 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="98" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>909</v>
       </c>
@@ -15695,7 +15695,7 @@
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:5" ht="288" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>910</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>912</v>
       </c>
@@ -15730,18 +15730,18 @@
       <selection activeCell="A8" sqref="A8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="96.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="96.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>175</v>
       </c>
@@ -15749,7 +15749,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>177</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>183</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>185</v>
       </c>
@@ -15779,7 +15779,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="147" t="s">
         <v>707</v>
       </c>
@@ -15792,27 +15792,27 @@
       <c r="H8" s="147"/>
       <c r="I8" s="147"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="148" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="148"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="148"/>
     </row>
-    <row r="14" spans="1:9" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="148"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
         <v>808</v>
       </c>
@@ -15820,15 +15820,15 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:5" ht="186.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="98" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>909</v>
       </c>
@@ -15837,7 +15837,7 @@
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>910</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>912</v>
       </c>

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9494B2-A96B-4A8C-9D7A-3C493FCBCCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F8376A-7149-4AC7-BDB5-E21B2321798F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1004">
   <si>
     <t>Module</t>
   </si>
@@ -3783,9 +3783,6 @@
   </si>
   <si>
     <t>How will you create proforma invoice for a delivery?</t>
-  </si>
-  <si>
-    <t>September 11, 2023</t>
   </si>
   <si>
     <t>WE41</t>
@@ -5827,14 +5824,118 @@
     <t>Have you worked on Batch determinations?</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Idoc</t>
+  </si>
+  <si>
+    <t>ME18</t>
+  </si>
+  <si>
+    <t>BD10</t>
+  </si>
+  <si>
+    <t>EDI maps</t>
+  </si>
+  <si>
+    <t>RSEOUT00</t>
+  </si>
+  <si>
+    <t>Trigger output by batch</t>
+  </si>
+  <si>
+    <t>Generate P. Info record</t>
+  </si>
+  <si>
+    <t>Generate material MATMAS idoc</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>credit limit for a customer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> can be maintained in SAP using transaction code FD32. There can be different credit limit for different customers. In this article, we will show how to maintain credit limit for a customer in SAP.</t>
+    </r>
+  </si>
+  <si>
+    <t>Replaced by T-code: Bp --&gt; Role: SAP credit management --&gt; Credit limit &amp; Control</t>
+  </si>
+  <si>
+    <r>
+      <t>PI01 Intercompany: fixed amount per material unit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF040C28"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PI02 Intercompany: percentage of the net invoice amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enable Auto PO flag in Vendor master record
+Go to OMSG, Double click on Vendor A/c Group and then double click on "Purchasing Data" under Field Status sub screen.
+Then double click on "Purchasing Data" under Select group, here Mark field "Autom.generated purchase order" as optional if it is suppressed</t>
+  </si>
+  <si>
+    <t>Mindsprint</t>
+  </si>
+  <si>
+    <t>Didn't clear</t>
+  </si>
+  <si>
+    <t>5th Interview- 1st round</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young
+GDS</t>
+  </si>
+  <si>
+    <t>Sept 11, 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6029,6 +6130,18 @@
       <sz val="10"/>
       <color rgb="FF040C28"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF040C28"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6349,7 +6462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6630,6 +6743,51 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
@@ -6647,51 +6805,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6740,6 +6853,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8047,10 +8163,10 @@
         <v>439</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="138" x14ac:dyDescent="0.25">
@@ -8077,7 +8193,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="161" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="149.5" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>445</v>
       </c>
@@ -8170,7 +8286,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E117" s="107">
         <v>45194</v>
@@ -8181,12 +8297,12 @@
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="98" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>455</v>
@@ -8195,18 +8311,18 @@
     </row>
     <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>455</v>
@@ -8223,7 +8339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3859DFB-17B5-474D-869D-DAD91F3CD285}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:V5"/>
     </sheetView>
   </sheetViews>
@@ -8389,176 +8505,176 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B2" s="72" t="s">
+        <v>670</v>
+      </c>
+      <c r="C2" s="73" t="s">
         <v>671</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
       <c r="B3" s="45" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="74" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="72" t="s">
+        <v>676</v>
+      </c>
+      <c r="C6" s="74" t="s">
         <v>677</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>666</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>667</v>
       </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>679</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="62" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="71" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="74" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>761</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>762</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>112</v>
@@ -8567,7 +8683,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="19"/>
@@ -8579,46 +8695,46 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="62" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>122</v>
@@ -8648,313 +8764,313 @@
   <sheetData>
     <row r="1" spans="1:6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B6" s="26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>835</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A10" s="89"/>
       <c r="B10" s="73" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="62" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C14" s="79" t="s">
         <v>174</v>
       </c>
       <c r="D14" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>854</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>855</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>856</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="F15" s="21" t="s">
         <v>857</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E16" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>857</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E17" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>857</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B18" s="26"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
+        <v>845</v>
+      </c>
+      <c r="B22" s="90" t="s">
         <v>846</v>
-      </c>
-      <c r="B22" s="90" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="90" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="26" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="69" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C25" s="79" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="69" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="69" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="26" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A37" s="87" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="37.5" x14ac:dyDescent="0.25">
       <c r="C39" s="73" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="69" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C41" s="84" t="s">
+        <v>870</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>871</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>872</v>
-      </c>
       <c r="E41" s="21" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D42" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="69" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="79" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="25" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -9032,49 +9148,49 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C3" t="s">
         <v>783</v>
-      </c>
-      <c r="C3" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>788</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -9711,10 +9827,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549ECB4F-00E1-4BF6-8909-4BA1BD6871D5}">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96:D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="255.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9759,13 +9875,13 @@
       <c r="C2" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="118" t="s">
         <v>457</v>
       </c>
-      <c r="E2" s="135">
+      <c r="E2" s="120">
         <v>44436</v>
       </c>
-      <c r="F2" s="132" t="s">
+      <c r="F2" s="123" t="s">
         <v>458</v>
       </c>
     </row>
@@ -9777,11 +9893,11 @@
         <v>455</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>775</v>
-      </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
+        <v>774</v>
+      </c>
+      <c r="D3" s="119"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
@@ -9793,9 +9909,9 @@
       <c r="C4" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -9807,9 +9923,9 @@
       <c r="C5" s="21" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
     </row>
     <row r="6" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
@@ -9821,9 +9937,9 @@
       <c r="C6" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
     </row>
     <row r="7" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
@@ -9835,9 +9951,9 @@
       <c r="C7" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
@@ -9849,9 +9965,9 @@
       <c r="C8" s="77" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
@@ -9863,9 +9979,9 @@
       <c r="C9" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
     </row>
     <row r="10" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
@@ -9875,9 +9991,9 @@
       <c r="C10" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="94" t="s">
@@ -9889,9 +10005,9 @@
       <c r="C11" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="D11" s="127"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="s">
@@ -9901,11 +10017,11 @@
         <v>455</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>776</v>
-      </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
+        <v>775</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
@@ -9915,9 +10031,9 @@
         <v>463</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="94" t="s">
@@ -9929,9 +10045,9 @@
       <c r="C14" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
@@ -9943,9 +10059,9 @@
       <c r="C15" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="127"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
@@ -9957,9 +10073,9 @@
       <c r="C16" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
@@ -9971,9 +10087,9 @@
       <c r="C17" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="D17" s="127"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
     </row>
     <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A18" s="94" t="s">
@@ -9983,11 +10099,11 @@
         <v>455</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>777</v>
-      </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
+        <v>776</v>
+      </c>
+      <c r="D18" s="119"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="94" t="s">
@@ -9999,9 +10115,9 @@
       <c r="C19" s="21" t="s">
         <v>488</v>
       </c>
-      <c r="D19" s="127"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
@@ -10013,9 +10129,9 @@
       <c r="C20" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
     </row>
     <row r="21" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="s">
@@ -10027,9 +10143,9 @@
       <c r="C21" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="D21" s="127"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
     </row>
     <row r="22" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="94" t="s">
@@ -10041,9 +10157,9 @@
       <c r="C22" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="D22" s="127"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="74"/>
@@ -10069,13 +10185,13 @@
       <c r="C25" s="80" t="s">
         <v>497</v>
       </c>
-      <c r="D25" s="127" t="s">
+      <c r="D25" s="119" t="s">
         <v>498</v>
       </c>
-      <c r="E25" s="128" t="s">
+      <c r="E25" s="118" t="s">
         <v>499</v>
       </c>
-      <c r="F25" s="128" t="s">
+      <c r="F25" s="118" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10089,9 +10205,9 @@
       <c r="C26" s="80" t="s">
         <v>502</v>
       </c>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="128"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="118"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
@@ -10103,9 +10219,9 @@
       <c r="C27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="128"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="118"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -10117,9 +10233,9 @@
       <c r="C28" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="128"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="118"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
@@ -10131,9 +10247,9 @@
       <c r="C29" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="128"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="118"/>
     </row>
     <row r="30" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A30" s="99" t="s">
@@ -10145,9 +10261,9 @@
       <c r="C30" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="128"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="118"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
@@ -10159,9 +10275,9 @@
       <c r="C31" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="128"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="118"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -10173,9 +10289,9 @@
       <c r="C32" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="128"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="118"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
@@ -10187,9 +10303,9 @@
       <c r="C33" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="128"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="118"/>
     </row>
     <row r="34" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
@@ -10201,9 +10317,9 @@
       <c r="C34" s="67" t="s">
         <v>515</v>
       </c>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="128"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="118"/>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="94" t="s">
@@ -10215,9 +10331,9 @@
       <c r="C35" s="112" t="s">
         <v>518</v>
       </c>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="128"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="118"/>
       <c r="G35" s="83" t="s">
         <v>595</v>
       </c>
@@ -10232,9 +10348,9 @@
       <c r="C36" s="80" t="s">
         <v>520</v>
       </c>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="128"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="118"/>
       <c r="G36" s="19" t="s">
         <v>596</v>
       </c>
@@ -10249,9 +10365,9 @@
       <c r="C37" s="80" t="s">
         <v>523</v>
       </c>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="128"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="118"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="94" t="s">
@@ -10263,9 +10379,9 @@
       <c r="C38" s="80" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="128"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="118"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
@@ -10275,9 +10391,9 @@
         <v>463</v>
       </c>
       <c r="C39" s="80"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="128"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="118"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
@@ -10289,9 +10405,9 @@
       <c r="C40" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="128"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="118"/>
     </row>
     <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
@@ -10303,9 +10419,9 @@
       <c r="C41" s="67" t="s">
         <v>530</v>
       </c>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="128"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="118"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -10317,9 +10433,9 @@
       <c r="C42" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="128"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="119"/>
+      <c r="F42" s="118"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="90" t="s">
@@ -10341,13 +10457,13 @@
       <c r="C45" s="84" t="s">
         <v>536</v>
       </c>
-      <c r="D45" s="132" t="s">
+      <c r="D45" s="123" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="129" t="s">
+      <c r="E45" s="124" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="132" t="s">
+      <c r="F45" s="123" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10361,9 +10477,9 @@
       <c r="C46" s="71" t="s">
         <v>540</v>
       </c>
-      <c r="D46" s="133"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="133"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="121"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="26" t="s">
@@ -10375,9 +10491,9 @@
       <c r="C47" s="71" t="s">
         <v>542</v>
       </c>
-      <c r="D47" s="133"/>
-      <c r="E47" s="130"/>
-      <c r="F47" s="133"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="121"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="26" t="s">
@@ -10387,9 +10503,9 @@
         <v>532</v>
       </c>
       <c r="C48" s="71"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="133"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="121"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="26" t="s">
@@ -10401,9 +10517,9 @@
       <c r="C49" s="71" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="133"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="133"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="121"/>
     </row>
     <row r="50" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A50" s="26" t="s">
@@ -10415,9 +10531,9 @@
       <c r="C50" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="D50" s="133"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="133"/>
+      <c r="D50" s="121"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="121"/>
     </row>
     <row r="51" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
@@ -10429,9 +10545,9 @@
       <c r="C51" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="D51" s="133"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="133"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="121"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
@@ -10441,9 +10557,9 @@
         <v>455</v>
       </c>
       <c r="C52" s="71"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="133"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="121"/>
     </row>
     <row r="53" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
@@ -10455,9 +10571,9 @@
       <c r="C53" s="84" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="133"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="133"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="121"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
@@ -10467,9 +10583,9 @@
         <v>455</v>
       </c>
       <c r="C54" s="71"/>
-      <c r="D54" s="133"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="133"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="121"/>
     </row>
     <row r="55" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
@@ -10479,11 +10595,11 @@
         <v>455</v>
       </c>
       <c r="C55" s="85" t="s">
-        <v>778</v>
-      </c>
-      <c r="D55" s="134"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="134"/>
+        <v>777</v>
+      </c>
+      <c r="D55" s="122"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="122"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="90"/>
@@ -10503,11 +10619,11 @@
       <c r="C57" s="67" t="s">
         <v>556</v>
       </c>
-      <c r="D57" s="127" t="s">
+      <c r="D57" s="119" t="s">
         <v>557</v>
       </c>
-      <c r="E57" s="136"/>
-      <c r="F57" s="132" t="s">
+      <c r="E57" s="127"/>
+      <c r="F57" s="123" t="s">
         <v>558</v>
       </c>
     </row>
@@ -10521,9 +10637,9 @@
       <c r="C58" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="D58" s="127"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="133"/>
+      <c r="D58" s="119"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="121"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="26" t="s">
@@ -10535,9 +10651,9 @@
       <c r="C59" s="21" t="s">
         <v>562</v>
       </c>
-      <c r="D59" s="127"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="133"/>
+      <c r="D59" s="119"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="121"/>
     </row>
     <row r="60" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
@@ -10549,9 +10665,9 @@
       <c r="C60" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D60" s="127"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="133"/>
+      <c r="D60" s="119"/>
+      <c r="E60" s="127"/>
+      <c r="F60" s="121"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
@@ -10563,9 +10679,9 @@
       <c r="C61" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D61" s="127"/>
-      <c r="E61" s="136"/>
-      <c r="F61" s="133"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="121"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="26" t="s">
@@ -10577,9 +10693,9 @@
       <c r="C62" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D62" s="127"/>
-      <c r="E62" s="136"/>
-      <c r="F62" s="134"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="122"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="90"/>
@@ -10599,13 +10715,13 @@
       <c r="C64" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D64" s="127" t="s">
+      <c r="D64" s="119" t="s">
         <v>569</v>
       </c>
-      <c r="E64" s="128" t="s">
+      <c r="E64" s="118" t="s">
         <v>570</v>
       </c>
-      <c r="F64" s="128" t="s">
+      <c r="F64" s="118" t="s">
         <v>571</v>
       </c>
     </row>
@@ -10619,9 +10735,9 @@
       <c r="C65" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D65" s="127"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="26" t="s">
@@ -10633,9 +10749,9 @@
       <c r="C66" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D66" s="127"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
+      <c r="D66" s="119"/>
+      <c r="E66" s="119"/>
+      <c r="F66" s="119"/>
     </row>
     <row r="67" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
@@ -10645,11 +10761,11 @@
         <v>455</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>779</v>
-      </c>
-      <c r="D67" s="127"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="127"/>
+        <v>778</v>
+      </c>
+      <c r="D67" s="119"/>
+      <c r="E67" s="119"/>
+      <c r="F67" s="119"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
@@ -10661,9 +10777,9 @@
       <c r="C68" s="21" t="s">
         <v>523</v>
       </c>
-      <c r="D68" s="127"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="127"/>
+      <c r="D68" s="119"/>
+      <c r="E68" s="119"/>
+      <c r="F68" s="119"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="90"/>
@@ -10679,13 +10795,13 @@
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="129" t="s">
+      <c r="D70" s="124" t="s">
         <v>576</v>
       </c>
-      <c r="E70" s="129" t="s">
+      <c r="E70" s="124" t="s">
         <v>577</v>
       </c>
-      <c r="F70" s="132" t="s">
+      <c r="F70" s="123" t="s">
         <v>578</v>
       </c>
     </row>
@@ -10695,9 +10811,9 @@
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="130"/>
-      <c r="F71" s="133"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="121"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="26" t="s">
@@ -10705,9 +10821,9 @@
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="130"/>
-      <c r="E72" s="130"/>
-      <c r="F72" s="133"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="125"/>
+      <c r="F72" s="121"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="26" t="s">
@@ -10715,17 +10831,17 @@
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="131"/>
-      <c r="E73" s="131"/>
-      <c r="F73" s="134"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="122"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="124"/>
-      <c r="B74" s="125"/>
-      <c r="C74" s="125"/>
-      <c r="D74" s="125"/>
-      <c r="E74" s="125"/>
-      <c r="F74" s="126"/>
+      <c r="A74" s="128"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="129"/>
+      <c r="E74" s="129"/>
+      <c r="F74" s="130"/>
     </row>
     <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="99" t="s">
@@ -10737,11 +10853,11 @@
       <c r="C75" s="86" t="s">
         <v>547</v>
       </c>
-      <c r="D75" s="127"/>
-      <c r="E75" s="128" t="s">
+      <c r="D75" s="119"/>
+      <c r="E75" s="118" t="s">
         <v>583</v>
       </c>
-      <c r="F75" s="127" t="s">
+      <c r="F75" s="119" t="s">
         <v>584</v>
       </c>
     </row>
@@ -10755,9 +10871,9 @@
       <c r="C76" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D76" s="127"/>
-      <c r="E76" s="127"/>
-      <c r="F76" s="127"/>
+      <c r="D76" s="119"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="119"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="26" t="s">
@@ -10769,9 +10885,9 @@
       <c r="C77" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="D77" s="127"/>
-      <c r="E77" s="127"/>
-      <c r="F77" s="127"/>
+      <c r="D77" s="119"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="119"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="26" t="s">
@@ -10783,9 +10899,9 @@
       <c r="C78" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="D78" s="127"/>
-      <c r="E78" s="127"/>
-      <c r="F78" s="127"/>
+      <c r="D78" s="119"/>
+      <c r="E78" s="119"/>
+      <c r="F78" s="119"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="99" t="s">
@@ -10797,19 +10913,19 @@
       <c r="C79" s="86" t="s">
         <v>592</v>
       </c>
-      <c r="D79" s="127"/>
-      <c r="E79" s="127"/>
-      <c r="F79" s="127"/>
+      <c r="D79" s="119"/>
+      <c r="E79" s="119"/>
+      <c r="F79" s="119"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>455</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29"/>
@@ -10830,10 +10946,10 @@
     </row>
     <row r="85" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A85" s="100" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26" t="s">
         <v>641</v>
       </c>
@@ -10843,13 +10959,13 @@
       <c r="C86" s="21" t="s">
         <v>643</v>
       </c>
-      <c r="D86" s="122" t="s">
+      <c r="D86" s="116" t="s">
         <v>569</v>
       </c>
-      <c r="E86" s="128" t="s">
-        <v>652</v>
-      </c>
-      <c r="F86" s="122" t="s">
+      <c r="E86" s="116" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F86" s="116" t="s">
         <v>458</v>
       </c>
     </row>
@@ -10863,9 +10979,9 @@
       <c r="C87" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="D87" s="122"/>
-      <c r="E87" s="128"/>
-      <c r="F87" s="122"/>
+      <c r="D87" s="116"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="116"/>
     </row>
     <row r="88" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="26" t="s">
@@ -10875,11 +10991,11 @@
         <v>463</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>657</v>
-      </c>
-      <c r="D88" s="122"/>
-      <c r="E88" s="128"/>
-      <c r="F88" s="122"/>
+        <v>656</v>
+      </c>
+      <c r="D88" s="116"/>
+      <c r="E88" s="116"/>
+      <c r="F88" s="116"/>
     </row>
     <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="26" t="s">
@@ -10889,11 +11005,11 @@
         <v>463</v>
       </c>
       <c r="C89" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="D89" s="122"/>
-      <c r="E89" s="128"/>
-      <c r="F89" s="122"/>
+        <v>658</v>
+      </c>
+      <c r="D89" s="116"/>
+      <c r="E89" s="116"/>
+      <c r="F89" s="116"/>
     </row>
     <row r="90" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
@@ -10903,11 +11019,11 @@
         <v>455</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>660</v>
-      </c>
-      <c r="D90" s="122"/>
-      <c r="E90" s="128"/>
-      <c r="F90" s="122"/>
+        <v>659</v>
+      </c>
+      <c r="D90" s="116"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
     </row>
     <row r="91" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="26" t="s">
@@ -10917,11 +11033,11 @@
         <v>463</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>656</v>
-      </c>
-      <c r="D91" s="122"/>
-      <c r="E91" s="128"/>
-      <c r="F91" s="122"/>
+        <v>655</v>
+      </c>
+      <c r="D91" s="116"/>
+      <c r="E91" s="116"/>
+      <c r="F91" s="116"/>
     </row>
     <row r="92" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="26" t="s">
@@ -10931,11 +11047,11 @@
         <v>463</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>661</v>
-      </c>
-      <c r="D92" s="122"/>
-      <c r="E92" s="128"/>
-      <c r="F92" s="122"/>
+        <v>660</v>
+      </c>
+      <c r="D92" s="116"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="116"/>
     </row>
     <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
@@ -10945,148 +11061,148 @@
         <v>455</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>658</v>
-      </c>
-      <c r="D93" s="122"/>
-      <c r="E93" s="128"/>
-      <c r="F93" s="122"/>
+        <v>657</v>
+      </c>
+      <c r="D93" s="116"/>
+      <c r="E93" s="116"/>
+      <c r="F93" s="116"/>
     </row>
     <row r="95" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A95" s="100" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="26" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C96" s="21"/>
-      <c r="D96" s="122" t="s">
+      <c r="D96" s="153" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E96" s="116" t="s">
         <v>808</v>
       </c>
-      <c r="E96" s="122" t="s">
-        <v>809</v>
-      </c>
-      <c r="F96" s="122" t="s">
-        <v>812</v>
+      <c r="F96" s="116" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A97" s="26" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B97" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>813</v>
-      </c>
-      <c r="D97" s="122"/>
-      <c r="E97" s="122"/>
-      <c r="F97" s="122"/>
+        <v>812</v>
+      </c>
+      <c r="D97" s="153"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="116"/>
     </row>
     <row r="98" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A98" s="86" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B98" s="86" t="s">
         <v>463</v>
       </c>
       <c r="C98" s="86" t="s">
-        <v>706</v>
-      </c>
-      <c r="D98" s="122"/>
-      <c r="E98" s="122"/>
-      <c r="F98" s="122"/>
+        <v>705</v>
+      </c>
+      <c r="D98" s="153"/>
+      <c r="E98" s="116"/>
+      <c r="F98" s="116"/>
     </row>
     <row r="99" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A99" s="26" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B99" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>815</v>
-      </c>
-      <c r="D99" s="122"/>
-      <c r="E99" s="122"/>
-      <c r="F99" s="122"/>
+        <v>814</v>
+      </c>
+      <c r="D99" s="153"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
     </row>
     <row r="100" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="26" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B100" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>887</v>
-      </c>
-      <c r="D100" s="122"/>
-      <c r="E100" s="122"/>
-      <c r="F100" s="122"/>
+        <v>886</v>
+      </c>
+      <c r="D100" s="153"/>
+      <c r="E100" s="116"/>
+      <c r="F100" s="116"/>
     </row>
     <row r="101" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B101" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>816</v>
-      </c>
-      <c r="D101" s="122"/>
-      <c r="E101" s="122"/>
-      <c r="F101" s="122"/>
+        <v>815</v>
+      </c>
+      <c r="D101" s="153"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="116"/>
     </row>
     <row r="102" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B102" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C102" s="79" t="s">
-        <v>817</v>
-      </c>
-      <c r="D102" s="122"/>
-      <c r="E102" s="122"/>
-      <c r="F102" s="122"/>
+        <v>816</v>
+      </c>
+      <c r="D102" s="153"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="116"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="26" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B103" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C103" s="21"/>
-      <c r="D103" s="122"/>
-      <c r="E103" s="122"/>
-      <c r="F103" s="122"/>
+      <c r="D103" s="153"/>
+      <c r="E103" s="116"/>
+      <c r="F103" s="116"/>
     </row>
     <row r="104" spans="1:6" ht="87.5" x14ac:dyDescent="0.25">
       <c r="A104" s="86" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B104" s="86" t="s">
         <v>463</v>
       </c>
       <c r="C104" s="86" t="s">
-        <v>888</v>
-      </c>
-      <c r="D104" s="122"/>
-      <c r="E104" s="122"/>
-      <c r="F104" s="122"/>
+        <v>887</v>
+      </c>
+      <c r="D104" s="153"/>
+      <c r="E104" s="116"/>
+      <c r="F104" s="116"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="26" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B105" s="21" t="s">
         <v>463</v>
@@ -11094,657 +11210,747 @@
       <c r="C105" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D105" s="122"/>
-      <c r="E105" s="122"/>
-      <c r="F105" s="122"/>
+      <c r="D105" s="153"/>
+      <c r="E105" s="116"/>
+      <c r="F105" s="116"/>
     </row>
     <row r="106" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A106" s="94" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B106" s="111" t="s">
         <v>517</v>
       </c>
       <c r="C106" s="94" t="s">
-        <v>820</v>
-      </c>
-      <c r="D106" s="122"/>
-      <c r="E106" s="122"/>
-      <c r="F106" s="122"/>
+        <v>819</v>
+      </c>
+      <c r="D106" s="153"/>
+      <c r="E106" s="116"/>
+      <c r="F106" s="116"/>
     </row>
     <row r="107" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A107" s="86" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B107" s="86" t="s">
         <v>517</v>
       </c>
       <c r="C107" s="86" t="s">
-        <v>821</v>
-      </c>
-      <c r="D107" s="122"/>
-      <c r="E107" s="122"/>
-      <c r="F107" s="122"/>
-    </row>
-    <row r="108" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+      <c r="D107" s="153"/>
+      <c r="E107" s="116"/>
+      <c r="F107" s="116"/>
+    </row>
+    <row r="108" spans="1:6" ht="125" x14ac:dyDescent="0.25">
       <c r="A108" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B108" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>822</v>
-      </c>
-      <c r="D108" s="122"/>
-      <c r="E108" s="122"/>
-      <c r="F108" s="122"/>
+        <v>821</v>
+      </c>
+      <c r="D108" s="153"/>
+      <c r="E108" s="116"/>
+      <c r="F108" s="116"/>
     </row>
     <row r="109" spans="1:6" ht="249.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="86" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B109" s="86" t="s">
         <v>517</v>
       </c>
       <c r="C109" s="86" t="s">
-        <v>823</v>
-      </c>
-      <c r="D109" s="122"/>
-      <c r="E109" s="122"/>
-      <c r="F109" s="122"/>
+        <v>822</v>
+      </c>
+      <c r="D109" s="153"/>
+      <c r="E109" s="116"/>
+      <c r="F109" s="116"/>
     </row>
     <row r="110" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A110" s="26" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B110" s="21" t="s">
         <v>517</v>
       </c>
       <c r="C110" s="88" t="s">
-        <v>921</v>
-      </c>
-      <c r="D110" s="122"/>
-      <c r="E110" s="122"/>
-      <c r="F110" s="122"/>
+        <v>920</v>
+      </c>
+      <c r="D110" s="153"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="116"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B111" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C111" s="21"/>
-      <c r="D111" s="122"/>
-      <c r="E111" s="122"/>
-      <c r="F111" s="122"/>
+      <c r="D111" s="153"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="116"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="26" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B112" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C112" s="21"/>
-      <c r="D112" s="122"/>
-      <c r="E112" s="122"/>
-      <c r="F112" s="122"/>
+      <c r="D112" s="153"/>
+      <c r="E112" s="116"/>
+      <c r="F112" s="116"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="26" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B113" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C113" s="21"/>
-      <c r="D113" s="122"/>
-      <c r="E113" s="122"/>
-      <c r="F113" s="122"/>
+      <c r="D113" s="153"/>
+      <c r="E113" s="116"/>
+      <c r="F113" s="116"/>
     </row>
     <row r="114" spans="1:6" ht="128.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="86" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B114" s="86" t="s">
         <v>463</v>
       </c>
       <c r="C114" s="86" t="s">
-        <v>824</v>
-      </c>
-      <c r="D114" s="122"/>
-      <c r="E114" s="122"/>
-      <c r="F114" s="122"/>
+        <v>823</v>
+      </c>
+      <c r="D114" s="153"/>
+      <c r="E114" s="116"/>
+      <c r="F114" s="116"/>
     </row>
     <row r="116" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A116" s="100" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="26" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B117" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C117" s="95" t="s">
-        <v>902</v>
-      </c>
-      <c r="D117" s="122" t="s">
-        <v>808</v>
-      </c>
-      <c r="E117" s="123">
+        <v>901</v>
+      </c>
+      <c r="D117" s="116" t="s">
+        <v>807</v>
+      </c>
+      <c r="E117" s="117">
         <v>45194</v>
       </c>
-      <c r="F117" s="122" t="s">
-        <v>812</v>
+      <c r="F117" s="116" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="26" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B118" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C118" s="95" t="s">
-        <v>902</v>
-      </c>
-      <c r="D118" s="122"/>
-      <c r="E118" s="122"/>
-      <c r="F118" s="122"/>
+        <v>901</v>
+      </c>
+      <c r="D118" s="116"/>
+      <c r="E118" s="116"/>
+      <c r="F118" s="116"/>
     </row>
     <row r="119" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A119" s="26" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B119" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C119" s="95" t="s">
-        <v>902</v>
-      </c>
-      <c r="D119" s="122"/>
-      <c r="E119" s="122"/>
-      <c r="F119" s="122"/>
+        <v>901</v>
+      </c>
+      <c r="D119" s="116"/>
+      <c r="E119" s="116"/>
+      <c r="F119" s="116"/>
     </row>
     <row r="120" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B120" s="21" t="s">
         <v>517</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>904</v>
-      </c>
-      <c r="D120" s="122"/>
-      <c r="E120" s="122"/>
-      <c r="F120" s="122"/>
+        <v>903</v>
+      </c>
+      <c r="D120" s="116"/>
+      <c r="E120" s="116"/>
+      <c r="F120" s="116"/>
     </row>
     <row r="121" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="73" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B121" s="74" t="s">
         <v>463</v>
       </c>
       <c r="C121" s="73" t="s">
-        <v>906</v>
-      </c>
-      <c r="D121" s="122"/>
-      <c r="E121" s="122"/>
-      <c r="F121" s="122"/>
+        <v>905</v>
+      </c>
+      <c r="D121" s="116"/>
+      <c r="E121" s="116"/>
+      <c r="F121" s="116"/>
     </row>
     <row r="122" spans="1:6" ht="186.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B122" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C122" s="88" t="s">
-        <v>908</v>
-      </c>
-      <c r="D122" s="122"/>
-      <c r="E122" s="122"/>
-      <c r="F122" s="122"/>
+        <v>907</v>
+      </c>
+      <c r="D122" s="116"/>
+      <c r="E122" s="116"/>
+      <c r="F122" s="116"/>
     </row>
     <row r="123" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B123" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>922</v>
-      </c>
-      <c r="D123" s="122"/>
-      <c r="E123" s="122"/>
-      <c r="F123" s="122"/>
+        <v>921</v>
+      </c>
+      <c r="D123" s="116"/>
+      <c r="E123" s="116"/>
+      <c r="F123" s="116"/>
     </row>
     <row r="124" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B124" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>911</v>
-      </c>
-      <c r="D124" s="122"/>
-      <c r="E124" s="122"/>
-      <c r="F124" s="122"/>
+        <v>910</v>
+      </c>
+      <c r="D124" s="116"/>
+      <c r="E124" s="116"/>
+      <c r="F124" s="116"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C125" s="21"/>
-      <c r="D125" s="122"/>
-      <c r="E125" s="122"/>
-      <c r="F125" s="122"/>
+      <c r="D125" s="116"/>
+      <c r="E125" s="116"/>
+      <c r="F125" s="116"/>
     </row>
     <row r="127" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A127" s="100" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B128" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>931</v>
-      </c>
-      <c r="D128" s="116" t="s">
+        <v>930</v>
+      </c>
+      <c r="D128" s="131" t="s">
         <v>569</v>
       </c>
-      <c r="E128" s="119">
+      <c r="E128" s="134">
         <v>45203</v>
       </c>
-      <c r="F128" s="116" t="s">
-        <v>812</v>
+      <c r="F128" s="131" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="137.5" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B129" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C129" s="88" t="s">
-        <v>932</v>
-      </c>
-      <c r="D129" s="117"/>
-      <c r="E129" s="120"/>
-      <c r="F129" s="117"/>
+        <v>931</v>
+      </c>
+      <c r="D129" s="132"/>
+      <c r="E129" s="135"/>
+      <c r="F129" s="132"/>
     </row>
     <row r="130" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A130" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B130" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C130" s="95" t="s">
-        <v>902</v>
-      </c>
-      <c r="D130" s="117"/>
-      <c r="E130" s="120"/>
-      <c r="F130" s="117"/>
+        <v>901</v>
+      </c>
+      <c r="D130" s="132"/>
+      <c r="E130" s="135"/>
+      <c r="F130" s="132"/>
     </row>
     <row r="131" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A131" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B131" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C131" s="95" t="s">
-        <v>902</v>
-      </c>
-      <c r="D131" s="117"/>
-      <c r="E131" s="120"/>
-      <c r="F131" s="117"/>
+        <v>901</v>
+      </c>
+      <c r="D131" s="132"/>
+      <c r="E131" s="135"/>
+      <c r="F131" s="132"/>
     </row>
     <row r="132" spans="1:6" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B132" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C132" s="113" t="s">
-        <v>946</v>
-      </c>
-      <c r="D132" s="117"/>
-      <c r="E132" s="120"/>
-      <c r="F132" s="117"/>
+        <v>945</v>
+      </c>
+      <c r="D132" s="132"/>
+      <c r="E132" s="135"/>
+      <c r="F132" s="132"/>
     </row>
     <row r="133" spans="1:6" ht="119.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B133" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>703</v>
-      </c>
-      <c r="D133" s="117"/>
-      <c r="E133" s="120"/>
-      <c r="F133" s="117"/>
+        <v>702</v>
+      </c>
+      <c r="D133" s="132"/>
+      <c r="E133" s="135"/>
+      <c r="F133" s="132"/>
     </row>
     <row r="134" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A134" s="26" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B134" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C134" s="95" t="s">
-        <v>902</v>
-      </c>
-      <c r="D134" s="117"/>
-      <c r="E134" s="120"/>
-      <c r="F134" s="117"/>
+        <v>901</v>
+      </c>
+      <c r="D134" s="132"/>
+      <c r="E134" s="135"/>
+      <c r="F134" s="132"/>
     </row>
     <row r="135" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A135" s="26" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B135" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C135" s="95" t="s">
-        <v>902</v>
-      </c>
-      <c r="D135" s="117"/>
-      <c r="E135" s="120"/>
-      <c r="F135" s="117"/>
+        <v>901</v>
+      </c>
+      <c r="D135" s="132"/>
+      <c r="E135" s="135"/>
+      <c r="F135" s="132"/>
     </row>
     <row r="136" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A136" s="26" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B136" s="21" t="s">
         <v>532</v>
       </c>
       <c r="C136" s="95" t="s">
-        <v>902</v>
-      </c>
-      <c r="D136" s="117"/>
-      <c r="E136" s="120"/>
-      <c r="F136" s="117"/>
+        <v>901</v>
+      </c>
+      <c r="D136" s="132"/>
+      <c r="E136" s="135"/>
+      <c r="F136" s="132"/>
     </row>
     <row r="137" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B137" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>934</v>
-      </c>
-      <c r="D137" s="117"/>
-      <c r="E137" s="120"/>
-      <c r="F137" s="117"/>
+        <v>933</v>
+      </c>
+      <c r="D137" s="132"/>
+      <c r="E137" s="135"/>
+      <c r="F137" s="132"/>
     </row>
     <row r="138" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="26" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B138" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C138" s="95" t="s">
-        <v>902</v>
-      </c>
-      <c r="D138" s="117"/>
-      <c r="E138" s="120"/>
-      <c r="F138" s="117"/>
+        <v>901</v>
+      </c>
+      <c r="D138" s="132"/>
+      <c r="E138" s="135"/>
+      <c r="F138" s="132"/>
     </row>
     <row r="139" spans="1:6" ht="146" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B139" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C139" s="113" t="s">
-        <v>930</v>
-      </c>
-      <c r="D139" s="117"/>
-      <c r="E139" s="120"/>
-      <c r="F139" s="117"/>
+        <v>929</v>
+      </c>
+      <c r="D139" s="132"/>
+      <c r="E139" s="135"/>
+      <c r="F139" s="132"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B140" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>935</v>
-      </c>
-      <c r="D140" s="117"/>
-      <c r="E140" s="120"/>
-      <c r="F140" s="117"/>
+        <v>934</v>
+      </c>
+      <c r="D140" s="132"/>
+      <c r="E140" s="135"/>
+      <c r="F140" s="132"/>
     </row>
     <row r="141" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A141" s="26" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B141" s="21" t="s">
         <v>517</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>938</v>
-      </c>
-      <c r="D141" s="117"/>
-      <c r="E141" s="120"/>
-      <c r="F141" s="117"/>
+        <v>937</v>
+      </c>
+      <c r="D141" s="132"/>
+      <c r="E141" s="135"/>
+      <c r="F141" s="132"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B142" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>945</v>
-      </c>
-      <c r="D142" s="118"/>
-      <c r="E142" s="121"/>
-      <c r="F142" s="118"/>
+        <v>944</v>
+      </c>
+      <c r="D142" s="133"/>
+      <c r="E142" s="136"/>
+      <c r="F142" s="133"/>
     </row>
     <row r="144" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A144" s="114" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="26" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B145" s="21" t="s">
         <v>455</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>950</v>
-      </c>
-      <c r="D145" s="122" t="s">
+        <v>949</v>
+      </c>
+      <c r="D145" s="116" t="s">
         <v>569</v>
       </c>
-      <c r="E145" s="123">
+      <c r="E145" s="117">
         <v>45204</v>
       </c>
-      <c r="F145" s="122" t="s">
-        <v>812</v>
+      <c r="F145" s="116" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="26" t="s">
+        <v>950</v>
+      </c>
+      <c r="B146" s="21" t="s">
         <v>951</v>
       </c>
-      <c r="B146" s="21" t="s">
+      <c r="C146" s="21" t="s">
         <v>952</v>
       </c>
-      <c r="C146" s="21" t="s">
-        <v>953</v>
-      </c>
-      <c r="D146" s="122"/>
-      <c r="E146" s="122"/>
-      <c r="F146" s="122"/>
+      <c r="D146" s="116"/>
+      <c r="E146" s="116"/>
+      <c r="F146" s="116"/>
     </row>
     <row r="147" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B147" s="21" t="s">
         <v>517</v>
       </c>
       <c r="C147" s="21"/>
-      <c r="D147" s="122"/>
-      <c r="E147" s="122"/>
-      <c r="F147" s="122"/>
+      <c r="D147" s="116"/>
+      <c r="E147" s="116"/>
+      <c r="F147" s="116"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
+        <v>954</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>951</v>
+      </c>
+      <c r="C148" s="21" t="s">
         <v>955</v>
       </c>
-      <c r="B148" s="21" t="s">
-        <v>952</v>
-      </c>
-      <c r="C148" s="21" t="s">
-        <v>956</v>
-      </c>
-      <c r="D148" s="122"/>
-      <c r="E148" s="122"/>
-      <c r="F148" s="122"/>
+      <c r="D148" s="116"/>
+      <c r="E148" s="116"/>
+      <c r="F148" s="116"/>
     </row>
     <row r="149" spans="1:6" ht="50" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>962</v>
-      </c>
-      <c r="D149" s="122"/>
-      <c r="E149" s="122"/>
-      <c r="F149" s="122"/>
+        <v>961</v>
+      </c>
+      <c r="D149" s="116"/>
+      <c r="E149" s="116"/>
+      <c r="F149" s="116"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C150" s="21"/>
-      <c r="D150" s="122"/>
-      <c r="E150" s="122"/>
-      <c r="F150" s="122"/>
+      <c r="D150" s="116"/>
+      <c r="E150" s="116"/>
+      <c r="F150" s="116"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
+        <v>958</v>
+      </c>
+      <c r="B151" s="21" t="s">
         <v>959</v>
       </c>
-      <c r="B151" s="21" t="s">
+      <c r="C151" s="21" t="s">
         <v>960</v>
       </c>
-      <c r="C151" s="21" t="s">
-        <v>961</v>
-      </c>
-      <c r="D151" s="122"/>
-      <c r="E151" s="122"/>
-      <c r="F151" s="122"/>
+      <c r="D151" s="116"/>
+      <c r="E151" s="116"/>
+      <c r="F151" s="116"/>
     </row>
     <row r="153" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A153" s="114" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="25" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
-        <v>978</v>
-      </c>
-      <c r="B154" s="21"/>
+        <v>977</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>994</v>
+      </c>
+      <c r="C154" s="26" t="s">
+        <v>995</v>
+      </c>
+      <c r="D154" s="131" t="s">
+        <v>999</v>
+      </c>
+      <c r="E154" s="134">
+        <v>45253</v>
+      </c>
+      <c r="F154" s="131" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="26" t="s">
-        <v>979</v>
-      </c>
-      <c r="B155" s="21"/>
+        <v>978</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>994</v>
+      </c>
+      <c r="C155" s="26" t="s">
+        <v>996</v>
+      </c>
+      <c r="D155" s="132"/>
+      <c r="E155" s="132"/>
+      <c r="F155" s="132"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="26" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B156" s="21"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="132"/>
+      <c r="E156" s="132"/>
+      <c r="F156" s="132"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="C157" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="D157" s="132"/>
+      <c r="E157" s="132"/>
+      <c r="F157" s="132"/>
+    </row>
+    <row r="158" spans="1:6" ht="25" x14ac:dyDescent="0.25">
+      <c r="A158" s="26" t="s">
         <v>981</v>
       </c>
-      <c r="B157" s="21"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="26" t="s">
-        <v>982</v>
-      </c>
-      <c r="B158" s="21"/>
+      <c r="B158" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C158" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="D158" s="132"/>
+      <c r="E158" s="132"/>
+      <c r="F158" s="132"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="26" t="s">
+        <v>982</v>
+      </c>
+      <c r="B159" s="21"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="132"/>
+      <c r="E159" s="132"/>
+      <c r="F159" s="132"/>
+    </row>
+    <row r="160" spans="1:6" ht="50" x14ac:dyDescent="0.25">
+      <c r="A160" s="26" t="s">
         <v>983</v>
       </c>
-      <c r="B159" s="21"/>
-    </row>
-    <row r="160" spans="1:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="A160" s="26" t="s">
+      <c r="B160" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C160" s="26" t="s">
+        <v>998</v>
+      </c>
+      <c r="D160" s="132"/>
+      <c r="E160" s="132"/>
+      <c r="F160" s="132"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="26" t="s">
         <v>984</v>
       </c>
-      <c r="B160" s="21"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="26" t="s">
+      <c r="B161" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C161" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="D161" s="132"/>
+      <c r="E161" s="132"/>
+      <c r="F161" s="132"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="26" t="s">
         <v>985</v>
       </c>
-      <c r="B161" s="21"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="26" t="s">
-        <v>986</v>
-      </c>
       <c r="B162" s="21"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="79" t="s">
-        <v>987</v>
+      <c r="C162" s="26"/>
+      <c r="D162" s="133"/>
+      <c r="E162" s="133"/>
+      <c r="F162" s="133"/>
+    </row>
+    <row r="164" spans="1:6" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="114" t="s">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="40">
+    <mergeCell ref="D154:D162"/>
+    <mergeCell ref="E154:E162"/>
+    <mergeCell ref="F154:F162"/>
+    <mergeCell ref="D128:D142"/>
+    <mergeCell ref="E128:E142"/>
+    <mergeCell ref="F128:F142"/>
+    <mergeCell ref="D117:D125"/>
+    <mergeCell ref="E117:E125"/>
+    <mergeCell ref="F117:F125"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="F75:F79"/>
+    <mergeCell ref="D96:D114"/>
+    <mergeCell ref="E96:E114"/>
+    <mergeCell ref="F96:F114"/>
+    <mergeCell ref="D86:D93"/>
+    <mergeCell ref="E86:E93"/>
+    <mergeCell ref="F86:F93"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F70:F73"/>
     <mergeCell ref="D145:D151"/>
     <mergeCell ref="E145:E151"/>
     <mergeCell ref="F145:F151"/>
@@ -11761,27 +11967,6 @@
     <mergeCell ref="E57:E62"/>
     <mergeCell ref="F57:F62"/>
     <mergeCell ref="D64:D68"/>
-    <mergeCell ref="E64:E68"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="F75:F79"/>
-    <mergeCell ref="D96:D114"/>
-    <mergeCell ref="E96:E114"/>
-    <mergeCell ref="F96:F114"/>
-    <mergeCell ref="D86:D93"/>
-    <mergeCell ref="E86:E93"/>
-    <mergeCell ref="F86:F93"/>
-    <mergeCell ref="D128:D142"/>
-    <mergeCell ref="E128:E142"/>
-    <mergeCell ref="F128:F142"/>
-    <mergeCell ref="D117:D125"/>
-    <mergeCell ref="E117:E125"/>
-    <mergeCell ref="F117:F125"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G35" r:id="rId1" display="https://www.stechies.com/pricing-procedure/" xr:uid="{9765D288-3CB9-4F22-BCBB-5452B93F42FD}"/>
@@ -11843,7 +12028,7 @@
   <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="74.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11858,28 +12043,28 @@
         <v>437</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>686</v>
-      </c>
-      <c r="B2" s="69" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>114</v>
@@ -11887,7 +12072,7 @@
     </row>
     <row r="5" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B5" s="67" t="s">
         <v>518</v>
@@ -11901,24 +12086,24 @@
     </row>
     <row r="6" spans="1:4" ht="88.5" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="B6" s="68" t="s">
         <v>693</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>694</v>
       </c>
       <c r="C6" s="50"/>
     </row>
     <row r="7" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>112</v>
@@ -11926,90 +12111,90 @@
     </row>
     <row r="9" spans="1:4" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>697</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="101" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>699</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="76" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>701</v>
       </c>
-      <c r="B11" s="26" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="101" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="113.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
-        <v>704</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="26" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>705</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.35">
       <c r="A14" s="26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>712</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A16" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>731</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A17" s="26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="63.5" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
+        <v>736</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>737</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -12404,7 +12589,7 @@
       <c r="A117" s="26"/>
       <c r="B117" s="26"/>
       <c r="D117" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E117" s="109">
         <v>45194</v>
@@ -12430,12 +12615,12 @@
       <c r="A122" s="26"/>
       <c r="B122" s="26"/>
       <c r="C122" s="98" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="26" x14ac:dyDescent="0.35">
       <c r="A123" s="26" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B123" s="26" t="s">
         <v>455</v>
@@ -12444,18 +12629,18 @@
     </row>
     <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B124" s="26" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B125" s="26" t="s">
         <v>455</v>
@@ -13610,8 +13795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5703F574-C88B-4291-BBA6-05D5382680CC}">
   <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13675,10 +13860,10 @@
         <v>162</v>
       </c>
       <c r="M2" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="N2" s="21" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -13707,10 +13892,10 @@
         <v>164</v>
       </c>
       <c r="M3" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="N3" s="21" t="s">
         <v>715</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -13733,13 +13918,13 @@
         <v>166</v>
       </c>
       <c r="M4" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="N4" s="21" t="s">
         <v>718</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="O4" s="21" t="s">
         <v>719</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="25" x14ac:dyDescent="0.25">
@@ -13785,7 +13970,7 @@
         <v>169</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -13808,10 +13993,10 @@
         <v>255</v>
       </c>
       <c r="M7" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="N7" s="21" t="s">
         <v>747</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -13834,10 +14019,10 @@
         <v>257</v>
       </c>
       <c r="M8" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="N8" s="21" t="s">
         <v>749</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -13850,13 +14035,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J10" s="70" t="s">
+        <v>652</v>
+      </c>
+      <c r="K10" s="70" t="s">
         <v>653</v>
       </c>
-      <c r="K10" s="70" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
         <v>9</v>
       </c>
@@ -13866,11 +14051,8 @@
       <c r="G11" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>655</v>
+      <c r="M11" s="24" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -13892,14 +14074,17 @@
       <c r="H12" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>972</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12" s="24" t="s">
+        <v>989</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>987</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="25" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>209</v>
       </c>
@@ -13919,10 +14104,16 @@
         <v>225</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>974</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>975</v>
+        <v>170</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>988</v>
+      </c>
+      <c r="N13" s="26" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -13933,10 +14124,10 @@
         <v>232</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -13946,13 +14137,27 @@
       <c r="H15" s="21" t="s">
         <v>227</v>
       </c>
+      <c r="J15" s="21" t="s">
+        <v>973</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J16" s="21" t="s">
+        <v>975</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="90" t="s">
+        <v>720</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>721</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>722</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>225</v>
@@ -13960,25 +14165,25 @@
     </row>
     <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>723</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>724</v>
-      </c>
       <c r="G18" s="21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J18" s="115" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -13989,48 +14194,48 @@
         <v>22</v>
       </c>
       <c r="D19" s="21" t="s">
+        <v>724</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>725</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>726</v>
-      </c>
       <c r="G19" s="21" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J19" s="21" t="s">
+        <v>916</v>
+      </c>
+      <c r="K19" s="21" t="s">
         <v>917</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="106" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>729</v>
-      </c>
       <c r="G20" s="21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J20" s="21" t="s">
+        <v>918</v>
+      </c>
+      <c r="K20" s="21" t="s">
         <v>919</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -14038,33 +14243,41 @@
         <v>638</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="90" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>990</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="90" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="B26" s="21" t="s">
         <v>940</v>
       </c>
-      <c r="B24" s="21" t="s">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="B27" s="21" t="s">
         <v>942</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D117" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E117" s="108">
         <v>45194</v>
@@ -14075,12 +14288,12 @@
       <c r="A122" s="26"/>
       <c r="B122" s="21"/>
       <c r="C122" s="88" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="62.5" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B123" s="21" t="s">
         <v>455</v>
@@ -14089,18 +14302,18 @@
     </row>
     <row r="124" spans="1:5" ht="250" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B124" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>455</v>
@@ -14400,10 +14613,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M12" s="21" t="s">
+        <v>888</v>
+      </c>
+      <c r="N12" s="21" t="s">
         <v>889</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -14518,10 +14731,10 @@
         <v>347</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G19" s="110" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -14532,16 +14745,16 @@
         <v>348</v>
       </c>
       <c r="D20" s="21" t="s">
+        <v>913</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>914</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>915</v>
-      </c>
       <c r="G20" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -14552,10 +14765,10 @@
         <v>350</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -14566,15 +14779,15 @@
         <v>352</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D117" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E117" s="108">
         <v>45194</v>
@@ -14585,12 +14798,12 @@
       <c r="A122" s="26"/>
       <c r="B122" s="21"/>
       <c r="C122" s="88" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B123" s="21" t="s">
         <v>455</v>
@@ -14599,18 +14812,18 @@
     </row>
     <row r="124" spans="1:5" ht="250" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B124" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>455</v>
@@ -15085,7 +15298,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D117" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E117" s="108">
         <v>45194</v>
@@ -15096,12 +15309,12 @@
       <c r="A122" s="26"/>
       <c r="B122" s="21"/>
       <c r="C122" s="88" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="50" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B123" s="21" t="s">
         <v>455</v>
@@ -15110,18 +15323,18 @@
     </row>
     <row r="124" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B124" s="21" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="25" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B125" s="21" t="s">
         <v>455</v>
@@ -15226,15 +15439,15 @@
     </row>
     <row r="10" spans="1:2" ht="70.5" x14ac:dyDescent="0.35">
       <c r="A10" s="63" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E117" s="107">
         <v>45194</v>
@@ -15245,12 +15458,12 @@
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="98" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>455</v>
@@ -15259,18 +15472,18 @@
     </row>
     <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>455</v>
@@ -15426,20 +15639,20 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -15672,7 +15885,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E117" s="107">
         <v>45194</v>
@@ -15683,12 +15896,12 @@
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="98" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>455</v>
@@ -15697,18 +15910,18 @@
     </row>
     <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>455</v>
@@ -15781,7 +15994,7 @@
     </row>
     <row r="8" spans="1:9" ht="144" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="147" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B8" s="147"/>
       <c r="C8" s="147"/>
@@ -15799,7 +16012,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="148" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -15814,7 +16027,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E117" s="107">
         <v>45194</v>
@@ -15825,12 +16038,12 @@
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
       <c r="C122" s="98" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>455</v>
@@ -15839,18 +16052,18 @@
     </row>
     <row r="124" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>463</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>455</v>

--- a/SAP/Notes/Notes.xlsx
+++ b/SAP/Notes/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\SAP\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F8376A-7149-4AC7-BDB5-E21B2321798F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3D01C3-44D7-4C98-9B27-8C90C55FD67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Managerial round" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="1020">
   <si>
     <t>Module</t>
   </si>
@@ -571,12 +571,6 @@
     <t>RD04</t>
   </si>
   <si>
-    <t>Mandates</t>
-  </si>
-  <si>
-    <t>Customer, Sales area, order type, material, qty</t>
-  </si>
-  <si>
     <t>E1EDK14- details like DC(007), Order type(012), Sales org(008), Division(006)</t>
   </si>
   <si>
@@ -618,9 +612,6 @@
   </si>
   <si>
     <t>WE21</t>
-  </si>
-  <si>
-    <t>Ports in Idoc processing</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -740,9 +731,6 @@
   </si>
   <si>
     <t>VV11/12/13</t>
-  </si>
-  <si>
-    <t>Output create/change/display</t>
   </si>
   <si>
     <t>VA01/VA02/VA03</t>
@@ -4097,9 +4085,6 @@
   </si>
   <si>
     <t>RSNAST00</t>
-  </si>
-  <si>
-    <t>VA71</t>
   </si>
   <si>
     <t>Process Sales order output</t>
@@ -5930,12 +5915,75 @@
   <si>
     <t>Sept 11, 2023</t>
   </si>
+  <si>
+    <t>WE81</t>
+  </si>
+  <si>
+    <t>Msg type creation</t>
+  </si>
+  <si>
+    <t>Ports creation in Idoc processing</t>
+  </si>
+  <si>
+    <t>OB Idoc configuration</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>WE31</t>
+  </si>
+  <si>
+    <t>Create segement</t>
+  </si>
+  <si>
+    <t>Create new idoc type/extension</t>
+  </si>
+  <si>
+    <t>Mapping message type with Idoc types</t>
+  </si>
+  <si>
+    <t>Create message type/logical message( can associate 1 MT with many idoc types)</t>
+  </si>
+  <si>
+    <t>Establish RFC connections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WE21 </t>
+  </si>
+  <si>
+    <t>Create Ports</t>
+  </si>
+  <si>
+    <t>Process codes</t>
+  </si>
+  <si>
+    <t>Partner profile creation</t>
+  </si>
+  <si>
+    <t>VA71/VA31F</t>
+  </si>
+  <si>
+    <t>VV21/22/23</t>
+  </si>
+  <si>
+    <t>Delivery create/change/display</t>
+  </si>
+  <si>
+    <t>VV31/32/33</t>
+  </si>
+  <si>
+    <t>Order create/change/display</t>
+  </si>
+  <si>
+    <t>Billing create/change/display</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6143,6 +6191,12 @@
       <color rgb="FF040C28"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -6462,7 +6516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6632,7 +6686,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6743,28 +6796,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6777,7 +6821,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6787,6 +6846,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
@@ -6854,9 +6916,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6892,8 +6951,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>406213</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>434975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6936,8 +6995,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>206376</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>134938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8152,61 +8211,61 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="195.5" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="138" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="149.5" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="126.5" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C7" s="55"/>
     </row>
@@ -8231,7 +8290,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -8246,49 +8305,49 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
-        <v>807</v>
-      </c>
-      <c r="E117" s="107">
+        <v>802</v>
+      </c>
+      <c r="E117" s="106">
         <v>45194</v>
       </c>
     </row>
@@ -8296,36 +8355,36 @@
     <row r="122" spans="1:5" ht="186.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4"/>
       <c r="B122" s="1"/>
-      <c r="C122" s="98" t="s">
-        <v>907</v>
+      <c r="C122" s="97" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C125" s="1"/>
     </row>
@@ -8346,134 +8405,134 @@
   <sheetFormatPr defaultRowHeight="110.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:22" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="147" t="s">
-        <v>597</v>
-      </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
+      <c r="A1" s="149" t="s">
+        <v>593</v>
+      </c>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
     </row>
     <row r="2" spans="1:22" ht="98" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="149" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
+      <c r="A2" s="151" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
     </row>
     <row r="3" spans="1:22" ht="260" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="150" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
+      <c r="A3" s="152" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
     </row>
     <row r="4" spans="1:22" ht="308.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="149" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
+      <c r="A4" s="151" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
+      <c r="R4" s="153"/>
+      <c r="S4" s="153"/>
+      <c r="T4" s="153"/>
+      <c r="U4" s="153"/>
+      <c r="V4" s="153"/>
     </row>
     <row r="5" spans="1:22" ht="409" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="150" t="s">
-        <v>248</v>
-      </c>
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="151"/>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="151"/>
-      <c r="T5" s="151"/>
-      <c r="U5" s="151"/>
-      <c r="V5" s="151"/>
+      <c r="A5" s="152" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8505,176 +8564,176 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>661</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>670</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>671</v>
+        <v>657</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>666</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
       <c r="B3" s="45" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="21" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
-      <c r="C5" s="74" t="s">
-        <v>674</v>
+      <c r="C5" s="73" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
-      <c r="B6" s="72" t="s">
-        <v>676</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>677</v>
+      <c r="B6" s="71" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="45" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="19"/>
       <c r="B14" s="45" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="62" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="71" t="s">
-        <v>661</v>
+      <c r="A17" s="70" t="s">
+        <v>657</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="19"/>
       <c r="B18" s="21" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
-      <c r="B19" s="74" t="s">
-        <v>758</v>
+      <c r="B19" s="73" t="s">
+        <v>753</v>
       </c>
       <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>112</v>
@@ -8683,7 +8742,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r